--- a/Digital_Dashboard.xlsx
+++ b/Digital_Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1499af024d6db2b2/Documents/1 - Business/0 - CGH Automotive Limited/13 - Renault Wiring Diagrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1499af024d6db2b2/Documents/1 - Business/0 - CGH Automotive Limited/9 - Products/8 - Digital Dash/ClioIVDigitalDash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7010" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E142510A-8B55-49AB-9A30-ECFCB0B8FB9F}"/>
+  <xr:revisionPtr revIDLastSave="7047" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93779E7C-4479-489C-9BF2-EC0E7A01A184}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLUSTER PINOUT" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="260">
   <si>
     <t>247 - INSTRUMENT CLUSTER</t>
   </si>
@@ -784,6 +784,42 @@
   </si>
   <si>
     <t>Process</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>AIRBG</t>
+  </si>
+  <si>
+    <t>/home/pi/startup.py</t>
+  </si>
+  <si>
+    <t>/home/pi/stop_fan.py</t>
+  </si>
+  <si>
+    <t>Fan on + drivers airbag light for 1 minute</t>
+  </si>
+  <si>
+    <t>STALK+</t>
+  </si>
+  <si>
+    <t>STALK-</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>HBRAKE</t>
   </si>
 </sst>
 </file>
@@ -793,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +928,17 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1740,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2351,54 +2398,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,20 +2500,26 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2499,13 +2561,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2516,12 +2571,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.14999847407452621"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2561,37 +2613,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF964B00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2621,37 +2643,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFBE79C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2681,37 +2673,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFA8072"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFA8072"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCA75FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2854,6 +2816,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>439080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3549B7A0-8B38-69EA-3B12-429DF4AFCC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13887450" y="2409825"/>
+          <a:ext cx="2086905" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3129,8 +3157,8 @@
   </sheetPr>
   <dimension ref="A2:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3476,7 +3504,9 @@
       <c r="H9" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="247" t="s">
+        <v>248</v>
+      </c>
       <c r="J9" s="18" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3562,9 @@
       <c r="H10" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="162"/>
+      <c r="I10" s="246" t="s">
+        <v>249</v>
+      </c>
       <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
@@ -3586,7 +3618,9 @@
       <c r="H11" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="249" t="s">
+        <v>45</v>
+      </c>
       <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
@@ -3642,7 +3676,9 @@
       <c r="H12" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="250" t="s">
+        <v>13</v>
+      </c>
       <c r="J12" s="18" t="s">
         <v>34</v>
       </c>
@@ -3696,7 +3732,9 @@
       <c r="H13" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="248" t="s">
+        <v>250</v>
+      </c>
       <c r="J13" s="18" t="s">
         <v>37</v>
       </c>
@@ -4290,7 +4328,9 @@
       <c r="H24" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="248" t="s">
+        <v>250</v>
+      </c>
       <c r="J24" s="18" t="s">
         <v>67</v>
       </c>
@@ -4581,35 +4621,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{55B23C20-D444-45B9-8BC2-8C602FD56EA5}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FFCA75FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="37" operator="containsText" id="{CA2D647E-5B04-43DC-8AED-CD7BE7B3B44C}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FFFA8072"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{5493C035-8B57-477C-8E2C-5E51FA9C95D6}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
@@ -4637,35 +4649,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{A745EFB1-886C-4D02-9A43-78E4B3EE2CA9}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{3AFDF6EC-9656-4817-AAA6-0B6EA8726E14}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{A615BBC6-CEBC-4269-B4F9-41F015815B40}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
@@ -4693,35 +4677,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{96CA911D-CDA4-4EAE-A8C4-5D4BD7530718}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="45" operator="containsText" id="{5491B646-1ED7-4A3F-8354-DE7B4E0C4CBD}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FFFBE79C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{D3AF367E-01F5-4166-B0D9-35403FA2A4D2}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
@@ -4749,20 +4705,6 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{082B7B3D-18A8-44E0-B520-B90BF6D6D847}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FF964B00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="49" operator="containsText" id="{7BAA399F-8206-4763-9B8C-3CCD6B01132B}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
             <xm:f>#REF!</xm:f>
@@ -4777,35 +4719,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{D3CD40E4-0BF8-4A21-914D-D6F89FD4230D}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="51" operator="containsText" id="{CCB5984B-D840-4E0B-B260-F921A691434B}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{7249EF3E-69C7-4C27-B92D-6E00C9EF0767}">
             <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
@@ -4847,21 +4761,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{91ECD822-4102-4E3C-8603-5AD14DBB8DF3}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,C1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor theme="1" tint="0.14999847407452621"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H1:I1048576 C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C1048576 H1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4876,8 +4776,8 @@
   </sheetPr>
   <dimension ref="B2:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5158,7 +5058,9 @@
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="84"/>
+      <c r="B9" s="84" t="s">
+        <v>251</v>
+      </c>
       <c r="C9" s="95" t="s">
         <v>103</v>
       </c>
@@ -5194,7 +5096,9 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="84"/>
+      <c r="B10" s="84" t="s">
+        <v>252</v>
+      </c>
       <c r="C10" s="95" t="s">
         <v>107</v>
       </c>
@@ -5230,7 +5134,9 @@
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="84"/>
+      <c r="B11" s="84" t="s">
+        <v>256</v>
+      </c>
       <c r="C11" s="95" t="s">
         <v>110</v>
       </c>
@@ -5243,7 +5149,9 @@
       <c r="F11" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="85"/>
+      <c r="G11" s="85" t="s">
+        <v>259</v>
+      </c>
       <c r="I11" s="136" t="s">
         <v>112</v>
       </c>
@@ -5278,7 +5186,9 @@
       <c r="F12" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="85"/>
+      <c r="G12" s="85" t="s">
+        <v>258</v>
+      </c>
       <c r="I12" s="171" t="s">
         <v>115</v>
       </c>
@@ -5587,7 +5497,9 @@
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="84"/>
+      <c r="B22" s="84" t="s">
+        <v>257</v>
+      </c>
       <c r="C22" s="95" t="s">
         <v>136</v>
       </c>
@@ -5957,6 +5869,7 @@
     <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5968,8 +5881,8 @@
   <dimension ref="B2:O68"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9:O12"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5985,14 +5898,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="225"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="229"/>
       <c r="I2" s="45" t="s">
         <v>145</v>
       </c>
@@ -6022,13 +5935,13 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="139"/>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="217"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="214"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="139">
@@ -6053,11 +5966,11 @@
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
       <c r="G6" s="140"/>
-      <c r="K6" s="212" t="s">
+      <c r="K6" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="212"/>
-      <c r="M6" s="212"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="230"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="139">
@@ -6070,11 +5983,11 @@
       <c r="E7" s="91"/>
       <c r="F7" s="91"/>
       <c r="G7" s="140"/>
-      <c r="K7" s="212" t="s">
+      <c r="K7" s="230" t="s">
         <v>157</v>
       </c>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="139">
@@ -6104,13 +6017,13 @@
       <c r="F9" s="91"/>
       <c r="G9" s="140"/>
       <c r="H9" s="2"/>
-      <c r="K9" s="244" t="s">
+      <c r="K9" s="225" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="225"/>
+      <c r="O9" s="225"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="139">
@@ -6124,11 +6037,11 @@
       <c r="F10" s="91"/>
       <c r="G10" s="140"/>
       <c r="H10" s="2"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="244"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="244"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="139">
@@ -6142,11 +6055,11 @@
       <c r="F11" s="91"/>
       <c r="G11" s="140"/>
       <c r="H11" s="2"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="244"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="139">
@@ -6160,11 +6073,11 @@
       <c r="F12" s="91"/>
       <c r="G12" s="140"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="245"/>
-      <c r="O12" s="245"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="139">
@@ -6178,11 +6091,11 @@
       <c r="F13" s="91"/>
       <c r="G13" s="140"/>
       <c r="H13" s="2"/>
-      <c r="K13" s="218" t="s">
+      <c r="K13" s="219" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
       <c r="N13" s="186" t="s">
         <v>166</v>
       </c>
@@ -6204,9 +6117,9 @@
         <v>169</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="243"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="222"/>
       <c r="O14" s="188" t="str">
         <f>"+ disable_splash=1"</f>
         <v>+ disable_splash=1</v>
@@ -6224,9 +6137,9 @@
       <c r="F15" s="91"/>
       <c r="G15" s="140"/>
       <c r="H15" s="2"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="243"/>
+      <c r="K15" s="221"/>
+      <c r="L15" s="222"/>
+      <c r="M15" s="222"/>
       <c r="O15" s="188" t="str">
         <f>"+logo.nologo"</f>
         <v>+logo.nologo</v>
@@ -6244,9 +6157,9 @@
       <c r="F16" s="91"/>
       <c r="G16" s="140"/>
       <c r="H16" s="2"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="243"/>
+      <c r="K16" s="221"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="222"/>
       <c r="O16" s="188" t="str">
         <f>"+consoleblank=0"</f>
         <v>+consoleblank=0</v>
@@ -6264,9 +6177,9 @@
       <c r="F17" s="91"/>
       <c r="G17" s="140"/>
       <c r="H17" s="2"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
       <c r="N17" s="189"/>
       <c r="O17" s="190" t="str">
         <f>"+loglevel=1 quiet"</f>
@@ -6311,6 +6224,12 @@
       <c r="F20" s="91"/>
       <c r="G20" s="140"/>
       <c r="H20" s="2"/>
+      <c r="K20" t="s">
+        <v>253</v>
+      </c>
+      <c r="O20" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="139">
@@ -6324,6 +6243,9 @@
       <c r="F21" s="91"/>
       <c r="G21" s="140"/>
       <c r="H21" s="2"/>
+      <c r="K21" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="139">
@@ -6440,23 +6362,23 @@
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="139"/>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="212" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="214"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="139">
         <v>1</v>
       </c>
-      <c r="C32" s="226" t="s">
+      <c r="C32" s="215" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="227"/>
+      <c r="D32" s="216"/>
       <c r="E32" s="91"/>
       <c r="F32" s="91"/>
       <c r="G32" s="140"/>
@@ -6466,10 +6388,10 @@
       <c r="B33" s="139">
         <v>2</v>
       </c>
-      <c r="C33" s="213" t="s">
+      <c r="C33" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="214"/>
+      <c r="D33" s="218"/>
       <c r="E33" s="91"/>
       <c r="F33" s="91"/>
       <c r="G33" s="140"/>
@@ -6479,10 +6401,10 @@
       <c r="B34" s="139">
         <v>3</v>
       </c>
-      <c r="C34" s="213" t="s">
+      <c r="C34" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="214"/>
+      <c r="D34" s="218"/>
       <c r="E34" s="91"/>
       <c r="F34" s="91"/>
       <c r="G34" s="140"/>
@@ -6492,10 +6414,10 @@
       <c r="B35" s="139">
         <v>4</v>
       </c>
-      <c r="C35" s="213" t="s">
+      <c r="C35" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="214"/>
+      <c r="D35" s="218"/>
       <c r="E35" s="91"/>
       <c r="F35" s="91"/>
       <c r="G35" s="140"/>
@@ -6505,10 +6427,10 @@
       <c r="B36" s="139">
         <v>5</v>
       </c>
-      <c r="C36" s="213" t="s">
+      <c r="C36" s="217" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="214"/>
+      <c r="D36" s="218"/>
       <c r="E36" s="91"/>
       <c r="F36" s="91"/>
       <c r="G36" s="140"/>
@@ -6518,10 +6440,10 @@
       <c r="B37" s="139">
         <v>6</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="217" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="214"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
       <c r="G37" s="140"/>
@@ -6531,10 +6453,10 @@
       <c r="B38" s="139">
         <v>7</v>
       </c>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="214"/>
+      <c r="D38" s="218"/>
       <c r="E38" s="91"/>
       <c r="F38" s="91"/>
       <c r="G38" s="140"/>
@@ -6544,10 +6466,10 @@
       <c r="B39" s="139">
         <v>8</v>
       </c>
-      <c r="C39" s="213" t="s">
+      <c r="C39" s="217" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="214"/>
+      <c r="D39" s="218"/>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
       <c r="G39" s="140"/>
@@ -6557,10 +6479,10 @@
       <c r="B40" s="139">
         <v>9</v>
       </c>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="217" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="214"/>
+      <c r="D40" s="218"/>
       <c r="E40" s="91"/>
       <c r="F40" s="91"/>
       <c r="G40" s="140"/>
@@ -6570,10 +6492,10 @@
       <c r="B41" s="139">
         <v>10</v>
       </c>
-      <c r="C41" s="213" t="s">
+      <c r="C41" s="217" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="214"/>
+      <c r="D41" s="218"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
       <c r="G41" s="140"/>
@@ -6583,10 +6505,10 @@
       <c r="B42" s="139">
         <v>11</v>
       </c>
-      <c r="C42" s="213" t="s">
+      <c r="C42" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="214"/>
+      <c r="D42" s="218"/>
       <c r="E42" s="91"/>
       <c r="F42" s="91"/>
       <c r="G42" s="140"/>
@@ -6596,10 +6518,10 @@
       <c r="B43" s="139">
         <v>12</v>
       </c>
-      <c r="C43" s="213" t="s">
+      <c r="C43" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="214"/>
+      <c r="D43" s="218"/>
       <c r="E43" s="91"/>
       <c r="F43" s="91"/>
       <c r="G43" s="140"/>
@@ -6609,10 +6531,10 @@
       <c r="B44" s="139">
         <v>13</v>
       </c>
-      <c r="C44" s="213" t="s">
+      <c r="C44" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="214"/>
+      <c r="D44" s="218"/>
       <c r="E44" s="91"/>
       <c r="F44" s="91"/>
       <c r="G44" s="140"/>
@@ -6622,10 +6544,10 @@
       <c r="B45" s="139">
         <v>14</v>
       </c>
-      <c r="C45" s="213" t="s">
+      <c r="C45" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="214"/>
+      <c r="D45" s="218"/>
       <c r="E45" s="91"/>
       <c r="F45" s="91"/>
       <c r="G45" s="140"/>
@@ -6635,10 +6557,10 @@
       <c r="B46" s="139">
         <v>15</v>
       </c>
-      <c r="C46" s="213" t="s">
+      <c r="C46" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="214"/>
+      <c r="D46" s="218"/>
       <c r="E46" s="91"/>
       <c r="F46" s="91"/>
       <c r="G46" s="140"/>
@@ -6648,8 +6570,8 @@
       <c r="B47" s="139">
         <v>16</v>
       </c>
-      <c r="C47" s="213"/>
-      <c r="D47" s="214"/>
+      <c r="C47" s="217"/>
+      <c r="D47" s="218"/>
       <c r="E47" s="91"/>
       <c r="F47" s="91"/>
       <c r="G47" s="140"/>
@@ -6659,8 +6581,8 @@
       <c r="B48" s="139">
         <v>17</v>
       </c>
-      <c r="C48" s="213"/>
-      <c r="D48" s="214"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="218"/>
       <c r="E48" s="91"/>
       <c r="F48" s="91"/>
       <c r="G48" s="140"/>
@@ -6677,13 +6599,13 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="139"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="D50" s="216"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="216"/>
-      <c r="G50" s="217"/>
+      <c r="D50" s="213"/>
+      <c r="E50" s="213"/>
+      <c r="F50" s="213"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8">
@@ -6942,16 +6864,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K13:M17"/>
-    <mergeCell ref="K9:O12"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:G4"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C50:G50"/>
@@ -6967,15 +6879,23 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K13:M17"/>
+    <mergeCell ref="K9:O12"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:F1048576 I1:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$I$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1048576 I1:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7871,35 +7791,35 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="231" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="234" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="237" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="240" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="240" t="s">
+      <c r="F4" s="243" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
-      <c r="B5" s="229"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="241"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="244"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
-      <c r="B6" s="230"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="242"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="245"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="51" t="s">

--- a/Digital_Dashboard.xlsx
+++ b/Digital_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1499af024d6db2b2/Documents/1 - Business/0 - CGH Automotive Limited/9 - Products/8 - Digital Dash/ClioIVDigitalDash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12168" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6954B3-09DD-44A1-AE26-CAA8EFD079D0}"/>
+  <xr:revisionPtr revIDLastSave="12170" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B107C01C-9039-42D9-A3DE-3366CEBE699C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="841" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="841" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLUSTER PINOUT" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1220">
   <si>
     <t>247 - INSTRUMENT CLUSTER</t>
   </si>
@@ -3715,6 +3715,9 @@
   </si>
   <si>
     <t>f8</t>
+  </si>
+  <si>
+    <t>PASSENGER AIRBAG LIGHT</t>
   </si>
 </sst>
 </file>
@@ -5115,7 +5118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6176,33 +6179,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6226,6 +6202,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6272,31 +6275,37 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6305,7 +6314,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6314,25 +6332,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6376,9 +6379,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6734,6 +6734,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10074,8 +10078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10787602-A079-4B75-875D-C870C7F2A1B8}">
   <dimension ref="A1:CE13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10105,7 +10109,7 @@
     <col min="84" max="16384" width="9.140625" style="174"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="118.5" customHeight="1">
+    <row r="1" spans="1:82" ht="155.25" customHeight="1">
       <c r="S1" s="284"/>
       <c r="T1" s="285"/>
       <c r="U1" s="285"/>
@@ -10125,7 +10129,9 @@
       <c r="AG1" s="285"/>
       <c r="AH1" s="285"/>
       <c r="AI1" s="284"/>
-      <c r="AJ1" s="285"/>
+      <c r="AJ1" s="285" t="s">
+        <v>1219</v>
+      </c>
       <c r="AK1" s="285"/>
       <c r="AL1" s="285"/>
       <c r="AM1" s="285"/>
@@ -16848,10 +16854,10 @@
     <row r="1" spans="1:82" ht="118.5" customHeight="1" thickBot="1">
       <c r="S1" s="284"/>
       <c r="T1" s="285"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
       <c r="Y1" s="285"/>
       <c r="Z1" s="285"/>
       <c r="AA1" s="284"/>
@@ -18806,7 +18812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E11DDC-71F7-4E04-9F6F-0167C4F7A9F3}">
   <dimension ref="A1:CE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -19702,14 +19708,14 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="381" t="s">
+      <c r="B2" s="386" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="383"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="388"/>
       <c r="I2" s="8" t="s">
         <v>154</v>
       </c>
@@ -19739,13 +19745,13 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="90"/>
-      <c r="C4" s="378" t="s">
+      <c r="C4" s="389" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="379"/>
-      <c r="E4" s="379"/>
-      <c r="F4" s="379"/>
-      <c r="G4" s="380"/>
+      <c r="D4" s="390"/>
+      <c r="E4" s="390"/>
+      <c r="F4" s="390"/>
+      <c r="G4" s="391"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="90">
@@ -19774,11 +19780,11 @@
         <v>154</v>
       </c>
       <c r="G6" s="91"/>
-      <c r="K6" s="386" t="s">
+      <c r="K6" s="394" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="386"/>
-      <c r="M6" s="386"/>
+      <c r="L6" s="394"/>
+      <c r="M6" s="394"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="90">
@@ -19793,11 +19799,11 @@
         <v>154</v>
       </c>
       <c r="G7" s="91"/>
-      <c r="K7" s="386" t="s">
+      <c r="K7" s="394" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="386"/>
-      <c r="M7" s="386"/>
+      <c r="L7" s="394"/>
+      <c r="M7" s="394"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="90">
@@ -19829,13 +19835,13 @@
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="2"/>
-      <c r="K9" s="393" t="s">
+      <c r="K9" s="384" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="393"/>
-      <c r="M9" s="393"/>
-      <c r="N9" s="393"/>
-      <c r="O9" s="393"/>
+      <c r="L9" s="384"/>
+      <c r="M9" s="384"/>
+      <c r="N9" s="384"/>
+      <c r="O9" s="384"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="90">
@@ -19851,11 +19857,11 @@
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="2"/>
-      <c r="K10" s="393"/>
-      <c r="L10" s="393"/>
-      <c r="M10" s="393"/>
-      <c r="N10" s="393"/>
-      <c r="O10" s="393"/>
+      <c r="K10" s="384"/>
+      <c r="L10" s="384"/>
+      <c r="M10" s="384"/>
+      <c r="N10" s="384"/>
+      <c r="O10" s="384"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="90">
@@ -19871,11 +19877,11 @@
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="2"/>
-      <c r="K11" s="393"/>
-      <c r="L11" s="393"/>
-      <c r="M11" s="393"/>
-      <c r="N11" s="393"/>
-      <c r="O11" s="393"/>
+      <c r="K11" s="384"/>
+      <c r="L11" s="384"/>
+      <c r="M11" s="384"/>
+      <c r="N11" s="384"/>
+      <c r="O11" s="384"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="90">
@@ -19891,11 +19897,11 @@
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="394"/>
-      <c r="N12" s="394"/>
-      <c r="O12" s="394"/>
+      <c r="K12" s="385"/>
+      <c r="L12" s="385"/>
+      <c r="M12" s="385"/>
+      <c r="N12" s="385"/>
+      <c r="O12" s="385"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="90">
@@ -19911,11 +19917,11 @@
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="2"/>
-      <c r="K13" s="387" t="s">
+      <c r="K13" s="378" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="388"/>
-      <c r="M13" s="388"/>
+      <c r="L13" s="379"/>
+      <c r="M13" s="379"/>
       <c r="N13" s="125" t="s">
         <v>175</v>
       </c>
@@ -19937,9 +19943,9 @@
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="2"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="390"/>
-      <c r="M14" s="390"/>
+      <c r="K14" s="380"/>
+      <c r="L14" s="381"/>
+      <c r="M14" s="381"/>
       <c r="O14" s="127" t="str">
         <f>"+ disable_splash=1"</f>
         <v>+ disable_splash=1</v>
@@ -19959,9 +19965,9 @@
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="2"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="390"/>
-      <c r="M15" s="390"/>
+      <c r="K15" s="380"/>
+      <c r="L15" s="381"/>
+      <c r="M15" s="381"/>
       <c r="O15" s="127" t="str">
         <f>"+logo.nologo"</f>
         <v>+logo.nologo</v>
@@ -19979,9 +19985,9 @@
       <c r="F16" s="42"/>
       <c r="G16" s="91"/>
       <c r="H16" s="2"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="390"/>
-      <c r="M16" s="390"/>
+      <c r="K16" s="380"/>
+      <c r="L16" s="381"/>
+      <c r="M16" s="381"/>
       <c r="O16" s="127" t="str">
         <f>"+consoleblank=0"</f>
         <v>+consoleblank=0</v>
@@ -20001,9 +20007,9 @@
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="2"/>
-      <c r="K17" s="391"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="392"/>
+      <c r="K17" s="382"/>
+      <c r="L17" s="383"/>
+      <c r="M17" s="383"/>
       <c r="N17" s="128"/>
       <c r="O17" s="129" t="str">
         <f>"+loglevel=1 quiet"</f>
@@ -20201,23 +20207,23 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="90"/>
-      <c r="C31" s="378" t="s">
+      <c r="C31" s="389" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="379"/>
-      <c r="F31" s="379"/>
-      <c r="G31" s="380"/>
+      <c r="D31" s="390"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="390"/>
+      <c r="G31" s="391"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="90">
         <v>1</v>
       </c>
-      <c r="C32" s="384" t="s">
+      <c r="C32" s="392" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="385"/>
+      <c r="D32" s="393"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="91"/>
@@ -20440,13 +20446,13 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="90"/>
-      <c r="C50" s="378" t="s">
+      <c r="C50" s="389" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="379"/>
-      <c r="E50" s="379"/>
-      <c r="F50" s="379"/>
-      <c r="G50" s="380"/>
+      <c r="D50" s="390"/>
+      <c r="E50" s="390"/>
+      <c r="F50" s="390"/>
+      <c r="G50" s="391"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8">
@@ -20833,17 +20839,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K13:M17"/>
-    <mergeCell ref="K9:O12"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C48:D48"/>
@@ -20858,8 +20853,19 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K13:M17"/>
+    <mergeCell ref="K9:O12"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I1048576 E1:F1048576">
+  <conditionalFormatting sqref="E1:F1048576 I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$I$3</formula>
     </cfRule>
@@ -21790,10 +21796,10 @@
       <c r="BF2" s="171"/>
     </row>
     <row r="3" spans="2:58">
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="414" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="426">
+      <c r="C3" s="420">
         <v>144</v>
       </c>
       <c r="D3" s="199" t="s">
@@ -21857,8 +21863,8 @@
       <c r="BF3" s="171"/>
     </row>
     <row r="4" spans="2:58">
-      <c r="B4" s="416"/>
-      <c r="C4" s="419"/>
+      <c r="B4" s="415"/>
+      <c r="C4" s="421"/>
       <c r="D4" s="132"/>
       <c r="E4" s="133" t="s">
         <v>294</v>
@@ -21898,8 +21904,8 @@
       <c r="BF4" s="171"/>
     </row>
     <row r="5" spans="2:58">
-      <c r="B5" s="416"/>
-      <c r="C5" s="419"/>
+      <c r="B5" s="415"/>
+      <c r="C5" s="421"/>
       <c r="D5" s="132"/>
       <c r="E5" s="133"/>
       <c r="F5" s="133" t="s">
@@ -21939,8 +21945,8 @@
       <c r="BF5" s="171"/>
     </row>
     <row r="6" spans="2:58">
-      <c r="B6" s="417"/>
-      <c r="C6" s="420"/>
+      <c r="B6" s="411"/>
+      <c r="C6" s="422"/>
       <c r="D6" s="136"/>
       <c r="E6" s="137"/>
       <c r="F6" s="137"/>
@@ -21981,10 +21987,10 @@
       <c r="BF6" s="171"/>
     </row>
     <row r="7" spans="2:58">
-      <c r="B7" s="415" t="s">
+      <c r="B7" s="410" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="418">
+      <c r="C7" s="423">
         <v>198</v>
       </c>
       <c r="D7" s="198">
@@ -22060,8 +22066,8 @@
       <c r="BF7" s="171"/>
     </row>
     <row r="8" spans="2:58">
-      <c r="B8" s="416"/>
-      <c r="C8" s="419"/>
+      <c r="B8" s="415"/>
+      <c r="C8" s="421"/>
       <c r="D8" s="132"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133" t="s">
@@ -22102,8 +22108,8 @@
       <c r="BF8" s="171"/>
     </row>
     <row r="9" spans="2:58">
-      <c r="B9" s="416"/>
-      <c r="C9" s="419"/>
+      <c r="B9" s="415"/>
+      <c r="C9" s="421"/>
       <c r="D9" s="132"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
@@ -22144,8 +22150,8 @@
       <c r="BF9" s="171"/>
     </row>
     <row r="10" spans="2:58">
-      <c r="B10" s="416"/>
-      <c r="C10" s="419">
+      <c r="B10" s="415"/>
+      <c r="C10" s="421">
         <v>0</v>
       </c>
       <c r="D10" s="212"/>
@@ -22194,8 +22200,8 @@
       <c r="BF10" s="171"/>
     </row>
     <row r="11" spans="2:58">
-      <c r="B11" s="416"/>
-      <c r="C11" s="419"/>
+      <c r="B11" s="415"/>
+      <c r="C11" s="421"/>
       <c r="D11" s="132"/>
       <c r="E11" s="133"/>
       <c r="F11" s="133"/>
@@ -22236,8 +22242,8 @@
       <c r="BF11" s="171"/>
     </row>
     <row r="12" spans="2:58">
-      <c r="B12" s="417"/>
-      <c r="C12" s="420"/>
+      <c r="B12" s="411"/>
+      <c r="C12" s="422"/>
       <c r="D12" s="143"/>
       <c r="E12" s="144"/>
       <c r="F12" s="144"/>
@@ -22278,10 +22284,10 @@
       <c r="BF12" s="171"/>
     </row>
     <row r="13" spans="2:58">
-      <c r="B13" s="415" t="s">
+      <c r="B13" s="410" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="418">
+      <c r="C13" s="423">
         <v>302</v>
       </c>
       <c r="D13" s="140" t="s">
@@ -22353,8 +22359,8 @@
       <c r="BF13" s="171"/>
     </row>
     <row r="14" spans="2:58">
-      <c r="B14" s="416"/>
-      <c r="C14" s="419"/>
+      <c r="B14" s="415"/>
+      <c r="C14" s="421"/>
       <c r="D14" s="132"/>
       <c r="E14" s="133" t="s">
         <v>298</v>
@@ -22395,8 +22401,8 @@
       <c r="BF14" s="171"/>
     </row>
     <row r="15" spans="2:58">
-      <c r="B15" s="416"/>
-      <c r="C15" s="419"/>
+      <c r="B15" s="415"/>
+      <c r="C15" s="421"/>
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
       <c r="F15" s="133"/>
@@ -22439,8 +22445,8 @@
       <c r="BF15" s="171"/>
     </row>
     <row r="16" spans="2:58">
-      <c r="B16" s="416"/>
-      <c r="C16" s="419"/>
+      <c r="B16" s="415"/>
+      <c r="C16" s="421"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
@@ -22480,8 +22486,8 @@
       <c r="BF16" s="171"/>
     </row>
     <row r="17" spans="2:58">
-      <c r="B17" s="416"/>
-      <c r="C17" s="419"/>
+      <c r="B17" s="415"/>
+      <c r="C17" s="421"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
       <c r="F17" s="133"/>
@@ -22522,8 +22528,8 @@
       <c r="BF17" s="171"/>
     </row>
     <row r="18" spans="2:58">
-      <c r="B18" s="417"/>
-      <c r="C18" s="420"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="143"/>
       <c r="E18" s="144"/>
       <c r="F18" s="144"/>
@@ -22564,10 +22570,10 @@
       <c r="BF18" s="171"/>
     </row>
     <row r="19" spans="2:58">
-      <c r="B19" s="415" t="s">
+      <c r="B19" s="410" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="418">
+      <c r="C19" s="423">
         <v>378</v>
       </c>
       <c r="D19" s="198">
@@ -22643,8 +22649,8 @@
       <c r="BF19" s="171"/>
     </row>
     <row r="20" spans="2:58">
-      <c r="B20" s="416"/>
-      <c r="C20" s="419"/>
+      <c r="B20" s="415"/>
+      <c r="C20" s="421"/>
       <c r="D20" s="132"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133">
@@ -22685,8 +22691,8 @@
       <c r="BF20" s="171"/>
     </row>
     <row r="21" spans="2:58">
-      <c r="B21" s="416"/>
-      <c r="C21" s="419"/>
+      <c r="B21" s="415"/>
+      <c r="C21" s="421"/>
       <c r="D21" s="132"/>
       <c r="E21" s="133"/>
       <c r="F21" s="133"/>
@@ -22727,8 +22733,8 @@
       <c r="BF21" s="171"/>
     </row>
     <row r="22" spans="2:58">
-      <c r="B22" s="416"/>
-      <c r="C22" s="419">
+      <c r="B22" s="415"/>
+      <c r="C22" s="421">
         <v>0</v>
       </c>
       <c r="D22" s="132"/>
@@ -22771,8 +22777,8 @@
       <c r="BF22" s="171"/>
     </row>
     <row r="23" spans="2:58">
-      <c r="B23" s="416"/>
-      <c r="C23" s="419"/>
+      <c r="B23" s="415"/>
+      <c r="C23" s="421"/>
       <c r="D23" s="132"/>
       <c r="E23" s="133"/>
       <c r="F23" s="133"/>
@@ -22813,8 +22819,8 @@
       <c r="BF23" s="171"/>
     </row>
     <row r="24" spans="2:58">
-      <c r="B24" s="416"/>
-      <c r="C24" s="419"/>
+      <c r="B24" s="415"/>
+      <c r="C24" s="421"/>
       <c r="D24" s="212"/>
       <c r="E24" s="237"/>
       <c r="F24" s="237"/>
@@ -22866,10 +22872,10 @@
       <c r="BF24" s="171"/>
     </row>
     <row r="25" spans="2:58">
-      <c r="B25" s="415" t="s">
+      <c r="B25" s="410" t="s">
         <v>316</v>
       </c>
-      <c r="C25" s="418">
+      <c r="C25" s="423">
         <v>380</v>
       </c>
       <c r="D25" s="140">
@@ -22939,8 +22945,8 @@
       <c r="BF25" s="171"/>
     </row>
     <row r="26" spans="2:58">
-      <c r="B26" s="416"/>
-      <c r="C26" s="419"/>
+      <c r="B26" s="415"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="132"/>
       <c r="E26" s="133">
         <v>88</v>
@@ -22981,8 +22987,8 @@
       <c r="BF26" s="171"/>
     </row>
     <row r="27" spans="2:58">
-      <c r="B27" s="416"/>
-      <c r="C27" s="419"/>
+      <c r="B27" s="415"/>
+      <c r="C27" s="421"/>
       <c r="D27" s="132"/>
       <c r="E27" s="133"/>
       <c r="F27" s="133" t="s">
@@ -23025,8 +23031,8 @@
       <c r="BF27" s="171"/>
     </row>
     <row r="28" spans="2:58">
-      <c r="B28" s="416"/>
-      <c r="C28" s="419"/>
+      <c r="B28" s="415"/>
+      <c r="C28" s="421"/>
       <c r="D28" s="132"/>
       <c r="E28" s="133"/>
       <c r="F28" s="133"/>
@@ -23067,8 +23073,8 @@
       <c r="BF28" s="171"/>
     </row>
     <row r="29" spans="2:58">
-      <c r="B29" s="416"/>
-      <c r="C29" s="419">
+      <c r="B29" s="415"/>
+      <c r="C29" s="421">
         <v>0</v>
       </c>
       <c r="D29" s="132"/>
@@ -23111,8 +23117,8 @@
       <c r="BF29" s="171"/>
     </row>
     <row r="30" spans="2:58">
-      <c r="B30" s="416"/>
-      <c r="C30" s="419"/>
+      <c r="B30" s="415"/>
+      <c r="C30" s="421"/>
       <c r="D30" s="132"/>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -23153,8 +23159,8 @@
       <c r="BF30" s="171"/>
     </row>
     <row r="31" spans="2:58">
-      <c r="B31" s="416"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="415"/>
+      <c r="C31" s="421"/>
       <c r="D31" s="132"/>
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
@@ -23195,8 +23201,8 @@
       <c r="BF31" s="171"/>
     </row>
     <row r="32" spans="2:58">
-      <c r="B32" s="417"/>
-      <c r="C32" s="421"/>
+      <c r="B32" s="411"/>
+      <c r="C32" s="424"/>
       <c r="D32" s="143"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -23237,10 +23243,10 @@
       <c r="BF32" s="171"/>
     </row>
     <row r="33" spans="2:58">
-      <c r="B33" s="415" t="s">
+      <c r="B33" s="410" t="s">
         <v>320</v>
       </c>
-      <c r="C33" s="419">
+      <c r="C33" s="421">
         <v>382</v>
       </c>
       <c r="D33" s="140" t="s">
@@ -23310,8 +23316,8 @@
       <c r="BF33" s="171"/>
     </row>
     <row r="34" spans="2:58">
-      <c r="B34" s="416"/>
-      <c r="C34" s="419"/>
+      <c r="B34" s="415"/>
+      <c r="C34" s="421"/>
       <c r="D34" s="132"/>
       <c r="E34" s="133" t="s">
         <v>294</v>
@@ -23352,8 +23358,8 @@
       <c r="BF34" s="171"/>
     </row>
     <row r="35" spans="2:58">
-      <c r="B35" s="416"/>
-      <c r="C35" s="419"/>
+      <c r="B35" s="415"/>
+      <c r="C35" s="421"/>
       <c r="D35" s="132"/>
       <c r="E35" s="133"/>
       <c r="F35" s="133" t="s">
@@ -23394,8 +23400,8 @@
       <c r="BF35" s="171"/>
     </row>
     <row r="36" spans="2:58">
-      <c r="B36" s="416"/>
-      <c r="C36" s="419"/>
+      <c r="B36" s="415"/>
+      <c r="C36" s="421"/>
       <c r="D36" s="132"/>
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
@@ -23436,8 +23442,8 @@
       <c r="BF36" s="171"/>
     </row>
     <row r="37" spans="2:58">
-      <c r="B37" s="416"/>
-      <c r="C37" s="419">
+      <c r="B37" s="415"/>
+      <c r="C37" s="421">
         <v>0</v>
       </c>
       <c r="D37" s="132"/>
@@ -23480,8 +23486,8 @@
       <c r="BF37" s="171"/>
     </row>
     <row r="38" spans="2:58">
-      <c r="B38" s="416"/>
-      <c r="C38" s="419"/>
+      <c r="B38" s="415"/>
+      <c r="C38" s="421"/>
       <c r="D38" s="132"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
@@ -23522,8 +23528,8 @@
       <c r="BF38" s="171"/>
     </row>
     <row r="39" spans="2:58">
-      <c r="B39" s="416"/>
-      <c r="C39" s="419"/>
+      <c r="B39" s="415"/>
+      <c r="C39" s="421"/>
       <c r="D39" s="132"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
@@ -23564,8 +23570,8 @@
       <c r="BF39" s="171"/>
     </row>
     <row r="40" spans="2:58">
-      <c r="B40" s="417"/>
-      <c r="C40" s="420"/>
+      <c r="B40" s="411"/>
+      <c r="C40" s="422"/>
       <c r="D40" s="143"/>
       <c r="E40" s="144"/>
       <c r="F40" s="144"/>
@@ -23606,10 +23612,10 @@
       <c r="BF40" s="171"/>
     </row>
     <row r="41" spans="2:58">
-      <c r="B41" s="429" t="s">
+      <c r="B41" s="417" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="422">
+      <c r="C41" s="427">
         <v>390</v>
       </c>
       <c r="D41" s="185">
@@ -23684,8 +23690,8 @@
       <c r="BF41" s="171"/>
     </row>
     <row r="42" spans="2:58">
-      <c r="B42" s="430"/>
-      <c r="C42" s="423"/>
+      <c r="B42" s="418"/>
+      <c r="C42" s="428"/>
       <c r="D42" s="189"/>
       <c r="E42" s="237"/>
       <c r="F42" s="237">
@@ -23732,8 +23738,8 @@
       <c r="BF42" s="171"/>
     </row>
     <row r="43" spans="2:58">
-      <c r="B43" s="430"/>
-      <c r="C43" s="423"/>
+      <c r="B43" s="418"/>
+      <c r="C43" s="428"/>
       <c r="D43" s="189"/>
       <c r="E43" s="237"/>
       <c r="F43" s="237"/>
@@ -23780,8 +23786,8 @@
       <c r="BF43" s="171"/>
     </row>
     <row r="44" spans="2:58">
-      <c r="B44" s="430"/>
-      <c r="C44" s="423"/>
+      <c r="B44" s="418"/>
+      <c r="C44" s="428"/>
       <c r="D44" s="189"/>
       <c r="E44" s="237"/>
       <c r="F44" s="237"/>
@@ -23810,8 +23816,8 @@
       <c r="BF44" s="171"/>
     </row>
     <row r="45" spans="2:58">
-      <c r="B45" s="430"/>
-      <c r="C45" s="423"/>
+      <c r="B45" s="418"/>
+      <c r="C45" s="428"/>
       <c r="D45" s="135"/>
       <c r="E45" s="133"/>
       <c r="F45" s="133"/>
@@ -23855,10 +23861,10 @@
       <c r="BF45" s="171"/>
     </row>
     <row r="46" spans="2:58">
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="410" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="418">
+      <c r="C46" s="423">
         <v>393</v>
       </c>
       <c r="D46" s="151">
@@ -23928,8 +23934,8 @@
       <c r="BF46" s="171"/>
     </row>
     <row r="47" spans="2:58">
-      <c r="B47" s="416"/>
-      <c r="C47" s="419"/>
+      <c r="B47" s="415"/>
+      <c r="C47" s="421"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133">
         <v>23</v>
@@ -23970,8 +23976,8 @@
       <c r="BF47" s="171"/>
     </row>
     <row r="48" spans="2:58">
-      <c r="B48" s="416"/>
-      <c r="C48" s="419"/>
+      <c r="B48" s="415"/>
+      <c r="C48" s="421"/>
       <c r="D48" s="135"/>
       <c r="E48" s="133"/>
       <c r="F48" s="133">
@@ -24012,8 +24018,8 @@
       <c r="BF48" s="171"/>
     </row>
     <row r="49" spans="2:58">
-      <c r="B49" s="416"/>
-      <c r="C49" s="419"/>
+      <c r="B49" s="415"/>
+      <c r="C49" s="421"/>
       <c r="D49" s="135"/>
       <c r="E49" s="133"/>
       <c r="F49" s="133"/>
@@ -24054,8 +24060,8 @@
       <c r="BF49" s="171"/>
     </row>
     <row r="50" spans="2:58">
-      <c r="B50" s="416"/>
-      <c r="C50" s="419">
+      <c r="B50" s="415"/>
+      <c r="C50" s="421">
         <v>0</v>
       </c>
       <c r="D50" s="135"/>
@@ -24097,8 +24103,8 @@
       <c r="BF50" s="171"/>
     </row>
     <row r="51" spans="2:58">
-      <c r="B51" s="416"/>
-      <c r="C51" s="419"/>
+      <c r="B51" s="415"/>
+      <c r="C51" s="421"/>
       <c r="D51" s="135"/>
       <c r="E51" s="133"/>
       <c r="F51" s="133"/>
@@ -24138,8 +24144,8 @@
       <c r="BF51" s="171"/>
     </row>
     <row r="52" spans="2:58">
-      <c r="B52" s="416"/>
-      <c r="C52" s="419"/>
+      <c r="B52" s="415"/>
+      <c r="C52" s="421"/>
       <c r="D52" s="135"/>
       <c r="E52" s="133"/>
       <c r="F52" s="133"/>
@@ -24179,8 +24185,8 @@
       <c r="BF52" s="171"/>
     </row>
     <row r="53" spans="2:58">
-      <c r="B53" s="417"/>
-      <c r="C53" s="420"/>
+      <c r="B53" s="411"/>
+      <c r="C53" s="422"/>
       <c r="D53" s="143"/>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -24220,10 +24226,10 @@
       <c r="BF53" s="171"/>
     </row>
     <row r="54" spans="2:58">
-      <c r="B54" s="415" t="s">
+      <c r="B54" s="410" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="418">
+      <c r="C54" s="423">
         <v>394</v>
       </c>
       <c r="D54" s="151">
@@ -24292,8 +24298,8 @@
       <c r="BF54" s="171"/>
     </row>
     <row r="55" spans="2:58">
-      <c r="B55" s="416"/>
-      <c r="C55" s="419"/>
+      <c r="B55" s="415"/>
+      <c r="C55" s="421"/>
       <c r="D55" s="135"/>
       <c r="E55" s="133">
         <v>28</v>
@@ -24333,8 +24339,8 @@
       <c r="BF55" s="171"/>
     </row>
     <row r="56" spans="2:58">
-      <c r="B56" s="416"/>
-      <c r="C56" s="419"/>
+      <c r="B56" s="415"/>
+      <c r="C56" s="421"/>
       <c r="D56" s="189"/>
       <c r="E56" s="237"/>
       <c r="F56" s="237" t="s">
@@ -24380,8 +24386,8 @@
       <c r="BF56" s="171"/>
     </row>
     <row r="57" spans="2:58">
-      <c r="B57" s="416"/>
-      <c r="C57" s="419">
+      <c r="B57" s="415"/>
+      <c r="C57" s="421">
         <v>0</v>
       </c>
       <c r="D57" s="135"/>
@@ -24423,8 +24429,8 @@
       <c r="BF57" s="171"/>
     </row>
     <row r="58" spans="2:58">
-      <c r="B58" s="416"/>
-      <c r="C58" s="419"/>
+      <c r="B58" s="415"/>
+      <c r="C58" s="421"/>
       <c r="D58" s="135"/>
       <c r="E58" s="133"/>
       <c r="F58" s="133"/>
@@ -24464,8 +24470,8 @@
       <c r="BF58" s="171"/>
     </row>
     <row r="59" spans="2:58">
-      <c r="B59" s="416"/>
-      <c r="C59" s="419"/>
+      <c r="B59" s="415"/>
+      <c r="C59" s="421"/>
       <c r="D59" s="135"/>
       <c r="E59" s="133"/>
       <c r="F59" s="133"/>
@@ -24505,8 +24511,8 @@
       <c r="BF59" s="171"/>
     </row>
     <row r="60" spans="2:58">
-      <c r="B60" s="417"/>
-      <c r="C60" s="420"/>
+      <c r="B60" s="411"/>
+      <c r="C60" s="422"/>
       <c r="D60" s="152"/>
       <c r="E60" s="144"/>
       <c r="F60" s="144"/>
@@ -24599,10 +24605,10 @@
       <c r="BF61" s="171"/>
     </row>
     <row r="62" spans="2:58">
-      <c r="B62" s="415" t="s">
+      <c r="B62" s="410" t="s">
         <v>346</v>
       </c>
-      <c r="C62" s="418">
+      <c r="C62" s="423">
         <v>443</v>
       </c>
       <c r="D62" s="151">
@@ -24671,8 +24677,8 @@
       <c r="BF62" s="171"/>
     </row>
     <row r="63" spans="2:58">
-      <c r="B63" s="416"/>
-      <c r="C63" s="419"/>
+      <c r="B63" s="415"/>
+      <c r="C63" s="421"/>
       <c r="D63" s="135"/>
       <c r="E63" s="133">
         <v>62</v>
@@ -24712,8 +24718,8 @@
       <c r="BF63" s="171"/>
     </row>
     <row r="64" spans="2:58">
-      <c r="B64" s="416"/>
-      <c r="C64" s="419"/>
+      <c r="B64" s="415"/>
+      <c r="C64" s="421"/>
       <c r="D64" s="135"/>
       <c r="E64" s="133"/>
       <c r="F64" s="133" t="s">
@@ -24753,8 +24759,8 @@
       <c r="BF64" s="171"/>
     </row>
     <row r="65" spans="2:58">
-      <c r="B65" s="416"/>
-      <c r="C65" s="419"/>
+      <c r="B65" s="415"/>
+      <c r="C65" s="421"/>
       <c r="D65" s="135"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -24794,8 +24800,8 @@
       <c r="BF65" s="171"/>
     </row>
     <row r="66" spans="2:58">
-      <c r="B66" s="416"/>
-      <c r="C66" s="419">
+      <c r="B66" s="415"/>
+      <c r="C66" s="421">
         <v>0</v>
       </c>
       <c r="D66" s="135"/>
@@ -24837,8 +24843,8 @@
       <c r="BF66" s="171"/>
     </row>
     <row r="67" spans="2:58">
-      <c r="B67" s="416"/>
-      <c r="C67" s="419"/>
+      <c r="B67" s="415"/>
+      <c r="C67" s="421"/>
       <c r="D67" s="135"/>
       <c r="E67" s="133"/>
       <c r="F67" s="133"/>
@@ -24878,8 +24884,8 @@
       <c r="BF67" s="171"/>
     </row>
     <row r="68" spans="2:58">
-      <c r="B68" s="416"/>
-      <c r="C68" s="419"/>
+      <c r="B68" s="415"/>
+      <c r="C68" s="421"/>
       <c r="D68" s="135"/>
       <c r="E68" s="133"/>
       <c r="F68" s="133"/>
@@ -24919,8 +24925,8 @@
       <c r="BF68" s="171"/>
     </row>
     <row r="69" spans="2:58">
-      <c r="B69" s="417"/>
-      <c r="C69" s="420"/>
+      <c r="B69" s="411"/>
+      <c r="C69" s="422"/>
       <c r="D69" s="152"/>
       <c r="E69" s="144"/>
       <c r="F69" s="144"/>
@@ -24960,10 +24966,10 @@
       <c r="BF69" s="171"/>
     </row>
     <row r="70" spans="2:58">
-      <c r="B70" s="415" t="s">
+      <c r="B70" s="410" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="418">
+      <c r="C70" s="423">
         <v>445</v>
       </c>
       <c r="D70" s="151" t="s">
@@ -25032,8 +25038,8 @@
       <c r="BF70" s="171"/>
     </row>
     <row r="71" spans="2:58">
-      <c r="B71" s="416"/>
-      <c r="C71" s="419"/>
+      <c r="B71" s="415"/>
+      <c r="C71" s="421"/>
       <c r="D71" s="135"/>
       <c r="E71" s="133" t="s">
         <v>306</v>
@@ -25073,8 +25079,8 @@
       <c r="BF71" s="171"/>
     </row>
     <row r="72" spans="2:58">
-      <c r="B72" s="416"/>
-      <c r="C72" s="419"/>
+      <c r="B72" s="415"/>
+      <c r="C72" s="421"/>
       <c r="D72" s="135"/>
       <c r="E72" s="133"/>
       <c r="F72" s="133" t="s">
@@ -25114,8 +25120,8 @@
       <c r="BF72" s="171"/>
     </row>
     <row r="73" spans="2:58">
-      <c r="B73" s="416"/>
-      <c r="C73" s="419"/>
+      <c r="B73" s="415"/>
+      <c r="C73" s="421"/>
       <c r="D73" s="135"/>
       <c r="E73" s="133"/>
       <c r="F73" s="133"/>
@@ -25155,8 +25161,8 @@
       <c r="BF73" s="171"/>
     </row>
     <row r="74" spans="2:58">
-      <c r="B74" s="416"/>
-      <c r="C74" s="419">
+      <c r="B74" s="415"/>
+      <c r="C74" s="421">
         <v>0</v>
       </c>
       <c r="D74" s="135"/>
@@ -25198,8 +25204,8 @@
       <c r="BF74" s="171"/>
     </row>
     <row r="75" spans="2:58">
-      <c r="B75" s="416"/>
-      <c r="C75" s="419"/>
+      <c r="B75" s="415"/>
+      <c r="C75" s="421"/>
       <c r="D75" s="135"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -25239,8 +25245,8 @@
       <c r="BF75" s="171"/>
     </row>
     <row r="76" spans="2:58">
-      <c r="B76" s="416"/>
-      <c r="C76" s="419"/>
+      <c r="B76" s="415"/>
+      <c r="C76" s="421"/>
       <c r="D76" s="135"/>
       <c r="E76" s="133"/>
       <c r="F76" s="133"/>
@@ -25280,8 +25286,8 @@
       <c r="BF76" s="171"/>
     </row>
     <row r="77" spans="2:58">
-      <c r="B77" s="417"/>
-      <c r="C77" s="420"/>
+      <c r="B77" s="411"/>
+      <c r="C77" s="422"/>
       <c r="D77" s="152"/>
       <c r="E77" s="144"/>
       <c r="F77" s="144"/>
@@ -25321,10 +25327,10 @@
       <c r="BF77" s="171"/>
     </row>
     <row r="78" spans="2:58">
-      <c r="B78" s="415" t="s">
+      <c r="B78" s="410" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="418">
+      <c r="C78" s="423">
         <v>502</v>
       </c>
       <c r="D78" s="151" t="s">
@@ -25393,8 +25399,8 @@
       <c r="BF78" s="171"/>
     </row>
     <row r="79" spans="2:58">
-      <c r="B79" s="416"/>
-      <c r="C79" s="419"/>
+      <c r="B79" s="415"/>
+      <c r="C79" s="421"/>
       <c r="D79" s="189"/>
       <c r="E79" s="237">
         <v>20</v>
@@ -25438,8 +25444,8 @@
       <c r="BF79" s="171"/>
     </row>
     <row r="80" spans="2:58">
-      <c r="B80" s="416"/>
-      <c r="C80" s="419"/>
+      <c r="B80" s="415"/>
+      <c r="C80" s="421"/>
       <c r="D80" s="189"/>
       <c r="E80" s="237"/>
       <c r="F80" s="237">
@@ -25485,8 +25491,8 @@
       <c r="BF80" s="171"/>
     </row>
     <row r="81" spans="2:58">
-      <c r="B81" s="416"/>
-      <c r="C81" s="419">
+      <c r="B81" s="415"/>
+      <c r="C81" s="421">
         <v>0</v>
       </c>
       <c r="D81" s="135"/>
@@ -25528,8 +25534,8 @@
       <c r="BF81" s="171"/>
     </row>
     <row r="82" spans="2:58">
-      <c r="B82" s="416"/>
-      <c r="C82" s="419"/>
+      <c r="B82" s="415"/>
+      <c r="C82" s="421"/>
       <c r="D82" s="135"/>
       <c r="E82" s="133"/>
       <c r="F82" s="133"/>
@@ -25569,8 +25575,8 @@
       <c r="BF82" s="171"/>
     </row>
     <row r="83" spans="2:58">
-      <c r="B83" s="416"/>
-      <c r="C83" s="419"/>
+      <c r="B83" s="415"/>
+      <c r="C83" s="421"/>
       <c r="D83" s="135"/>
       <c r="E83" s="133"/>
       <c r="F83" s="133"/>
@@ -25610,8 +25616,8 @@
       <c r="BF83" s="171"/>
     </row>
     <row r="84" spans="2:58">
-      <c r="B84" s="417"/>
-      <c r="C84" s="420"/>
+      <c r="B84" s="411"/>
+      <c r="C84" s="422"/>
       <c r="D84" s="152"/>
       <c r="E84" s="144"/>
       <c r="F84" s="144"/>
@@ -25651,10 +25657,10 @@
       <c r="BF84" s="171"/>
     </row>
     <row r="85" spans="2:58">
-      <c r="B85" s="415" t="s">
+      <c r="B85" s="410" t="s">
         <v>359</v>
       </c>
-      <c r="C85" s="418">
+      <c r="C85" s="423">
         <v>524</v>
       </c>
       <c r="D85" s="151" t="s">
@@ -25723,8 +25729,8 @@
       <c r="BF85" s="171"/>
     </row>
     <row r="86" spans="2:58">
-      <c r="B86" s="416"/>
-      <c r="C86" s="419"/>
+      <c r="B86" s="415"/>
+      <c r="C86" s="421"/>
       <c r="D86" s="135"/>
       <c r="E86" s="133" t="s">
         <v>294</v>
@@ -25764,8 +25770,8 @@
       <c r="BF86" s="171"/>
     </row>
     <row r="87" spans="2:58">
-      <c r="B87" s="416"/>
-      <c r="C87" s="419"/>
+      <c r="B87" s="415"/>
+      <c r="C87" s="421"/>
       <c r="D87" s="135"/>
       <c r="E87" s="133"/>
       <c r="F87" s="133" t="s">
@@ -25805,8 +25811,8 @@
       <c r="BF87" s="171"/>
     </row>
     <row r="88" spans="2:58">
-      <c r="B88" s="416"/>
-      <c r="C88" s="419"/>
+      <c r="B88" s="415"/>
+      <c r="C88" s="421"/>
       <c r="D88" s="135"/>
       <c r="E88" s="133"/>
       <c r="F88" s="133"/>
@@ -25846,8 +25852,8 @@
       <c r="BF88" s="171"/>
     </row>
     <row r="89" spans="2:58">
-      <c r="B89" s="416"/>
-      <c r="C89" s="419">
+      <c r="B89" s="415"/>
+      <c r="C89" s="421">
         <v>0</v>
       </c>
       <c r="D89" s="135"/>
@@ -25889,8 +25895,8 @@
       <c r="BF89" s="171"/>
     </row>
     <row r="90" spans="2:58">
-      <c r="B90" s="416"/>
-      <c r="C90" s="419"/>
+      <c r="B90" s="415"/>
+      <c r="C90" s="421"/>
       <c r="D90" s="135"/>
       <c r="E90" s="133"/>
       <c r="F90" s="133"/>
@@ -25930,8 +25936,8 @@
       <c r="BF90" s="171"/>
     </row>
     <row r="91" spans="2:58">
-      <c r="B91" s="416"/>
-      <c r="C91" s="419"/>
+      <c r="B91" s="415"/>
+      <c r="C91" s="421"/>
       <c r="D91" s="135"/>
       <c r="E91" s="133"/>
       <c r="F91" s="133"/>
@@ -25971,8 +25977,8 @@
       <c r="BF91" s="171"/>
     </row>
     <row r="92" spans="2:58">
-      <c r="B92" s="424"/>
-      <c r="C92" s="421"/>
+      <c r="B92" s="416"/>
+      <c r="C92" s="424"/>
       <c r="D92" s="152"/>
       <c r="E92" s="144"/>
       <c r="F92" s="144"/>
@@ -26012,10 +26018,10 @@
       <c r="BF92" s="171"/>
     </row>
     <row r="93" spans="2:58">
-      <c r="B93" s="416" t="s">
+      <c r="B93" s="415" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="419">
+      <c r="C93" s="421">
         <v>529</v>
       </c>
       <c r="D93" s="151" t="s">
@@ -26084,8 +26090,8 @@
       <c r="BF93" s="171"/>
     </row>
     <row r="94" spans="2:58">
-      <c r="B94" s="416"/>
-      <c r="C94" s="419"/>
+      <c r="B94" s="415"/>
+      <c r="C94" s="421"/>
       <c r="D94" s="135"/>
       <c r="E94" s="133" t="s">
         <v>365</v>
@@ -26125,8 +26131,8 @@
       <c r="BF94" s="171"/>
     </row>
     <row r="95" spans="2:58">
-      <c r="B95" s="416"/>
-      <c r="C95" s="419"/>
+      <c r="B95" s="415"/>
+      <c r="C95" s="421"/>
       <c r="D95" s="135"/>
       <c r="E95" s="133"/>
       <c r="F95" s="133" t="s">
@@ -26166,8 +26172,8 @@
       <c r="BF95" s="171"/>
     </row>
     <row r="96" spans="2:58">
-      <c r="B96" s="416"/>
-      <c r="C96" s="419"/>
+      <c r="B96" s="415"/>
+      <c r="C96" s="421"/>
       <c r="D96" s="135"/>
       <c r="E96" s="133"/>
       <c r="F96" s="133"/>
@@ -26207,8 +26213,8 @@
       <c r="BF96" s="171"/>
     </row>
     <row r="97" spans="2:58">
-      <c r="B97" s="416"/>
-      <c r="C97" s="419">
+      <c r="B97" s="415"/>
+      <c r="C97" s="421">
         <v>0</v>
       </c>
       <c r="D97" s="135"/>
@@ -26250,8 +26256,8 @@
       <c r="BF97" s="171"/>
     </row>
     <row r="98" spans="2:58">
-      <c r="B98" s="416"/>
-      <c r="C98" s="419"/>
+      <c r="B98" s="415"/>
+      <c r="C98" s="421"/>
       <c r="D98" s="135"/>
       <c r="E98" s="133"/>
       <c r="F98" s="133"/>
@@ -26291,8 +26297,8 @@
       <c r="BF98" s="171"/>
     </row>
     <row r="99" spans="2:58">
-      <c r="B99" s="416"/>
-      <c r="C99" s="419"/>
+      <c r="B99" s="415"/>
+      <c r="C99" s="421"/>
       <c r="D99" s="135"/>
       <c r="E99" s="133"/>
       <c r="F99" s="133"/>
@@ -26332,8 +26338,8 @@
       <c r="BF99" s="171"/>
     </row>
     <row r="100" spans="2:58">
-      <c r="B100" s="417"/>
-      <c r="C100" s="420"/>
+      <c r="B100" s="411"/>
+      <c r="C100" s="422"/>
       <c r="D100" s="152"/>
       <c r="E100" s="144"/>
       <c r="F100" s="144"/>
@@ -26431,10 +26437,10 @@
       <c r="BF101" s="171"/>
     </row>
     <row r="102" spans="2:58">
-      <c r="B102" s="415" t="s">
+      <c r="B102" s="410" t="s">
         <v>369</v>
       </c>
-      <c r="C102" s="410">
+      <c r="C102" s="425">
         <v>535</v>
       </c>
       <c r="D102" s="151" t="s">
@@ -26500,8 +26506,8 @@
       <c r="BF102" s="171"/>
     </row>
     <row r="103" spans="2:58">
-      <c r="B103" s="416"/>
-      <c r="C103" s="411"/>
+      <c r="B103" s="415"/>
+      <c r="C103" s="426"/>
       <c r="D103" s="135"/>
       <c r="E103" s="133" t="s">
         <v>294</v>
@@ -26541,8 +26547,8 @@
       <c r="BF103" s="171"/>
     </row>
     <row r="104" spans="2:58">
-      <c r="B104" s="416"/>
-      <c r="C104" s="411"/>
+      <c r="B104" s="415"/>
+      <c r="C104" s="426"/>
       <c r="D104" s="135"/>
       <c r="E104" s="133"/>
       <c r="F104" s="133" t="s">
@@ -26582,8 +26588,8 @@
       <c r="BF104" s="171"/>
     </row>
     <row r="105" spans="2:58">
-      <c r="B105" s="416"/>
-      <c r="C105" s="411"/>
+      <c r="B105" s="415"/>
+      <c r="C105" s="426"/>
       <c r="D105" s="135"/>
       <c r="E105" s="133"/>
       <c r="F105" s="133"/>
@@ -26631,8 +26637,8 @@
       <c r="BF105" s="171"/>
     </row>
     <row r="106" spans="2:58">
-      <c r="B106" s="417"/>
-      <c r="C106" s="412"/>
+      <c r="B106" s="411"/>
+      <c r="C106" s="413"/>
       <c r="D106" s="152"/>
       <c r="E106" s="144"/>
       <c r="F106" s="144"/>
@@ -26672,10 +26678,10 @@
       <c r="BF106" s="171"/>
     </row>
     <row r="107" spans="2:58">
-      <c r="B107" s="415" t="s">
+      <c r="B107" s="410" t="s">
         <v>373</v>
       </c>
-      <c r="C107" s="418">
+      <c r="C107" s="423">
         <v>536</v>
       </c>
       <c r="D107" s="151" t="s">
@@ -26744,8 +26750,8 @@
       <c r="BF107" s="171"/>
     </row>
     <row r="108" spans="2:58">
-      <c r="B108" s="416"/>
-      <c r="C108" s="419"/>
+      <c r="B108" s="415"/>
+      <c r="C108" s="421"/>
       <c r="D108" s="135"/>
       <c r="E108" s="133" t="s">
         <v>294</v>
@@ -26785,8 +26791,8 @@
       <c r="BF108" s="171"/>
     </row>
     <row r="109" spans="2:58">
-      <c r="B109" s="416"/>
-      <c r="C109" s="419"/>
+      <c r="B109" s="415"/>
+      <c r="C109" s="421"/>
       <c r="D109" s="135"/>
       <c r="E109" s="133"/>
       <c r="F109" s="133" t="s">
@@ -26826,8 +26832,8 @@
       <c r="BF109" s="171"/>
     </row>
     <row r="110" spans="2:58">
-      <c r="B110" s="416"/>
-      <c r="C110" s="419"/>
+      <c r="B110" s="415"/>
+      <c r="C110" s="421"/>
       <c r="D110" s="135"/>
       <c r="E110" s="133"/>
       <c r="F110" s="133"/>
@@ -26867,8 +26873,8 @@
       <c r="BF110" s="171"/>
     </row>
     <row r="111" spans="2:58">
-      <c r="B111" s="416"/>
-      <c r="C111" s="419">
+      <c r="B111" s="415"/>
+      <c r="C111" s="421">
         <v>0</v>
       </c>
       <c r="D111" s="135"/>
@@ -26910,8 +26916,8 @@
       <c r="BF111" s="171"/>
     </row>
     <row r="112" spans="2:58">
-      <c r="B112" s="416"/>
-      <c r="C112" s="419"/>
+      <c r="B112" s="415"/>
+      <c r="C112" s="421"/>
       <c r="D112" s="135"/>
       <c r="E112" s="133"/>
       <c r="F112" s="133"/>
@@ -26951,8 +26957,8 @@
       <c r="BF112" s="171"/>
     </row>
     <row r="113" spans="2:58">
-      <c r="B113" s="416"/>
-      <c r="C113" s="419"/>
+      <c r="B113" s="415"/>
+      <c r="C113" s="421"/>
       <c r="D113" s="135"/>
       <c r="E113" s="133"/>
       <c r="F113" s="133"/>
@@ -26992,8 +26998,8 @@
       <c r="BF113" s="171"/>
     </row>
     <row r="114" spans="2:58">
-      <c r="B114" s="417"/>
-      <c r="C114" s="420"/>
+      <c r="B114" s="411"/>
+      <c r="C114" s="422"/>
       <c r="D114" s="152"/>
       <c r="E114" s="144"/>
       <c r="F114" s="144"/>
@@ -27033,10 +27039,10 @@
       <c r="BF114" s="171"/>
     </row>
     <row r="115" spans="2:58">
-      <c r="B115" s="415" t="s">
+      <c r="B115" s="410" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="410">
+      <c r="C115" s="425">
         <v>578</v>
       </c>
       <c r="D115" s="151" t="s">
@@ -27102,8 +27108,8 @@
       <c r="BF115" s="171"/>
     </row>
     <row r="116" spans="2:58">
-      <c r="B116" s="416"/>
-      <c r="C116" s="411"/>
+      <c r="B116" s="415"/>
+      <c r="C116" s="426"/>
       <c r="D116" s="135"/>
       <c r="E116" s="133" t="s">
         <v>294</v>
@@ -27143,8 +27149,8 @@
       <c r="BF116" s="171"/>
     </row>
     <row r="117" spans="2:58">
-      <c r="B117" s="416"/>
-      <c r="C117" s="411"/>
+      <c r="B117" s="415"/>
+      <c r="C117" s="426"/>
       <c r="D117" s="135"/>
       <c r="E117" s="133"/>
       <c r="F117" s="133" t="s">
@@ -27184,8 +27190,8 @@
       <c r="BF117" s="171"/>
     </row>
     <row r="118" spans="2:58">
-      <c r="B118" s="416"/>
-      <c r="C118" s="411"/>
+      <c r="B118" s="415"/>
+      <c r="C118" s="426"/>
       <c r="D118" s="135"/>
       <c r="E118" s="133"/>
       <c r="F118" s="133"/>
@@ -27225,8 +27231,8 @@
       <c r="BF118" s="171"/>
     </row>
     <row r="119" spans="2:58">
-      <c r="B119" s="416"/>
-      <c r="C119" s="411"/>
+      <c r="B119" s="415"/>
+      <c r="C119" s="426"/>
       <c r="D119" s="135"/>
       <c r="E119" s="133"/>
       <c r="F119" s="133"/>
@@ -27266,8 +27272,8 @@
       <c r="BF119" s="171"/>
     </row>
     <row r="120" spans="2:58">
-      <c r="B120" s="416"/>
-      <c r="C120" s="411"/>
+      <c r="B120" s="415"/>
+      <c r="C120" s="426"/>
       <c r="D120" s="135"/>
       <c r="E120" s="133"/>
       <c r="F120" s="133"/>
@@ -27307,8 +27313,8 @@
       <c r="BF120" s="171"/>
     </row>
     <row r="121" spans="2:58">
-      <c r="B121" s="417"/>
-      <c r="C121" s="412"/>
+      <c r="B121" s="411"/>
+      <c r="C121" s="413"/>
       <c r="D121" s="152"/>
       <c r="E121" s="144"/>
       <c r="F121" s="144"/>
@@ -27348,10 +27354,10 @@
       <c r="BF121" s="171"/>
     </row>
     <row r="122" spans="2:58">
-      <c r="B122" s="415" t="s">
+      <c r="B122" s="410" t="s">
         <v>376</v>
       </c>
-      <c r="C122" s="410">
+      <c r="C122" s="425">
         <v>666</v>
       </c>
       <c r="D122" s="185" t="s">
@@ -27430,8 +27436,8 @@
       <c r="BF122" s="171"/>
     </row>
     <row r="123" spans="2:58">
-      <c r="B123" s="416"/>
-      <c r="C123" s="411"/>
+      <c r="B123" s="415"/>
+      <c r="C123" s="426"/>
       <c r="D123" s="189"/>
       <c r="E123" s="237"/>
       <c r="F123" s="237" t="s">
@@ -27481,8 +27487,8 @@
       <c r="BF123" s="171"/>
     </row>
     <row r="124" spans="2:58">
-      <c r="B124" s="416"/>
-      <c r="C124" s="411"/>
+      <c r="B124" s="415"/>
+      <c r="C124" s="426"/>
       <c r="D124" s="189"/>
       <c r="E124" s="237"/>
       <c r="F124" s="237"/>
@@ -27531,8 +27537,8 @@
       <c r="BF124" s="171"/>
     </row>
     <row r="125" spans="2:58">
-      <c r="B125" s="416"/>
-      <c r="C125" s="411"/>
+      <c r="B125" s="415"/>
+      <c r="C125" s="426"/>
       <c r="D125" s="135"/>
       <c r="E125" s="133"/>
       <c r="F125" s="133"/>
@@ -27572,8 +27578,8 @@
       <c r="BF125" s="171"/>
     </row>
     <row r="126" spans="2:58">
-      <c r="B126" s="417"/>
-      <c r="C126" s="412"/>
+      <c r="B126" s="411"/>
+      <c r="C126" s="413"/>
       <c r="D126" s="152"/>
       <c r="E126" s="144"/>
       <c r="F126" s="144"/>
@@ -27613,10 +27619,10 @@
       <c r="BF126" s="171"/>
     </row>
     <row r="127" spans="2:58">
-      <c r="B127" s="415" t="s">
+      <c r="B127" s="410" t="s">
         <v>382</v>
       </c>
-      <c r="C127" s="410">
+      <c r="C127" s="425">
         <v>668</v>
       </c>
       <c r="D127" s="185" t="s">
@@ -27695,8 +27701,8 @@
       <c r="BF127" s="171"/>
     </row>
     <row r="128" spans="2:58">
-      <c r="B128" s="416"/>
-      <c r="C128" s="411"/>
+      <c r="B128" s="415"/>
+      <c r="C128" s="426"/>
       <c r="D128" s="189"/>
       <c r="E128" s="237"/>
       <c r="F128" s="237" t="s">
@@ -27746,8 +27752,8 @@
       <c r="BF128" s="171"/>
     </row>
     <row r="129" spans="2:58">
-      <c r="B129" s="416"/>
-      <c r="C129" s="411"/>
+      <c r="B129" s="415"/>
+      <c r="C129" s="426"/>
       <c r="D129" s="135"/>
       <c r="E129" s="133"/>
       <c r="F129" s="133"/>
@@ -27787,8 +27793,8 @@
       <c r="BF129" s="171"/>
     </row>
     <row r="130" spans="2:58">
-      <c r="B130" s="416"/>
-      <c r="C130" s="411"/>
+      <c r="B130" s="415"/>
+      <c r="C130" s="426"/>
       <c r="D130" s="135"/>
       <c r="E130" s="133"/>
       <c r="F130" s="133"/>
@@ -27828,8 +27834,8 @@
       <c r="BF130" s="171"/>
     </row>
     <row r="131" spans="2:58">
-      <c r="B131" s="416"/>
-      <c r="C131" s="411"/>
+      <c r="B131" s="415"/>
+      <c r="C131" s="426"/>
       <c r="D131" s="135"/>
       <c r="E131" s="133"/>
       <c r="F131" s="133"/>
@@ -27871,10 +27877,10 @@
       <c r="BF131" s="171"/>
     </row>
     <row r="132" spans="2:58">
-      <c r="B132" s="415" t="s">
+      <c r="B132" s="410" t="s">
         <v>385</v>
       </c>
-      <c r="C132" s="410">
+      <c r="C132" s="425">
         <v>695</v>
       </c>
       <c r="D132" s="151" t="s">
@@ -27934,8 +27940,8 @@
       <c r="BF132" s="171"/>
     </row>
     <row r="133" spans="2:58">
-      <c r="B133" s="416"/>
-      <c r="C133" s="411"/>
+      <c r="B133" s="415"/>
+      <c r="C133" s="426"/>
       <c r="D133" s="135"/>
       <c r="E133" s="133" t="s">
         <v>386</v>
@@ -27975,8 +27981,8 @@
       <c r="BF133" s="171"/>
     </row>
     <row r="134" spans="2:58">
-      <c r="B134" s="416"/>
-      <c r="C134" s="411"/>
+      <c r="B134" s="415"/>
+      <c r="C134" s="426"/>
       <c r="D134" s="135"/>
       <c r="E134" s="133"/>
       <c r="F134" s="133" t="s">
@@ -28016,8 +28022,8 @@
       <c r="BF134" s="171"/>
     </row>
     <row r="135" spans="2:58">
-      <c r="B135" s="416"/>
-      <c r="C135" s="411"/>
+      <c r="B135" s="415"/>
+      <c r="C135" s="426"/>
       <c r="D135" s="135"/>
       <c r="E135" s="133"/>
       <c r="F135" s="133"/>
@@ -28057,8 +28063,8 @@
       <c r="BF135" s="171"/>
     </row>
     <row r="136" spans="2:58">
-      <c r="B136" s="417"/>
-      <c r="C136" s="412"/>
+      <c r="B136" s="411"/>
+      <c r="C136" s="413"/>
       <c r="D136" s="152"/>
       <c r="E136" s="144"/>
       <c r="F136" s="144"/>
@@ -28098,10 +28104,10 @@
       <c r="BF136" s="171"/>
     </row>
     <row r="137" spans="2:58">
-      <c r="B137" s="415" t="s">
+      <c r="B137" s="410" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="410">
+      <c r="C137" s="425">
         <v>710</v>
       </c>
       <c r="D137" s="151" t="s">
@@ -28164,8 +28170,8 @@
       <c r="BF137" s="171"/>
     </row>
     <row r="138" spans="2:58">
-      <c r="B138" s="416"/>
-      <c r="C138" s="411"/>
+      <c r="B138" s="415"/>
+      <c r="C138" s="426"/>
       <c r="D138" s="135"/>
       <c r="E138" s="133" t="s">
         <v>306</v>
@@ -28205,8 +28211,8 @@
       <c r="BF138" s="171"/>
     </row>
     <row r="139" spans="2:58">
-      <c r="B139" s="416"/>
-      <c r="C139" s="411"/>
+      <c r="B139" s="415"/>
+      <c r="C139" s="426"/>
       <c r="D139" s="135"/>
       <c r="E139" s="133"/>
       <c r="F139" s="133" t="s">
@@ -28246,8 +28252,8 @@
       <c r="BF139" s="171"/>
     </row>
     <row r="140" spans="2:58">
-      <c r="B140" s="416"/>
-      <c r="C140" s="411"/>
+      <c r="B140" s="415"/>
+      <c r="C140" s="426"/>
       <c r="D140" s="135"/>
       <c r="E140" s="133"/>
       <c r="F140" s="133"/>
@@ -28287,8 +28293,8 @@
       <c r="BF140" s="171"/>
     </row>
     <row r="141" spans="2:58">
-      <c r="B141" s="416"/>
-      <c r="C141" s="411"/>
+      <c r="B141" s="415"/>
+      <c r="C141" s="426"/>
       <c r="D141" s="135"/>
       <c r="E141" s="133"/>
       <c r="F141" s="133"/>
@@ -28328,8 +28334,8 @@
       <c r="BF141" s="171"/>
     </row>
     <row r="142" spans="2:58">
-      <c r="B142" s="417"/>
-      <c r="C142" s="412"/>
+      <c r="B142" s="411"/>
+      <c r="C142" s="413"/>
       <c r="D142" s="152"/>
       <c r="E142" s="144"/>
       <c r="F142" s="144"/>
@@ -28369,10 +28375,10 @@
       <c r="BF142" s="171"/>
     </row>
     <row r="143" spans="2:58">
-      <c r="B143" s="415" t="s">
+      <c r="B143" s="410" t="s">
         <v>388</v>
       </c>
-      <c r="C143" s="410">
+      <c r="C143" s="425">
         <v>771</v>
       </c>
       <c r="D143" s="151" t="s">
@@ -28438,8 +28444,8 @@
       <c r="BF143" s="171"/>
     </row>
     <row r="144" spans="2:58">
-      <c r="B144" s="416"/>
-      <c r="C144" s="411"/>
+      <c r="B144" s="415"/>
+      <c r="C144" s="426"/>
       <c r="D144" s="135"/>
       <c r="E144" s="133" t="s">
         <v>390</v>
@@ -28479,8 +28485,8 @@
       <c r="BF144" s="171"/>
     </row>
     <row r="145" spans="2:58">
-      <c r="B145" s="416"/>
-      <c r="C145" s="411"/>
+      <c r="B145" s="415"/>
+      <c r="C145" s="426"/>
       <c r="D145" s="135"/>
       <c r="E145" s="133"/>
       <c r="F145" s="133" t="s">
@@ -28520,8 +28526,8 @@
       <c r="BF145" s="171"/>
     </row>
     <row r="146" spans="2:58">
-      <c r="B146" s="416"/>
-      <c r="C146" s="411"/>
+      <c r="B146" s="415"/>
+      <c r="C146" s="426"/>
       <c r="D146" s="135"/>
       <c r="E146" s="133"/>
       <c r="F146" s="133"/>
@@ -28561,8 +28567,8 @@
       <c r="BF146" s="171"/>
     </row>
     <row r="147" spans="2:58">
-      <c r="B147" s="416"/>
-      <c r="C147" s="411"/>
+      <c r="B147" s="415"/>
+      <c r="C147" s="426"/>
       <c r="D147" s="135"/>
       <c r="E147" s="133"/>
       <c r="F147" s="133"/>
@@ -28602,8 +28608,8 @@
       <c r="BF147" s="171"/>
     </row>
     <row r="148" spans="2:58">
-      <c r="B148" s="416"/>
-      <c r="C148" s="411"/>
+      <c r="B148" s="415"/>
+      <c r="C148" s="426"/>
       <c r="D148" s="135"/>
       <c r="E148" s="133"/>
       <c r="F148" s="133"/>
@@ -28643,8 +28649,8 @@
       <c r="BF148" s="171"/>
     </row>
     <row r="149" spans="2:58">
-      <c r="B149" s="417"/>
-      <c r="C149" s="412"/>
+      <c r="B149" s="411"/>
+      <c r="C149" s="413"/>
       <c r="D149" s="152"/>
       <c r="E149" s="144"/>
       <c r="F149" s="144"/>
@@ -28684,10 +28690,10 @@
       <c r="BF149" s="171"/>
     </row>
     <row r="150" spans="2:58">
-      <c r="B150" s="415" t="s">
+      <c r="B150" s="410" t="s">
         <v>395</v>
       </c>
-      <c r="C150" s="410">
+      <c r="C150" s="425">
         <v>848</v>
       </c>
       <c r="D150" s="151" t="s">
@@ -28756,8 +28762,8 @@
       <c r="BF150" s="171"/>
     </row>
     <row r="151" spans="2:58">
-      <c r="B151" s="416"/>
-      <c r="C151" s="411"/>
+      <c r="B151" s="415"/>
+      <c r="C151" s="426"/>
       <c r="D151" s="135"/>
       <c r="E151" s="133" t="s">
         <v>361</v>
@@ -28797,8 +28803,8 @@
       <c r="BF151" s="171"/>
     </row>
     <row r="152" spans="2:58">
-      <c r="B152" s="416"/>
-      <c r="C152" s="411"/>
+      <c r="B152" s="415"/>
+      <c r="C152" s="426"/>
       <c r="D152" s="135"/>
       <c r="E152" s="133"/>
       <c r="F152" s="133" t="s">
@@ -28838,8 +28844,8 @@
       <c r="BF152" s="171"/>
     </row>
     <row r="153" spans="2:58">
-      <c r="B153" s="416"/>
-      <c r="C153" s="411"/>
+      <c r="B153" s="415"/>
+      <c r="C153" s="426"/>
       <c r="D153" s="135"/>
       <c r="E153" s="133"/>
       <c r="F153" s="133"/>
@@ -28879,8 +28885,8 @@
       <c r="BF153" s="171"/>
     </row>
     <row r="154" spans="2:58">
-      <c r="B154" s="416"/>
-      <c r="C154" s="411"/>
+      <c r="B154" s="415"/>
+      <c r="C154" s="426"/>
       <c r="D154" s="135"/>
       <c r="E154" s="133"/>
       <c r="F154" s="133"/>
@@ -28920,8 +28926,8 @@
       <c r="BF154" s="171"/>
     </row>
     <row r="155" spans="2:58">
-      <c r="B155" s="416"/>
-      <c r="C155" s="411"/>
+      <c r="B155" s="415"/>
+      <c r="C155" s="426"/>
       <c r="D155" s="135"/>
       <c r="E155" s="133"/>
       <c r="F155" s="133"/>
@@ -28961,8 +28967,8 @@
       <c r="BF155" s="171"/>
     </row>
     <row r="156" spans="2:58">
-      <c r="B156" s="416"/>
-      <c r="C156" s="411"/>
+      <c r="B156" s="415"/>
+      <c r="C156" s="426"/>
       <c r="D156" s="135"/>
       <c r="E156" s="133"/>
       <c r="F156" s="133"/>
@@ -29002,8 +29008,8 @@
       <c r="BF156" s="171"/>
     </row>
     <row r="157" spans="2:58">
-      <c r="B157" s="417"/>
-      <c r="C157" s="412"/>
+      <c r="B157" s="411"/>
+      <c r="C157" s="413"/>
       <c r="D157" s="152"/>
       <c r="E157" s="144"/>
       <c r="F157" s="144"/>
@@ -29043,10 +29049,10 @@
       <c r="BF157" s="171"/>
     </row>
     <row r="158" spans="2:58">
-      <c r="B158" s="415" t="s">
+      <c r="B158" s="410" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="410">
+      <c r="C158" s="425">
         <v>850</v>
       </c>
       <c r="D158" s="151" t="s">
@@ -29107,8 +29113,8 @@
       <c r="BF158" s="171"/>
     </row>
     <row r="159" spans="2:58">
-      <c r="B159" s="416"/>
-      <c r="C159" s="411"/>
+      <c r="B159" s="415"/>
+      <c r="C159" s="426"/>
       <c r="D159" s="135"/>
       <c r="E159" s="133" t="s">
         <v>294</v>
@@ -29148,8 +29154,8 @@
       <c r="BF159" s="171"/>
     </row>
     <row r="160" spans="2:58">
-      <c r="B160" s="416"/>
-      <c r="C160" s="411"/>
+      <c r="B160" s="415"/>
+      <c r="C160" s="426"/>
       <c r="D160" s="189"/>
       <c r="E160" s="237"/>
       <c r="F160" s="237" t="s">
@@ -29196,10 +29202,10 @@
       <c r="BF160" s="171"/>
     </row>
     <row r="161" spans="2:58">
-      <c r="B161" s="415" t="s">
+      <c r="B161" s="410" t="s">
         <v>407</v>
       </c>
-      <c r="C161" s="410">
+      <c r="C161" s="425">
         <v>852</v>
       </c>
       <c r="D161" s="278" t="s">
@@ -29266,8 +29272,8 @@
       <c r="BF161" s="171"/>
     </row>
     <row r="162" spans="2:58">
-      <c r="B162" s="416"/>
-      <c r="C162" s="411"/>
+      <c r="B162" s="415"/>
+      <c r="C162" s="426"/>
       <c r="D162" s="135"/>
       <c r="E162" s="133"/>
       <c r="F162" s="133" t="s">
@@ -29307,8 +29313,8 @@
       <c r="BF162" s="171"/>
     </row>
     <row r="163" spans="2:58">
-      <c r="B163" s="416"/>
-      <c r="C163" s="411"/>
+      <c r="B163" s="415"/>
+      <c r="C163" s="426"/>
       <c r="D163" s="135"/>
       <c r="E163" s="133"/>
       <c r="F163" s="133"/>
@@ -29348,8 +29354,8 @@
       <c r="BF163" s="171"/>
     </row>
     <row r="164" spans="2:58">
-      <c r="B164" s="416"/>
-      <c r="C164" s="411"/>
+      <c r="B164" s="415"/>
+      <c r="C164" s="426"/>
       <c r="D164" s="135"/>
       <c r="E164" s="133"/>
       <c r="F164" s="133"/>
@@ -29389,8 +29395,8 @@
       <c r="BF164" s="171"/>
     </row>
     <row r="165" spans="2:58">
-      <c r="B165" s="417"/>
-      <c r="C165" s="412"/>
+      <c r="B165" s="411"/>
+      <c r="C165" s="413"/>
       <c r="D165" s="152"/>
       <c r="E165" s="144"/>
       <c r="F165" s="144"/>
@@ -29430,10 +29436,10 @@
       <c r="BF165" s="171"/>
     </row>
     <row r="166" spans="2:58">
-      <c r="B166" s="415" t="s">
+      <c r="B166" s="410" t="s">
         <v>408</v>
       </c>
-      <c r="C166" s="410">
+      <c r="C166" s="425">
         <v>854</v>
       </c>
       <c r="D166" s="151" t="s">
@@ -29496,8 +29502,8 @@
       <c r="BF166" s="171"/>
     </row>
     <row r="167" spans="2:58">
-      <c r="B167" s="416"/>
-      <c r="C167" s="411"/>
+      <c r="B167" s="415"/>
+      <c r="C167" s="426"/>
       <c r="D167" s="135"/>
       <c r="E167" s="133" t="s">
         <v>308</v>
@@ -29537,8 +29543,8 @@
       <c r="BF167" s="171"/>
     </row>
     <row r="168" spans="2:58">
-      <c r="B168" s="416"/>
-      <c r="C168" s="411"/>
+      <c r="B168" s="415"/>
+      <c r="C168" s="426"/>
       <c r="D168" s="135"/>
       <c r="E168" s="133"/>
       <c r="F168" s="133" t="s">
@@ -29578,8 +29584,8 @@
       <c r="BF168" s="171"/>
     </row>
     <row r="169" spans="2:58">
-      <c r="B169" s="416"/>
-      <c r="C169" s="411"/>
+      <c r="B169" s="415"/>
+      <c r="C169" s="426"/>
       <c r="D169" s="135"/>
       <c r="E169" s="133"/>
       <c r="F169" s="133"/>
@@ -29619,8 +29625,8 @@
       <c r="BF169" s="171"/>
     </row>
     <row r="170" spans="2:58">
-      <c r="B170" s="416"/>
-      <c r="C170" s="411"/>
+      <c r="B170" s="415"/>
+      <c r="C170" s="426"/>
       <c r="D170" s="135"/>
       <c r="E170" s="133"/>
       <c r="F170" s="133"/>
@@ -29660,8 +29666,8 @@
       <c r="BF170" s="171"/>
     </row>
     <row r="171" spans="2:58">
-      <c r="B171" s="417"/>
-      <c r="C171" s="412"/>
+      <c r="B171" s="411"/>
+      <c r="C171" s="413"/>
       <c r="D171" s="152"/>
       <c r="E171" s="144"/>
       <c r="F171" s="144"/>
@@ -29701,10 +29707,10 @@
       <c r="BF171" s="171"/>
     </row>
     <row r="172" spans="2:58">
-      <c r="B172" s="415" t="s">
+      <c r="B172" s="410" t="s">
         <v>410</v>
       </c>
-      <c r="C172" s="410">
+      <c r="C172" s="425">
         <v>914</v>
       </c>
       <c r="D172" s="151" t="s">
@@ -29764,8 +29770,8 @@
       <c r="BF172" s="171"/>
     </row>
     <row r="173" spans="2:58">
-      <c r="B173" s="416"/>
-      <c r="C173" s="411"/>
+      <c r="B173" s="415"/>
+      <c r="C173" s="426"/>
       <c r="D173" s="135"/>
       <c r="E173" s="133" t="s">
         <v>296</v>
@@ -29805,8 +29811,8 @@
       <c r="BF173" s="171"/>
     </row>
     <row r="174" spans="2:58">
-      <c r="B174" s="416"/>
-      <c r="C174" s="411"/>
+      <c r="B174" s="415"/>
+      <c r="C174" s="426"/>
       <c r="D174" s="135"/>
       <c r="E174" s="133"/>
       <c r="F174" s="133" t="s">
@@ -29846,8 +29852,8 @@
       <c r="BF174" s="171"/>
     </row>
     <row r="175" spans="2:58">
-      <c r="B175" s="416"/>
-      <c r="C175" s="411"/>
+      <c r="B175" s="415"/>
+      <c r="C175" s="426"/>
       <c r="D175" s="135"/>
       <c r="E175" s="133"/>
       <c r="F175" s="133"/>
@@ -29887,8 +29893,8 @@
       <c r="BF175" s="171"/>
     </row>
     <row r="176" spans="2:58">
-      <c r="B176" s="417"/>
-      <c r="C176" s="412"/>
+      <c r="B176" s="411"/>
+      <c r="C176" s="413"/>
       <c r="D176" s="152"/>
       <c r="E176" s="144"/>
       <c r="F176" s="144"/>
@@ -29928,10 +29934,10 @@
       <c r="BF176" s="171"/>
     </row>
     <row r="177" spans="2:58">
-      <c r="B177" s="415" t="s">
+      <c r="B177" s="410" t="s">
         <v>411</v>
       </c>
-      <c r="C177" s="410">
+      <c r="C177" s="425">
         <v>951</v>
       </c>
       <c r="D177" s="151" t="s">
@@ -30000,8 +30006,8 @@
       <c r="BF177" s="171"/>
     </row>
     <row r="178" spans="2:58">
-      <c r="B178" s="416"/>
-      <c r="C178" s="411"/>
+      <c r="B178" s="415"/>
+      <c r="C178" s="426"/>
       <c r="D178" s="189"/>
       <c r="E178" s="237" t="s">
         <v>414</v>
@@ -30048,8 +30054,8 @@
       <c r="BF178" s="171"/>
     </row>
     <row r="179" spans="2:58">
-      <c r="B179" s="416"/>
-      <c r="C179" s="411"/>
+      <c r="B179" s="415"/>
+      <c r="C179" s="426"/>
       <c r="D179" s="135"/>
       <c r="E179" s="133"/>
       <c r="F179" s="133" t="s">
@@ -30089,8 +30095,8 @@
       <c r="BF179" s="171"/>
     </row>
     <row r="180" spans="2:58">
-      <c r="B180" s="416"/>
-      <c r="C180" s="411"/>
+      <c r="B180" s="415"/>
+      <c r="C180" s="426"/>
       <c r="D180" s="135"/>
       <c r="E180" s="133"/>
       <c r="F180" s="133"/>
@@ -30130,8 +30136,8 @@
       <c r="BF180" s="171"/>
     </row>
     <row r="181" spans="2:58">
-      <c r="B181" s="416"/>
-      <c r="C181" s="411"/>
+      <c r="B181" s="415"/>
+      <c r="C181" s="426"/>
       <c r="D181" s="135"/>
       <c r="E181" s="133"/>
       <c r="F181" s="133"/>
@@ -30171,8 +30177,8 @@
       <c r="BF181" s="171"/>
     </row>
     <row r="182" spans="2:58">
-      <c r="B182" s="416"/>
-      <c r="C182" s="411"/>
+      <c r="B182" s="415"/>
+      <c r="C182" s="426"/>
       <c r="D182" s="135"/>
       <c r="E182" s="133"/>
       <c r="F182" s="133"/>
@@ -30212,8 +30218,8 @@
       <c r="BF182" s="171"/>
     </row>
     <row r="183" spans="2:58">
-      <c r="B183" s="416"/>
-      <c r="C183" s="411"/>
+      <c r="B183" s="415"/>
+      <c r="C183" s="426"/>
       <c r="D183" s="135"/>
       <c r="E183" s="133"/>
       <c r="F183" s="133"/>
@@ -30253,8 +30259,8 @@
       <c r="BF183" s="171"/>
     </row>
     <row r="184" spans="2:58">
-      <c r="B184" s="417"/>
-      <c r="C184" s="412"/>
+      <c r="B184" s="411"/>
+      <c r="C184" s="413"/>
       <c r="D184" s="152"/>
       <c r="E184" s="144"/>
       <c r="F184" s="144"/>
@@ -30355,10 +30361,10 @@
       <c r="BF184" s="171"/>
     </row>
     <row r="185" spans="2:58">
-      <c r="B185" s="415" t="s">
+      <c r="B185" s="410" t="s">
         <v>417</v>
       </c>
-      <c r="C185" s="410">
+      <c r="C185" s="425">
         <v>1015</v>
       </c>
       <c r="D185" s="185" t="s">
@@ -30443,8 +30449,8 @@
       <c r="BF185" s="171"/>
     </row>
     <row r="186" spans="2:58">
-      <c r="B186" s="416"/>
-      <c r="C186" s="411"/>
+      <c r="B186" s="415"/>
+      <c r="C186" s="426"/>
       <c r="D186" s="189"/>
       <c r="E186" s="237" t="s">
         <v>274</v>
@@ -30519,8 +30525,8 @@
       <c r="BF186" s="171"/>
     </row>
     <row r="187" spans="2:58">
-      <c r="B187" s="417"/>
-      <c r="C187" s="412"/>
+      <c r="B187" s="411"/>
+      <c r="C187" s="413"/>
       <c r="D187" s="152"/>
       <c r="E187" s="144"/>
       <c r="F187" s="144" t="s">
@@ -30647,10 +30653,10 @@
       <c r="BF188" s="171"/>
     </row>
     <row r="189" spans="2:58">
-      <c r="B189" s="415" t="s">
+      <c r="B189" s="410" t="s">
         <v>439</v>
       </c>
-      <c r="C189" s="410">
+      <c r="C189" s="425">
         <v>1018</v>
       </c>
       <c r="D189" s="151" t="s">
@@ -30725,8 +30731,8 @@
       <c r="BF189" s="171"/>
     </row>
     <row r="190" spans="2:58">
-      <c r="B190" s="417"/>
-      <c r="C190" s="412"/>
+      <c r="B190" s="411"/>
+      <c r="C190" s="413"/>
       <c r="D190" s="152"/>
       <c r="E190" s="144" t="s">
         <v>294</v>
@@ -30766,10 +30772,10 @@
       <c r="BF190" s="171"/>
     </row>
     <row r="191" spans="2:58">
-      <c r="B191" s="415" t="s">
+      <c r="B191" s="410" t="s">
         <v>440</v>
       </c>
-      <c r="C191" s="410">
+      <c r="C191" s="425">
         <v>1025</v>
       </c>
       <c r="D191" s="151" t="s">
@@ -30863,8 +30869,8 @@
       <c r="BF191" s="171"/>
     </row>
     <row r="192" spans="2:58">
-      <c r="B192" s="416"/>
-      <c r="C192" s="411"/>
+      <c r="B192" s="415"/>
+      <c r="C192" s="426"/>
       <c r="D192" s="135"/>
       <c r="E192" s="133" t="s">
         <v>294</v>
@@ -30904,8 +30910,8 @@
       <c r="BF192" s="171"/>
     </row>
     <row r="193" spans="2:58">
-      <c r="B193" s="416"/>
-      <c r="C193" s="411"/>
+      <c r="B193" s="415"/>
+      <c r="C193" s="426"/>
       <c r="D193" s="135"/>
       <c r="E193" s="133"/>
       <c r="F193" s="133" t="s">
@@ -30945,8 +30951,8 @@
       <c r="BF193" s="171"/>
     </row>
     <row r="194" spans="2:58">
-      <c r="B194" s="416"/>
-      <c r="C194" s="411"/>
+      <c r="B194" s="415"/>
+      <c r="C194" s="426"/>
       <c r="D194" s="135"/>
       <c r="E194" s="133"/>
       <c r="F194" s="133"/>
@@ -30986,8 +30992,8 @@
       <c r="BF194" s="171"/>
     </row>
     <row r="195" spans="2:58">
-      <c r="B195" s="416"/>
-      <c r="C195" s="411"/>
+      <c r="B195" s="415"/>
+      <c r="C195" s="426"/>
       <c r="D195" s="135"/>
       <c r="E195" s="133"/>
       <c r="F195" s="133"/>
@@ -31027,8 +31033,8 @@
       <c r="BF195" s="171"/>
     </row>
     <row r="196" spans="2:58">
-      <c r="B196" s="416"/>
-      <c r="C196" s="411"/>
+      <c r="B196" s="415"/>
+      <c r="C196" s="426"/>
       <c r="D196" s="135"/>
       <c r="E196" s="133"/>
       <c r="F196" s="133"/>
@@ -31068,8 +31074,8 @@
       <c r="BF196" s="171"/>
     </row>
     <row r="197" spans="2:58">
-      <c r="B197" s="416"/>
-      <c r="C197" s="411"/>
+      <c r="B197" s="415"/>
+      <c r="C197" s="426"/>
       <c r="D197" s="135"/>
       <c r="E197" s="133"/>
       <c r="F197" s="133"/>
@@ -31109,8 +31115,8 @@
       <c r="BF197" s="171"/>
     </row>
     <row r="198" spans="2:58">
-      <c r="B198" s="417"/>
-      <c r="C198" s="412"/>
+      <c r="B198" s="411"/>
+      <c r="C198" s="413"/>
       <c r="D198" s="152"/>
       <c r="E198" s="144"/>
       <c r="F198" s="144"/>
@@ -31150,10 +31156,10 @@
       <c r="BF198" s="171"/>
     </row>
     <row r="199" spans="2:58">
-      <c r="B199" s="415" t="s">
+      <c r="B199" s="410" t="s">
         <v>447</v>
       </c>
-      <c r="C199" s="410">
+      <c r="C199" s="425">
         <v>1029</v>
       </c>
       <c r="D199" s="151" t="s">
@@ -31222,8 +31228,8 @@
       <c r="BF199" s="171"/>
     </row>
     <row r="200" spans="2:58">
-      <c r="B200" s="416"/>
-      <c r="C200" s="411"/>
+      <c r="B200" s="415"/>
+      <c r="C200" s="426"/>
       <c r="D200" s="135"/>
       <c r="E200" s="133" t="s">
         <v>294</v>
@@ -31263,8 +31269,8 @@
       <c r="BF200" s="171"/>
     </row>
     <row r="201" spans="2:58">
-      <c r="B201" s="416"/>
-      <c r="C201" s="411"/>
+      <c r="B201" s="415"/>
+      <c r="C201" s="426"/>
       <c r="D201" s="135"/>
       <c r="E201" s="133"/>
       <c r="F201" s="133" t="s">
@@ -31304,8 +31310,8 @@
       <c r="BF201" s="171"/>
     </row>
     <row r="202" spans="2:58">
-      <c r="B202" s="416"/>
-      <c r="C202" s="411"/>
+      <c r="B202" s="415"/>
+      <c r="C202" s="426"/>
       <c r="D202" s="135"/>
       <c r="E202" s="133"/>
       <c r="F202" s="133"/>
@@ -31345,8 +31351,8 @@
       <c r="BF202" s="171"/>
     </row>
     <row r="203" spans="2:58">
-      <c r="B203" s="416"/>
-      <c r="C203" s="411"/>
+      <c r="B203" s="415"/>
+      <c r="C203" s="426"/>
       <c r="D203" s="135"/>
       <c r="E203" s="133"/>
       <c r="F203" s="133"/>
@@ -31386,8 +31392,8 @@
       <c r="BF203" s="171"/>
     </row>
     <row r="204" spans="2:58">
-      <c r="B204" s="416"/>
-      <c r="C204" s="411"/>
+      <c r="B204" s="415"/>
+      <c r="C204" s="426"/>
       <c r="D204" s="135"/>
       <c r="E204" s="133"/>
       <c r="F204" s="133"/>
@@ -31427,8 +31433,8 @@
       <c r="BF204" s="171"/>
     </row>
     <row r="205" spans="2:58">
-      <c r="B205" s="416"/>
-      <c r="C205" s="411"/>
+      <c r="B205" s="415"/>
+      <c r="C205" s="426"/>
       <c r="D205" s="135"/>
       <c r="E205" s="133"/>
       <c r="F205" s="133"/>
@@ -31468,8 +31474,8 @@
       <c r="BF205" s="171"/>
     </row>
     <row r="206" spans="2:58">
-      <c r="B206" s="417"/>
-      <c r="C206" s="412"/>
+      <c r="B206" s="411"/>
+      <c r="C206" s="413"/>
       <c r="D206" s="152"/>
       <c r="E206" s="144"/>
       <c r="F206" s="144"/>
@@ -31509,10 +31515,10 @@
       <c r="BF206" s="171"/>
     </row>
     <row r="207" spans="2:58">
-      <c r="B207" s="415" t="s">
+      <c r="B207" s="410" t="s">
         <v>449</v>
       </c>
-      <c r="C207" s="410">
+      <c r="C207" s="425">
         <v>1075</v>
       </c>
       <c r="D207" s="151" t="s">
@@ -31578,8 +31584,8 @@
       <c r="BF207" s="171"/>
     </row>
     <row r="208" spans="2:58">
-      <c r="B208" s="416"/>
-      <c r="C208" s="411"/>
+      <c r="B208" s="415"/>
+      <c r="C208" s="426"/>
       <c r="D208" s="135"/>
       <c r="E208" s="133" t="s">
         <v>294</v>
@@ -31619,8 +31625,8 @@
       <c r="BF208" s="171"/>
     </row>
     <row r="209" spans="2:58">
-      <c r="B209" s="416"/>
-      <c r="C209" s="411"/>
+      <c r="B209" s="415"/>
+      <c r="C209" s="426"/>
       <c r="D209" s="135"/>
       <c r="E209" s="133"/>
       <c r="F209" s="133" t="s">
@@ -31660,8 +31666,8 @@
       <c r="BF209" s="171"/>
     </row>
     <row r="210" spans="2:58">
-      <c r="B210" s="416"/>
-      <c r="C210" s="411"/>
+      <c r="B210" s="415"/>
+      <c r="C210" s="426"/>
       <c r="D210" s="135"/>
       <c r="E210" s="133"/>
       <c r="F210" s="133"/>
@@ -31701,8 +31707,8 @@
       <c r="BF210" s="171"/>
     </row>
     <row r="211" spans="2:58">
-      <c r="B211" s="416"/>
-      <c r="C211" s="411"/>
+      <c r="B211" s="415"/>
+      <c r="C211" s="426"/>
       <c r="D211" s="135"/>
       <c r="E211" s="133"/>
       <c r="F211" s="133"/>
@@ -31742,8 +31748,8 @@
       <c r="BF211" s="171"/>
     </row>
     <row r="212" spans="2:58">
-      <c r="B212" s="416"/>
-      <c r="C212" s="411"/>
+      <c r="B212" s="415"/>
+      <c r="C212" s="426"/>
       <c r="D212" s="135"/>
       <c r="E212" s="133"/>
       <c r="F212" s="133"/>
@@ -31783,8 +31789,8 @@
       <c r="BF212" s="171"/>
     </row>
     <row r="213" spans="2:58">
-      <c r="B213" s="417"/>
-      <c r="C213" s="412"/>
+      <c r="B213" s="411"/>
+      <c r="C213" s="413"/>
       <c r="D213" s="152"/>
       <c r="E213" s="144"/>
       <c r="F213" s="144"/>
@@ -31824,10 +31830,10 @@
       <c r="BF213" s="171"/>
     </row>
     <row r="214" spans="2:58">
-      <c r="B214" s="415" t="s">
+      <c r="B214" s="410" t="s">
         <v>453</v>
       </c>
-      <c r="C214" s="410">
+      <c r="C214" s="425">
         <v>1116</v>
       </c>
       <c r="D214" s="151" t="s">
@@ -31884,8 +31890,8 @@
       <c r="BF214" s="171"/>
     </row>
     <row r="215" spans="2:58">
-      <c r="B215" s="416"/>
-      <c r="C215" s="411"/>
+      <c r="B215" s="415"/>
+      <c r="C215" s="426"/>
       <c r="D215" s="135"/>
       <c r="E215" s="133" t="s">
         <v>294</v>
@@ -31925,8 +31931,8 @@
       <c r="BF215" s="171"/>
     </row>
     <row r="216" spans="2:58">
-      <c r="B216" s="416"/>
-      <c r="C216" s="411"/>
+      <c r="B216" s="415"/>
+      <c r="C216" s="426"/>
       <c r="D216" s="135"/>
       <c r="E216" s="133"/>
       <c r="F216" s="133" t="s">
@@ -31966,8 +31972,8 @@
       <c r="BF216" s="171"/>
     </row>
     <row r="217" spans="2:58">
-      <c r="B217" s="417"/>
-      <c r="C217" s="412"/>
+      <c r="B217" s="411"/>
+      <c r="C217" s="413"/>
       <c r="D217" s="152"/>
       <c r="E217" s="144"/>
       <c r="F217" s="144"/>
@@ -32007,10 +32013,10 @@
       <c r="BF217" s="171"/>
     </row>
     <row r="218" spans="2:58">
-      <c r="B218" s="415" t="s">
+      <c r="B218" s="410" t="s">
         <v>454</v>
       </c>
-      <c r="C218" s="410">
+      <c r="C218" s="425">
         <v>1188</v>
       </c>
       <c r="D218" s="151" t="s">
@@ -32076,8 +32082,8 @@
       <c r="BF218" s="171"/>
     </row>
     <row r="219" spans="2:58">
-      <c r="B219" s="416"/>
-      <c r="C219" s="411"/>
+      <c r="B219" s="415"/>
+      <c r="C219" s="426"/>
       <c r="D219" s="135"/>
       <c r="E219" s="133" t="s">
         <v>455</v>
@@ -32117,8 +32123,8 @@
       <c r="BF219" s="171"/>
     </row>
     <row r="220" spans="2:58">
-      <c r="B220" s="416"/>
-      <c r="C220" s="411"/>
+      <c r="B220" s="415"/>
+      <c r="C220" s="426"/>
       <c r="D220" s="135"/>
       <c r="E220" s="133"/>
       <c r="F220" s="133" t="s">
@@ -32158,8 +32164,8 @@
       <c r="BF220" s="171"/>
     </row>
     <row r="221" spans="2:58">
-      <c r="B221" s="416"/>
-      <c r="C221" s="411"/>
+      <c r="B221" s="415"/>
+      <c r="C221" s="426"/>
       <c r="D221" s="135"/>
       <c r="E221" s="133"/>
       <c r="F221" s="133"/>
@@ -32199,8 +32205,8 @@
       <c r="BF221" s="171"/>
     </row>
     <row r="222" spans="2:58">
-      <c r="B222" s="416"/>
-      <c r="C222" s="411"/>
+      <c r="B222" s="415"/>
+      <c r="C222" s="426"/>
       <c r="D222" s="135"/>
       <c r="E222" s="133"/>
       <c r="F222" s="133"/>
@@ -32240,8 +32246,8 @@
       <c r="BF222" s="171"/>
     </row>
     <row r="223" spans="2:58">
-      <c r="B223" s="416"/>
-      <c r="C223" s="411"/>
+      <c r="B223" s="415"/>
+      <c r="C223" s="426"/>
       <c r="D223" s="135"/>
       <c r="E223" s="133"/>
       <c r="F223" s="133"/>
@@ -32281,8 +32287,8 @@
       <c r="BF223" s="171"/>
     </row>
     <row r="224" spans="2:58">
-      <c r="B224" s="417"/>
-      <c r="C224" s="412"/>
+      <c r="B224" s="411"/>
+      <c r="C224" s="413"/>
       <c r="D224" s="152"/>
       <c r="E224" s="144"/>
       <c r="F224" s="144"/>
@@ -32383,10 +32389,10 @@
       <c r="BF225" s="171"/>
     </row>
     <row r="226" spans="2:58">
-      <c r="B226" s="415" t="s">
+      <c r="B226" s="410" t="s">
         <v>457</v>
       </c>
-      <c r="C226" s="410">
+      <c r="C226" s="425">
         <v>1272</v>
       </c>
       <c r="D226" s="185" t="s">
@@ -32465,8 +32471,8 @@
       <c r="BF226" s="171"/>
     </row>
     <row r="227" spans="2:58">
-      <c r="B227" s="416"/>
-      <c r="C227" s="411"/>
+      <c r="B227" s="415"/>
+      <c r="C227" s="426"/>
       <c r="D227" s="135"/>
       <c r="E227" s="133" t="s">
         <v>399</v>
@@ -32506,8 +32512,8 @@
       <c r="BF227" s="171"/>
     </row>
     <row r="228" spans="2:58">
-      <c r="B228" s="416"/>
-      <c r="C228" s="411"/>
+      <c r="B228" s="415"/>
+      <c r="C228" s="426"/>
       <c r="D228" s="135"/>
       <c r="E228" s="133"/>
       <c r="F228" s="133" t="s">
@@ -32547,8 +32553,8 @@
       <c r="BF228" s="171"/>
     </row>
     <row r="229" spans="2:58">
-      <c r="B229" s="416"/>
-      <c r="C229" s="411"/>
+      <c r="B229" s="415"/>
+      <c r="C229" s="426"/>
       <c r="D229" s="217"/>
       <c r="E229" s="240"/>
       <c r="F229" s="240"/>
@@ -32592,8 +32598,8 @@
       <c r="BF229" s="171"/>
     </row>
     <row r="230" spans="2:58">
-      <c r="B230" s="416"/>
-      <c r="C230" s="411"/>
+      <c r="B230" s="415"/>
+      <c r="C230" s="426"/>
       <c r="D230" s="135"/>
       <c r="E230" s="133"/>
       <c r="F230" s="133"/>
@@ -32633,8 +32639,8 @@
       <c r="BF230" s="171"/>
     </row>
     <row r="231" spans="2:58">
-      <c r="B231" s="416"/>
-      <c r="C231" s="411"/>
+      <c r="B231" s="415"/>
+      <c r="C231" s="426"/>
       <c r="D231" s="135"/>
       <c r="E231" s="133"/>
       <c r="F231" s="133"/>
@@ -32674,8 +32680,8 @@
       <c r="BF231" s="171"/>
     </row>
     <row r="232" spans="2:58">
-      <c r="B232" s="424"/>
-      <c r="C232" s="414"/>
+      <c r="B232" s="416"/>
+      <c r="C232" s="429"/>
       <c r="D232" s="152"/>
       <c r="E232" s="144"/>
       <c r="F232" s="144"/>
@@ -32715,10 +32721,10 @@
       <c r="BF232" s="171"/>
     </row>
     <row r="233" spans="2:58">
-      <c r="B233" s="416" t="s">
+      <c r="B233" s="415" t="s">
         <v>460</v>
       </c>
-      <c r="C233" s="411">
+      <c r="C233" s="426">
         <v>1274</v>
       </c>
       <c r="D233" s="151" t="s">
@@ -32769,8 +32775,8 @@
       <c r="BF233" s="171"/>
     </row>
     <row r="234" spans="2:58">
-      <c r="B234" s="417"/>
-      <c r="C234" s="412"/>
+      <c r="B234" s="411"/>
+      <c r="C234" s="413"/>
       <c r="D234" s="152"/>
       <c r="E234" s="144" t="s">
         <v>294</v>
@@ -32958,10 +32964,10 @@
       <c r="BF236" s="171"/>
     </row>
     <row r="237" spans="2:58">
-      <c r="B237" s="415" t="s">
+      <c r="B237" s="410" t="s">
         <v>470</v>
       </c>
-      <c r="C237" s="410">
+      <c r="C237" s="425">
         <v>1362</v>
       </c>
       <c r="D237" s="151" t="s">
@@ -33012,8 +33018,8 @@
       <c r="BF237" s="171"/>
     </row>
     <row r="238" spans="2:58">
-      <c r="B238" s="417"/>
-      <c r="C238" s="412"/>
+      <c r="B238" s="411"/>
+      <c r="C238" s="413"/>
       <c r="D238" s="152"/>
       <c r="E238" s="144" t="s">
         <v>339</v>
@@ -33053,10 +33059,10 @@
       <c r="BF238" s="171"/>
     </row>
     <row r="239" spans="2:58">
-      <c r="B239" s="415" t="s">
+      <c r="B239" s="410" t="s">
         <v>471</v>
       </c>
-      <c r="C239" s="410">
+      <c r="C239" s="425">
         <v>1373</v>
       </c>
       <c r="D239" s="151" t="s">
@@ -33125,8 +33131,8 @@
       <c r="BF239" s="171"/>
     </row>
     <row r="240" spans="2:58">
-      <c r="B240" s="416"/>
-      <c r="C240" s="411"/>
+      <c r="B240" s="415"/>
+      <c r="C240" s="426"/>
       <c r="D240" s="135"/>
       <c r="E240" s="133" t="s">
         <v>472</v>
@@ -33166,8 +33172,8 @@
       <c r="BF240" s="171"/>
     </row>
     <row r="241" spans="2:58">
-      <c r="B241" s="416"/>
-      <c r="C241" s="411"/>
+      <c r="B241" s="415"/>
+      <c r="C241" s="426"/>
       <c r="D241" s="135"/>
       <c r="E241" s="133"/>
       <c r="F241" s="133" t="s">
@@ -33207,8 +33213,8 @@
       <c r="BF241" s="171"/>
     </row>
     <row r="242" spans="2:58">
-      <c r="B242" s="416"/>
-      <c r="C242" s="411"/>
+      <c r="B242" s="415"/>
+      <c r="C242" s="426"/>
       <c r="D242" s="135"/>
       <c r="E242" s="133"/>
       <c r="F242" s="133"/>
@@ -33248,8 +33254,8 @@
       <c r="BF242" s="171"/>
     </row>
     <row r="243" spans="2:58">
-      <c r="B243" s="416"/>
-      <c r="C243" s="411"/>
+      <c r="B243" s="415"/>
+      <c r="C243" s="426"/>
       <c r="D243" s="135"/>
       <c r="E243" s="133"/>
       <c r="F243" s="133"/>
@@ -33289,8 +33295,8 @@
       <c r="BF243" s="171"/>
     </row>
     <row r="244" spans="2:58">
-      <c r="B244" s="416"/>
-      <c r="C244" s="411"/>
+      <c r="B244" s="415"/>
+      <c r="C244" s="426"/>
       <c r="D244" s="135"/>
       <c r="E244" s="133"/>
       <c r="F244" s="133"/>
@@ -33330,8 +33336,8 @@
       <c r="BF244" s="171"/>
     </row>
     <row r="245" spans="2:58">
-      <c r="B245" s="416"/>
-      <c r="C245" s="411"/>
+      <c r="B245" s="415"/>
+      <c r="C245" s="426"/>
       <c r="D245" s="135"/>
       <c r="E245" s="133"/>
       <c r="F245" s="133"/>
@@ -33371,8 +33377,8 @@
       <c r="BF245" s="171"/>
     </row>
     <row r="246" spans="2:58">
-      <c r="B246" s="417"/>
-      <c r="C246" s="412"/>
+      <c r="B246" s="411"/>
+      <c r="C246" s="413"/>
       <c r="D246" s="192"/>
       <c r="E246" s="193"/>
       <c r="F246" s="193"/>
@@ -33416,10 +33422,10 @@
       <c r="BF246" s="171"/>
     </row>
     <row r="247" spans="2:58">
-      <c r="B247" s="415" t="s">
+      <c r="B247" s="410" t="s">
         <v>476</v>
       </c>
-      <c r="C247" s="410">
+      <c r="C247" s="425">
         <v>1379</v>
       </c>
       <c r="D247" s="151" t="s">
@@ -33470,8 +33476,8 @@
       <c r="BF247" s="171"/>
     </row>
     <row r="248" spans="2:58">
-      <c r="B248" s="417"/>
-      <c r="C248" s="412"/>
+      <c r="B248" s="411"/>
+      <c r="C248" s="413"/>
       <c r="D248" s="152"/>
       <c r="E248" s="144" t="s">
         <v>430</v>
@@ -33511,10 +33517,10 @@
       <c r="BF248" s="171"/>
     </row>
     <row r="249" spans="2:58">
-      <c r="B249" s="415" t="s">
+      <c r="B249" s="410" t="s">
         <v>477</v>
       </c>
-      <c r="C249" s="410">
+      <c r="C249" s="425">
         <v>1380</v>
       </c>
       <c r="D249" s="151" t="s">
@@ -33565,8 +33571,8 @@
       <c r="BF249" s="171"/>
     </row>
     <row r="250" spans="2:58">
-      <c r="B250" s="417"/>
-      <c r="C250" s="412"/>
+      <c r="B250" s="411"/>
+      <c r="C250" s="413"/>
       <c r="D250" s="152"/>
       <c r="E250" s="144" t="s">
         <v>428</v>
@@ -33606,10 +33612,10 @@
       <c r="BF250" s="171"/>
     </row>
     <row r="251" spans="2:58">
-      <c r="B251" s="415" t="s">
+      <c r="B251" s="410" t="s">
         <v>478</v>
       </c>
-      <c r="C251" s="410">
+      <c r="C251" s="425">
         <v>1397</v>
       </c>
       <c r="D251" s="151" t="s">
@@ -33660,8 +33666,8 @@
       <c r="BF251" s="171"/>
     </row>
     <row r="252" spans="2:58">
-      <c r="B252" s="417"/>
-      <c r="C252" s="412"/>
+      <c r="B252" s="411"/>
+      <c r="C252" s="413"/>
       <c r="D252" s="152"/>
       <c r="E252" s="144" t="s">
         <v>399</v>
@@ -33701,10 +33707,10 @@
       <c r="BF252" s="171"/>
     </row>
     <row r="253" spans="2:58">
-      <c r="B253" s="415" t="s">
+      <c r="B253" s="410" t="s">
         <v>480</v>
       </c>
-      <c r="C253" s="410">
+      <c r="C253" s="425">
         <v>1401</v>
       </c>
       <c r="D253" s="151" t="s">
@@ -33773,8 +33779,8 @@
       <c r="BF253" s="171"/>
     </row>
     <row r="254" spans="2:58">
-      <c r="B254" s="416"/>
-      <c r="C254" s="411"/>
+      <c r="B254" s="415"/>
+      <c r="C254" s="426"/>
       <c r="D254" s="135"/>
       <c r="E254" s="133" t="s">
         <v>481</v>
@@ -33814,8 +33820,8 @@
       <c r="BF254" s="171"/>
     </row>
     <row r="255" spans="2:58">
-      <c r="B255" s="416"/>
-      <c r="C255" s="411"/>
+      <c r="B255" s="415"/>
+      <c r="C255" s="426"/>
       <c r="D255" s="135"/>
       <c r="E255" s="133"/>
       <c r="F255" s="133" t="s">
@@ -33855,8 +33861,8 @@
       <c r="BF255" s="171"/>
     </row>
     <row r="256" spans="2:58">
-      <c r="B256" s="416"/>
-      <c r="C256" s="411"/>
+      <c r="B256" s="415"/>
+      <c r="C256" s="426"/>
       <c r="D256" s="135"/>
       <c r="E256" s="133"/>
       <c r="F256" s="133"/>
@@ -33896,8 +33902,8 @@
       <c r="BF256" s="171"/>
     </row>
     <row r="257" spans="2:58">
-      <c r="B257" s="416"/>
-      <c r="C257" s="411"/>
+      <c r="B257" s="415"/>
+      <c r="C257" s="426"/>
       <c r="D257" s="135"/>
       <c r="E257" s="133"/>
       <c r="F257" s="133"/>
@@ -33937,8 +33943,8 @@
       <c r="BF257" s="171"/>
     </row>
     <row r="258" spans="2:58">
-      <c r="B258" s="416"/>
-      <c r="C258" s="411"/>
+      <c r="B258" s="415"/>
+      <c r="C258" s="426"/>
       <c r="D258" s="135"/>
       <c r="E258" s="133"/>
       <c r="F258" s="133"/>
@@ -33978,8 +33984,8 @@
       <c r="BF258" s="171"/>
     </row>
     <row r="259" spans="2:58">
-      <c r="B259" s="416"/>
-      <c r="C259" s="411"/>
+      <c r="B259" s="415"/>
+      <c r="C259" s="426"/>
       <c r="D259" s="135"/>
       <c r="E259" s="133"/>
       <c r="F259" s="133"/>
@@ -34019,8 +34025,8 @@
       <c r="BF259" s="171"/>
     </row>
     <row r="260" spans="2:58">
-      <c r="B260" s="417"/>
-      <c r="C260" s="412"/>
+      <c r="B260" s="411"/>
+      <c r="C260" s="413"/>
       <c r="D260" s="152"/>
       <c r="E260" s="144"/>
       <c r="F260" s="144"/>
@@ -34060,10 +34066,10 @@
       <c r="BF260" s="171"/>
     </row>
     <row r="261" spans="2:58">
-      <c r="B261" s="415" t="s">
+      <c r="B261" s="410" t="s">
         <v>483</v>
       </c>
-      <c r="C261" s="410">
+      <c r="C261" s="425">
         <v>1430</v>
       </c>
       <c r="D261" s="151" t="s">
@@ -34132,8 +34138,8 @@
       <c r="BF261" s="171"/>
     </row>
     <row r="262" spans="2:58">
-      <c r="B262" s="416"/>
-      <c r="C262" s="411"/>
+      <c r="B262" s="415"/>
+      <c r="C262" s="426"/>
       <c r="D262" s="135"/>
       <c r="E262" s="133" t="s">
         <v>481</v>
@@ -34173,8 +34179,8 @@
       <c r="BF262" s="171"/>
     </row>
     <row r="263" spans="2:58">
-      <c r="B263" s="416"/>
-      <c r="C263" s="411"/>
+      <c r="B263" s="415"/>
+      <c r="C263" s="426"/>
       <c r="D263" s="135"/>
       <c r="E263" s="133"/>
       <c r="F263" s="133" t="s">
@@ -34214,8 +34220,8 @@
       <c r="BF263" s="171"/>
     </row>
     <row r="264" spans="2:58">
-      <c r="B264" s="416"/>
-      <c r="C264" s="411"/>
+      <c r="B264" s="415"/>
+      <c r="C264" s="426"/>
       <c r="D264" s="135"/>
       <c r="E264" s="133"/>
       <c r="F264" s="133"/>
@@ -34255,8 +34261,8 @@
       <c r="BF264" s="171"/>
     </row>
     <row r="265" spans="2:58">
-      <c r="B265" s="416"/>
-      <c r="C265" s="411"/>
+      <c r="B265" s="415"/>
+      <c r="C265" s="426"/>
       <c r="D265" s="135"/>
       <c r="E265" s="133"/>
       <c r="F265" s="133"/>
@@ -34296,8 +34302,8 @@
       <c r="BF265" s="171"/>
     </row>
     <row r="266" spans="2:58">
-      <c r="B266" s="416"/>
-      <c r="C266" s="411"/>
+      <c r="B266" s="415"/>
+      <c r="C266" s="426"/>
       <c r="D266" s="135"/>
       <c r="E266" s="133"/>
       <c r="F266" s="133"/>
@@ -34337,8 +34343,8 @@
       <c r="BF266" s="171"/>
     </row>
     <row r="267" spans="2:58">
-      <c r="B267" s="416"/>
-      <c r="C267" s="411"/>
+      <c r="B267" s="415"/>
+      <c r="C267" s="426"/>
       <c r="D267" s="135"/>
       <c r="E267" s="133"/>
       <c r="F267" s="133"/>
@@ -34378,8 +34384,8 @@
       <c r="BF267" s="171"/>
     </row>
     <row r="268" spans="2:58">
-      <c r="B268" s="417"/>
-      <c r="C268" s="412"/>
+      <c r="B268" s="411"/>
+      <c r="C268" s="413"/>
       <c r="D268" s="152"/>
       <c r="E268" s="144"/>
       <c r="F268" s="144"/>
@@ -34419,10 +34425,10 @@
       <c r="BF268" s="171"/>
     </row>
     <row r="269" spans="2:58">
-      <c r="B269" s="415" t="s">
+      <c r="B269" s="410" t="s">
         <v>486</v>
       </c>
-      <c r="C269" s="410">
+      <c r="C269" s="425">
         <v>1486</v>
       </c>
       <c r="D269" s="151" t="s">
@@ -34476,8 +34482,8 @@
       <c r="BF269" s="171"/>
     </row>
     <row r="270" spans="2:58">
-      <c r="B270" s="416"/>
-      <c r="C270" s="411"/>
+      <c r="B270" s="415"/>
+      <c r="C270" s="426"/>
       <c r="D270" s="135"/>
       <c r="E270" s="133" t="s">
         <v>308</v>
@@ -34517,8 +34523,8 @@
       <c r="BF270" s="171"/>
     </row>
     <row r="271" spans="2:58">
-      <c r="B271" s="417"/>
-      <c r="C271" s="412"/>
+      <c r="B271" s="411"/>
+      <c r="C271" s="413"/>
       <c r="D271" s="152"/>
       <c r="E271" s="144"/>
       <c r="F271" s="144" t="s">
@@ -34558,10 +34564,10 @@
       <c r="BF271" s="171"/>
     </row>
     <row r="272" spans="2:58">
-      <c r="B272" s="415" t="s">
+      <c r="B272" s="410" t="s">
         <v>488</v>
       </c>
-      <c r="C272" s="410">
+      <c r="C272" s="425">
         <v>1495</v>
       </c>
       <c r="D272" s="185" t="s">
@@ -34634,8 +34640,8 @@
       <c r="BF272" s="171"/>
     </row>
     <row r="273" spans="2:58">
-      <c r="B273" s="416"/>
-      <c r="C273" s="411"/>
+      <c r="B273" s="415"/>
+      <c r="C273" s="426"/>
       <c r="D273" s="189"/>
       <c r="E273" s="237"/>
       <c r="F273" s="237" t="s">
@@ -34691,8 +34697,8 @@
       <c r="BF273" s="171"/>
     </row>
     <row r="274" spans="2:58">
-      <c r="B274" s="417"/>
-      <c r="C274" s="412"/>
+      <c r="B274" s="411"/>
+      <c r="C274" s="413"/>
       <c r="D274" s="152"/>
       <c r="E274" s="144"/>
       <c r="F274" s="144"/>
@@ -34732,10 +34738,10 @@
       <c r="BF274" s="171"/>
     </row>
     <row r="275" spans="2:58">
-      <c r="B275" s="415" t="s">
+      <c r="B275" s="410" t="s">
         <v>495</v>
       </c>
-      <c r="C275" s="410">
+      <c r="C275" s="425">
         <v>1498</v>
       </c>
       <c r="D275" s="185" t="s">
@@ -34815,8 +34821,8 @@
       <c r="BF275" s="171"/>
     </row>
     <row r="276" spans="2:58">
-      <c r="B276" s="416"/>
-      <c r="C276" s="411"/>
+      <c r="B276" s="415"/>
+      <c r="C276" s="426"/>
       <c r="D276" s="135"/>
       <c r="E276" s="133" t="s">
         <v>498</v>
@@ -34856,8 +34862,8 @@
       <c r="BF276" s="171"/>
     </row>
     <row r="277" spans="2:58">
-      <c r="B277" s="416"/>
-      <c r="C277" s="411"/>
+      <c r="B277" s="415"/>
+      <c r="C277" s="426"/>
       <c r="D277" s="135"/>
       <c r="E277" s="133"/>
       <c r="F277" s="133" t="s">
@@ -34897,8 +34903,8 @@
       <c r="BF277" s="171"/>
     </row>
     <row r="278" spans="2:58">
-      <c r="B278" s="416"/>
-      <c r="C278" s="411"/>
+      <c r="B278" s="415"/>
+      <c r="C278" s="426"/>
       <c r="D278" s="135"/>
       <c r="E278" s="133"/>
       <c r="F278" s="133"/>
@@ -34938,8 +34944,8 @@
       <c r="BF278" s="171"/>
     </row>
     <row r="279" spans="2:58">
-      <c r="B279" s="416"/>
-      <c r="C279" s="411"/>
+      <c r="B279" s="415"/>
+      <c r="C279" s="426"/>
       <c r="D279" s="135"/>
       <c r="E279" s="133"/>
       <c r="F279" s="133"/>
@@ -34979,8 +34985,8 @@
       <c r="BF279" s="171"/>
     </row>
     <row r="280" spans="2:58">
-      <c r="B280" s="416"/>
-      <c r="C280" s="411"/>
+      <c r="B280" s="415"/>
+      <c r="C280" s="426"/>
       <c r="D280" s="135"/>
       <c r="E280" s="133"/>
       <c r="F280" s="133"/>
@@ -35020,8 +35026,8 @@
       <c r="BF280" s="171"/>
     </row>
     <row r="281" spans="2:58">
-      <c r="B281" s="416"/>
-      <c r="C281" s="411"/>
+      <c r="B281" s="415"/>
+      <c r="C281" s="426"/>
       <c r="D281" s="135"/>
       <c r="E281" s="133"/>
       <c r="F281" s="133"/>
@@ -35061,8 +35067,8 @@
       <c r="BF281" s="171"/>
     </row>
     <row r="282" spans="2:58">
-      <c r="B282" s="417"/>
-      <c r="C282" s="414"/>
+      <c r="B282" s="411"/>
+      <c r="C282" s="429"/>
       <c r="D282" s="152"/>
       <c r="E282" s="144"/>
       <c r="F282" s="144"/>
@@ -35102,10 +35108,10 @@
       <c r="BF282" s="171"/>
     </row>
     <row r="283" spans="2:58">
-      <c r="B283" s="415" t="s">
+      <c r="B283" s="410" t="s">
         <v>242</v>
       </c>
-      <c r="C283" s="411">
+      <c r="C283" s="426">
         <v>1502</v>
       </c>
       <c r="D283" s="185" t="s">
@@ -35228,8 +35234,8 @@
       <c r="BF283" s="171"/>
     </row>
     <row r="284" spans="2:58">
-      <c r="B284" s="416"/>
-      <c r="C284" s="411"/>
+      <c r="B284" s="415"/>
+      <c r="C284" s="426"/>
       <c r="D284" s="189"/>
       <c r="E284" s="237" t="s">
         <v>294</v>
@@ -35291,8 +35297,8 @@
       <c r="BF284" s="171"/>
     </row>
     <row r="285" spans="2:58">
-      <c r="B285" s="416"/>
-      <c r="C285" s="411"/>
+      <c r="B285" s="415"/>
+      <c r="C285" s="426"/>
       <c r="D285" s="189"/>
       <c r="E285" s="237"/>
       <c r="F285" s="237" t="s">
@@ -35336,8 +35342,8 @@
       <c r="BF285" s="171"/>
     </row>
     <row r="286" spans="2:58">
-      <c r="B286" s="416"/>
-      <c r="C286" s="411"/>
+      <c r="B286" s="415"/>
+      <c r="C286" s="426"/>
       <c r="D286" s="135"/>
       <c r="E286" s="133"/>
       <c r="F286" s="133"/>
@@ -35377,8 +35383,8 @@
       <c r="BF286" s="171"/>
     </row>
     <row r="287" spans="2:58">
-      <c r="B287" s="416"/>
-      <c r="C287" s="411"/>
+      <c r="B287" s="415"/>
+      <c r="C287" s="426"/>
       <c r="D287" s="135"/>
       <c r="E287" s="133"/>
       <c r="F287" s="133"/>
@@ -35418,8 +35424,8 @@
       <c r="BF287" s="171"/>
     </row>
     <row r="288" spans="2:58">
-      <c r="B288" s="416"/>
-      <c r="C288" s="411"/>
+      <c r="B288" s="415"/>
+      <c r="C288" s="426"/>
       <c r="D288" s="135"/>
       <c r="E288" s="133"/>
       <c r="F288" s="133"/>
@@ -35459,8 +35465,8 @@
       <c r="BF288" s="171"/>
     </row>
     <row r="289" spans="2:58">
-      <c r="B289" s="416"/>
-      <c r="C289" s="411"/>
+      <c r="B289" s="415"/>
+      <c r="C289" s="426"/>
       <c r="D289" s="135"/>
       <c r="E289" s="133"/>
       <c r="F289" s="133"/>
@@ -35500,8 +35506,8 @@
       <c r="BF289" s="171"/>
     </row>
     <row r="290" spans="2:58">
-      <c r="B290" s="417"/>
-      <c r="C290" s="412"/>
+      <c r="B290" s="411"/>
+      <c r="C290" s="413"/>
       <c r="D290" s="192"/>
       <c r="E290" s="193"/>
       <c r="F290" s="193"/>
@@ -35545,10 +35551,10 @@
       <c r="BF290" s="171"/>
     </row>
     <row r="291" spans="2:58">
-      <c r="B291" s="415" t="s">
+      <c r="B291" s="410" t="s">
         <v>529</v>
       </c>
-      <c r="C291" s="410">
+      <c r="C291" s="425">
         <v>1503</v>
       </c>
       <c r="D291" s="151" t="s">
@@ -35599,8 +35605,8 @@
       <c r="BF291" s="171"/>
     </row>
     <row r="292" spans="2:58">
-      <c r="B292" s="417"/>
-      <c r="C292" s="412"/>
+      <c r="B292" s="411"/>
+      <c r="C292" s="413"/>
       <c r="D292" s="192"/>
       <c r="E292" s="193" t="s">
         <v>530</v>
@@ -35702,10 +35708,10 @@
       <c r="BF293" s="171"/>
     </row>
     <row r="294" spans="2:58">
-      <c r="B294" s="415" t="s">
+      <c r="B294" s="410" t="s">
         <v>534</v>
       </c>
-      <c r="C294" s="410">
+      <c r="C294" s="425">
         <v>1588</v>
       </c>
       <c r="D294" s="151" t="s">
@@ -35759,8 +35765,8 @@
       <c r="BF294" s="171"/>
     </row>
     <row r="295" spans="2:58">
-      <c r="B295" s="416"/>
-      <c r="C295" s="411"/>
+      <c r="B295" s="415"/>
+      <c r="C295" s="426"/>
       <c r="D295" s="135"/>
       <c r="E295" s="133" t="s">
         <v>294</v>
@@ -35800,8 +35806,8 @@
       <c r="BF295" s="171"/>
     </row>
     <row r="296" spans="2:58">
-      <c r="B296" s="417"/>
-      <c r="C296" s="412"/>
+      <c r="B296" s="411"/>
+      <c r="C296" s="413"/>
       <c r="D296" s="152"/>
       <c r="E296" s="144"/>
       <c r="F296" s="144" t="s">
@@ -35841,10 +35847,10 @@
       <c r="BF296" s="171"/>
     </row>
     <row r="297" spans="2:58">
-      <c r="B297" s="415" t="s">
+      <c r="B297" s="410" t="s">
         <v>535</v>
       </c>
-      <c r="C297" s="410">
+      <c r="C297" s="425">
         <v>1606</v>
       </c>
       <c r="D297" s="151" t="s">
@@ -35913,8 +35919,8 @@
       <c r="BF297" s="171"/>
     </row>
     <row r="298" spans="2:58">
-      <c r="B298" s="416"/>
-      <c r="C298" s="411"/>
+      <c r="B298" s="415"/>
+      <c r="C298" s="426"/>
       <c r="D298" s="135"/>
       <c r="E298" s="133" t="s">
         <v>334</v>
@@ -35954,8 +35960,8 @@
       <c r="BF298" s="171"/>
     </row>
     <row r="299" spans="2:58">
-      <c r="B299" s="416"/>
-      <c r="C299" s="411"/>
+      <c r="B299" s="415"/>
+      <c r="C299" s="426"/>
       <c r="D299" s="135"/>
       <c r="E299" s="133"/>
       <c r="F299" s="133" t="s">
@@ -35995,8 +36001,8 @@
       <c r="BF299" s="171"/>
     </row>
     <row r="300" spans="2:58">
-      <c r="B300" s="416"/>
-      <c r="C300" s="411"/>
+      <c r="B300" s="415"/>
+      <c r="C300" s="426"/>
       <c r="D300" s="135"/>
       <c r="E300" s="133"/>
       <c r="F300" s="133"/>
@@ -36036,8 +36042,8 @@
       <c r="BF300" s="171"/>
     </row>
     <row r="301" spans="2:58">
-      <c r="B301" s="416"/>
-      <c r="C301" s="411"/>
+      <c r="B301" s="415"/>
+      <c r="C301" s="426"/>
       <c r="D301" s="135"/>
       <c r="E301" s="133"/>
       <c r="F301" s="133"/>
@@ -36077,8 +36083,8 @@
       <c r="BF301" s="171"/>
     </row>
     <row r="302" spans="2:58">
-      <c r="B302" s="416"/>
-      <c r="C302" s="411"/>
+      <c r="B302" s="415"/>
+      <c r="C302" s="426"/>
       <c r="D302" s="135"/>
       <c r="E302" s="133"/>
       <c r="F302" s="133"/>
@@ -36118,8 +36124,8 @@
       <c r="BF302" s="171"/>
     </row>
     <row r="303" spans="2:58">
-      <c r="B303" s="416"/>
-      <c r="C303" s="411"/>
+      <c r="B303" s="415"/>
+      <c r="C303" s="426"/>
       <c r="D303" s="135"/>
       <c r="E303" s="133"/>
       <c r="F303" s="133"/>
@@ -36159,8 +36165,8 @@
       <c r="BF303" s="171"/>
     </row>
     <row r="304" spans="2:58">
-      <c r="B304" s="417"/>
-      <c r="C304" s="412"/>
+      <c r="B304" s="411"/>
+      <c r="C304" s="413"/>
       <c r="D304" s="152"/>
       <c r="E304" s="144"/>
       <c r="F304" s="144"/>
@@ -36200,10 +36206,10 @@
       <c r="BF304" s="171"/>
     </row>
     <row r="305" spans="2:58">
-      <c r="B305" s="415" t="s">
+      <c r="B305" s="410" t="s">
         <v>540</v>
       </c>
-      <c r="C305" s="410">
+      <c r="C305" s="425">
         <v>1608</v>
       </c>
       <c r="D305" s="151" t="s">
@@ -36272,8 +36278,8 @@
       <c r="BF305" s="171"/>
     </row>
     <row r="306" spans="2:58">
-      <c r="B306" s="416"/>
-      <c r="C306" s="411"/>
+      <c r="B306" s="415"/>
+      <c r="C306" s="426"/>
       <c r="D306" s="135"/>
       <c r="E306" s="133" t="s">
         <v>308</v>
@@ -36291,7 +36297,7 @@
         <v>FF</v>
       </c>
       <c r="O306" s="160">
-        <f t="shared" ref="O306:O337" si="33">HEX2DEC(N306)</f>
+        <f t="shared" ref="O306:O329" si="33">HEX2DEC(N306)</f>
         <v>255</v>
       </c>
       <c r="Q306" s="159">
@@ -36313,8 +36319,8 @@
       <c r="BF306" s="171"/>
     </row>
     <row r="307" spans="2:58">
-      <c r="B307" s="416"/>
-      <c r="C307" s="411"/>
+      <c r="B307" s="415"/>
+      <c r="C307" s="426"/>
       <c r="D307" s="135"/>
       <c r="E307" s="133"/>
       <c r="F307" s="133" t="s">
@@ -36354,8 +36360,8 @@
       <c r="BF307" s="171"/>
     </row>
     <row r="308" spans="2:58">
-      <c r="B308" s="416"/>
-      <c r="C308" s="411"/>
+      <c r="B308" s="415"/>
+      <c r="C308" s="426"/>
       <c r="D308" s="135"/>
       <c r="E308" s="133"/>
       <c r="F308" s="133"/>
@@ -36395,8 +36401,8 @@
       <c r="BF308" s="171"/>
     </row>
     <row r="309" spans="2:58">
-      <c r="B309" s="416"/>
-      <c r="C309" s="411"/>
+      <c r="B309" s="415"/>
+      <c r="C309" s="426"/>
       <c r="D309" s="135"/>
       <c r="E309" s="133"/>
       <c r="F309" s="133"/>
@@ -36436,8 +36442,8 @@
       <c r="BF309" s="171"/>
     </row>
     <row r="310" spans="2:58">
-      <c r="B310" s="416"/>
-      <c r="C310" s="411"/>
+      <c r="B310" s="415"/>
+      <c r="C310" s="426"/>
       <c r="D310" s="135"/>
       <c r="E310" s="133"/>
       <c r="F310" s="133"/>
@@ -36477,8 +36483,8 @@
       <c r="BF310" s="171"/>
     </row>
     <row r="311" spans="2:58">
-      <c r="B311" s="416"/>
-      <c r="C311" s="411"/>
+      <c r="B311" s="415"/>
+      <c r="C311" s="426"/>
       <c r="D311" s="135"/>
       <c r="E311" s="133"/>
       <c r="F311" s="133"/>
@@ -36518,8 +36524,8 @@
       <c r="BF311" s="171"/>
     </row>
     <row r="312" spans="2:58">
-      <c r="B312" s="417"/>
-      <c r="C312" s="412"/>
+      <c r="B312" s="411"/>
+      <c r="C312" s="413"/>
       <c r="D312" s="152"/>
       <c r="E312" s="144"/>
       <c r="F312" s="144"/>
@@ -36559,10 +36565,10 @@
       <c r="BF312" s="171"/>
     </row>
     <row r="313" spans="2:58">
-      <c r="B313" s="415" t="s">
+      <c r="B313" s="410" t="s">
         <v>541</v>
       </c>
-      <c r="C313" s="410">
+      <c r="C313" s="425">
         <v>1619</v>
       </c>
       <c r="D313" s="151" t="s">
@@ -36619,8 +36625,8 @@
       <c r="BF313" s="171"/>
     </row>
     <row r="314" spans="2:58">
-      <c r="B314" s="416"/>
-      <c r="C314" s="411"/>
+      <c r="B314" s="415"/>
+      <c r="C314" s="426"/>
       <c r="D314" s="135"/>
       <c r="E314" s="133" t="s">
         <v>354</v>
@@ -36664,8 +36670,8 @@
       <c r="BF314" s="171"/>
     </row>
     <row r="315" spans="2:58">
-      <c r="B315" s="417"/>
-      <c r="C315" s="412"/>
+      <c r="B315" s="411"/>
+      <c r="C315" s="413"/>
       <c r="D315" s="152"/>
       <c r="E315" s="144"/>
       <c r="F315" s="144"/>
@@ -36705,10 +36711,10 @@
       <c r="BF315" s="171"/>
     </row>
     <row r="316" spans="2:58">
-      <c r="B316" s="415" t="s">
+      <c r="B316" s="410" t="s">
         <v>544</v>
       </c>
-      <c r="C316" s="410">
+      <c r="C316" s="425">
         <v>1623</v>
       </c>
       <c r="D316" s="135" t="s">
@@ -36759,8 +36765,8 @@
       <c r="BF316" s="171"/>
     </row>
     <row r="317" spans="2:58">
-      <c r="B317" s="417"/>
-      <c r="C317" s="412"/>
+      <c r="B317" s="411"/>
+      <c r="C317" s="413"/>
       <c r="D317" s="152"/>
       <c r="E317" s="144" t="s">
         <v>294</v>
@@ -36800,10 +36806,10 @@
       <c r="BF317" s="171"/>
     </row>
     <row r="318" spans="2:58">
-      <c r="B318" s="416" t="s">
+      <c r="B318" s="415" t="s">
         <v>545</v>
       </c>
-      <c r="C318" s="411">
+      <c r="C318" s="426">
         <v>1628</v>
       </c>
       <c r="D318" s="135" t="s">
@@ -36857,8 +36863,8 @@
       <c r="BF318" s="171"/>
     </row>
     <row r="319" spans="2:58">
-      <c r="B319" s="416"/>
-      <c r="C319" s="411"/>
+      <c r="B319" s="415"/>
+      <c r="C319" s="426"/>
       <c r="D319" s="135"/>
       <c r="E319" s="133" t="s">
         <v>366</v>
@@ -36898,8 +36904,8 @@
       <c r="BF319" s="171"/>
     </row>
     <row r="320" spans="2:58">
-      <c r="B320" s="417"/>
-      <c r="C320" s="412"/>
+      <c r="B320" s="411"/>
+      <c r="C320" s="413"/>
       <c r="D320" s="152"/>
       <c r="E320" s="144"/>
       <c r="F320" s="144" t="s">
@@ -36939,10 +36945,10 @@
       <c r="BF320" s="171"/>
     </row>
     <row r="321" spans="2:58">
-      <c r="B321" s="415" t="s">
+      <c r="B321" s="410" t="s">
         <v>547</v>
       </c>
-      <c r="C321" s="410">
+      <c r="C321" s="425">
         <v>1637</v>
       </c>
       <c r="D321" s="151" t="s">
@@ -37008,8 +37014,8 @@
       <c r="BF321" s="171"/>
     </row>
     <row r="322" spans="2:58">
-      <c r="B322" s="416"/>
-      <c r="C322" s="411"/>
+      <c r="B322" s="415"/>
+      <c r="C322" s="426"/>
       <c r="D322" s="135"/>
       <c r="E322" s="133" t="s">
         <v>300</v>
@@ -37049,8 +37055,8 @@
       <c r="BF322" s="171"/>
     </row>
     <row r="323" spans="2:58">
-      <c r="B323" s="416"/>
-      <c r="C323" s="411"/>
+      <c r="B323" s="415"/>
+      <c r="C323" s="426"/>
       <c r="D323" s="135"/>
       <c r="E323" s="133"/>
       <c r="F323" s="133" t="s">
@@ -37090,8 +37096,8 @@
       <c r="BF323" s="171"/>
     </row>
     <row r="324" spans="2:58">
-      <c r="B324" s="416"/>
-      <c r="C324" s="411"/>
+      <c r="B324" s="415"/>
+      <c r="C324" s="426"/>
       <c r="D324" s="135"/>
       <c r="E324" s="133"/>
       <c r="F324" s="133"/>
@@ -37131,8 +37137,8 @@
       <c r="BF324" s="171"/>
     </row>
     <row r="325" spans="2:58">
-      <c r="B325" s="416"/>
-      <c r="C325" s="411"/>
+      <c r="B325" s="415"/>
+      <c r="C325" s="426"/>
       <c r="D325" s="135"/>
       <c r="E325" s="133"/>
       <c r="F325" s="133"/>
@@ -37172,8 +37178,8 @@
       <c r="BF325" s="171"/>
     </row>
     <row r="326" spans="2:58">
-      <c r="B326" s="416"/>
-      <c r="C326" s="411"/>
+      <c r="B326" s="415"/>
+      <c r="C326" s="426"/>
       <c r="D326" s="135"/>
       <c r="E326" s="133"/>
       <c r="F326" s="133"/>
@@ -37213,8 +37219,8 @@
       <c r="BF326" s="171"/>
     </row>
     <row r="327" spans="2:58">
-      <c r="B327" s="417"/>
-      <c r="C327" s="412"/>
+      <c r="B327" s="411"/>
+      <c r="C327" s="413"/>
       <c r="D327" s="152"/>
       <c r="E327" s="144"/>
       <c r="F327" s="144"/>
@@ -37378,10 +37384,10 @@
       <c r="BF329" s="171"/>
     </row>
     <row r="330" spans="2:58">
-      <c r="B330" s="415" t="s">
+      <c r="B330" s="410" t="s">
         <v>554</v>
       </c>
-      <c r="C330" s="410">
+      <c r="C330" s="425">
         <v>1642</v>
       </c>
       <c r="D330" s="185" t="s">
@@ -37454,8 +37460,8 @@
       <c r="BF330" s="171"/>
     </row>
     <row r="331" spans="2:58">
-      <c r="B331" s="416"/>
-      <c r="C331" s="411"/>
+      <c r="B331" s="415"/>
+      <c r="C331" s="426"/>
       <c r="D331" s="189"/>
       <c r="E331" s="237" t="s">
         <v>306</v>
@@ -37499,8 +37505,8 @@
       <c r="BF331" s="171"/>
     </row>
     <row r="332" spans="2:58">
-      <c r="B332" s="416"/>
-      <c r="C332" s="411"/>
+      <c r="B332" s="415"/>
+      <c r="C332" s="426"/>
       <c r="D332" s="135"/>
       <c r="E332" s="133"/>
       <c r="F332" s="133" t="s">
@@ -37540,8 +37546,8 @@
       <c r="BF332" s="171"/>
     </row>
     <row r="333" spans="2:58">
-      <c r="B333" s="416"/>
-      <c r="C333" s="411"/>
+      <c r="B333" s="415"/>
+      <c r="C333" s="426"/>
       <c r="D333" s="135"/>
       <c r="E333" s="133"/>
       <c r="F333" s="133"/>
@@ -37585,8 +37591,8 @@
       <c r="BF333" s="171"/>
     </row>
     <row r="334" spans="2:58">
-      <c r="B334" s="416"/>
-      <c r="C334" s="411"/>
+      <c r="B334" s="415"/>
+      <c r="C334" s="426"/>
       <c r="D334" s="135"/>
       <c r="E334" s="133"/>
       <c r="F334" s="133"/>
@@ -37626,8 +37632,8 @@
       <c r="BF334" s="171"/>
     </row>
     <row r="335" spans="2:58">
-      <c r="B335" s="416"/>
-      <c r="C335" s="411"/>
+      <c r="B335" s="415"/>
+      <c r="C335" s="426"/>
       <c r="D335" s="135"/>
       <c r="E335" s="133"/>
       <c r="F335" s="133"/>
@@ -37667,8 +37673,8 @@
       <c r="BF335" s="171"/>
     </row>
     <row r="336" spans="2:58">
-      <c r="B336" s="417"/>
-      <c r="C336" s="412"/>
+      <c r="B336" s="411"/>
+      <c r="C336" s="413"/>
       <c r="D336" s="192"/>
       <c r="E336" s="193"/>
       <c r="F336" s="193"/>
@@ -37712,10 +37718,10 @@
       <c r="BF336" s="171"/>
     </row>
     <row r="337" spans="2:58">
-      <c r="B337" s="415" t="s">
+      <c r="B337" s="410" t="s">
         <v>563</v>
       </c>
-      <c r="C337" s="410">
+      <c r="C337" s="425">
         <v>1649</v>
       </c>
       <c r="D337" s="151" t="s">
@@ -37766,8 +37772,8 @@
       <c r="BF337" s="171"/>
     </row>
     <row r="338" spans="2:58">
-      <c r="B338" s="417"/>
-      <c r="C338" s="412"/>
+      <c r="B338" s="411"/>
+      <c r="C338" s="413"/>
       <c r="D338" s="152"/>
       <c r="E338" s="144" t="s">
         <v>294</v>
@@ -37807,10 +37813,10 @@
       <c r="BF338" s="171"/>
     </row>
     <row r="339" spans="2:58">
-      <c r="B339" s="415" t="s">
+      <c r="B339" s="410" t="s">
         <v>564</v>
       </c>
-      <c r="C339" s="410">
+      <c r="C339" s="425">
         <v>1651</v>
       </c>
       <c r="D339" s="151" t="s">
@@ -37876,8 +37882,8 @@
       <c r="BF339" s="171"/>
     </row>
     <row r="340" spans="2:58">
-      <c r="B340" s="416"/>
-      <c r="C340" s="411"/>
+      <c r="B340" s="415"/>
+      <c r="C340" s="426"/>
       <c r="D340" s="135"/>
       <c r="E340" s="133" t="s">
         <v>294</v>
@@ -37917,8 +37923,8 @@
       <c r="BF340" s="171"/>
     </row>
     <row r="341" spans="2:58">
-      <c r="B341" s="416"/>
-      <c r="C341" s="411"/>
+      <c r="B341" s="415"/>
+      <c r="C341" s="426"/>
       <c r="D341" s="135"/>
       <c r="E341" s="133"/>
       <c r="F341" s="133" t="s">
@@ -37958,8 +37964,8 @@
       <c r="BF341" s="171"/>
     </row>
     <row r="342" spans="2:58">
-      <c r="B342" s="416"/>
-      <c r="C342" s="411"/>
+      <c r="B342" s="415"/>
+      <c r="C342" s="426"/>
       <c r="D342" s="135"/>
       <c r="E342" s="133"/>
       <c r="F342" s="133"/>
@@ -37999,8 +38005,8 @@
       <c r="BF342" s="171"/>
     </row>
     <row r="343" spans="2:58">
-      <c r="B343" s="416"/>
-      <c r="C343" s="411"/>
+      <c r="B343" s="415"/>
+      <c r="C343" s="426"/>
       <c r="D343" s="135"/>
       <c r="E343" s="133"/>
       <c r="F343" s="133"/>
@@ -38040,8 +38046,8 @@
       <c r="BF343" s="171"/>
     </row>
     <row r="344" spans="2:58">
-      <c r="B344" s="416"/>
-      <c r="C344" s="411"/>
+      <c r="B344" s="415"/>
+      <c r="C344" s="426"/>
       <c r="D344" s="135"/>
       <c r="E344" s="133"/>
       <c r="F344" s="133"/>
@@ -38081,8 +38087,8 @@
       <c r="BF344" s="171"/>
     </row>
     <row r="345" spans="2:58">
-      <c r="B345" s="417"/>
-      <c r="C345" s="412"/>
+      <c r="B345" s="411"/>
+      <c r="C345" s="413"/>
       <c r="D345" s="152"/>
       <c r="E345" s="144"/>
       <c r="F345" s="144"/>
@@ -38122,10 +38128,10 @@
       <c r="BF345" s="171"/>
     </row>
     <row r="346" spans="2:58">
-      <c r="B346" s="415" t="s">
+      <c r="B346" s="410" t="s">
         <v>566</v>
       </c>
-      <c r="C346" s="410">
+      <c r="C346" s="425">
         <v>1675</v>
       </c>
       <c r="D346" s="151" t="s">
@@ -38179,8 +38185,8 @@
       <c r="BF346" s="171"/>
     </row>
     <row r="347" spans="2:58">
-      <c r="B347" s="416"/>
-      <c r="C347" s="411"/>
+      <c r="B347" s="415"/>
+      <c r="C347" s="426"/>
       <c r="D347" s="135"/>
       <c r="E347" s="133" t="s">
         <v>349</v>
@@ -38220,8 +38226,8 @@
       <c r="BF347" s="171"/>
     </row>
     <row r="348" spans="2:58">
-      <c r="B348" s="417"/>
-      <c r="C348" s="412"/>
+      <c r="B348" s="411"/>
+      <c r="C348" s="413"/>
       <c r="D348" s="152"/>
       <c r="E348" s="144"/>
       <c r="F348" s="144" t="s">
@@ -38261,10 +38267,10 @@
       <c r="BF348" s="171"/>
     </row>
     <row r="349" spans="2:58">
-      <c r="B349" s="415" t="s">
+      <c r="B349" s="410" t="s">
         <v>568</v>
       </c>
-      <c r="C349" s="410">
+      <c r="C349" s="425">
         <v>1689</v>
       </c>
       <c r="D349" s="185" t="s">
@@ -38350,8 +38356,8 @@
       <c r="BF349" s="171"/>
     </row>
     <row r="350" spans="2:58">
-      <c r="B350" s="416"/>
-      <c r="C350" s="411"/>
+      <c r="B350" s="415"/>
+      <c r="C350" s="426"/>
       <c r="D350" s="189"/>
       <c r="E350" s="237" t="s">
         <v>412</v>
@@ -38458,8 +38464,8 @@
       <c r="BF350" s="171"/>
     </row>
     <row r="351" spans="2:58">
-      <c r="B351" s="416"/>
-      <c r="C351" s="411"/>
+      <c r="B351" s="415"/>
+      <c r="C351" s="426"/>
       <c r="D351" s="135"/>
       <c r="E351" s="133"/>
       <c r="F351" s="133" t="s">
@@ -38499,8 +38505,8 @@
       <c r="BF351" s="171"/>
     </row>
     <row r="352" spans="2:58">
-      <c r="B352" s="416"/>
-      <c r="C352" s="411"/>
+      <c r="B352" s="415"/>
+      <c r="C352" s="426"/>
       <c r="D352" s="189"/>
       <c r="E352" s="237"/>
       <c r="F352" s="237"/>
@@ -38594,8 +38600,8 @@
       <c r="BF352" s="171"/>
     </row>
     <row r="353" spans="2:58">
-      <c r="B353" s="416"/>
-      <c r="C353" s="411"/>
+      <c r="B353" s="415"/>
+      <c r="C353" s="426"/>
       <c r="D353" s="135"/>
       <c r="E353" s="133"/>
       <c r="F353" s="133"/>
@@ -38635,8 +38641,8 @@
       <c r="BF353" s="171"/>
     </row>
     <row r="354" spans="2:58">
-      <c r="B354" s="416"/>
-      <c r="C354" s="411"/>
+      <c r="B354" s="415"/>
+      <c r="C354" s="426"/>
       <c r="D354" s="135"/>
       <c r="E354" s="133"/>
       <c r="F354" s="133"/>
@@ -38676,8 +38682,8 @@
       <c r="BF354" s="171"/>
     </row>
     <row r="355" spans="2:58">
-      <c r="B355" s="416"/>
-      <c r="C355" s="411"/>
+      <c r="B355" s="415"/>
+      <c r="C355" s="426"/>
       <c r="D355" s="135"/>
       <c r="E355" s="133"/>
       <c r="F355" s="133"/>
@@ -38717,8 +38723,8 @@
       <c r="BF355" s="171"/>
     </row>
     <row r="356" spans="2:58">
-      <c r="B356" s="417"/>
-      <c r="C356" s="412"/>
+      <c r="B356" s="411"/>
+      <c r="C356" s="413"/>
       <c r="D356" s="135"/>
       <c r="E356" s="133"/>
       <c r="F356" s="133"/>
@@ -38758,10 +38764,10 @@
       <c r="BF356" s="171"/>
     </row>
     <row r="357" spans="2:58">
-      <c r="B357" s="415" t="s">
+      <c r="B357" s="410" t="s">
         <v>602</v>
       </c>
-      <c r="C357" s="427">
+      <c r="C357" s="412">
         <v>1695</v>
       </c>
       <c r="D357" s="226" t="s">
@@ -38814,8 +38820,8 @@
       <c r="BF357" s="171"/>
     </row>
     <row r="358" spans="2:58">
-      <c r="B358" s="417"/>
-      <c r="C358" s="412"/>
+      <c r="B358" s="411"/>
+      <c r="C358" s="413"/>
       <c r="D358" s="135"/>
       <c r="E358" s="133"/>
       <c r="F358" s="133"/>
@@ -38843,10 +38849,10 @@
       <c r="BF358" s="171"/>
     </row>
     <row r="359" spans="2:58">
-      <c r="B359" s="415" t="s">
+      <c r="B359" s="410" t="s">
         <v>608</v>
       </c>
-      <c r="C359" s="410">
+      <c r="C359" s="425">
         <v>1787</v>
       </c>
       <c r="D359" s="151" t="s">
@@ -38915,8 +38921,8 @@
       <c r="BF359" s="171"/>
     </row>
     <row r="360" spans="2:58">
-      <c r="B360" s="416"/>
-      <c r="C360" s="411"/>
+      <c r="B360" s="415"/>
+      <c r="C360" s="426"/>
       <c r="D360" s="135"/>
       <c r="E360" s="133" t="s">
         <v>347</v>
@@ -38956,8 +38962,8 @@
       <c r="BF360" s="171"/>
     </row>
     <row r="361" spans="2:58">
-      <c r="B361" s="416"/>
-      <c r="C361" s="411"/>
+      <c r="B361" s="415"/>
+      <c r="C361" s="426"/>
       <c r="D361" s="135"/>
       <c r="E361" s="133"/>
       <c r="F361" s="133" t="s">
@@ -38997,8 +39003,8 @@
       <c r="BF361" s="171"/>
     </row>
     <row r="362" spans="2:58">
-      <c r="B362" s="416"/>
-      <c r="C362" s="411"/>
+      <c r="B362" s="415"/>
+      <c r="C362" s="426"/>
       <c r="D362" s="189"/>
       <c r="E362" s="237"/>
       <c r="F362" s="237"/>
@@ -39047,8 +39053,8 @@
       <c r="BF362" s="171"/>
     </row>
     <row r="363" spans="2:58">
-      <c r="B363" s="416"/>
-      <c r="C363" s="411"/>
+      <c r="B363" s="415"/>
+      <c r="C363" s="426"/>
       <c r="D363" s="135"/>
       <c r="E363" s="133"/>
       <c r="F363" s="133"/>
@@ -39088,8 +39094,8 @@
       <c r="BF363" s="171"/>
     </row>
     <row r="364" spans="2:58">
-      <c r="B364" s="416"/>
-      <c r="C364" s="411"/>
+      <c r="B364" s="415"/>
+      <c r="C364" s="426"/>
       <c r="D364" s="135"/>
       <c r="E364" s="133"/>
       <c r="F364" s="133"/>
@@ -39129,8 +39135,8 @@
       <c r="BF364" s="171"/>
     </row>
     <row r="365" spans="2:58">
-      <c r="B365" s="416"/>
-      <c r="C365" s="411"/>
+      <c r="B365" s="415"/>
+      <c r="C365" s="426"/>
       <c r="D365" s="135"/>
       <c r="E365" s="133"/>
       <c r="F365" s="133"/>
@@ -39170,8 +39176,8 @@
       <c r="BF365" s="171"/>
     </row>
     <row r="366" spans="2:58">
-      <c r="B366" s="425"/>
-      <c r="C366" s="413"/>
+      <c r="B366" s="419"/>
+      <c r="C366" s="430"/>
       <c r="D366" s="245"/>
       <c r="E366" s="246"/>
       <c r="F366" s="246"/>
@@ -42446,6 +42452,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="C349:C356"/>
+    <mergeCell ref="C359:C366"/>
+    <mergeCell ref="C330:C336"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C339:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C297:C304"/>
+    <mergeCell ref="C305:C312"/>
+    <mergeCell ref="C313:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="C321:C327"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="C275:C282"/>
+    <mergeCell ref="C283:C290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="C239:C246"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C253:C260"/>
+    <mergeCell ref="C261:C268"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C198"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="B283:B290"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C78:C84"/>
+    <mergeCell ref="C85:C92"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C150:C157"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C161:C165"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="C177:C184"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C137:C142"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B253:B260"/>
+    <mergeCell ref="B261:B268"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B198"/>
+    <mergeCell ref="B359:B366"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="B321:B327"/>
+    <mergeCell ref="B330:B336"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="B339:B345"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B297:B304"/>
+    <mergeCell ref="B305:B312"/>
+    <mergeCell ref="B313:B315"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="B346:B348"/>
+    <mergeCell ref="B349:B356"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="B177:B184"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B143:B149"/>
     <mergeCell ref="B357:B358"/>
     <mergeCell ref="C357:C358"/>
     <mergeCell ref="B3:B6"/>
@@ -42470,108 +42578,6 @@
     <mergeCell ref="B150:B157"/>
     <mergeCell ref="B158:B160"/>
     <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="B177:B184"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B198"/>
-    <mergeCell ref="B359:B366"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="B321:B327"/>
-    <mergeCell ref="B330:B336"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="B339:B345"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B297:B304"/>
-    <mergeCell ref="B305:B312"/>
-    <mergeCell ref="B313:B315"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="B346:B348"/>
-    <mergeCell ref="B349:B356"/>
-    <mergeCell ref="B239:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B253:B260"/>
-    <mergeCell ref="B261:B268"/>
-    <mergeCell ref="B218:B224"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B283:B290"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C78:C84"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C107:C114"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C150:C157"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="C161:C165"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="C177:C184"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C137:C142"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="C218:C224"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C191:C198"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="C275:C282"/>
-    <mergeCell ref="C283:C290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C239:C246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C253:C260"/>
-    <mergeCell ref="C261:C268"/>
-    <mergeCell ref="C349:C356"/>
-    <mergeCell ref="C359:C366"/>
-    <mergeCell ref="C330:C336"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="C339:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C297:C304"/>
-    <mergeCell ref="C305:C312"/>
-    <mergeCell ref="C313:C315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="C321:C327"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/Digital_Dashboard.xlsx
+++ b/Digital_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1499af024d6db2b2/Documents/1 - Business/0 - CGH Automotive Limited/9 - Products/8 - Digital Dash/ClioIVDigitalDash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12170" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B107C01C-9039-42D9-A3DE-3366CEBE699C}"/>
+  <xr:revisionPtr revIDLastSave="12183" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95627DCD-DBD6-4B58-9A91-21A19E6782D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="841" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="841" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLUSTER PINOUT" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1221">
   <si>
     <t>247 - INSTRUMENT CLUSTER</t>
   </si>
@@ -3718,6 +3718,9 @@
   </si>
   <si>
     <t>PASSENGER AIRBAG LIGHT</t>
+  </si>
+  <si>
+    <t>(32768-B0*256-B1)/20</t>
   </si>
 </sst>
 </file>
@@ -6179,6 +6182,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6202,33 +6232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6275,31 +6278,49 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6308,34 +6329,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10078,8 +10081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10787602-A079-4B75-875D-C870C7F2A1B8}">
   <dimension ref="A1:CE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10570,7 +10573,7 @@
     </row>
     <row r="4" spans="1:82">
       <c r="A4" s="283" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="B4" s="283" t="s">
         <v>399</v>
@@ -10596,7 +10599,7 @@
       <c r="I4" s="215"/>
       <c r="J4" s="174" t="str">
         <f>HEX2BIN(A4,8)</f>
-        <v>01010100</v>
+        <v>01011000</v>
       </c>
       <c r="K4" s="174" t="str">
         <f t="shared" ref="K4:Q4" si="0">HEX2BIN(B4,8)</f>
@@ -10644,11 +10647,11 @@
       </c>
       <c r="W4" s="297" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="297" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="297" t="str">
         <f t="shared" si="1"/>
@@ -19708,14 +19711,14 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="386" t="s">
+      <c r="B2" s="381" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="388"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="383"/>
       <c r="I2" s="8" t="s">
         <v>154</v>
       </c>
@@ -19745,13 +19748,13 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="90"/>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="378" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
-      <c r="G4" s="391"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="379"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="380"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="90">
@@ -19780,11 +19783,11 @@
         <v>154</v>
       </c>
       <c r="G6" s="91"/>
-      <c r="K6" s="394" t="s">
+      <c r="K6" s="386" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="394"/>
-      <c r="M6" s="394"/>
+      <c r="L6" s="386"/>
+      <c r="M6" s="386"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="90">
@@ -19799,11 +19802,11 @@
         <v>154</v>
       </c>
       <c r="G7" s="91"/>
-      <c r="K7" s="394" t="s">
+      <c r="K7" s="386" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="394"/>
-      <c r="M7" s="394"/>
+      <c r="L7" s="386"/>
+      <c r="M7" s="386"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="90">
@@ -19835,13 +19838,13 @@
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="2"/>
-      <c r="K9" s="384" t="s">
+      <c r="K9" s="393" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="384"/>
-      <c r="M9" s="384"/>
-      <c r="N9" s="384"/>
-      <c r="O9" s="384"/>
+      <c r="L9" s="393"/>
+      <c r="M9" s="393"/>
+      <c r="N9" s="393"/>
+      <c r="O9" s="393"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="90">
@@ -19857,11 +19860,11 @@
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="2"/>
-      <c r="K10" s="384"/>
-      <c r="L10" s="384"/>
-      <c r="M10" s="384"/>
-      <c r="N10" s="384"/>
-      <c r="O10" s="384"/>
+      <c r="K10" s="393"/>
+      <c r="L10" s="393"/>
+      <c r="M10" s="393"/>
+      <c r="N10" s="393"/>
+      <c r="O10" s="393"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="90">
@@ -19877,11 +19880,11 @@
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="2"/>
-      <c r="K11" s="384"/>
-      <c r="L11" s="384"/>
-      <c r="M11" s="384"/>
-      <c r="N11" s="384"/>
-      <c r="O11" s="384"/>
+      <c r="K11" s="393"/>
+      <c r="L11" s="393"/>
+      <c r="M11" s="393"/>
+      <c r="N11" s="393"/>
+      <c r="O11" s="393"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="90">
@@ -19897,11 +19900,11 @@
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="385"/>
-      <c r="L12" s="385"/>
-      <c r="M12" s="385"/>
-      <c r="N12" s="385"/>
-      <c r="O12" s="385"/>
+      <c r="K12" s="394"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="394"/>
+      <c r="N12" s="394"/>
+      <c r="O12" s="394"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="90">
@@ -19917,11 +19920,11 @@
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="2"/>
-      <c r="K13" s="378" t="s">
+      <c r="K13" s="387" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="379"/>
-      <c r="M13" s="379"/>
+      <c r="L13" s="388"/>
+      <c r="M13" s="388"/>
       <c r="N13" s="125" t="s">
         <v>175</v>
       </c>
@@ -19943,9 +19946,9 @@
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="2"/>
-      <c r="K14" s="380"/>
-      <c r="L14" s="381"/>
-      <c r="M14" s="381"/>
+      <c r="K14" s="389"/>
+      <c r="L14" s="390"/>
+      <c r="M14" s="390"/>
       <c r="O14" s="127" t="str">
         <f>"+ disable_splash=1"</f>
         <v>+ disable_splash=1</v>
@@ -19965,9 +19968,9 @@
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="2"/>
-      <c r="K15" s="380"/>
-      <c r="L15" s="381"/>
-      <c r="M15" s="381"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="390"/>
+      <c r="M15" s="390"/>
       <c r="O15" s="127" t="str">
         <f>"+logo.nologo"</f>
         <v>+logo.nologo</v>
@@ -19985,9 +19988,9 @@
       <c r="F16" s="42"/>
       <c r="G16" s="91"/>
       <c r="H16" s="2"/>
-      <c r="K16" s="380"/>
-      <c r="L16" s="381"/>
-      <c r="M16" s="381"/>
+      <c r="K16" s="389"/>
+      <c r="L16" s="390"/>
+      <c r="M16" s="390"/>
       <c r="O16" s="127" t="str">
         <f>"+consoleblank=0"</f>
         <v>+consoleblank=0</v>
@@ -20007,9 +20010,9 @@
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="2"/>
-      <c r="K17" s="382"/>
-      <c r="L17" s="383"/>
-      <c r="M17" s="383"/>
+      <c r="K17" s="391"/>
+      <c r="L17" s="392"/>
+      <c r="M17" s="392"/>
       <c r="N17" s="128"/>
       <c r="O17" s="129" t="str">
         <f>"+loglevel=1 quiet"</f>
@@ -20207,23 +20210,23 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="90"/>
-      <c r="C31" s="389" t="s">
+      <c r="C31" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="390"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="390"/>
-      <c r="G31" s="391"/>
+      <c r="D31" s="379"/>
+      <c r="E31" s="379"/>
+      <c r="F31" s="379"/>
+      <c r="G31" s="380"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="90">
         <v>1</v>
       </c>
-      <c r="C32" s="392" t="s">
+      <c r="C32" s="384" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="393"/>
+      <c r="D32" s="385"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="91"/>
@@ -20446,13 +20449,13 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="90"/>
-      <c r="C50" s="389" t="s">
+      <c r="C50" s="378" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="390"/>
-      <c r="E50" s="390"/>
-      <c r="F50" s="390"/>
-      <c r="G50" s="391"/>
+      <c r="D50" s="379"/>
+      <c r="E50" s="379"/>
+      <c r="F50" s="379"/>
+      <c r="G50" s="380"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8">
@@ -20839,6 +20842,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K13:M17"/>
+    <mergeCell ref="K9:O12"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C48:D48"/>
@@ -20853,17 +20867,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K13:M17"/>
-    <mergeCell ref="K9:O12"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:F1048576 I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -21658,11 +21661,11 @@
   </sheetPr>
   <dimension ref="B1:BF513"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D349" sqref="D349:K356"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21675,7 +21678,8 @@
     <col min="13" max="13" width="140.5703125" style="130" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" style="159" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="160" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.7109375" style="159" customWidth="1"/>
+    <col min="16" max="18" width="10.7109375" style="159" customWidth="1"/>
+    <col min="19" max="19" width="64.7109375" style="159" customWidth="1"/>
     <col min="20" max="20" width="43.140625" style="159" customWidth="1"/>
     <col min="21" max="21" width="2.85546875" style="159" customWidth="1"/>
     <col min="22" max="22" width="5.140625" style="130" customWidth="1"/>
@@ -21796,10 +21800,10 @@
       <c r="BF2" s="171"/>
     </row>
     <row r="3" spans="2:58">
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="428" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="420">
+      <c r="C3" s="426">
         <v>144</v>
       </c>
       <c r="D3" s="199" t="s">
@@ -21863,8 +21867,8 @@
       <c r="BF3" s="171"/>
     </row>
     <row r="4" spans="2:58">
-      <c r="B4" s="415"/>
-      <c r="C4" s="421"/>
+      <c r="B4" s="416"/>
+      <c r="C4" s="419"/>
       <c r="D4" s="132"/>
       <c r="E4" s="133" t="s">
         <v>294</v>
@@ -21904,8 +21908,8 @@
       <c r="BF4" s="171"/>
     </row>
     <row r="5" spans="2:58">
-      <c r="B5" s="415"/>
-      <c r="C5" s="421"/>
+      <c r="B5" s="416"/>
+      <c r="C5" s="419"/>
       <c r="D5" s="132"/>
       <c r="E5" s="133"/>
       <c r="F5" s="133" t="s">
@@ -21945,8 +21949,8 @@
       <c r="BF5" s="171"/>
     </row>
     <row r="6" spans="2:58">
-      <c r="B6" s="411"/>
-      <c r="C6" s="422"/>
+      <c r="B6" s="417"/>
+      <c r="C6" s="420"/>
       <c r="D6" s="136"/>
       <c r="E6" s="137"/>
       <c r="F6" s="137"/>
@@ -21987,10 +21991,10 @@
       <c r="BF6" s="171"/>
     </row>
     <row r="7" spans="2:58">
-      <c r="B7" s="410" t="s">
+      <c r="B7" s="415" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="423">
+      <c r="C7" s="418">
         <v>198</v>
       </c>
       <c r="D7" s="198">
@@ -22018,15 +22022,22 @@
         <v>32838</v>
       </c>
       <c r="P7" s="165">
-        <v>5.4932478828107097E-3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="159">
         <f t="shared" si="4"/>
-        <v>180.38727397573808</v>
+        <v>32838</v>
+      </c>
+      <c r="R7" s="159">
+        <f>(32768-HEX2DEC(80)*256-HEX2DEC(46))/20</f>
+        <v>-3.5</v>
       </c>
       <c r="S7" s="159">
         <f t="shared" si="5"/>
-        <v>180.38727397573808</v>
+        <v>32834.5</v>
+      </c>
+      <c r="T7" s="159" t="s">
+        <v>1220</v>
       </c>
       <c r="V7" s="130" t="s">
         <v>295</v>
@@ -22066,8 +22077,8 @@
       <c r="BF7" s="171"/>
     </row>
     <row r="8" spans="2:58">
-      <c r="B8" s="415"/>
-      <c r="C8" s="421"/>
+      <c r="B8" s="416"/>
+      <c r="C8" s="419"/>
       <c r="D8" s="132"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133" t="s">
@@ -22108,8 +22119,8 @@
       <c r="BF8" s="171"/>
     </row>
     <row r="9" spans="2:58">
-      <c r="B9" s="415"/>
-      <c r="C9" s="421"/>
+      <c r="B9" s="416"/>
+      <c r="C9" s="419"/>
       <c r="D9" s="132"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
@@ -22150,8 +22161,8 @@
       <c r="BF9" s="171"/>
     </row>
     <row r="10" spans="2:58">
-      <c r="B10" s="415"/>
-      <c r="C10" s="421">
+      <c r="B10" s="416"/>
+      <c r="C10" s="419">
         <v>0</v>
       </c>
       <c r="D10" s="212"/>
@@ -22200,8 +22211,8 @@
       <c r="BF10" s="171"/>
     </row>
     <row r="11" spans="2:58">
-      <c r="B11" s="415"/>
-      <c r="C11" s="421"/>
+      <c r="B11" s="416"/>
+      <c r="C11" s="419"/>
       <c r="D11" s="132"/>
       <c r="E11" s="133"/>
       <c r="F11" s="133"/>
@@ -22242,8 +22253,8 @@
       <c r="BF11" s="171"/>
     </row>
     <row r="12" spans="2:58">
-      <c r="B12" s="411"/>
-      <c r="C12" s="422"/>
+      <c r="B12" s="417"/>
+      <c r="C12" s="420"/>
       <c r="D12" s="143"/>
       <c r="E12" s="144"/>
       <c r="F12" s="144"/>
@@ -22284,10 +22295,10 @@
       <c r="BF12" s="171"/>
     </row>
     <row r="13" spans="2:58">
-      <c r="B13" s="410" t="s">
+      <c r="B13" s="415" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="423">
+      <c r="C13" s="418">
         <v>302</v>
       </c>
       <c r="D13" s="140" t="s">
@@ -22359,8 +22370,8 @@
       <c r="BF13" s="171"/>
     </row>
     <row r="14" spans="2:58">
-      <c r="B14" s="415"/>
-      <c r="C14" s="421"/>
+      <c r="B14" s="416"/>
+      <c r="C14" s="419"/>
       <c r="D14" s="132"/>
       <c r="E14" s="133" t="s">
         <v>298</v>
@@ -22401,8 +22412,8 @@
       <c r="BF14" s="171"/>
     </row>
     <row r="15" spans="2:58">
-      <c r="B15" s="415"/>
-      <c r="C15" s="421"/>
+      <c r="B15" s="416"/>
+      <c r="C15" s="419"/>
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
       <c r="F15" s="133"/>
@@ -22445,8 +22456,8 @@
       <c r="BF15" s="171"/>
     </row>
     <row r="16" spans="2:58">
-      <c r="B16" s="415"/>
-      <c r="C16" s="421"/>
+      <c r="B16" s="416"/>
+      <c r="C16" s="419"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
@@ -22486,8 +22497,8 @@
       <c r="BF16" s="171"/>
     </row>
     <row r="17" spans="2:58">
-      <c r="B17" s="415"/>
-      <c r="C17" s="421"/>
+      <c r="B17" s="416"/>
+      <c r="C17" s="419"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
       <c r="F17" s="133"/>
@@ -22528,8 +22539,8 @@
       <c r="BF17" s="171"/>
     </row>
     <row r="18" spans="2:58">
-      <c r="B18" s="411"/>
-      <c r="C18" s="422"/>
+      <c r="B18" s="417"/>
+      <c r="C18" s="420"/>
       <c r="D18" s="143"/>
       <c r="E18" s="144"/>
       <c r="F18" s="144"/>
@@ -22570,10 +22581,10 @@
       <c r="BF18" s="171"/>
     </row>
     <row r="19" spans="2:58">
-      <c r="B19" s="410" t="s">
+      <c r="B19" s="415" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="423">
+      <c r="C19" s="418">
         <v>378</v>
       </c>
       <c r="D19" s="198">
@@ -22649,8 +22660,8 @@
       <c r="BF19" s="171"/>
     </row>
     <row r="20" spans="2:58">
-      <c r="B20" s="415"/>
-      <c r="C20" s="421"/>
+      <c r="B20" s="416"/>
+      <c r="C20" s="419"/>
       <c r="D20" s="132"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133">
@@ -22691,8 +22702,8 @@
       <c r="BF20" s="171"/>
     </row>
     <row r="21" spans="2:58">
-      <c r="B21" s="415"/>
-      <c r="C21" s="421"/>
+      <c r="B21" s="416"/>
+      <c r="C21" s="419"/>
       <c r="D21" s="132"/>
       <c r="E21" s="133"/>
       <c r="F21" s="133"/>
@@ -22733,8 +22744,8 @@
       <c r="BF21" s="171"/>
     </row>
     <row r="22" spans="2:58">
-      <c r="B22" s="415"/>
-      <c r="C22" s="421">
+      <c r="B22" s="416"/>
+      <c r="C22" s="419">
         <v>0</v>
       </c>
       <c r="D22" s="132"/>
@@ -22777,8 +22788,8 @@
       <c r="BF22" s="171"/>
     </row>
     <row r="23" spans="2:58">
-      <c r="B23" s="415"/>
-      <c r="C23" s="421"/>
+      <c r="B23" s="416"/>
+      <c r="C23" s="419"/>
       <c r="D23" s="132"/>
       <c r="E23" s="133"/>
       <c r="F23" s="133"/>
@@ -22819,8 +22830,8 @@
       <c r="BF23" s="171"/>
     </row>
     <row r="24" spans="2:58">
-      <c r="B24" s="415"/>
-      <c r="C24" s="421"/>
+      <c r="B24" s="416"/>
+      <c r="C24" s="419"/>
       <c r="D24" s="212"/>
       <c r="E24" s="237"/>
       <c r="F24" s="237"/>
@@ -22872,10 +22883,10 @@
       <c r="BF24" s="171"/>
     </row>
     <row r="25" spans="2:58">
-      <c r="B25" s="410" t="s">
+      <c r="B25" s="415" t="s">
         <v>316</v>
       </c>
-      <c r="C25" s="423">
+      <c r="C25" s="418">
         <v>380</v>
       </c>
       <c r="D25" s="140">
@@ -22945,8 +22956,8 @@
       <c r="BF25" s="171"/>
     </row>
     <row r="26" spans="2:58">
-      <c r="B26" s="415"/>
-      <c r="C26" s="421"/>
+      <c r="B26" s="416"/>
+      <c r="C26" s="419"/>
       <c r="D26" s="132"/>
       <c r="E26" s="133">
         <v>88</v>
@@ -22987,8 +22998,8 @@
       <c r="BF26" s="171"/>
     </row>
     <row r="27" spans="2:58">
-      <c r="B27" s="415"/>
-      <c r="C27" s="421"/>
+      <c r="B27" s="416"/>
+      <c r="C27" s="419"/>
       <c r="D27" s="132"/>
       <c r="E27" s="133"/>
       <c r="F27" s="133" t="s">
@@ -23031,8 +23042,8 @@
       <c r="BF27" s="171"/>
     </row>
     <row r="28" spans="2:58">
-      <c r="B28" s="415"/>
-      <c r="C28" s="421"/>
+      <c r="B28" s="416"/>
+      <c r="C28" s="419"/>
       <c r="D28" s="132"/>
       <c r="E28" s="133"/>
       <c r="F28" s="133"/>
@@ -23073,8 +23084,8 @@
       <c r="BF28" s="171"/>
     </row>
     <row r="29" spans="2:58">
-      <c r="B29" s="415"/>
-      <c r="C29" s="421">
+      <c r="B29" s="416"/>
+      <c r="C29" s="419">
         <v>0</v>
       </c>
       <c r="D29" s="132"/>
@@ -23117,8 +23128,8 @@
       <c r="BF29" s="171"/>
     </row>
     <row r="30" spans="2:58">
-      <c r="B30" s="415"/>
-      <c r="C30" s="421"/>
+      <c r="B30" s="416"/>
+      <c r="C30" s="419"/>
       <c r="D30" s="132"/>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -23159,8 +23170,8 @@
       <c r="BF30" s="171"/>
     </row>
     <row r="31" spans="2:58">
-      <c r="B31" s="415"/>
-      <c r="C31" s="421"/>
+      <c r="B31" s="416"/>
+      <c r="C31" s="419"/>
       <c r="D31" s="132"/>
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
@@ -23201,8 +23212,8 @@
       <c r="BF31" s="171"/>
     </row>
     <row r="32" spans="2:58">
-      <c r="B32" s="411"/>
-      <c r="C32" s="424"/>
+      <c r="B32" s="417"/>
+      <c r="C32" s="421"/>
       <c r="D32" s="143"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -23243,10 +23254,10 @@
       <c r="BF32" s="171"/>
     </row>
     <row r="33" spans="2:58">
-      <c r="B33" s="410" t="s">
+      <c r="B33" s="415" t="s">
         <v>320</v>
       </c>
-      <c r="C33" s="421">
+      <c r="C33" s="419">
         <v>382</v>
       </c>
       <c r="D33" s="140" t="s">
@@ -23316,8 +23327,8 @@
       <c r="BF33" s="171"/>
     </row>
     <row r="34" spans="2:58">
-      <c r="B34" s="415"/>
-      <c r="C34" s="421"/>
+      <c r="B34" s="416"/>
+      <c r="C34" s="419"/>
       <c r="D34" s="132"/>
       <c r="E34" s="133" t="s">
         <v>294</v>
@@ -23358,8 +23369,8 @@
       <c r="BF34" s="171"/>
     </row>
     <row r="35" spans="2:58">
-      <c r="B35" s="415"/>
-      <c r="C35" s="421"/>
+      <c r="B35" s="416"/>
+      <c r="C35" s="419"/>
       <c r="D35" s="132"/>
       <c r="E35" s="133"/>
       <c r="F35" s="133" t="s">
@@ -23400,8 +23411,8 @@
       <c r="BF35" s="171"/>
     </row>
     <row r="36" spans="2:58">
-      <c r="B36" s="415"/>
-      <c r="C36" s="421"/>
+      <c r="B36" s="416"/>
+      <c r="C36" s="419"/>
       <c r="D36" s="132"/>
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
@@ -23442,8 +23453,8 @@
       <c r="BF36" s="171"/>
     </row>
     <row r="37" spans="2:58">
-      <c r="B37" s="415"/>
-      <c r="C37" s="421">
+      <c r="B37" s="416"/>
+      <c r="C37" s="419">
         <v>0</v>
       </c>
       <c r="D37" s="132"/>
@@ -23486,8 +23497,8 @@
       <c r="BF37" s="171"/>
     </row>
     <row r="38" spans="2:58">
-      <c r="B38" s="415"/>
-      <c r="C38" s="421"/>
+      <c r="B38" s="416"/>
+      <c r="C38" s="419"/>
       <c r="D38" s="132"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
@@ -23528,8 +23539,8 @@
       <c r="BF38" s="171"/>
     </row>
     <row r="39" spans="2:58">
-      <c r="B39" s="415"/>
-      <c r="C39" s="421"/>
+      <c r="B39" s="416"/>
+      <c r="C39" s="419"/>
       <c r="D39" s="132"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
@@ -23570,8 +23581,8 @@
       <c r="BF39" s="171"/>
     </row>
     <row r="40" spans="2:58">
-      <c r="B40" s="411"/>
-      <c r="C40" s="422"/>
+      <c r="B40" s="417"/>
+      <c r="C40" s="420"/>
       <c r="D40" s="143"/>
       <c r="E40" s="144"/>
       <c r="F40" s="144"/>
@@ -23612,10 +23623,10 @@
       <c r="BF40" s="171"/>
     </row>
     <row r="41" spans="2:58">
-      <c r="B41" s="417" t="s">
+      <c r="B41" s="429" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="427">
+      <c r="C41" s="422">
         <v>390</v>
       </c>
       <c r="D41" s="185">
@@ -23690,8 +23701,8 @@
       <c r="BF41" s="171"/>
     </row>
     <row r="42" spans="2:58">
-      <c r="B42" s="418"/>
-      <c r="C42" s="428"/>
+      <c r="B42" s="430"/>
+      <c r="C42" s="423"/>
       <c r="D42" s="189"/>
       <c r="E42" s="237"/>
       <c r="F42" s="237">
@@ -23738,8 +23749,8 @@
       <c r="BF42" s="171"/>
     </row>
     <row r="43" spans="2:58">
-      <c r="B43" s="418"/>
-      <c r="C43" s="428"/>
+      <c r="B43" s="430"/>
+      <c r="C43" s="423"/>
       <c r="D43" s="189"/>
       <c r="E43" s="237"/>
       <c r="F43" s="237"/>
@@ -23786,8 +23797,8 @@
       <c r="BF43" s="171"/>
     </row>
     <row r="44" spans="2:58">
-      <c r="B44" s="418"/>
-      <c r="C44" s="428"/>
+      <c r="B44" s="430"/>
+      <c r="C44" s="423"/>
       <c r="D44" s="189"/>
       <c r="E44" s="237"/>
       <c r="F44" s="237"/>
@@ -23816,8 +23827,8 @@
       <c r="BF44" s="171"/>
     </row>
     <row r="45" spans="2:58">
-      <c r="B45" s="418"/>
-      <c r="C45" s="428"/>
+      <c r="B45" s="430"/>
+      <c r="C45" s="423"/>
       <c r="D45" s="135"/>
       <c r="E45" s="133"/>
       <c r="F45" s="133"/>
@@ -23861,10 +23872,10 @@
       <c r="BF45" s="171"/>
     </row>
     <row r="46" spans="2:58">
-      <c r="B46" s="410" t="s">
+      <c r="B46" s="415" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="423">
+      <c r="C46" s="418">
         <v>393</v>
       </c>
       <c r="D46" s="151">
@@ -23934,8 +23945,8 @@
       <c r="BF46" s="171"/>
     </row>
     <row r="47" spans="2:58">
-      <c r="B47" s="415"/>
-      <c r="C47" s="421"/>
+      <c r="B47" s="416"/>
+      <c r="C47" s="419"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133">
         <v>23</v>
@@ -23976,8 +23987,8 @@
       <c r="BF47" s="171"/>
     </row>
     <row r="48" spans="2:58">
-      <c r="B48" s="415"/>
-      <c r="C48" s="421"/>
+      <c r="B48" s="416"/>
+      <c r="C48" s="419"/>
       <c r="D48" s="135"/>
       <c r="E48" s="133"/>
       <c r="F48" s="133">
@@ -24018,8 +24029,8 @@
       <c r="BF48" s="171"/>
     </row>
     <row r="49" spans="2:58">
-      <c r="B49" s="415"/>
-      <c r="C49" s="421"/>
+      <c r="B49" s="416"/>
+      <c r="C49" s="419"/>
       <c r="D49" s="135"/>
       <c r="E49" s="133"/>
       <c r="F49" s="133"/>
@@ -24060,8 +24071,8 @@
       <c r="BF49" s="171"/>
     </row>
     <row r="50" spans="2:58">
-      <c r="B50" s="415"/>
-      <c r="C50" s="421">
+      <c r="B50" s="416"/>
+      <c r="C50" s="419">
         <v>0</v>
       </c>
       <c r="D50" s="135"/>
@@ -24103,8 +24114,8 @@
       <c r="BF50" s="171"/>
     </row>
     <row r="51" spans="2:58">
-      <c r="B51" s="415"/>
-      <c r="C51" s="421"/>
+      <c r="B51" s="416"/>
+      <c r="C51" s="419"/>
       <c r="D51" s="135"/>
       <c r="E51" s="133"/>
       <c r="F51" s="133"/>
@@ -24144,8 +24155,8 @@
       <c r="BF51" s="171"/>
     </row>
     <row r="52" spans="2:58">
-      <c r="B52" s="415"/>
-      <c r="C52" s="421"/>
+      <c r="B52" s="416"/>
+      <c r="C52" s="419"/>
       <c r="D52" s="135"/>
       <c r="E52" s="133"/>
       <c r="F52" s="133"/>
@@ -24185,8 +24196,8 @@
       <c r="BF52" s="171"/>
     </row>
     <row r="53" spans="2:58">
-      <c r="B53" s="411"/>
-      <c r="C53" s="422"/>
+      <c r="B53" s="417"/>
+      <c r="C53" s="420"/>
       <c r="D53" s="143"/>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -24226,10 +24237,10 @@
       <c r="BF53" s="171"/>
     </row>
     <row r="54" spans="2:58">
-      <c r="B54" s="410" t="s">
+      <c r="B54" s="415" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="423">
+      <c r="C54" s="418">
         <v>394</v>
       </c>
       <c r="D54" s="151">
@@ -24298,8 +24309,8 @@
       <c r="BF54" s="171"/>
     </row>
     <row r="55" spans="2:58">
-      <c r="B55" s="415"/>
-      <c r="C55" s="421"/>
+      <c r="B55" s="416"/>
+      <c r="C55" s="419"/>
       <c r="D55" s="135"/>
       <c r="E55" s="133">
         <v>28</v>
@@ -24339,8 +24350,8 @@
       <c r="BF55" s="171"/>
     </row>
     <row r="56" spans="2:58">
-      <c r="B56" s="415"/>
-      <c r="C56" s="421"/>
+      <c r="B56" s="416"/>
+      <c r="C56" s="419"/>
       <c r="D56" s="189"/>
       <c r="E56" s="237"/>
       <c r="F56" s="237" t="s">
@@ -24386,8 +24397,8 @@
       <c r="BF56" s="171"/>
     </row>
     <row r="57" spans="2:58">
-      <c r="B57" s="415"/>
-      <c r="C57" s="421">
+      <c r="B57" s="416"/>
+      <c r="C57" s="419">
         <v>0</v>
       </c>
       <c r="D57" s="135"/>
@@ -24429,8 +24440,8 @@
       <c r="BF57" s="171"/>
     </row>
     <row r="58" spans="2:58">
-      <c r="B58" s="415"/>
-      <c r="C58" s="421"/>
+      <c r="B58" s="416"/>
+      <c r="C58" s="419"/>
       <c r="D58" s="135"/>
       <c r="E58" s="133"/>
       <c r="F58" s="133"/>
@@ -24470,8 +24481,8 @@
       <c r="BF58" s="171"/>
     </row>
     <row r="59" spans="2:58">
-      <c r="B59" s="415"/>
-      <c r="C59" s="421"/>
+      <c r="B59" s="416"/>
+      <c r="C59" s="419"/>
       <c r="D59" s="135"/>
       <c r="E59" s="133"/>
       <c r="F59" s="133"/>
@@ -24511,8 +24522,8 @@
       <c r="BF59" s="171"/>
     </row>
     <row r="60" spans="2:58">
-      <c r="B60" s="411"/>
-      <c r="C60" s="422"/>
+      <c r="B60" s="417"/>
+      <c r="C60" s="420"/>
       <c r="D60" s="152"/>
       <c r="E60" s="144"/>
       <c r="F60" s="144"/>
@@ -24605,10 +24616,10 @@
       <c r="BF61" s="171"/>
     </row>
     <row r="62" spans="2:58">
-      <c r="B62" s="410" t="s">
+      <c r="B62" s="415" t="s">
         <v>346</v>
       </c>
-      <c r="C62" s="423">
+      <c r="C62" s="418">
         <v>443</v>
       </c>
       <c r="D62" s="151">
@@ -24677,8 +24688,8 @@
       <c r="BF62" s="171"/>
     </row>
     <row r="63" spans="2:58">
-      <c r="B63" s="415"/>
-      <c r="C63" s="421"/>
+      <c r="B63" s="416"/>
+      <c r="C63" s="419"/>
       <c r="D63" s="135"/>
       <c r="E63" s="133">
         <v>62</v>
@@ -24718,8 +24729,8 @@
       <c r="BF63" s="171"/>
     </row>
     <row r="64" spans="2:58">
-      <c r="B64" s="415"/>
-      <c r="C64" s="421"/>
+      <c r="B64" s="416"/>
+      <c r="C64" s="419"/>
       <c r="D64" s="135"/>
       <c r="E64" s="133"/>
       <c r="F64" s="133" t="s">
@@ -24759,8 +24770,8 @@
       <c r="BF64" s="171"/>
     </row>
     <row r="65" spans="2:58">
-      <c r="B65" s="415"/>
-      <c r="C65" s="421"/>
+      <c r="B65" s="416"/>
+      <c r="C65" s="419"/>
       <c r="D65" s="135"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -24800,8 +24811,8 @@
       <c r="BF65" s="171"/>
     </row>
     <row r="66" spans="2:58">
-      <c r="B66" s="415"/>
-      <c r="C66" s="421">
+      <c r="B66" s="416"/>
+      <c r="C66" s="419">
         <v>0</v>
       </c>
       <c r="D66" s="135"/>
@@ -24843,8 +24854,8 @@
       <c r="BF66" s="171"/>
     </row>
     <row r="67" spans="2:58">
-      <c r="B67" s="415"/>
-      <c r="C67" s="421"/>
+      <c r="B67" s="416"/>
+      <c r="C67" s="419"/>
       <c r="D67" s="135"/>
       <c r="E67" s="133"/>
       <c r="F67" s="133"/>
@@ -24884,8 +24895,8 @@
       <c r="BF67" s="171"/>
     </row>
     <row r="68" spans="2:58">
-      <c r="B68" s="415"/>
-      <c r="C68" s="421"/>
+      <c r="B68" s="416"/>
+      <c r="C68" s="419"/>
       <c r="D68" s="135"/>
       <c r="E68" s="133"/>
       <c r="F68" s="133"/>
@@ -24925,8 +24936,8 @@
       <c r="BF68" s="171"/>
     </row>
     <row r="69" spans="2:58">
-      <c r="B69" s="411"/>
-      <c r="C69" s="422"/>
+      <c r="B69" s="417"/>
+      <c r="C69" s="420"/>
       <c r="D69" s="152"/>
       <c r="E69" s="144"/>
       <c r="F69" s="144"/>
@@ -24966,10 +24977,10 @@
       <c r="BF69" s="171"/>
     </row>
     <row r="70" spans="2:58">
-      <c r="B70" s="410" t="s">
+      <c r="B70" s="415" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="423">
+      <c r="C70" s="418">
         <v>445</v>
       </c>
       <c r="D70" s="151" t="s">
@@ -25038,8 +25049,8 @@
       <c r="BF70" s="171"/>
     </row>
     <row r="71" spans="2:58">
-      <c r="B71" s="415"/>
-      <c r="C71" s="421"/>
+      <c r="B71" s="416"/>
+      <c r="C71" s="419"/>
       <c r="D71" s="135"/>
       <c r="E71" s="133" t="s">
         <v>306</v>
@@ -25079,8 +25090,8 @@
       <c r="BF71" s="171"/>
     </row>
     <row r="72" spans="2:58">
-      <c r="B72" s="415"/>
-      <c r="C72" s="421"/>
+      <c r="B72" s="416"/>
+      <c r="C72" s="419"/>
       <c r="D72" s="135"/>
       <c r="E72" s="133"/>
       <c r="F72" s="133" t="s">
@@ -25120,8 +25131,8 @@
       <c r="BF72" s="171"/>
     </row>
     <row r="73" spans="2:58">
-      <c r="B73" s="415"/>
-      <c r="C73" s="421"/>
+      <c r="B73" s="416"/>
+      <c r="C73" s="419"/>
       <c r="D73" s="135"/>
       <c r="E73" s="133"/>
       <c r="F73" s="133"/>
@@ -25161,8 +25172,8 @@
       <c r="BF73" s="171"/>
     </row>
     <row r="74" spans="2:58">
-      <c r="B74" s="415"/>
-      <c r="C74" s="421">
+      <c r="B74" s="416"/>
+      <c r="C74" s="419">
         <v>0</v>
       </c>
       <c r="D74" s="135"/>
@@ -25204,8 +25215,8 @@
       <c r="BF74" s="171"/>
     </row>
     <row r="75" spans="2:58">
-      <c r="B75" s="415"/>
-      <c r="C75" s="421"/>
+      <c r="B75" s="416"/>
+      <c r="C75" s="419"/>
       <c r="D75" s="135"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -25245,8 +25256,8 @@
       <c r="BF75" s="171"/>
     </row>
     <row r="76" spans="2:58">
-      <c r="B76" s="415"/>
-      <c r="C76" s="421"/>
+      <c r="B76" s="416"/>
+      <c r="C76" s="419"/>
       <c r="D76" s="135"/>
       <c r="E76" s="133"/>
       <c r="F76" s="133"/>
@@ -25286,8 +25297,8 @@
       <c r="BF76" s="171"/>
     </row>
     <row r="77" spans="2:58">
-      <c r="B77" s="411"/>
-      <c r="C77" s="422"/>
+      <c r="B77" s="417"/>
+      <c r="C77" s="420"/>
       <c r="D77" s="152"/>
       <c r="E77" s="144"/>
       <c r="F77" s="144"/>
@@ -25327,10 +25338,10 @@
       <c r="BF77" s="171"/>
     </row>
     <row r="78" spans="2:58">
-      <c r="B78" s="410" t="s">
+      <c r="B78" s="415" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="423">
+      <c r="C78" s="418">
         <v>502</v>
       </c>
       <c r="D78" s="151" t="s">
@@ -25399,8 +25410,8 @@
       <c r="BF78" s="171"/>
     </row>
     <row r="79" spans="2:58">
-      <c r="B79" s="415"/>
-      <c r="C79" s="421"/>
+      <c r="B79" s="416"/>
+      <c r="C79" s="419"/>
       <c r="D79" s="189"/>
       <c r="E79" s="237">
         <v>20</v>
@@ -25444,8 +25455,8 @@
       <c r="BF79" s="171"/>
     </row>
     <row r="80" spans="2:58">
-      <c r="B80" s="415"/>
-      <c r="C80" s="421"/>
+      <c r="B80" s="416"/>
+      <c r="C80" s="419"/>
       <c r="D80" s="189"/>
       <c r="E80" s="237"/>
       <c r="F80" s="237">
@@ -25491,8 +25502,8 @@
       <c r="BF80" s="171"/>
     </row>
     <row r="81" spans="2:58">
-      <c r="B81" s="415"/>
-      <c r="C81" s="421">
+      <c r="B81" s="416"/>
+      <c r="C81" s="419">
         <v>0</v>
       </c>
       <c r="D81" s="135"/>
@@ -25534,8 +25545,8 @@
       <c r="BF81" s="171"/>
     </row>
     <row r="82" spans="2:58">
-      <c r="B82" s="415"/>
-      <c r="C82" s="421"/>
+      <c r="B82" s="416"/>
+      <c r="C82" s="419"/>
       <c r="D82" s="135"/>
       <c r="E82" s="133"/>
       <c r="F82" s="133"/>
@@ -25575,8 +25586,8 @@
       <c r="BF82" s="171"/>
     </row>
     <row r="83" spans="2:58">
-      <c r="B83" s="415"/>
-      <c r="C83" s="421"/>
+      <c r="B83" s="416"/>
+      <c r="C83" s="419"/>
       <c r="D83" s="135"/>
       <c r="E83" s="133"/>
       <c r="F83" s="133"/>
@@ -25616,8 +25627,8 @@
       <c r="BF83" s="171"/>
     </row>
     <row r="84" spans="2:58">
-      <c r="B84" s="411"/>
-      <c r="C84" s="422"/>
+      <c r="B84" s="417"/>
+      <c r="C84" s="420"/>
       <c r="D84" s="152"/>
       <c r="E84" s="144"/>
       <c r="F84" s="144"/>
@@ -25657,10 +25668,10 @@
       <c r="BF84" s="171"/>
     </row>
     <row r="85" spans="2:58">
-      <c r="B85" s="410" t="s">
+      <c r="B85" s="415" t="s">
         <v>359</v>
       </c>
-      <c r="C85" s="423">
+      <c r="C85" s="418">
         <v>524</v>
       </c>
       <c r="D85" s="151" t="s">
@@ -25729,8 +25740,8 @@
       <c r="BF85" s="171"/>
     </row>
     <row r="86" spans="2:58">
-      <c r="B86" s="415"/>
-      <c r="C86" s="421"/>
+      <c r="B86" s="416"/>
+      <c r="C86" s="419"/>
       <c r="D86" s="135"/>
       <c r="E86" s="133" t="s">
         <v>294</v>
@@ -25770,8 +25781,8 @@
       <c r="BF86" s="171"/>
     </row>
     <row r="87" spans="2:58">
-      <c r="B87" s="415"/>
-      <c r="C87" s="421"/>
+      <c r="B87" s="416"/>
+      <c r="C87" s="419"/>
       <c r="D87" s="135"/>
       <c r="E87" s="133"/>
       <c r="F87" s="133" t="s">
@@ -25811,8 +25822,8 @@
       <c r="BF87" s="171"/>
     </row>
     <row r="88" spans="2:58">
-      <c r="B88" s="415"/>
-      <c r="C88" s="421"/>
+      <c r="B88" s="416"/>
+      <c r="C88" s="419"/>
       <c r="D88" s="135"/>
       <c r="E88" s="133"/>
       <c r="F88" s="133"/>
@@ -25852,8 +25863,8 @@
       <c r="BF88" s="171"/>
     </row>
     <row r="89" spans="2:58">
-      <c r="B89" s="415"/>
-      <c r="C89" s="421">
+      <c r="B89" s="416"/>
+      <c r="C89" s="419">
         <v>0</v>
       </c>
       <c r="D89" s="135"/>
@@ -25895,8 +25906,8 @@
       <c r="BF89" s="171"/>
     </row>
     <row r="90" spans="2:58">
-      <c r="B90" s="415"/>
-      <c r="C90" s="421"/>
+      <c r="B90" s="416"/>
+      <c r="C90" s="419"/>
       <c r="D90" s="135"/>
       <c r="E90" s="133"/>
       <c r="F90" s="133"/>
@@ -25936,8 +25947,8 @@
       <c r="BF90" s="171"/>
     </row>
     <row r="91" spans="2:58">
-      <c r="B91" s="415"/>
-      <c r="C91" s="421"/>
+      <c r="B91" s="416"/>
+      <c r="C91" s="419"/>
       <c r="D91" s="135"/>
       <c r="E91" s="133"/>
       <c r="F91" s="133"/>
@@ -25977,8 +25988,8 @@
       <c r="BF91" s="171"/>
     </row>
     <row r="92" spans="2:58">
-      <c r="B92" s="416"/>
-      <c r="C92" s="424"/>
+      <c r="B92" s="424"/>
+      <c r="C92" s="421"/>
       <c r="D92" s="152"/>
       <c r="E92" s="144"/>
       <c r="F92" s="144"/>
@@ -26018,10 +26029,10 @@
       <c r="BF92" s="171"/>
     </row>
     <row r="93" spans="2:58">
-      <c r="B93" s="415" t="s">
+      <c r="B93" s="416" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="421">
+      <c r="C93" s="419">
         <v>529</v>
       </c>
       <c r="D93" s="151" t="s">
@@ -26090,8 +26101,8 @@
       <c r="BF93" s="171"/>
     </row>
     <row r="94" spans="2:58">
-      <c r="B94" s="415"/>
-      <c r="C94" s="421"/>
+      <c r="B94" s="416"/>
+      <c r="C94" s="419"/>
       <c r="D94" s="135"/>
       <c r="E94" s="133" t="s">
         <v>365</v>
@@ -26131,8 +26142,8 @@
       <c r="BF94" s="171"/>
     </row>
     <row r="95" spans="2:58">
-      <c r="B95" s="415"/>
-      <c r="C95" s="421"/>
+      <c r="B95" s="416"/>
+      <c r="C95" s="419"/>
       <c r="D95" s="135"/>
       <c r="E95" s="133"/>
       <c r="F95" s="133" t="s">
@@ -26172,8 +26183,8 @@
       <c r="BF95" s="171"/>
     </row>
     <row r="96" spans="2:58">
-      <c r="B96" s="415"/>
-      <c r="C96" s="421"/>
+      <c r="B96" s="416"/>
+      <c r="C96" s="419"/>
       <c r="D96" s="135"/>
       <c r="E96" s="133"/>
       <c r="F96" s="133"/>
@@ -26213,8 +26224,8 @@
       <c r="BF96" s="171"/>
     </row>
     <row r="97" spans="2:58">
-      <c r="B97" s="415"/>
-      <c r="C97" s="421">
+      <c r="B97" s="416"/>
+      <c r="C97" s="419">
         <v>0</v>
       </c>
       <c r="D97" s="135"/>
@@ -26256,8 +26267,8 @@
       <c r="BF97" s="171"/>
     </row>
     <row r="98" spans="2:58">
-      <c r="B98" s="415"/>
-      <c r="C98" s="421"/>
+      <c r="B98" s="416"/>
+      <c r="C98" s="419"/>
       <c r="D98" s="135"/>
       <c r="E98" s="133"/>
       <c r="F98" s="133"/>
@@ -26297,8 +26308,8 @@
       <c r="BF98" s="171"/>
     </row>
     <row r="99" spans="2:58">
-      <c r="B99" s="415"/>
-      <c r="C99" s="421"/>
+      <c r="B99" s="416"/>
+      <c r="C99" s="419"/>
       <c r="D99" s="135"/>
       <c r="E99" s="133"/>
       <c r="F99" s="133"/>
@@ -26338,8 +26349,8 @@
       <c r="BF99" s="171"/>
     </row>
     <row r="100" spans="2:58">
-      <c r="B100" s="411"/>
-      <c r="C100" s="422"/>
+      <c r="B100" s="417"/>
+      <c r="C100" s="420"/>
       <c r="D100" s="152"/>
       <c r="E100" s="144"/>
       <c r="F100" s="144"/>
@@ -26437,10 +26448,10 @@
       <c r="BF101" s="171"/>
     </row>
     <row r="102" spans="2:58">
-      <c r="B102" s="410" t="s">
+      <c r="B102" s="415" t="s">
         <v>369</v>
       </c>
-      <c r="C102" s="425">
+      <c r="C102" s="410">
         <v>535</v>
       </c>
       <c r="D102" s="151" t="s">
@@ -26506,8 +26517,8 @@
       <c r="BF102" s="171"/>
     </row>
     <row r="103" spans="2:58">
-      <c r="B103" s="415"/>
-      <c r="C103" s="426"/>
+      <c r="B103" s="416"/>
+      <c r="C103" s="411"/>
       <c r="D103" s="135"/>
       <c r="E103" s="133" t="s">
         <v>294</v>
@@ -26547,8 +26558,8 @@
       <c r="BF103" s="171"/>
     </row>
     <row r="104" spans="2:58">
-      <c r="B104" s="415"/>
-      <c r="C104" s="426"/>
+      <c r="B104" s="416"/>
+      <c r="C104" s="411"/>
       <c r="D104" s="135"/>
       <c r="E104" s="133"/>
       <c r="F104" s="133" t="s">
@@ -26588,8 +26599,8 @@
       <c r="BF104" s="171"/>
     </row>
     <row r="105" spans="2:58">
-      <c r="B105" s="415"/>
-      <c r="C105" s="426"/>
+      <c r="B105" s="416"/>
+      <c r="C105" s="411"/>
       <c r="D105" s="135"/>
       <c r="E105" s="133"/>
       <c r="F105" s="133"/>
@@ -26637,8 +26648,8 @@
       <c r="BF105" s="171"/>
     </row>
     <row r="106" spans="2:58">
-      <c r="B106" s="411"/>
-      <c r="C106" s="413"/>
+      <c r="B106" s="417"/>
+      <c r="C106" s="412"/>
       <c r="D106" s="152"/>
       <c r="E106" s="144"/>
       <c r="F106" s="144"/>
@@ -26678,10 +26689,10 @@
       <c r="BF106" s="171"/>
     </row>
     <row r="107" spans="2:58">
-      <c r="B107" s="410" t="s">
+      <c r="B107" s="415" t="s">
         <v>373</v>
       </c>
-      <c r="C107" s="423">
+      <c r="C107" s="418">
         <v>536</v>
       </c>
       <c r="D107" s="151" t="s">
@@ -26750,8 +26761,8 @@
       <c r="BF107" s="171"/>
     </row>
     <row r="108" spans="2:58">
-      <c r="B108" s="415"/>
-      <c r="C108" s="421"/>
+      <c r="B108" s="416"/>
+      <c r="C108" s="419"/>
       <c r="D108" s="135"/>
       <c r="E108" s="133" t="s">
         <v>294</v>
@@ -26791,8 +26802,8 @@
       <c r="BF108" s="171"/>
     </row>
     <row r="109" spans="2:58">
-      <c r="B109" s="415"/>
-      <c r="C109" s="421"/>
+      <c r="B109" s="416"/>
+      <c r="C109" s="419"/>
       <c r="D109" s="135"/>
       <c r="E109" s="133"/>
       <c r="F109" s="133" t="s">
@@ -26832,8 +26843,8 @@
       <c r="BF109" s="171"/>
     </row>
     <row r="110" spans="2:58">
-      <c r="B110" s="415"/>
-      <c r="C110" s="421"/>
+      <c r="B110" s="416"/>
+      <c r="C110" s="419"/>
       <c r="D110" s="135"/>
       <c r="E110" s="133"/>
       <c r="F110" s="133"/>
@@ -26873,8 +26884,8 @@
       <c r="BF110" s="171"/>
     </row>
     <row r="111" spans="2:58">
-      <c r="B111" s="415"/>
-      <c r="C111" s="421">
+      <c r="B111" s="416"/>
+      <c r="C111" s="419">
         <v>0</v>
       </c>
       <c r="D111" s="135"/>
@@ -26916,8 +26927,8 @@
       <c r="BF111" s="171"/>
     </row>
     <row r="112" spans="2:58">
-      <c r="B112" s="415"/>
-      <c r="C112" s="421"/>
+      <c r="B112" s="416"/>
+      <c r="C112" s="419"/>
       <c r="D112" s="135"/>
       <c r="E112" s="133"/>
       <c r="F112" s="133"/>
@@ -26957,8 +26968,8 @@
       <c r="BF112" s="171"/>
     </row>
     <row r="113" spans="2:58">
-      <c r="B113" s="415"/>
-      <c r="C113" s="421"/>
+      <c r="B113" s="416"/>
+      <c r="C113" s="419"/>
       <c r="D113" s="135"/>
       <c r="E113" s="133"/>
       <c r="F113" s="133"/>
@@ -26998,8 +27009,8 @@
       <c r="BF113" s="171"/>
     </row>
     <row r="114" spans="2:58">
-      <c r="B114" s="411"/>
-      <c r="C114" s="422"/>
+      <c r="B114" s="417"/>
+      <c r="C114" s="420"/>
       <c r="D114" s="152"/>
       <c r="E114" s="144"/>
       <c r="F114" s="144"/>
@@ -27039,10 +27050,10 @@
       <c r="BF114" s="171"/>
     </row>
     <row r="115" spans="2:58">
-      <c r="B115" s="410" t="s">
+      <c r="B115" s="415" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="425">
+      <c r="C115" s="410">
         <v>578</v>
       </c>
       <c r="D115" s="151" t="s">
@@ -27108,8 +27119,8 @@
       <c r="BF115" s="171"/>
     </row>
     <row r="116" spans="2:58">
-      <c r="B116" s="415"/>
-      <c r="C116" s="426"/>
+      <c r="B116" s="416"/>
+      <c r="C116" s="411"/>
       <c r="D116" s="135"/>
       <c r="E116" s="133" t="s">
         <v>294</v>
@@ -27149,8 +27160,8 @@
       <c r="BF116" s="171"/>
     </row>
     <row r="117" spans="2:58">
-      <c r="B117" s="415"/>
-      <c r="C117" s="426"/>
+      <c r="B117" s="416"/>
+      <c r="C117" s="411"/>
       <c r="D117" s="135"/>
       <c r="E117" s="133"/>
       <c r="F117" s="133" t="s">
@@ -27190,8 +27201,8 @@
       <c r="BF117" s="171"/>
     </row>
     <row r="118" spans="2:58">
-      <c r="B118" s="415"/>
-      <c r="C118" s="426"/>
+      <c r="B118" s="416"/>
+      <c r="C118" s="411"/>
       <c r="D118" s="135"/>
       <c r="E118" s="133"/>
       <c r="F118" s="133"/>
@@ -27231,8 +27242,8 @@
       <c r="BF118" s="171"/>
     </row>
     <row r="119" spans="2:58">
-      <c r="B119" s="415"/>
-      <c r="C119" s="426"/>
+      <c r="B119" s="416"/>
+      <c r="C119" s="411"/>
       <c r="D119" s="135"/>
       <c r="E119" s="133"/>
       <c r="F119" s="133"/>
@@ -27272,8 +27283,8 @@
       <c r="BF119" s="171"/>
     </row>
     <row r="120" spans="2:58">
-      <c r="B120" s="415"/>
-      <c r="C120" s="426"/>
+      <c r="B120" s="416"/>
+      <c r="C120" s="411"/>
       <c r="D120" s="135"/>
       <c r="E120" s="133"/>
       <c r="F120" s="133"/>
@@ -27313,8 +27324,8 @@
       <c r="BF120" s="171"/>
     </row>
     <row r="121" spans="2:58">
-      <c r="B121" s="411"/>
-      <c r="C121" s="413"/>
+      <c r="B121" s="417"/>
+      <c r="C121" s="412"/>
       <c r="D121" s="152"/>
       <c r="E121" s="144"/>
       <c r="F121" s="144"/>
@@ -27354,10 +27365,10 @@
       <c r="BF121" s="171"/>
     </row>
     <row r="122" spans="2:58">
-      <c r="B122" s="410" t="s">
+      <c r="B122" s="415" t="s">
         <v>376</v>
       </c>
-      <c r="C122" s="425">
+      <c r="C122" s="410">
         <v>666</v>
       </c>
       <c r="D122" s="185" t="s">
@@ -27436,8 +27447,8 @@
       <c r="BF122" s="171"/>
     </row>
     <row r="123" spans="2:58">
-      <c r="B123" s="415"/>
-      <c r="C123" s="426"/>
+      <c r="B123" s="416"/>
+      <c r="C123" s="411"/>
       <c r="D123" s="189"/>
       <c r="E123" s="237"/>
       <c r="F123" s="237" t="s">
@@ -27487,8 +27498,8 @@
       <c r="BF123" s="171"/>
     </row>
     <row r="124" spans="2:58">
-      <c r="B124" s="415"/>
-      <c r="C124" s="426"/>
+      <c r="B124" s="416"/>
+      <c r="C124" s="411"/>
       <c r="D124" s="189"/>
       <c r="E124" s="237"/>
       <c r="F124" s="237"/>
@@ -27537,8 +27548,8 @@
       <c r="BF124" s="171"/>
     </row>
     <row r="125" spans="2:58">
-      <c r="B125" s="415"/>
-      <c r="C125" s="426"/>
+      <c r="B125" s="416"/>
+      <c r="C125" s="411"/>
       <c r="D125" s="135"/>
       <c r="E125" s="133"/>
       <c r="F125" s="133"/>
@@ -27578,8 +27589,8 @@
       <c r="BF125" s="171"/>
     </row>
     <row r="126" spans="2:58">
-      <c r="B126" s="411"/>
-      <c r="C126" s="413"/>
+      <c r="B126" s="417"/>
+      <c r="C126" s="412"/>
       <c r="D126" s="152"/>
       <c r="E126" s="144"/>
       <c r="F126" s="144"/>
@@ -27619,10 +27630,10 @@
       <c r="BF126" s="171"/>
     </row>
     <row r="127" spans="2:58">
-      <c r="B127" s="410" t="s">
+      <c r="B127" s="415" t="s">
         <v>382</v>
       </c>
-      <c r="C127" s="425">
+      <c r="C127" s="410">
         <v>668</v>
       </c>
       <c r="D127" s="185" t="s">
@@ -27701,8 +27712,8 @@
       <c r="BF127" s="171"/>
     </row>
     <row r="128" spans="2:58">
-      <c r="B128" s="415"/>
-      <c r="C128" s="426"/>
+      <c r="B128" s="416"/>
+      <c r="C128" s="411"/>
       <c r="D128" s="189"/>
       <c r="E128" s="237"/>
       <c r="F128" s="237" t="s">
@@ -27752,8 +27763,8 @@
       <c r="BF128" s="171"/>
     </row>
     <row r="129" spans="2:58">
-      <c r="B129" s="415"/>
-      <c r="C129" s="426"/>
+      <c r="B129" s="416"/>
+      <c r="C129" s="411"/>
       <c r="D129" s="135"/>
       <c r="E129" s="133"/>
       <c r="F129" s="133"/>
@@ -27793,8 +27804,8 @@
       <c r="BF129" s="171"/>
     </row>
     <row r="130" spans="2:58">
-      <c r="B130" s="415"/>
-      <c r="C130" s="426"/>
+      <c r="B130" s="416"/>
+      <c r="C130" s="411"/>
       <c r="D130" s="135"/>
       <c r="E130" s="133"/>
       <c r="F130" s="133"/>
@@ -27834,8 +27845,8 @@
       <c r="BF130" s="171"/>
     </row>
     <row r="131" spans="2:58">
-      <c r="B131" s="415"/>
-      <c r="C131" s="426"/>
+      <c r="B131" s="416"/>
+      <c r="C131" s="411"/>
       <c r="D131" s="135"/>
       <c r="E131" s="133"/>
       <c r="F131" s="133"/>
@@ -27877,10 +27888,10 @@
       <c r="BF131" s="171"/>
     </row>
     <row r="132" spans="2:58">
-      <c r="B132" s="410" t="s">
+      <c r="B132" s="415" t="s">
         <v>385</v>
       </c>
-      <c r="C132" s="425">
+      <c r="C132" s="410">
         <v>695</v>
       </c>
       <c r="D132" s="151" t="s">
@@ -27940,8 +27951,8 @@
       <c r="BF132" s="171"/>
     </row>
     <row r="133" spans="2:58">
-      <c r="B133" s="415"/>
-      <c r="C133" s="426"/>
+      <c r="B133" s="416"/>
+      <c r="C133" s="411"/>
       <c r="D133" s="135"/>
       <c r="E133" s="133" t="s">
         <v>386</v>
@@ -27981,8 +27992,8 @@
       <c r="BF133" s="171"/>
     </row>
     <row r="134" spans="2:58">
-      <c r="B134" s="415"/>
-      <c r="C134" s="426"/>
+      <c r="B134" s="416"/>
+      <c r="C134" s="411"/>
       <c r="D134" s="135"/>
       <c r="E134" s="133"/>
       <c r="F134" s="133" t="s">
@@ -28022,8 +28033,8 @@
       <c r="BF134" s="171"/>
     </row>
     <row r="135" spans="2:58">
-      <c r="B135" s="415"/>
-      <c r="C135" s="426"/>
+      <c r="B135" s="416"/>
+      <c r="C135" s="411"/>
       <c r="D135" s="135"/>
       <c r="E135" s="133"/>
       <c r="F135" s="133"/>
@@ -28063,8 +28074,8 @@
       <c r="BF135" s="171"/>
     </row>
     <row r="136" spans="2:58">
-      <c r="B136" s="411"/>
-      <c r="C136" s="413"/>
+      <c r="B136" s="417"/>
+      <c r="C136" s="412"/>
       <c r="D136" s="152"/>
       <c r="E136" s="144"/>
       <c r="F136" s="144"/>
@@ -28104,10 +28115,10 @@
       <c r="BF136" s="171"/>
     </row>
     <row r="137" spans="2:58">
-      <c r="B137" s="410" t="s">
+      <c r="B137" s="415" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="425">
+      <c r="C137" s="410">
         <v>710</v>
       </c>
       <c r="D137" s="151" t="s">
@@ -28170,8 +28181,8 @@
       <c r="BF137" s="171"/>
     </row>
     <row r="138" spans="2:58">
-      <c r="B138" s="415"/>
-      <c r="C138" s="426"/>
+      <c r="B138" s="416"/>
+      <c r="C138" s="411"/>
       <c r="D138" s="135"/>
       <c r="E138" s="133" t="s">
         <v>306</v>
@@ -28211,8 +28222,8 @@
       <c r="BF138" s="171"/>
     </row>
     <row r="139" spans="2:58">
-      <c r="B139" s="415"/>
-      <c r="C139" s="426"/>
+      <c r="B139" s="416"/>
+      <c r="C139" s="411"/>
       <c r="D139" s="135"/>
       <c r="E139" s="133"/>
       <c r="F139" s="133" t="s">
@@ -28252,8 +28263,8 @@
       <c r="BF139" s="171"/>
     </row>
     <row r="140" spans="2:58">
-      <c r="B140" s="415"/>
-      <c r="C140" s="426"/>
+      <c r="B140" s="416"/>
+      <c r="C140" s="411"/>
       <c r="D140" s="135"/>
       <c r="E140" s="133"/>
       <c r="F140" s="133"/>
@@ -28293,8 +28304,8 @@
       <c r="BF140" s="171"/>
     </row>
     <row r="141" spans="2:58">
-      <c r="B141" s="415"/>
-      <c r="C141" s="426"/>
+      <c r="B141" s="416"/>
+      <c r="C141" s="411"/>
       <c r="D141" s="135"/>
       <c r="E141" s="133"/>
       <c r="F141" s="133"/>
@@ -28334,8 +28345,8 @@
       <c r="BF141" s="171"/>
     </row>
     <row r="142" spans="2:58">
-      <c r="B142" s="411"/>
-      <c r="C142" s="413"/>
+      <c r="B142" s="417"/>
+      <c r="C142" s="412"/>
       <c r="D142" s="152"/>
       <c r="E142" s="144"/>
       <c r="F142" s="144"/>
@@ -28375,10 +28386,10 @@
       <c r="BF142" s="171"/>
     </row>
     <row r="143" spans="2:58">
-      <c r="B143" s="410" t="s">
+      <c r="B143" s="415" t="s">
         <v>388</v>
       </c>
-      <c r="C143" s="425">
+      <c r="C143" s="410">
         <v>771</v>
       </c>
       <c r="D143" s="151" t="s">
@@ -28444,8 +28455,8 @@
       <c r="BF143" s="171"/>
     </row>
     <row r="144" spans="2:58">
-      <c r="B144" s="415"/>
-      <c r="C144" s="426"/>
+      <c r="B144" s="416"/>
+      <c r="C144" s="411"/>
       <c r="D144" s="135"/>
       <c r="E144" s="133" t="s">
         <v>390</v>
@@ -28485,8 +28496,8 @@
       <c r="BF144" s="171"/>
     </row>
     <row r="145" spans="2:58">
-      <c r="B145" s="415"/>
-      <c r="C145" s="426"/>
+      <c r="B145" s="416"/>
+      <c r="C145" s="411"/>
       <c r="D145" s="135"/>
       <c r="E145" s="133"/>
       <c r="F145" s="133" t="s">
@@ -28526,8 +28537,8 @@
       <c r="BF145" s="171"/>
     </row>
     <row r="146" spans="2:58">
-      <c r="B146" s="415"/>
-      <c r="C146" s="426"/>
+      <c r="B146" s="416"/>
+      <c r="C146" s="411"/>
       <c r="D146" s="135"/>
       <c r="E146" s="133"/>
       <c r="F146" s="133"/>
@@ -28567,8 +28578,8 @@
       <c r="BF146" s="171"/>
     </row>
     <row r="147" spans="2:58">
-      <c r="B147" s="415"/>
-      <c r="C147" s="426"/>
+      <c r="B147" s="416"/>
+      <c r="C147" s="411"/>
       <c r="D147" s="135"/>
       <c r="E147" s="133"/>
       <c r="F147" s="133"/>
@@ -28608,8 +28619,8 @@
       <c r="BF147" s="171"/>
     </row>
     <row r="148" spans="2:58">
-      <c r="B148" s="415"/>
-      <c r="C148" s="426"/>
+      <c r="B148" s="416"/>
+      <c r="C148" s="411"/>
       <c r="D148" s="135"/>
       <c r="E148" s="133"/>
       <c r="F148" s="133"/>
@@ -28649,8 +28660,8 @@
       <c r="BF148" s="171"/>
     </row>
     <row r="149" spans="2:58">
-      <c r="B149" s="411"/>
-      <c r="C149" s="413"/>
+      <c r="B149" s="417"/>
+      <c r="C149" s="412"/>
       <c r="D149" s="152"/>
       <c r="E149" s="144"/>
       <c r="F149" s="144"/>
@@ -28690,10 +28701,10 @@
       <c r="BF149" s="171"/>
     </row>
     <row r="150" spans="2:58">
-      <c r="B150" s="410" t="s">
+      <c r="B150" s="415" t="s">
         <v>395</v>
       </c>
-      <c r="C150" s="425">
+      <c r="C150" s="410">
         <v>848</v>
       </c>
       <c r="D150" s="151" t="s">
@@ -28762,8 +28773,8 @@
       <c r="BF150" s="171"/>
     </row>
     <row r="151" spans="2:58">
-      <c r="B151" s="415"/>
-      <c r="C151" s="426"/>
+      <c r="B151" s="416"/>
+      <c r="C151" s="411"/>
       <c r="D151" s="135"/>
       <c r="E151" s="133" t="s">
         <v>361</v>
@@ -28803,8 +28814,8 @@
       <c r="BF151" s="171"/>
     </row>
     <row r="152" spans="2:58">
-      <c r="B152" s="415"/>
-      <c r="C152" s="426"/>
+      <c r="B152" s="416"/>
+      <c r="C152" s="411"/>
       <c r="D152" s="135"/>
       <c r="E152" s="133"/>
       <c r="F152" s="133" t="s">
@@ -28844,8 +28855,8 @@
       <c r="BF152" s="171"/>
     </row>
     <row r="153" spans="2:58">
-      <c r="B153" s="415"/>
-      <c r="C153" s="426"/>
+      <c r="B153" s="416"/>
+      <c r="C153" s="411"/>
       <c r="D153" s="135"/>
       <c r="E153" s="133"/>
       <c r="F153" s="133"/>
@@ -28885,8 +28896,8 @@
       <c r="BF153" s="171"/>
     </row>
     <row r="154" spans="2:58">
-      <c r="B154" s="415"/>
-      <c r="C154" s="426"/>
+      <c r="B154" s="416"/>
+      <c r="C154" s="411"/>
       <c r="D154" s="135"/>
       <c r="E154" s="133"/>
       <c r="F154" s="133"/>
@@ -28926,8 +28937,8 @@
       <c r="BF154" s="171"/>
     </row>
     <row r="155" spans="2:58">
-      <c r="B155" s="415"/>
-      <c r="C155" s="426"/>
+      <c r="B155" s="416"/>
+      <c r="C155" s="411"/>
       <c r="D155" s="135"/>
       <c r="E155" s="133"/>
       <c r="F155" s="133"/>
@@ -28967,8 +28978,8 @@
       <c r="BF155" s="171"/>
     </row>
     <row r="156" spans="2:58">
-      <c r="B156" s="415"/>
-      <c r="C156" s="426"/>
+      <c r="B156" s="416"/>
+      <c r="C156" s="411"/>
       <c r="D156" s="135"/>
       <c r="E156" s="133"/>
       <c r="F156" s="133"/>
@@ -29008,8 +29019,8 @@
       <c r="BF156" s="171"/>
     </row>
     <row r="157" spans="2:58">
-      <c r="B157" s="411"/>
-      <c r="C157" s="413"/>
+      <c r="B157" s="417"/>
+      <c r="C157" s="412"/>
       <c r="D157" s="152"/>
       <c r="E157" s="144"/>
       <c r="F157" s="144"/>
@@ -29049,10 +29060,10 @@
       <c r="BF157" s="171"/>
     </row>
     <row r="158" spans="2:58">
-      <c r="B158" s="410" t="s">
+      <c r="B158" s="415" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="425">
+      <c r="C158" s="410">
         <v>850</v>
       </c>
       <c r="D158" s="151" t="s">
@@ -29113,8 +29124,8 @@
       <c r="BF158" s="171"/>
     </row>
     <row r="159" spans="2:58">
-      <c r="B159" s="415"/>
-      <c r="C159" s="426"/>
+      <c r="B159" s="416"/>
+      <c r="C159" s="411"/>
       <c r="D159" s="135"/>
       <c r="E159" s="133" t="s">
         <v>294</v>
@@ -29154,8 +29165,8 @@
       <c r="BF159" s="171"/>
     </row>
     <row r="160" spans="2:58">
-      <c r="B160" s="415"/>
-      <c r="C160" s="426"/>
+      <c r="B160" s="416"/>
+      <c r="C160" s="411"/>
       <c r="D160" s="189"/>
       <c r="E160" s="237"/>
       <c r="F160" s="237" t="s">
@@ -29202,10 +29213,10 @@
       <c r="BF160" s="171"/>
     </row>
     <row r="161" spans="2:58">
-      <c r="B161" s="410" t="s">
+      <c r="B161" s="415" t="s">
         <v>407</v>
       </c>
-      <c r="C161" s="425">
+      <c r="C161" s="410">
         <v>852</v>
       </c>
       <c r="D161" s="278" t="s">
@@ -29272,8 +29283,8 @@
       <c r="BF161" s="171"/>
     </row>
     <row r="162" spans="2:58">
-      <c r="B162" s="415"/>
-      <c r="C162" s="426"/>
+      <c r="B162" s="416"/>
+      <c r="C162" s="411"/>
       <c r="D162" s="135"/>
       <c r="E162" s="133"/>
       <c r="F162" s="133" t="s">
@@ -29313,8 +29324,8 @@
       <c r="BF162" s="171"/>
     </row>
     <row r="163" spans="2:58">
-      <c r="B163" s="415"/>
-      <c r="C163" s="426"/>
+      <c r="B163" s="416"/>
+      <c r="C163" s="411"/>
       <c r="D163" s="135"/>
       <c r="E163" s="133"/>
       <c r="F163" s="133"/>
@@ -29354,8 +29365,8 @@
       <c r="BF163" s="171"/>
     </row>
     <row r="164" spans="2:58">
-      <c r="B164" s="415"/>
-      <c r="C164" s="426"/>
+      <c r="B164" s="416"/>
+      <c r="C164" s="411"/>
       <c r="D164" s="135"/>
       <c r="E164" s="133"/>
       <c r="F164" s="133"/>
@@ -29395,8 +29406,8 @@
       <c r="BF164" s="171"/>
     </row>
     <row r="165" spans="2:58">
-      <c r="B165" s="411"/>
-      <c r="C165" s="413"/>
+      <c r="B165" s="417"/>
+      <c r="C165" s="412"/>
       <c r="D165" s="152"/>
       <c r="E165" s="144"/>
       <c r="F165" s="144"/>
@@ -29436,10 +29447,10 @@
       <c r="BF165" s="171"/>
     </row>
     <row r="166" spans="2:58">
-      <c r="B166" s="410" t="s">
+      <c r="B166" s="415" t="s">
         <v>408</v>
       </c>
-      <c r="C166" s="425">
+      <c r="C166" s="410">
         <v>854</v>
       </c>
       <c r="D166" s="151" t="s">
@@ -29502,8 +29513,8 @@
       <c r="BF166" s="171"/>
     </row>
     <row r="167" spans="2:58">
-      <c r="B167" s="415"/>
-      <c r="C167" s="426"/>
+      <c r="B167" s="416"/>
+      <c r="C167" s="411"/>
       <c r="D167" s="135"/>
       <c r="E167" s="133" t="s">
         <v>308</v>
@@ -29543,8 +29554,8 @@
       <c r="BF167" s="171"/>
     </row>
     <row r="168" spans="2:58">
-      <c r="B168" s="415"/>
-      <c r="C168" s="426"/>
+      <c r="B168" s="416"/>
+      <c r="C168" s="411"/>
       <c r="D168" s="135"/>
       <c r="E168" s="133"/>
       <c r="F168" s="133" t="s">
@@ -29584,8 +29595,8 @@
       <c r="BF168" s="171"/>
     </row>
     <row r="169" spans="2:58">
-      <c r="B169" s="415"/>
-      <c r="C169" s="426"/>
+      <c r="B169" s="416"/>
+      <c r="C169" s="411"/>
       <c r="D169" s="135"/>
       <c r="E169" s="133"/>
       <c r="F169" s="133"/>
@@ -29625,8 +29636,8 @@
       <c r="BF169" s="171"/>
     </row>
     <row r="170" spans="2:58">
-      <c r="B170" s="415"/>
-      <c r="C170" s="426"/>
+      <c r="B170" s="416"/>
+      <c r="C170" s="411"/>
       <c r="D170" s="135"/>
       <c r="E170" s="133"/>
       <c r="F170" s="133"/>
@@ -29666,8 +29677,8 @@
       <c r="BF170" s="171"/>
     </row>
     <row r="171" spans="2:58">
-      <c r="B171" s="411"/>
-      <c r="C171" s="413"/>
+      <c r="B171" s="417"/>
+      <c r="C171" s="412"/>
       <c r="D171" s="152"/>
       <c r="E171" s="144"/>
       <c r="F171" s="144"/>
@@ -29707,10 +29718,10 @@
       <c r="BF171" s="171"/>
     </row>
     <row r="172" spans="2:58">
-      <c r="B172" s="410" t="s">
+      <c r="B172" s="415" t="s">
         <v>410</v>
       </c>
-      <c r="C172" s="425">
+      <c r="C172" s="410">
         <v>914</v>
       </c>
       <c r="D172" s="151" t="s">
@@ -29770,8 +29781,8 @@
       <c r="BF172" s="171"/>
     </row>
     <row r="173" spans="2:58">
-      <c r="B173" s="415"/>
-      <c r="C173" s="426"/>
+      <c r="B173" s="416"/>
+      <c r="C173" s="411"/>
       <c r="D173" s="135"/>
       <c r="E173" s="133" t="s">
         <v>296</v>
@@ -29811,8 +29822,8 @@
       <c r="BF173" s="171"/>
     </row>
     <row r="174" spans="2:58">
-      <c r="B174" s="415"/>
-      <c r="C174" s="426"/>
+      <c r="B174" s="416"/>
+      <c r="C174" s="411"/>
       <c r="D174" s="135"/>
       <c r="E174" s="133"/>
       <c r="F174" s="133" t="s">
@@ -29852,8 +29863,8 @@
       <c r="BF174" s="171"/>
     </row>
     <row r="175" spans="2:58">
-      <c r="B175" s="415"/>
-      <c r="C175" s="426"/>
+      <c r="B175" s="416"/>
+      <c r="C175" s="411"/>
       <c r="D175" s="135"/>
       <c r="E175" s="133"/>
       <c r="F175" s="133"/>
@@ -29893,8 +29904,8 @@
       <c r="BF175" s="171"/>
     </row>
     <row r="176" spans="2:58">
-      <c r="B176" s="411"/>
-      <c r="C176" s="413"/>
+      <c r="B176" s="417"/>
+      <c r="C176" s="412"/>
       <c r="D176" s="152"/>
       <c r="E176" s="144"/>
       <c r="F176" s="144"/>
@@ -29934,10 +29945,10 @@
       <c r="BF176" s="171"/>
     </row>
     <row r="177" spans="2:58">
-      <c r="B177" s="410" t="s">
+      <c r="B177" s="415" t="s">
         <v>411</v>
       </c>
-      <c r="C177" s="425">
+      <c r="C177" s="410">
         <v>951</v>
       </c>
       <c r="D177" s="151" t="s">
@@ -30006,8 +30017,8 @@
       <c r="BF177" s="171"/>
     </row>
     <row r="178" spans="2:58">
-      <c r="B178" s="415"/>
-      <c r="C178" s="426"/>
+      <c r="B178" s="416"/>
+      <c r="C178" s="411"/>
       <c r="D178" s="189"/>
       <c r="E178" s="237" t="s">
         <v>414</v>
@@ -30054,8 +30065,8 @@
       <c r="BF178" s="171"/>
     </row>
     <row r="179" spans="2:58">
-      <c r="B179" s="415"/>
-      <c r="C179" s="426"/>
+      <c r="B179" s="416"/>
+      <c r="C179" s="411"/>
       <c r="D179" s="135"/>
       <c r="E179" s="133"/>
       <c r="F179" s="133" t="s">
@@ -30095,8 +30106,8 @@
       <c r="BF179" s="171"/>
     </row>
     <row r="180" spans="2:58">
-      <c r="B180" s="415"/>
-      <c r="C180" s="426"/>
+      <c r="B180" s="416"/>
+      <c r="C180" s="411"/>
       <c r="D180" s="135"/>
       <c r="E180" s="133"/>
       <c r="F180" s="133"/>
@@ -30136,8 +30147,8 @@
       <c r="BF180" s="171"/>
     </row>
     <row r="181" spans="2:58">
-      <c r="B181" s="415"/>
-      <c r="C181" s="426"/>
+      <c r="B181" s="416"/>
+      <c r="C181" s="411"/>
       <c r="D181" s="135"/>
       <c r="E181" s="133"/>
       <c r="F181" s="133"/>
@@ -30177,8 +30188,8 @@
       <c r="BF181" s="171"/>
     </row>
     <row r="182" spans="2:58">
-      <c r="B182" s="415"/>
-      <c r="C182" s="426"/>
+      <c r="B182" s="416"/>
+      <c r="C182" s="411"/>
       <c r="D182" s="135"/>
       <c r="E182" s="133"/>
       <c r="F182" s="133"/>
@@ -30218,8 +30229,8 @@
       <c r="BF182" s="171"/>
     </row>
     <row r="183" spans="2:58">
-      <c r="B183" s="415"/>
-      <c r="C183" s="426"/>
+      <c r="B183" s="416"/>
+      <c r="C183" s="411"/>
       <c r="D183" s="135"/>
       <c r="E183" s="133"/>
       <c r="F183" s="133"/>
@@ -30259,8 +30270,8 @@
       <c r="BF183" s="171"/>
     </row>
     <row r="184" spans="2:58">
-      <c r="B184" s="411"/>
-      <c r="C184" s="413"/>
+      <c r="B184" s="417"/>
+      <c r="C184" s="412"/>
       <c r="D184" s="152"/>
       <c r="E184" s="144"/>
       <c r="F184" s="144"/>
@@ -30361,10 +30372,10 @@
       <c r="BF184" s="171"/>
     </row>
     <row r="185" spans="2:58">
-      <c r="B185" s="410" t="s">
+      <c r="B185" s="415" t="s">
         <v>417</v>
       </c>
-      <c r="C185" s="425">
+      <c r="C185" s="410">
         <v>1015</v>
       </c>
       <c r="D185" s="185" t="s">
@@ -30449,8 +30460,8 @@
       <c r="BF185" s="171"/>
     </row>
     <row r="186" spans="2:58">
-      <c r="B186" s="415"/>
-      <c r="C186" s="426"/>
+      <c r="B186" s="416"/>
+      <c r="C186" s="411"/>
       <c r="D186" s="189"/>
       <c r="E186" s="237" t="s">
         <v>274</v>
@@ -30525,8 +30536,8 @@
       <c r="BF186" s="171"/>
     </row>
     <row r="187" spans="2:58">
-      <c r="B187" s="411"/>
-      <c r="C187" s="413"/>
+      <c r="B187" s="417"/>
+      <c r="C187" s="412"/>
       <c r="D187" s="152"/>
       <c r="E187" s="144"/>
       <c r="F187" s="144" t="s">
@@ -30653,10 +30664,10 @@
       <c r="BF188" s="171"/>
     </row>
     <row r="189" spans="2:58">
-      <c r="B189" s="410" t="s">
+      <c r="B189" s="415" t="s">
         <v>439</v>
       </c>
-      <c r="C189" s="425">
+      <c r="C189" s="410">
         <v>1018</v>
       </c>
       <c r="D189" s="151" t="s">
@@ -30731,8 +30742,8 @@
       <c r="BF189" s="171"/>
     </row>
     <row r="190" spans="2:58">
-      <c r="B190" s="411"/>
-      <c r="C190" s="413"/>
+      <c r="B190" s="417"/>
+      <c r="C190" s="412"/>
       <c r="D190" s="152"/>
       <c r="E190" s="144" t="s">
         <v>294</v>
@@ -30772,10 +30783,10 @@
       <c r="BF190" s="171"/>
     </row>
     <row r="191" spans="2:58">
-      <c r="B191" s="410" t="s">
+      <c r="B191" s="415" t="s">
         <v>440</v>
       </c>
-      <c r="C191" s="425">
+      <c r="C191" s="410">
         <v>1025</v>
       </c>
       <c r="D191" s="151" t="s">
@@ -30869,8 +30880,8 @@
       <c r="BF191" s="171"/>
     </row>
     <row r="192" spans="2:58">
-      <c r="B192" s="415"/>
-      <c r="C192" s="426"/>
+      <c r="B192" s="416"/>
+      <c r="C192" s="411"/>
       <c r="D192" s="135"/>
       <c r="E192" s="133" t="s">
         <v>294</v>
@@ -30910,8 +30921,8 @@
       <c r="BF192" s="171"/>
     </row>
     <row r="193" spans="2:58">
-      <c r="B193" s="415"/>
-      <c r="C193" s="426"/>
+      <c r="B193" s="416"/>
+      <c r="C193" s="411"/>
       <c r="D193" s="135"/>
       <c r="E193" s="133"/>
       <c r="F193" s="133" t="s">
@@ -30951,8 +30962,8 @@
       <c r="BF193" s="171"/>
     </row>
     <row r="194" spans="2:58">
-      <c r="B194" s="415"/>
-      <c r="C194" s="426"/>
+      <c r="B194" s="416"/>
+      <c r="C194" s="411"/>
       <c r="D194" s="135"/>
       <c r="E194" s="133"/>
       <c r="F194" s="133"/>
@@ -30992,8 +31003,8 @@
       <c r="BF194" s="171"/>
     </row>
     <row r="195" spans="2:58">
-      <c r="B195" s="415"/>
-      <c r="C195" s="426"/>
+      <c r="B195" s="416"/>
+      <c r="C195" s="411"/>
       <c r="D195" s="135"/>
       <c r="E195" s="133"/>
       <c r="F195" s="133"/>
@@ -31033,8 +31044,8 @@
       <c r="BF195" s="171"/>
     </row>
     <row r="196" spans="2:58">
-      <c r="B196" s="415"/>
-      <c r="C196" s="426"/>
+      <c r="B196" s="416"/>
+      <c r="C196" s="411"/>
       <c r="D196" s="135"/>
       <c r="E196" s="133"/>
       <c r="F196" s="133"/>
@@ -31074,8 +31085,8 @@
       <c r="BF196" s="171"/>
     </row>
     <row r="197" spans="2:58">
-      <c r="B197" s="415"/>
-      <c r="C197" s="426"/>
+      <c r="B197" s="416"/>
+      <c r="C197" s="411"/>
       <c r="D197" s="135"/>
       <c r="E197" s="133"/>
       <c r="F197" s="133"/>
@@ -31115,8 +31126,8 @@
       <c r="BF197" s="171"/>
     </row>
     <row r="198" spans="2:58">
-      <c r="B198" s="411"/>
-      <c r="C198" s="413"/>
+      <c r="B198" s="417"/>
+      <c r="C198" s="412"/>
       <c r="D198" s="152"/>
       <c r="E198" s="144"/>
       <c r="F198" s="144"/>
@@ -31156,10 +31167,10 @@
       <c r="BF198" s="171"/>
     </row>
     <row r="199" spans="2:58">
-      <c r="B199" s="410" t="s">
+      <c r="B199" s="415" t="s">
         <v>447</v>
       </c>
-      <c r="C199" s="425">
+      <c r="C199" s="410">
         <v>1029</v>
       </c>
       <c r="D199" s="151" t="s">
@@ -31228,8 +31239,8 @@
       <c r="BF199" s="171"/>
     </row>
     <row r="200" spans="2:58">
-      <c r="B200" s="415"/>
-      <c r="C200" s="426"/>
+      <c r="B200" s="416"/>
+      <c r="C200" s="411"/>
       <c r="D200" s="135"/>
       <c r="E200" s="133" t="s">
         <v>294</v>
@@ -31269,8 +31280,8 @@
       <c r="BF200" s="171"/>
     </row>
     <row r="201" spans="2:58">
-      <c r="B201" s="415"/>
-      <c r="C201" s="426"/>
+      <c r="B201" s="416"/>
+      <c r="C201" s="411"/>
       <c r="D201" s="135"/>
       <c r="E201" s="133"/>
       <c r="F201" s="133" t="s">
@@ -31310,8 +31321,8 @@
       <c r="BF201" s="171"/>
     </row>
     <row r="202" spans="2:58">
-      <c r="B202" s="415"/>
-      <c r="C202" s="426"/>
+      <c r="B202" s="416"/>
+      <c r="C202" s="411"/>
       <c r="D202" s="135"/>
       <c r="E202" s="133"/>
       <c r="F202" s="133"/>
@@ -31351,8 +31362,8 @@
       <c r="BF202" s="171"/>
     </row>
     <row r="203" spans="2:58">
-      <c r="B203" s="415"/>
-      <c r="C203" s="426"/>
+      <c r="B203" s="416"/>
+      <c r="C203" s="411"/>
       <c r="D203" s="135"/>
       <c r="E203" s="133"/>
       <c r="F203" s="133"/>
@@ -31392,8 +31403,8 @@
       <c r="BF203" s="171"/>
     </row>
     <row r="204" spans="2:58">
-      <c r="B204" s="415"/>
-      <c r="C204" s="426"/>
+      <c r="B204" s="416"/>
+      <c r="C204" s="411"/>
       <c r="D204" s="135"/>
       <c r="E204" s="133"/>
       <c r="F204" s="133"/>
@@ -31433,8 +31444,8 @@
       <c r="BF204" s="171"/>
     </row>
     <row r="205" spans="2:58">
-      <c r="B205" s="415"/>
-      <c r="C205" s="426"/>
+      <c r="B205" s="416"/>
+      <c r="C205" s="411"/>
       <c r="D205" s="135"/>
       <c r="E205" s="133"/>
       <c r="F205" s="133"/>
@@ -31474,8 +31485,8 @@
       <c r="BF205" s="171"/>
     </row>
     <row r="206" spans="2:58">
-      <c r="B206" s="411"/>
-      <c r="C206" s="413"/>
+      <c r="B206" s="417"/>
+      <c r="C206" s="412"/>
       <c r="D206" s="152"/>
       <c r="E206" s="144"/>
       <c r="F206" s="144"/>
@@ -31515,10 +31526,10 @@
       <c r="BF206" s="171"/>
     </row>
     <row r="207" spans="2:58">
-      <c r="B207" s="410" t="s">
+      <c r="B207" s="415" t="s">
         <v>449</v>
       </c>
-      <c r="C207" s="425">
+      <c r="C207" s="410">
         <v>1075</v>
       </c>
       <c r="D207" s="151" t="s">
@@ -31584,8 +31595,8 @@
       <c r="BF207" s="171"/>
     </row>
     <row r="208" spans="2:58">
-      <c r="B208" s="415"/>
-      <c r="C208" s="426"/>
+      <c r="B208" s="416"/>
+      <c r="C208" s="411"/>
       <c r="D208" s="135"/>
       <c r="E208" s="133" t="s">
         <v>294</v>
@@ -31625,8 +31636,8 @@
       <c r="BF208" s="171"/>
     </row>
     <row r="209" spans="2:58">
-      <c r="B209" s="415"/>
-      <c r="C209" s="426"/>
+      <c r="B209" s="416"/>
+      <c r="C209" s="411"/>
       <c r="D209" s="135"/>
       <c r="E209" s="133"/>
       <c r="F209" s="133" t="s">
@@ -31666,8 +31677,8 @@
       <c r="BF209" s="171"/>
     </row>
     <row r="210" spans="2:58">
-      <c r="B210" s="415"/>
-      <c r="C210" s="426"/>
+      <c r="B210" s="416"/>
+      <c r="C210" s="411"/>
       <c r="D210" s="135"/>
       <c r="E210" s="133"/>
       <c r="F210" s="133"/>
@@ -31707,8 +31718,8 @@
       <c r="BF210" s="171"/>
     </row>
     <row r="211" spans="2:58">
-      <c r="B211" s="415"/>
-      <c r="C211" s="426"/>
+      <c r="B211" s="416"/>
+      <c r="C211" s="411"/>
       <c r="D211" s="135"/>
       <c r="E211" s="133"/>
       <c r="F211" s="133"/>
@@ -31748,8 +31759,8 @@
       <c r="BF211" s="171"/>
     </row>
     <row r="212" spans="2:58">
-      <c r="B212" s="415"/>
-      <c r="C212" s="426"/>
+      <c r="B212" s="416"/>
+      <c r="C212" s="411"/>
       <c r="D212" s="135"/>
       <c r="E212" s="133"/>
       <c r="F212" s="133"/>
@@ -31789,8 +31800,8 @@
       <c r="BF212" s="171"/>
     </row>
     <row r="213" spans="2:58">
-      <c r="B213" s="411"/>
-      <c r="C213" s="413"/>
+      <c r="B213" s="417"/>
+      <c r="C213" s="412"/>
       <c r="D213" s="152"/>
       <c r="E213" s="144"/>
       <c r="F213" s="144"/>
@@ -31830,10 +31841,10 @@
       <c r="BF213" s="171"/>
     </row>
     <row r="214" spans="2:58">
-      <c r="B214" s="410" t="s">
+      <c r="B214" s="415" t="s">
         <v>453</v>
       </c>
-      <c r="C214" s="425">
+      <c r="C214" s="410">
         <v>1116</v>
       </c>
       <c r="D214" s="151" t="s">
@@ -31890,8 +31901,8 @@
       <c r="BF214" s="171"/>
     </row>
     <row r="215" spans="2:58">
-      <c r="B215" s="415"/>
-      <c r="C215" s="426"/>
+      <c r="B215" s="416"/>
+      <c r="C215" s="411"/>
       <c r="D215" s="135"/>
       <c r="E215" s="133" t="s">
         <v>294</v>
@@ -31931,8 +31942,8 @@
       <c r="BF215" s="171"/>
     </row>
     <row r="216" spans="2:58">
-      <c r="B216" s="415"/>
-      <c r="C216" s="426"/>
+      <c r="B216" s="416"/>
+      <c r="C216" s="411"/>
       <c r="D216" s="135"/>
       <c r="E216" s="133"/>
       <c r="F216" s="133" t="s">
@@ -31972,8 +31983,8 @@
       <c r="BF216" s="171"/>
     </row>
     <row r="217" spans="2:58">
-      <c r="B217" s="411"/>
-      <c r="C217" s="413"/>
+      <c r="B217" s="417"/>
+      <c r="C217" s="412"/>
       <c r="D217" s="152"/>
       <c r="E217" s="144"/>
       <c r="F217" s="144"/>
@@ -32013,10 +32024,10 @@
       <c r="BF217" s="171"/>
     </row>
     <row r="218" spans="2:58">
-      <c r="B218" s="410" t="s">
+      <c r="B218" s="415" t="s">
         <v>454</v>
       </c>
-      <c r="C218" s="425">
+      <c r="C218" s="410">
         <v>1188</v>
       </c>
       <c r="D218" s="151" t="s">
@@ -32082,8 +32093,8 @@
       <c r="BF218" s="171"/>
     </row>
     <row r="219" spans="2:58">
-      <c r="B219" s="415"/>
-      <c r="C219" s="426"/>
+      <c r="B219" s="416"/>
+      <c r="C219" s="411"/>
       <c r="D219" s="135"/>
       <c r="E219" s="133" t="s">
         <v>455</v>
@@ -32123,8 +32134,8 @@
       <c r="BF219" s="171"/>
     </row>
     <row r="220" spans="2:58">
-      <c r="B220" s="415"/>
-      <c r="C220" s="426"/>
+      <c r="B220" s="416"/>
+      <c r="C220" s="411"/>
       <c r="D220" s="135"/>
       <c r="E220" s="133"/>
       <c r="F220" s="133" t="s">
@@ -32164,8 +32175,8 @@
       <c r="BF220" s="171"/>
     </row>
     <row r="221" spans="2:58">
-      <c r="B221" s="415"/>
-      <c r="C221" s="426"/>
+      <c r="B221" s="416"/>
+      <c r="C221" s="411"/>
       <c r="D221" s="135"/>
       <c r="E221" s="133"/>
       <c r="F221" s="133"/>
@@ -32205,8 +32216,8 @@
       <c r="BF221" s="171"/>
     </row>
     <row r="222" spans="2:58">
-      <c r="B222" s="415"/>
-      <c r="C222" s="426"/>
+      <c r="B222" s="416"/>
+      <c r="C222" s="411"/>
       <c r="D222" s="135"/>
       <c r="E222" s="133"/>
       <c r="F222" s="133"/>
@@ -32246,8 +32257,8 @@
       <c r="BF222" s="171"/>
     </row>
     <row r="223" spans="2:58">
-      <c r="B223" s="415"/>
-      <c r="C223" s="426"/>
+      <c r="B223" s="416"/>
+      <c r="C223" s="411"/>
       <c r="D223" s="135"/>
       <c r="E223" s="133"/>
       <c r="F223" s="133"/>
@@ -32287,8 +32298,8 @@
       <c r="BF223" s="171"/>
     </row>
     <row r="224" spans="2:58">
-      <c r="B224" s="411"/>
-      <c r="C224" s="413"/>
+      <c r="B224" s="417"/>
+      <c r="C224" s="412"/>
       <c r="D224" s="152"/>
       <c r="E224" s="144"/>
       <c r="F224" s="144"/>
@@ -32389,10 +32400,10 @@
       <c r="BF225" s="171"/>
     </row>
     <row r="226" spans="2:58">
-      <c r="B226" s="410" t="s">
+      <c r="B226" s="415" t="s">
         <v>457</v>
       </c>
-      <c r="C226" s="425">
+      <c r="C226" s="410">
         <v>1272</v>
       </c>
       <c r="D226" s="185" t="s">
@@ -32471,8 +32482,8 @@
       <c r="BF226" s="171"/>
     </row>
     <row r="227" spans="2:58">
-      <c r="B227" s="415"/>
-      <c r="C227" s="426"/>
+      <c r="B227" s="416"/>
+      <c r="C227" s="411"/>
       <c r="D227" s="135"/>
       <c r="E227" s="133" t="s">
         <v>399</v>
@@ -32512,8 +32523,8 @@
       <c r="BF227" s="171"/>
     </row>
     <row r="228" spans="2:58">
-      <c r="B228" s="415"/>
-      <c r="C228" s="426"/>
+      <c r="B228" s="416"/>
+      <c r="C228" s="411"/>
       <c r="D228" s="135"/>
       <c r="E228" s="133"/>
       <c r="F228" s="133" t="s">
@@ -32553,8 +32564,8 @@
       <c r="BF228" s="171"/>
     </row>
     <row r="229" spans="2:58">
-      <c r="B229" s="415"/>
-      <c r="C229" s="426"/>
+      <c r="B229" s="416"/>
+      <c r="C229" s="411"/>
       <c r="D229" s="217"/>
       <c r="E229" s="240"/>
       <c r="F229" s="240"/>
@@ -32598,8 +32609,8 @@
       <c r="BF229" s="171"/>
     </row>
     <row r="230" spans="2:58">
-      <c r="B230" s="415"/>
-      <c r="C230" s="426"/>
+      <c r="B230" s="416"/>
+      <c r="C230" s="411"/>
       <c r="D230" s="135"/>
       <c r="E230" s="133"/>
       <c r="F230" s="133"/>
@@ -32639,8 +32650,8 @@
       <c r="BF230" s="171"/>
     </row>
     <row r="231" spans="2:58">
-      <c r="B231" s="415"/>
-      <c r="C231" s="426"/>
+      <c r="B231" s="416"/>
+      <c r="C231" s="411"/>
       <c r="D231" s="135"/>
       <c r="E231" s="133"/>
       <c r="F231" s="133"/>
@@ -32680,8 +32691,8 @@
       <c r="BF231" s="171"/>
     </row>
     <row r="232" spans="2:58">
-      <c r="B232" s="416"/>
-      <c r="C232" s="429"/>
+      <c r="B232" s="424"/>
+      <c r="C232" s="414"/>
       <c r="D232" s="152"/>
       <c r="E232" s="144"/>
       <c r="F232" s="144"/>
@@ -32721,10 +32732,10 @@
       <c r="BF232" s="171"/>
     </row>
     <row r="233" spans="2:58">
-      <c r="B233" s="415" t="s">
+      <c r="B233" s="416" t="s">
         <v>460</v>
       </c>
-      <c r="C233" s="426">
+      <c r="C233" s="411">
         <v>1274</v>
       </c>
       <c r="D233" s="151" t="s">
@@ -32775,8 +32786,8 @@
       <c r="BF233" s="171"/>
     </row>
     <row r="234" spans="2:58">
-      <c r="B234" s="411"/>
-      <c r="C234" s="413"/>
+      <c r="B234" s="417"/>
+      <c r="C234" s="412"/>
       <c r="D234" s="152"/>
       <c r="E234" s="144" t="s">
         <v>294</v>
@@ -32964,10 +32975,10 @@
       <c r="BF236" s="171"/>
     </row>
     <row r="237" spans="2:58">
-      <c r="B237" s="410" t="s">
+      <c r="B237" s="415" t="s">
         <v>470</v>
       </c>
-      <c r="C237" s="425">
+      <c r="C237" s="410">
         <v>1362</v>
       </c>
       <c r="D237" s="151" t="s">
@@ -33018,8 +33029,8 @@
       <c r="BF237" s="171"/>
     </row>
     <row r="238" spans="2:58">
-      <c r="B238" s="411"/>
-      <c r="C238" s="413"/>
+      <c r="B238" s="417"/>
+      <c r="C238" s="412"/>
       <c r="D238" s="152"/>
       <c r="E238" s="144" t="s">
         <v>339</v>
@@ -33059,10 +33070,10 @@
       <c r="BF238" s="171"/>
     </row>
     <row r="239" spans="2:58">
-      <c r="B239" s="410" t="s">
+      <c r="B239" s="415" t="s">
         <v>471</v>
       </c>
-      <c r="C239" s="425">
+      <c r="C239" s="410">
         <v>1373</v>
       </c>
       <c r="D239" s="151" t="s">
@@ -33131,8 +33142,8 @@
       <c r="BF239" s="171"/>
     </row>
     <row r="240" spans="2:58">
-      <c r="B240" s="415"/>
-      <c r="C240" s="426"/>
+      <c r="B240" s="416"/>
+      <c r="C240" s="411"/>
       <c r="D240" s="135"/>
       <c r="E240" s="133" t="s">
         <v>472</v>
@@ -33172,8 +33183,8 @@
       <c r="BF240" s="171"/>
     </row>
     <row r="241" spans="2:58">
-      <c r="B241" s="415"/>
-      <c r="C241" s="426"/>
+      <c r="B241" s="416"/>
+      <c r="C241" s="411"/>
       <c r="D241" s="135"/>
       <c r="E241" s="133"/>
       <c r="F241" s="133" t="s">
@@ -33213,8 +33224,8 @@
       <c r="BF241" s="171"/>
     </row>
     <row r="242" spans="2:58">
-      <c r="B242" s="415"/>
-      <c r="C242" s="426"/>
+      <c r="B242" s="416"/>
+      <c r="C242" s="411"/>
       <c r="D242" s="135"/>
       <c r="E242" s="133"/>
       <c r="F242" s="133"/>
@@ -33254,8 +33265,8 @@
       <c r="BF242" s="171"/>
     </row>
     <row r="243" spans="2:58">
-      <c r="B243" s="415"/>
-      <c r="C243" s="426"/>
+      <c r="B243" s="416"/>
+      <c r="C243" s="411"/>
       <c r="D243" s="135"/>
       <c r="E243" s="133"/>
       <c r="F243" s="133"/>
@@ -33295,8 +33306,8 @@
       <c r="BF243" s="171"/>
     </row>
     <row r="244" spans="2:58">
-      <c r="B244" s="415"/>
-      <c r="C244" s="426"/>
+      <c r="B244" s="416"/>
+      <c r="C244" s="411"/>
       <c r="D244" s="135"/>
       <c r="E244" s="133"/>
       <c r="F244" s="133"/>
@@ -33336,8 +33347,8 @@
       <c r="BF244" s="171"/>
     </row>
     <row r="245" spans="2:58">
-      <c r="B245" s="415"/>
-      <c r="C245" s="426"/>
+      <c r="B245" s="416"/>
+      <c r="C245" s="411"/>
       <c r="D245" s="135"/>
       <c r="E245" s="133"/>
       <c r="F245" s="133"/>
@@ -33377,8 +33388,8 @@
       <c r="BF245" s="171"/>
     </row>
     <row r="246" spans="2:58">
-      <c r="B246" s="411"/>
-      <c r="C246" s="413"/>
+      <c r="B246" s="417"/>
+      <c r="C246" s="412"/>
       <c r="D246" s="192"/>
       <c r="E246" s="193"/>
       <c r="F246" s="193"/>
@@ -33422,10 +33433,10 @@
       <c r="BF246" s="171"/>
     </row>
     <row r="247" spans="2:58">
-      <c r="B247" s="410" t="s">
+      <c r="B247" s="415" t="s">
         <v>476</v>
       </c>
-      <c r="C247" s="425">
+      <c r="C247" s="410">
         <v>1379</v>
       </c>
       <c r="D247" s="151" t="s">
@@ -33476,8 +33487,8 @@
       <c r="BF247" s="171"/>
     </row>
     <row r="248" spans="2:58">
-      <c r="B248" s="411"/>
-      <c r="C248" s="413"/>
+      <c r="B248" s="417"/>
+      <c r="C248" s="412"/>
       <c r="D248" s="152"/>
       <c r="E248" s="144" t="s">
         <v>430</v>
@@ -33517,10 +33528,10 @@
       <c r="BF248" s="171"/>
     </row>
     <row r="249" spans="2:58">
-      <c r="B249" s="410" t="s">
+      <c r="B249" s="415" t="s">
         <v>477</v>
       </c>
-      <c r="C249" s="425">
+      <c r="C249" s="410">
         <v>1380</v>
       </c>
       <c r="D249" s="151" t="s">
@@ -33571,8 +33582,8 @@
       <c r="BF249" s="171"/>
     </row>
     <row r="250" spans="2:58">
-      <c r="B250" s="411"/>
-      <c r="C250" s="413"/>
+      <c r="B250" s="417"/>
+      <c r="C250" s="412"/>
       <c r="D250" s="152"/>
       <c r="E250" s="144" t="s">
         <v>428</v>
@@ -33612,10 +33623,10 @@
       <c r="BF250" s="171"/>
     </row>
     <row r="251" spans="2:58">
-      <c r="B251" s="410" t="s">
+      <c r="B251" s="415" t="s">
         <v>478</v>
       </c>
-      <c r="C251" s="425">
+      <c r="C251" s="410">
         <v>1397</v>
       </c>
       <c r="D251" s="151" t="s">
@@ -33666,8 +33677,8 @@
       <c r="BF251" s="171"/>
     </row>
     <row r="252" spans="2:58">
-      <c r="B252" s="411"/>
-      <c r="C252" s="413"/>
+      <c r="B252" s="417"/>
+      <c r="C252" s="412"/>
       <c r="D252" s="152"/>
       <c r="E252" s="144" t="s">
         <v>399</v>
@@ -33707,10 +33718,10 @@
       <c r="BF252" s="171"/>
     </row>
     <row r="253" spans="2:58">
-      <c r="B253" s="410" t="s">
+      <c r="B253" s="415" t="s">
         <v>480</v>
       </c>
-      <c r="C253" s="425">
+      <c r="C253" s="410">
         <v>1401</v>
       </c>
       <c r="D253" s="151" t="s">
@@ -33779,8 +33790,8 @@
       <c r="BF253" s="171"/>
     </row>
     <row r="254" spans="2:58">
-      <c r="B254" s="415"/>
-      <c r="C254" s="426"/>
+      <c r="B254" s="416"/>
+      <c r="C254" s="411"/>
       <c r="D254" s="135"/>
       <c r="E254" s="133" t="s">
         <v>481</v>
@@ -33820,8 +33831,8 @@
       <c r="BF254" s="171"/>
     </row>
     <row r="255" spans="2:58">
-      <c r="B255" s="415"/>
-      <c r="C255" s="426"/>
+      <c r="B255" s="416"/>
+      <c r="C255" s="411"/>
       <c r="D255" s="135"/>
       <c r="E255" s="133"/>
       <c r="F255" s="133" t="s">
@@ -33861,8 +33872,8 @@
       <c r="BF255" s="171"/>
     </row>
     <row r="256" spans="2:58">
-      <c r="B256" s="415"/>
-      <c r="C256" s="426"/>
+      <c r="B256" s="416"/>
+      <c r="C256" s="411"/>
       <c r="D256" s="135"/>
       <c r="E256" s="133"/>
       <c r="F256" s="133"/>
@@ -33902,8 +33913,8 @@
       <c r="BF256" s="171"/>
     </row>
     <row r="257" spans="2:58">
-      <c r="B257" s="415"/>
-      <c r="C257" s="426"/>
+      <c r="B257" s="416"/>
+      <c r="C257" s="411"/>
       <c r="D257" s="135"/>
       <c r="E257" s="133"/>
       <c r="F257" s="133"/>
@@ -33943,8 +33954,8 @@
       <c r="BF257" s="171"/>
     </row>
     <row r="258" spans="2:58">
-      <c r="B258" s="415"/>
-      <c r="C258" s="426"/>
+      <c r="B258" s="416"/>
+      <c r="C258" s="411"/>
       <c r="D258" s="135"/>
       <c r="E258" s="133"/>
       <c r="F258" s="133"/>
@@ -33984,8 +33995,8 @@
       <c r="BF258" s="171"/>
     </row>
     <row r="259" spans="2:58">
-      <c r="B259" s="415"/>
-      <c r="C259" s="426"/>
+      <c r="B259" s="416"/>
+      <c r="C259" s="411"/>
       <c r="D259" s="135"/>
       <c r="E259" s="133"/>
       <c r="F259" s="133"/>
@@ -34025,8 +34036,8 @@
       <c r="BF259" s="171"/>
     </row>
     <row r="260" spans="2:58">
-      <c r="B260" s="411"/>
-      <c r="C260" s="413"/>
+      <c r="B260" s="417"/>
+      <c r="C260" s="412"/>
       <c r="D260" s="152"/>
       <c r="E260" s="144"/>
       <c r="F260" s="144"/>
@@ -34066,10 +34077,10 @@
       <c r="BF260" s="171"/>
     </row>
     <row r="261" spans="2:58">
-      <c r="B261" s="410" t="s">
+      <c r="B261" s="415" t="s">
         <v>483</v>
       </c>
-      <c r="C261" s="425">
+      <c r="C261" s="410">
         <v>1430</v>
       </c>
       <c r="D261" s="151" t="s">
@@ -34138,8 +34149,8 @@
       <c r="BF261" s="171"/>
     </row>
     <row r="262" spans="2:58">
-      <c r="B262" s="415"/>
-      <c r="C262" s="426"/>
+      <c r="B262" s="416"/>
+      <c r="C262" s="411"/>
       <c r="D262" s="135"/>
       <c r="E262" s="133" t="s">
         <v>481</v>
@@ -34179,8 +34190,8 @@
       <c r="BF262" s="171"/>
     </row>
     <row r="263" spans="2:58">
-      <c r="B263" s="415"/>
-      <c r="C263" s="426"/>
+      <c r="B263" s="416"/>
+      <c r="C263" s="411"/>
       <c r="D263" s="135"/>
       <c r="E263" s="133"/>
       <c r="F263" s="133" t="s">
@@ -34220,8 +34231,8 @@
       <c r="BF263" s="171"/>
     </row>
     <row r="264" spans="2:58">
-      <c r="B264" s="415"/>
-      <c r="C264" s="426"/>
+      <c r="B264" s="416"/>
+      <c r="C264" s="411"/>
       <c r="D264" s="135"/>
       <c r="E264" s="133"/>
       <c r="F264" s="133"/>
@@ -34261,8 +34272,8 @@
       <c r="BF264" s="171"/>
     </row>
     <row r="265" spans="2:58">
-      <c r="B265" s="415"/>
-      <c r="C265" s="426"/>
+      <c r="B265" s="416"/>
+      <c r="C265" s="411"/>
       <c r="D265" s="135"/>
       <c r="E265" s="133"/>
       <c r="F265" s="133"/>
@@ -34302,8 +34313,8 @@
       <c r="BF265" s="171"/>
     </row>
     <row r="266" spans="2:58">
-      <c r="B266" s="415"/>
-      <c r="C266" s="426"/>
+      <c r="B266" s="416"/>
+      <c r="C266" s="411"/>
       <c r="D266" s="135"/>
       <c r="E266" s="133"/>
       <c r="F266" s="133"/>
@@ -34343,8 +34354,8 @@
       <c r="BF266" s="171"/>
     </row>
     <row r="267" spans="2:58">
-      <c r="B267" s="415"/>
-      <c r="C267" s="426"/>
+      <c r="B267" s="416"/>
+      <c r="C267" s="411"/>
       <c r="D267" s="135"/>
       <c r="E267" s="133"/>
       <c r="F267" s="133"/>
@@ -34384,8 +34395,8 @@
       <c r="BF267" s="171"/>
     </row>
     <row r="268" spans="2:58">
-      <c r="B268" s="411"/>
-      <c r="C268" s="413"/>
+      <c r="B268" s="417"/>
+      <c r="C268" s="412"/>
       <c r="D268" s="152"/>
       <c r="E268" s="144"/>
       <c r="F268" s="144"/>
@@ -34425,10 +34436,10 @@
       <c r="BF268" s="171"/>
     </row>
     <row r="269" spans="2:58">
-      <c r="B269" s="410" t="s">
+      <c r="B269" s="415" t="s">
         <v>486</v>
       </c>
-      <c r="C269" s="425">
+      <c r="C269" s="410">
         <v>1486</v>
       </c>
       <c r="D269" s="151" t="s">
@@ -34482,8 +34493,8 @@
       <c r="BF269" s="171"/>
     </row>
     <row r="270" spans="2:58">
-      <c r="B270" s="415"/>
-      <c r="C270" s="426"/>
+      <c r="B270" s="416"/>
+      <c r="C270" s="411"/>
       <c r="D270" s="135"/>
       <c r="E270" s="133" t="s">
         <v>308</v>
@@ -34523,8 +34534,8 @@
       <c r="BF270" s="171"/>
     </row>
     <row r="271" spans="2:58">
-      <c r="B271" s="411"/>
-      <c r="C271" s="413"/>
+      <c r="B271" s="417"/>
+      <c r="C271" s="412"/>
       <c r="D271" s="152"/>
       <c r="E271" s="144"/>
       <c r="F271" s="144" t="s">
@@ -34564,10 +34575,10 @@
       <c r="BF271" s="171"/>
     </row>
     <row r="272" spans="2:58">
-      <c r="B272" s="410" t="s">
+      <c r="B272" s="415" t="s">
         <v>488</v>
       </c>
-      <c r="C272" s="425">
+      <c r="C272" s="410">
         <v>1495</v>
       </c>
       <c r="D272" s="185" t="s">
@@ -34640,8 +34651,8 @@
       <c r="BF272" s="171"/>
     </row>
     <row r="273" spans="2:58">
-      <c r="B273" s="415"/>
-      <c r="C273" s="426"/>
+      <c r="B273" s="416"/>
+      <c r="C273" s="411"/>
       <c r="D273" s="189"/>
       <c r="E273" s="237"/>
       <c r="F273" s="237" t="s">
@@ -34697,8 +34708,8 @@
       <c r="BF273" s="171"/>
     </row>
     <row r="274" spans="2:58">
-      <c r="B274" s="411"/>
-      <c r="C274" s="413"/>
+      <c r="B274" s="417"/>
+      <c r="C274" s="412"/>
       <c r="D274" s="152"/>
       <c r="E274" s="144"/>
       <c r="F274" s="144"/>
@@ -34738,10 +34749,10 @@
       <c r="BF274" s="171"/>
     </row>
     <row r="275" spans="2:58">
-      <c r="B275" s="410" t="s">
+      <c r="B275" s="415" t="s">
         <v>495</v>
       </c>
-      <c r="C275" s="425">
+      <c r="C275" s="410">
         <v>1498</v>
       </c>
       <c r="D275" s="185" t="s">
@@ -34821,8 +34832,8 @@
       <c r="BF275" s="171"/>
     </row>
     <row r="276" spans="2:58">
-      <c r="B276" s="415"/>
-      <c r="C276" s="426"/>
+      <c r="B276" s="416"/>
+      <c r="C276" s="411"/>
       <c r="D276" s="135"/>
       <c r="E276" s="133" t="s">
         <v>498</v>
@@ -34862,8 +34873,8 @@
       <c r="BF276" s="171"/>
     </row>
     <row r="277" spans="2:58">
-      <c r="B277" s="415"/>
-      <c r="C277" s="426"/>
+      <c r="B277" s="416"/>
+      <c r="C277" s="411"/>
       <c r="D277" s="135"/>
       <c r="E277" s="133"/>
       <c r="F277" s="133" t="s">
@@ -34903,8 +34914,8 @@
       <c r="BF277" s="171"/>
     </row>
     <row r="278" spans="2:58">
-      <c r="B278" s="415"/>
-      <c r="C278" s="426"/>
+      <c r="B278" s="416"/>
+      <c r="C278" s="411"/>
       <c r="D278" s="135"/>
       <c r="E278" s="133"/>
       <c r="F278" s="133"/>
@@ -34944,8 +34955,8 @@
       <c r="BF278" s="171"/>
     </row>
     <row r="279" spans="2:58">
-      <c r="B279" s="415"/>
-      <c r="C279" s="426"/>
+      <c r="B279" s="416"/>
+      <c r="C279" s="411"/>
       <c r="D279" s="135"/>
       <c r="E279" s="133"/>
       <c r="F279" s="133"/>
@@ -34985,8 +34996,8 @@
       <c r="BF279" s="171"/>
     </row>
     <row r="280" spans="2:58">
-      <c r="B280" s="415"/>
-      <c r="C280" s="426"/>
+      <c r="B280" s="416"/>
+      <c r="C280" s="411"/>
       <c r="D280" s="135"/>
       <c r="E280" s="133"/>
       <c r="F280" s="133"/>
@@ -35026,8 +35037,8 @@
       <c r="BF280" s="171"/>
     </row>
     <row r="281" spans="2:58">
-      <c r="B281" s="415"/>
-      <c r="C281" s="426"/>
+      <c r="B281" s="416"/>
+      <c r="C281" s="411"/>
       <c r="D281" s="135"/>
       <c r="E281" s="133"/>
       <c r="F281" s="133"/>
@@ -35067,8 +35078,8 @@
       <c r="BF281" s="171"/>
     </row>
     <row r="282" spans="2:58">
-      <c r="B282" s="411"/>
-      <c r="C282" s="429"/>
+      <c r="B282" s="417"/>
+      <c r="C282" s="414"/>
       <c r="D282" s="152"/>
       <c r="E282" s="144"/>
       <c r="F282" s="144"/>
@@ -35108,10 +35119,10 @@
       <c r="BF282" s="171"/>
     </row>
     <row r="283" spans="2:58">
-      <c r="B283" s="410" t="s">
+      <c r="B283" s="415" t="s">
         <v>242</v>
       </c>
-      <c r="C283" s="426">
+      <c r="C283" s="411">
         <v>1502</v>
       </c>
       <c r="D283" s="185" t="s">
@@ -35234,8 +35245,8 @@
       <c r="BF283" s="171"/>
     </row>
     <row r="284" spans="2:58">
-      <c r="B284" s="415"/>
-      <c r="C284" s="426"/>
+      <c r="B284" s="416"/>
+      <c r="C284" s="411"/>
       <c r="D284" s="189"/>
       <c r="E284" s="237" t="s">
         <v>294</v>
@@ -35297,8 +35308,8 @@
       <c r="BF284" s="171"/>
     </row>
     <row r="285" spans="2:58">
-      <c r="B285" s="415"/>
-      <c r="C285" s="426"/>
+      <c r="B285" s="416"/>
+      <c r="C285" s="411"/>
       <c r="D285" s="189"/>
       <c r="E285" s="237"/>
       <c r="F285" s="237" t="s">
@@ -35342,8 +35353,8 @@
       <c r="BF285" s="171"/>
     </row>
     <row r="286" spans="2:58">
-      <c r="B286" s="415"/>
-      <c r="C286" s="426"/>
+      <c r="B286" s="416"/>
+      <c r="C286" s="411"/>
       <c r="D286" s="135"/>
       <c r="E286" s="133"/>
       <c r="F286" s="133"/>
@@ -35383,8 +35394,8 @@
       <c r="BF286" s="171"/>
     </row>
     <row r="287" spans="2:58">
-      <c r="B287" s="415"/>
-      <c r="C287" s="426"/>
+      <c r="B287" s="416"/>
+      <c r="C287" s="411"/>
       <c r="D287" s="135"/>
       <c r="E287" s="133"/>
       <c r="F287" s="133"/>
@@ -35424,8 +35435,8 @@
       <c r="BF287" s="171"/>
     </row>
     <row r="288" spans="2:58">
-      <c r="B288" s="415"/>
-      <c r="C288" s="426"/>
+      <c r="B288" s="416"/>
+      <c r="C288" s="411"/>
       <c r="D288" s="135"/>
       <c r="E288" s="133"/>
       <c r="F288" s="133"/>
@@ -35465,8 +35476,8 @@
       <c r="BF288" s="171"/>
     </row>
     <row r="289" spans="2:58">
-      <c r="B289" s="415"/>
-      <c r="C289" s="426"/>
+      <c r="B289" s="416"/>
+      <c r="C289" s="411"/>
       <c r="D289" s="135"/>
       <c r="E289" s="133"/>
       <c r="F289" s="133"/>
@@ -35506,8 +35517,8 @@
       <c r="BF289" s="171"/>
     </row>
     <row r="290" spans="2:58">
-      <c r="B290" s="411"/>
-      <c r="C290" s="413"/>
+      <c r="B290" s="417"/>
+      <c r="C290" s="412"/>
       <c r="D290" s="192"/>
       <c r="E290" s="193"/>
       <c r="F290" s="193"/>
@@ -35551,10 +35562,10 @@
       <c r="BF290" s="171"/>
     </row>
     <row r="291" spans="2:58">
-      <c r="B291" s="410" t="s">
+      <c r="B291" s="415" t="s">
         <v>529</v>
       </c>
-      <c r="C291" s="425">
+      <c r="C291" s="410">
         <v>1503</v>
       </c>
       <c r="D291" s="151" t="s">
@@ -35605,8 +35616,8 @@
       <c r="BF291" s="171"/>
     </row>
     <row r="292" spans="2:58">
-      <c r="B292" s="411"/>
-      <c r="C292" s="413"/>
+      <c r="B292" s="417"/>
+      <c r="C292" s="412"/>
       <c r="D292" s="192"/>
       <c r="E292" s="193" t="s">
         <v>530</v>
@@ -35708,10 +35719,10 @@
       <c r="BF293" s="171"/>
     </row>
     <row r="294" spans="2:58">
-      <c r="B294" s="410" t="s">
+      <c r="B294" s="415" t="s">
         <v>534</v>
       </c>
-      <c r="C294" s="425">
+      <c r="C294" s="410">
         <v>1588</v>
       </c>
       <c r="D294" s="151" t="s">
@@ -35765,8 +35776,8 @@
       <c r="BF294" s="171"/>
     </row>
     <row r="295" spans="2:58">
-      <c r="B295" s="415"/>
-      <c r="C295" s="426"/>
+      <c r="B295" s="416"/>
+      <c r="C295" s="411"/>
       <c r="D295" s="135"/>
       <c r="E295" s="133" t="s">
         <v>294</v>
@@ -35806,8 +35817,8 @@
       <c r="BF295" s="171"/>
     </row>
     <row r="296" spans="2:58">
-      <c r="B296" s="411"/>
-      <c r="C296" s="413"/>
+      <c r="B296" s="417"/>
+      <c r="C296" s="412"/>
       <c r="D296" s="152"/>
       <c r="E296" s="144"/>
       <c r="F296" s="144" t="s">
@@ -35847,10 +35858,10 @@
       <c r="BF296" s="171"/>
     </row>
     <row r="297" spans="2:58">
-      <c r="B297" s="410" t="s">
+      <c r="B297" s="415" t="s">
         <v>535</v>
       </c>
-      <c r="C297" s="425">
+      <c r="C297" s="410">
         <v>1606</v>
       </c>
       <c r="D297" s="151" t="s">
@@ -35919,8 +35930,8 @@
       <c r="BF297" s="171"/>
     </row>
     <row r="298" spans="2:58">
-      <c r="B298" s="415"/>
-      <c r="C298" s="426"/>
+      <c r="B298" s="416"/>
+      <c r="C298" s="411"/>
       <c r="D298" s="135"/>
       <c r="E298" s="133" t="s">
         <v>334</v>
@@ -35960,8 +35971,8 @@
       <c r="BF298" s="171"/>
     </row>
     <row r="299" spans="2:58">
-      <c r="B299" s="415"/>
-      <c r="C299" s="426"/>
+      <c r="B299" s="416"/>
+      <c r="C299" s="411"/>
       <c r="D299" s="135"/>
       <c r="E299" s="133"/>
       <c r="F299" s="133" t="s">
@@ -36001,8 +36012,8 @@
       <c r="BF299" s="171"/>
     </row>
     <row r="300" spans="2:58">
-      <c r="B300" s="415"/>
-      <c r="C300" s="426"/>
+      <c r="B300" s="416"/>
+      <c r="C300" s="411"/>
       <c r="D300" s="135"/>
       <c r="E300" s="133"/>
       <c r="F300" s="133"/>
@@ -36042,8 +36053,8 @@
       <c r="BF300" s="171"/>
     </row>
     <row r="301" spans="2:58">
-      <c r="B301" s="415"/>
-      <c r="C301" s="426"/>
+      <c r="B301" s="416"/>
+      <c r="C301" s="411"/>
       <c r="D301" s="135"/>
       <c r="E301" s="133"/>
       <c r="F301" s="133"/>
@@ -36083,8 +36094,8 @@
       <c r="BF301" s="171"/>
     </row>
     <row r="302" spans="2:58">
-      <c r="B302" s="415"/>
-      <c r="C302" s="426"/>
+      <c r="B302" s="416"/>
+      <c r="C302" s="411"/>
       <c r="D302" s="135"/>
       <c r="E302" s="133"/>
       <c r="F302" s="133"/>
@@ -36124,8 +36135,8 @@
       <c r="BF302" s="171"/>
     </row>
     <row r="303" spans="2:58">
-      <c r="B303" s="415"/>
-      <c r="C303" s="426"/>
+      <c r="B303" s="416"/>
+      <c r="C303" s="411"/>
       <c r="D303" s="135"/>
       <c r="E303" s="133"/>
       <c r="F303" s="133"/>
@@ -36165,8 +36176,8 @@
       <c r="BF303" s="171"/>
     </row>
     <row r="304" spans="2:58">
-      <c r="B304" s="411"/>
-      <c r="C304" s="413"/>
+      <c r="B304" s="417"/>
+      <c r="C304" s="412"/>
       <c r="D304" s="152"/>
       <c r="E304" s="144"/>
       <c r="F304" s="144"/>
@@ -36206,10 +36217,10 @@
       <c r="BF304" s="171"/>
     </row>
     <row r="305" spans="2:58">
-      <c r="B305" s="410" t="s">
+      <c r="B305" s="415" t="s">
         <v>540</v>
       </c>
-      <c r="C305" s="425">
+      <c r="C305" s="410">
         <v>1608</v>
       </c>
       <c r="D305" s="151" t="s">
@@ -36278,8 +36289,8 @@
       <c r="BF305" s="171"/>
     </row>
     <row r="306" spans="2:58">
-      <c r="B306" s="415"/>
-      <c r="C306" s="426"/>
+      <c r="B306" s="416"/>
+      <c r="C306" s="411"/>
       <c r="D306" s="135"/>
       <c r="E306" s="133" t="s">
         <v>308</v>
@@ -36319,8 +36330,8 @@
       <c r="BF306" s="171"/>
     </row>
     <row r="307" spans="2:58">
-      <c r="B307" s="415"/>
-      <c r="C307" s="426"/>
+      <c r="B307" s="416"/>
+      <c r="C307" s="411"/>
       <c r="D307" s="135"/>
       <c r="E307" s="133"/>
       <c r="F307" s="133" t="s">
@@ -36360,8 +36371,8 @@
       <c r="BF307" s="171"/>
     </row>
     <row r="308" spans="2:58">
-      <c r="B308" s="415"/>
-      <c r="C308" s="426"/>
+      <c r="B308" s="416"/>
+      <c r="C308" s="411"/>
       <c r="D308" s="135"/>
       <c r="E308" s="133"/>
       <c r="F308" s="133"/>
@@ -36401,8 +36412,8 @@
       <c r="BF308" s="171"/>
     </row>
     <row r="309" spans="2:58">
-      <c r="B309" s="415"/>
-      <c r="C309" s="426"/>
+      <c r="B309" s="416"/>
+      <c r="C309" s="411"/>
       <c r="D309" s="135"/>
       <c r="E309" s="133"/>
       <c r="F309" s="133"/>
@@ -36442,8 +36453,8 @@
       <c r="BF309" s="171"/>
     </row>
     <row r="310" spans="2:58">
-      <c r="B310" s="415"/>
-      <c r="C310" s="426"/>
+      <c r="B310" s="416"/>
+      <c r="C310" s="411"/>
       <c r="D310" s="135"/>
       <c r="E310" s="133"/>
       <c r="F310" s="133"/>
@@ -36483,8 +36494,8 @@
       <c r="BF310" s="171"/>
     </row>
     <row r="311" spans="2:58">
-      <c r="B311" s="415"/>
-      <c r="C311" s="426"/>
+      <c r="B311" s="416"/>
+      <c r="C311" s="411"/>
       <c r="D311" s="135"/>
       <c r="E311" s="133"/>
       <c r="F311" s="133"/>
@@ -36524,8 +36535,8 @@
       <c r="BF311" s="171"/>
     </row>
     <row r="312" spans="2:58">
-      <c r="B312" s="411"/>
-      <c r="C312" s="413"/>
+      <c r="B312" s="417"/>
+      <c r="C312" s="412"/>
       <c r="D312" s="152"/>
       <c r="E312" s="144"/>
       <c r="F312" s="144"/>
@@ -36565,10 +36576,10 @@
       <c r="BF312" s="171"/>
     </row>
     <row r="313" spans="2:58">
-      <c r="B313" s="410" t="s">
+      <c r="B313" s="415" t="s">
         <v>541</v>
       </c>
-      <c r="C313" s="425">
+      <c r="C313" s="410">
         <v>1619</v>
       </c>
       <c r="D313" s="151" t="s">
@@ -36625,8 +36636,8 @@
       <c r="BF313" s="171"/>
     </row>
     <row r="314" spans="2:58">
-      <c r="B314" s="415"/>
-      <c r="C314" s="426"/>
+      <c r="B314" s="416"/>
+      <c r="C314" s="411"/>
       <c r="D314" s="135"/>
       <c r="E314" s="133" t="s">
         <v>354</v>
@@ -36670,8 +36681,8 @@
       <c r="BF314" s="171"/>
     </row>
     <row r="315" spans="2:58">
-      <c r="B315" s="411"/>
-      <c r="C315" s="413"/>
+      <c r="B315" s="417"/>
+      <c r="C315" s="412"/>
       <c r="D315" s="152"/>
       <c r="E315" s="144"/>
       <c r="F315" s="144"/>
@@ -36711,10 +36722,10 @@
       <c r="BF315" s="171"/>
     </row>
     <row r="316" spans="2:58">
-      <c r="B316" s="410" t="s">
+      <c r="B316" s="415" t="s">
         <v>544</v>
       </c>
-      <c r="C316" s="425">
+      <c r="C316" s="410">
         <v>1623</v>
       </c>
       <c r="D316" s="135" t="s">
@@ -36765,8 +36776,8 @@
       <c r="BF316" s="171"/>
     </row>
     <row r="317" spans="2:58">
-      <c r="B317" s="411"/>
-      <c r="C317" s="413"/>
+      <c r="B317" s="417"/>
+      <c r="C317" s="412"/>
       <c r="D317" s="152"/>
       <c r="E317" s="144" t="s">
         <v>294</v>
@@ -36806,10 +36817,10 @@
       <c r="BF317" s="171"/>
     </row>
     <row r="318" spans="2:58">
-      <c r="B318" s="415" t="s">
+      <c r="B318" s="416" t="s">
         <v>545</v>
       </c>
-      <c r="C318" s="426">
+      <c r="C318" s="411">
         <v>1628</v>
       </c>
       <c r="D318" s="135" t="s">
@@ -36863,8 +36874,8 @@
       <c r="BF318" s="171"/>
     </row>
     <row r="319" spans="2:58">
-      <c r="B319" s="415"/>
-      <c r="C319" s="426"/>
+      <c r="B319" s="416"/>
+      <c r="C319" s="411"/>
       <c r="D319" s="135"/>
       <c r="E319" s="133" t="s">
         <v>366</v>
@@ -36904,8 +36915,8 @@
       <c r="BF319" s="171"/>
     </row>
     <row r="320" spans="2:58">
-      <c r="B320" s="411"/>
-      <c r="C320" s="413"/>
+      <c r="B320" s="417"/>
+      <c r="C320" s="412"/>
       <c r="D320" s="152"/>
       <c r="E320" s="144"/>
       <c r="F320" s="144" t="s">
@@ -36945,10 +36956,10 @@
       <c r="BF320" s="171"/>
     </row>
     <row r="321" spans="2:58">
-      <c r="B321" s="410" t="s">
+      <c r="B321" s="415" t="s">
         <v>547</v>
       </c>
-      <c r="C321" s="425">
+      <c r="C321" s="410">
         <v>1637</v>
       </c>
       <c r="D321" s="151" t="s">
@@ -37014,8 +37025,8 @@
       <c r="BF321" s="171"/>
     </row>
     <row r="322" spans="2:58">
-      <c r="B322" s="415"/>
-      <c r="C322" s="426"/>
+      <c r="B322" s="416"/>
+      <c r="C322" s="411"/>
       <c r="D322" s="135"/>
       <c r="E322" s="133" t="s">
         <v>300</v>
@@ -37055,8 +37066,8 @@
       <c r="BF322" s="171"/>
     </row>
     <row r="323" spans="2:58">
-      <c r="B323" s="415"/>
-      <c r="C323" s="426"/>
+      <c r="B323" s="416"/>
+      <c r="C323" s="411"/>
       <c r="D323" s="135"/>
       <c r="E323" s="133"/>
       <c r="F323" s="133" t="s">
@@ -37096,8 +37107,8 @@
       <c r="BF323" s="171"/>
     </row>
     <row r="324" spans="2:58">
-      <c r="B324" s="415"/>
-      <c r="C324" s="426"/>
+      <c r="B324" s="416"/>
+      <c r="C324" s="411"/>
       <c r="D324" s="135"/>
       <c r="E324" s="133"/>
       <c r="F324" s="133"/>
@@ -37137,8 +37148,8 @@
       <c r="BF324" s="171"/>
     </row>
     <row r="325" spans="2:58">
-      <c r="B325" s="415"/>
-      <c r="C325" s="426"/>
+      <c r="B325" s="416"/>
+      <c r="C325" s="411"/>
       <c r="D325" s="135"/>
       <c r="E325" s="133"/>
       <c r="F325" s="133"/>
@@ -37178,8 +37189,8 @@
       <c r="BF325" s="171"/>
     </row>
     <row r="326" spans="2:58">
-      <c r="B326" s="415"/>
-      <c r="C326" s="426"/>
+      <c r="B326" s="416"/>
+      <c r="C326" s="411"/>
       <c r="D326" s="135"/>
       <c r="E326" s="133"/>
       <c r="F326" s="133"/>
@@ -37219,8 +37230,8 @@
       <c r="BF326" s="171"/>
     </row>
     <row r="327" spans="2:58">
-      <c r="B327" s="411"/>
-      <c r="C327" s="413"/>
+      <c r="B327" s="417"/>
+      <c r="C327" s="412"/>
       <c r="D327" s="152"/>
       <c r="E327" s="144"/>
       <c r="F327" s="144"/>
@@ -37384,10 +37395,10 @@
       <c r="BF329" s="171"/>
     </row>
     <row r="330" spans="2:58">
-      <c r="B330" s="410" t="s">
+      <c r="B330" s="415" t="s">
         <v>554</v>
       </c>
-      <c r="C330" s="425">
+      <c r="C330" s="410">
         <v>1642</v>
       </c>
       <c r="D330" s="185" t="s">
@@ -37460,8 +37471,8 @@
       <c r="BF330" s="171"/>
     </row>
     <row r="331" spans="2:58">
-      <c r="B331" s="415"/>
-      <c r="C331" s="426"/>
+      <c r="B331" s="416"/>
+      <c r="C331" s="411"/>
       <c r="D331" s="189"/>
       <c r="E331" s="237" t="s">
         <v>306</v>
@@ -37505,8 +37516,8 @@
       <c r="BF331" s="171"/>
     </row>
     <row r="332" spans="2:58">
-      <c r="B332" s="415"/>
-      <c r="C332" s="426"/>
+      <c r="B332" s="416"/>
+      <c r="C332" s="411"/>
       <c r="D332" s="135"/>
       <c r="E332" s="133"/>
       <c r="F332" s="133" t="s">
@@ -37546,8 +37557,8 @@
       <c r="BF332" s="171"/>
     </row>
     <row r="333" spans="2:58">
-      <c r="B333" s="415"/>
-      <c r="C333" s="426"/>
+      <c r="B333" s="416"/>
+      <c r="C333" s="411"/>
       <c r="D333" s="135"/>
       <c r="E333" s="133"/>
       <c r="F333" s="133"/>
@@ -37591,8 +37602,8 @@
       <c r="BF333" s="171"/>
     </row>
     <row r="334" spans="2:58">
-      <c r="B334" s="415"/>
-      <c r="C334" s="426"/>
+      <c r="B334" s="416"/>
+      <c r="C334" s="411"/>
       <c r="D334" s="135"/>
       <c r="E334" s="133"/>
       <c r="F334" s="133"/>
@@ -37632,8 +37643,8 @@
       <c r="BF334" s="171"/>
     </row>
     <row r="335" spans="2:58">
-      <c r="B335" s="415"/>
-      <c r="C335" s="426"/>
+      <c r="B335" s="416"/>
+      <c r="C335" s="411"/>
       <c r="D335" s="135"/>
       <c r="E335" s="133"/>
       <c r="F335" s="133"/>
@@ -37673,8 +37684,8 @@
       <c r="BF335" s="171"/>
     </row>
     <row r="336" spans="2:58">
-      <c r="B336" s="411"/>
-      <c r="C336" s="413"/>
+      <c r="B336" s="417"/>
+      <c r="C336" s="412"/>
       <c r="D336" s="192"/>
       <c r="E336" s="193"/>
       <c r="F336" s="193"/>
@@ -37718,10 +37729,10 @@
       <c r="BF336" s="171"/>
     </row>
     <row r="337" spans="2:58">
-      <c r="B337" s="410" t="s">
+      <c r="B337" s="415" t="s">
         <v>563</v>
       </c>
-      <c r="C337" s="425">
+      <c r="C337" s="410">
         <v>1649</v>
       </c>
       <c r="D337" s="151" t="s">
@@ -37772,8 +37783,8 @@
       <c r="BF337" s="171"/>
     </row>
     <row r="338" spans="2:58">
-      <c r="B338" s="411"/>
-      <c r="C338" s="413"/>
+      <c r="B338" s="417"/>
+      <c r="C338" s="412"/>
       <c r="D338" s="152"/>
       <c r="E338" s="144" t="s">
         <v>294</v>
@@ -37813,10 +37824,10 @@
       <c r="BF338" s="171"/>
     </row>
     <row r="339" spans="2:58">
-      <c r="B339" s="410" t="s">
+      <c r="B339" s="415" t="s">
         <v>564</v>
       </c>
-      <c r="C339" s="425">
+      <c r="C339" s="410">
         <v>1651</v>
       </c>
       <c r="D339" s="151" t="s">
@@ -37882,8 +37893,8 @@
       <c r="BF339" s="171"/>
     </row>
     <row r="340" spans="2:58">
-      <c r="B340" s="415"/>
-      <c r="C340" s="426"/>
+      <c r="B340" s="416"/>
+      <c r="C340" s="411"/>
       <c r="D340" s="135"/>
       <c r="E340" s="133" t="s">
         <v>294</v>
@@ -37923,8 +37934,8 @@
       <c r="BF340" s="171"/>
     </row>
     <row r="341" spans="2:58">
-      <c r="B341" s="415"/>
-      <c r="C341" s="426"/>
+      <c r="B341" s="416"/>
+      <c r="C341" s="411"/>
       <c r="D341" s="135"/>
       <c r="E341" s="133"/>
       <c r="F341" s="133" t="s">
@@ -37964,8 +37975,8 @@
       <c r="BF341" s="171"/>
     </row>
     <row r="342" spans="2:58">
-      <c r="B342" s="415"/>
-      <c r="C342" s="426"/>
+      <c r="B342" s="416"/>
+      <c r="C342" s="411"/>
       <c r="D342" s="135"/>
       <c r="E342" s="133"/>
       <c r="F342" s="133"/>
@@ -38005,8 +38016,8 @@
       <c r="BF342" s="171"/>
     </row>
     <row r="343" spans="2:58">
-      <c r="B343" s="415"/>
-      <c r="C343" s="426"/>
+      <c r="B343" s="416"/>
+      <c r="C343" s="411"/>
       <c r="D343" s="135"/>
       <c r="E343" s="133"/>
       <c r="F343" s="133"/>
@@ -38046,8 +38057,8 @@
       <c r="BF343" s="171"/>
     </row>
     <row r="344" spans="2:58">
-      <c r="B344" s="415"/>
-      <c r="C344" s="426"/>
+      <c r="B344" s="416"/>
+      <c r="C344" s="411"/>
       <c r="D344" s="135"/>
       <c r="E344" s="133"/>
       <c r="F344" s="133"/>
@@ -38087,8 +38098,8 @@
       <c r="BF344" s="171"/>
     </row>
     <row r="345" spans="2:58">
-      <c r="B345" s="411"/>
-      <c r="C345" s="413"/>
+      <c r="B345" s="417"/>
+      <c r="C345" s="412"/>
       <c r="D345" s="152"/>
       <c r="E345" s="144"/>
       <c r="F345" s="144"/>
@@ -38128,10 +38139,10 @@
       <c r="BF345" s="171"/>
     </row>
     <row r="346" spans="2:58">
-      <c r="B346" s="410" t="s">
+      <c r="B346" s="415" t="s">
         <v>566</v>
       </c>
-      <c r="C346" s="425">
+      <c r="C346" s="410">
         <v>1675</v>
       </c>
       <c r="D346" s="151" t="s">
@@ -38185,8 +38196,8 @@
       <c r="BF346" s="171"/>
     </row>
     <row r="347" spans="2:58">
-      <c r="B347" s="415"/>
-      <c r="C347" s="426"/>
+      <c r="B347" s="416"/>
+      <c r="C347" s="411"/>
       <c r="D347" s="135"/>
       <c r="E347" s="133" t="s">
         <v>349</v>
@@ -38226,8 +38237,8 @@
       <c r="BF347" s="171"/>
     </row>
     <row r="348" spans="2:58">
-      <c r="B348" s="411"/>
-      <c r="C348" s="413"/>
+      <c r="B348" s="417"/>
+      <c r="C348" s="412"/>
       <c r="D348" s="152"/>
       <c r="E348" s="144"/>
       <c r="F348" s="144" t="s">
@@ -38267,10 +38278,10 @@
       <c r="BF348" s="171"/>
     </row>
     <row r="349" spans="2:58">
-      <c r="B349" s="410" t="s">
+      <c r="B349" s="415" t="s">
         <v>568</v>
       </c>
-      <c r="C349" s="425">
+      <c r="C349" s="410">
         <v>1689</v>
       </c>
       <c r="D349" s="185" t="s">
@@ -38356,8 +38367,8 @@
       <c r="BF349" s="171"/>
     </row>
     <row r="350" spans="2:58">
-      <c r="B350" s="415"/>
-      <c r="C350" s="426"/>
+      <c r="B350" s="416"/>
+      <c r="C350" s="411"/>
       <c r="D350" s="189"/>
       <c r="E350" s="237" t="s">
         <v>412</v>
@@ -38464,8 +38475,8 @@
       <c r="BF350" s="171"/>
     </row>
     <row r="351" spans="2:58">
-      <c r="B351" s="415"/>
-      <c r="C351" s="426"/>
+      <c r="B351" s="416"/>
+      <c r="C351" s="411"/>
       <c r="D351" s="135"/>
       <c r="E351" s="133"/>
       <c r="F351" s="133" t="s">
@@ -38505,8 +38516,8 @@
       <c r="BF351" s="171"/>
     </row>
     <row r="352" spans="2:58">
-      <c r="B352" s="415"/>
-      <c r="C352" s="426"/>
+      <c r="B352" s="416"/>
+      <c r="C352" s="411"/>
       <c r="D352" s="189"/>
       <c r="E352" s="237"/>
       <c r="F352" s="237"/>
@@ -38600,8 +38611,8 @@
       <c r="BF352" s="171"/>
     </row>
     <row r="353" spans="2:58">
-      <c r="B353" s="415"/>
-      <c r="C353" s="426"/>
+      <c r="B353" s="416"/>
+      <c r="C353" s="411"/>
       <c r="D353" s="135"/>
       <c r="E353" s="133"/>
       <c r="F353" s="133"/>
@@ -38641,8 +38652,8 @@
       <c r="BF353" s="171"/>
     </row>
     <row r="354" spans="2:58">
-      <c r="B354" s="415"/>
-      <c r="C354" s="426"/>
+      <c r="B354" s="416"/>
+      <c r="C354" s="411"/>
       <c r="D354" s="135"/>
       <c r="E354" s="133"/>
       <c r="F354" s="133"/>
@@ -38682,8 +38693,8 @@
       <c r="BF354" s="171"/>
     </row>
     <row r="355" spans="2:58">
-      <c r="B355" s="415"/>
-      <c r="C355" s="426"/>
+      <c r="B355" s="416"/>
+      <c r="C355" s="411"/>
       <c r="D355" s="135"/>
       <c r="E355" s="133"/>
       <c r="F355" s="133"/>
@@ -38723,8 +38734,8 @@
       <c r="BF355" s="171"/>
     </row>
     <row r="356" spans="2:58">
-      <c r="B356" s="411"/>
-      <c r="C356" s="413"/>
+      <c r="B356" s="417"/>
+      <c r="C356" s="412"/>
       <c r="D356" s="135"/>
       <c r="E356" s="133"/>
       <c r="F356" s="133"/>
@@ -38764,10 +38775,10 @@
       <c r="BF356" s="171"/>
     </row>
     <row r="357" spans="2:58">
-      <c r="B357" s="410" t="s">
+      <c r="B357" s="415" t="s">
         <v>602</v>
       </c>
-      <c r="C357" s="412">
+      <c r="C357" s="427">
         <v>1695</v>
       </c>
       <c r="D357" s="226" t="s">
@@ -38820,8 +38831,8 @@
       <c r="BF357" s="171"/>
     </row>
     <row r="358" spans="2:58">
-      <c r="B358" s="411"/>
-      <c r="C358" s="413"/>
+      <c r="B358" s="417"/>
+      <c r="C358" s="412"/>
       <c r="D358" s="135"/>
       <c r="E358" s="133"/>
       <c r="F358" s="133"/>
@@ -38849,10 +38860,10 @@
       <c r="BF358" s="171"/>
     </row>
     <row r="359" spans="2:58">
-      <c r="B359" s="410" t="s">
+      <c r="B359" s="415" t="s">
         <v>608</v>
       </c>
-      <c r="C359" s="425">
+      <c r="C359" s="410">
         <v>1787</v>
       </c>
       <c r="D359" s="151" t="s">
@@ -38921,8 +38932,8 @@
       <c r="BF359" s="171"/>
     </row>
     <row r="360" spans="2:58">
-      <c r="B360" s="415"/>
-      <c r="C360" s="426"/>
+      <c r="B360" s="416"/>
+      <c r="C360" s="411"/>
       <c r="D360" s="135"/>
       <c r="E360" s="133" t="s">
         <v>347</v>
@@ -38962,8 +38973,8 @@
       <c r="BF360" s="171"/>
     </row>
     <row r="361" spans="2:58">
-      <c r="B361" s="415"/>
-      <c r="C361" s="426"/>
+      <c r="B361" s="416"/>
+      <c r="C361" s="411"/>
       <c r="D361" s="135"/>
       <c r="E361" s="133"/>
       <c r="F361" s="133" t="s">
@@ -39003,8 +39014,8 @@
       <c r="BF361" s="171"/>
     </row>
     <row r="362" spans="2:58">
-      <c r="B362" s="415"/>
-      <c r="C362" s="426"/>
+      <c r="B362" s="416"/>
+      <c r="C362" s="411"/>
       <c r="D362" s="189"/>
       <c r="E362" s="237"/>
       <c r="F362" s="237"/>
@@ -39053,8 +39064,8 @@
       <c r="BF362" s="171"/>
     </row>
     <row r="363" spans="2:58">
-      <c r="B363" s="415"/>
-      <c r="C363" s="426"/>
+      <c r="B363" s="416"/>
+      <c r="C363" s="411"/>
       <c r="D363" s="135"/>
       <c r="E363" s="133"/>
       <c r="F363" s="133"/>
@@ -39094,8 +39105,8 @@
       <c r="BF363" s="171"/>
     </row>
     <row r="364" spans="2:58">
-      <c r="B364" s="415"/>
-      <c r="C364" s="426"/>
+      <c r="B364" s="416"/>
+      <c r="C364" s="411"/>
       <c r="D364" s="135"/>
       <c r="E364" s="133"/>
       <c r="F364" s="133"/>
@@ -39135,8 +39146,8 @@
       <c r="BF364" s="171"/>
     </row>
     <row r="365" spans="2:58">
-      <c r="B365" s="415"/>
-      <c r="C365" s="426"/>
+      <c r="B365" s="416"/>
+      <c r="C365" s="411"/>
       <c r="D365" s="135"/>
       <c r="E365" s="133"/>
       <c r="F365" s="133"/>
@@ -39176,8 +39187,8 @@
       <c r="BF365" s="171"/>
     </row>
     <row r="366" spans="2:58">
-      <c r="B366" s="419"/>
-      <c r="C366" s="430"/>
+      <c r="B366" s="425"/>
+      <c r="C366" s="413"/>
       <c r="D366" s="245"/>
       <c r="E366" s="246"/>
       <c r="F366" s="246"/>
@@ -42452,41 +42463,73 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="C349:C356"/>
-    <mergeCell ref="C359:C366"/>
-    <mergeCell ref="C330:C336"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="C339:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C297:C304"/>
-    <mergeCell ref="C305:C312"/>
-    <mergeCell ref="C313:C315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="C321:C327"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="C275:C282"/>
-    <mergeCell ref="C283:C290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C239:C246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C253:C260"/>
-    <mergeCell ref="C261:C268"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="C218:C224"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C191:C198"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="C357:C358"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B114"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B150:B157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="B177:B184"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B198"/>
+    <mergeCell ref="B359:B366"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="B321:B327"/>
+    <mergeCell ref="B330:B336"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="B339:B345"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B297:B304"/>
+    <mergeCell ref="B305:B312"/>
+    <mergeCell ref="B313:B315"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="B346:B348"/>
+    <mergeCell ref="B349:B356"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B253:B260"/>
+    <mergeCell ref="B261:B268"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B237:B238"/>
     <mergeCell ref="B283:B290"/>
     <mergeCell ref="B291:B292"/>
     <mergeCell ref="C78:C84"/>
@@ -42511,73 +42554,41 @@
     <mergeCell ref="C127:C131"/>
     <mergeCell ref="C132:C136"/>
     <mergeCell ref="C137:C142"/>
-    <mergeCell ref="B239:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B253:B260"/>
-    <mergeCell ref="B261:B268"/>
-    <mergeCell ref="B218:B224"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B198"/>
-    <mergeCell ref="B359:B366"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="B321:B327"/>
-    <mergeCell ref="B330:B336"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="B339:B345"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B297:B304"/>
-    <mergeCell ref="B305:B312"/>
-    <mergeCell ref="B313:B315"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="B346:B348"/>
-    <mergeCell ref="B349:B356"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="B177:B184"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="C357:C358"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="B85:B92"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B114"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B150:B157"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C198"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="C275:C282"/>
+    <mergeCell ref="C283:C290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="C239:C246"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C253:C260"/>
+    <mergeCell ref="C261:C268"/>
+    <mergeCell ref="C349:C356"/>
+    <mergeCell ref="C359:C366"/>
+    <mergeCell ref="C330:C336"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C339:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C297:C304"/>
+    <mergeCell ref="C305:C312"/>
+    <mergeCell ref="C313:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="C321:C327"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/Digital_Dashboard.xlsx
+++ b/Digital_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1499af024d6db2b2/Documents/1 - Business/0 - CGH Automotive Limited/9 - Products/8 - Digital Dash/ClioIVDigitalDash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12286" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3706318-C512-4F07-87E2-0D2D07844893}"/>
+  <xr:revisionPtr revIDLastSave="12290" documentId="13_ncr:1_{69131C1B-D214-4E16-BB02-DE9AFC91D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A49124-A217-4C5F-A5E8-D108EDB858AD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2070" yWindow="15" windowWidth="26850" windowHeight="14250" tabRatio="841" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="841" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLUSTER PINOUT" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1225">
   <si>
     <t>247 - INSTRUMENT CLUSTER</t>
   </si>
@@ -5135,7 +5135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6127,6 +6127,15 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6196,33 +6205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6246,6 +6228,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6292,31 +6301,37 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6325,7 +6340,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6334,25 +6358,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6396,18 +6405,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7050,27 +7047,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" ht="16.5">
-      <c r="B2" s="358" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="359"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
+      <c r="B2" s="361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="362"/>
+      <c r="D2" s="363"/>
+      <c r="E2" s="363"/>
+      <c r="F2" s="363"/>
+      <c r="G2" s="363"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
+      <c r="J2" s="363"/>
+      <c r="K2" s="363"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="363"/>
       <c r="N2" s="311"/>
     </row>
     <row r="3" spans="1:38" ht="31.5">
-      <c r="B3" s="361">
+      <c r="B3" s="364">
         <v>247</v>
       </c>
-      <c r="C3" s="364" t="s">
+      <c r="C3" s="367" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="314" t="s">
@@ -7103,8 +7100,8 @@
     </row>
     <row r="4" spans="1:38" s="323" customFormat="1">
       <c r="A4" s="316"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="365"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="368"/>
       <c r="D4" s="317">
         <v>1</v>
       </c>
@@ -7120,7 +7117,7 @@
       </c>
       <c r="K4" s="320"/>
       <c r="L4" s="320"/>
-      <c r="M4" s="355" t="s">
+      <c r="M4" s="358" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="321"/>
@@ -7151,8 +7148,8 @@
     </row>
     <row r="5" spans="1:38" s="323" customFormat="1">
       <c r="A5" s="316"/>
-      <c r="B5" s="362"/>
-      <c r="C5" s="365"/>
+      <c r="B5" s="365"/>
+      <c r="C5" s="368"/>
       <c r="D5" s="324">
         <v>2</v>
       </c>
@@ -7178,7 +7175,7 @@
       <c r="L5" s="328" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="356"/>
+      <c r="M5" s="359"/>
       <c r="N5" s="321"/>
       <c r="O5" s="322"/>
       <c r="P5" s="322"/>
@@ -7207,8 +7204,8 @@
     </row>
     <row r="6" spans="1:38" s="323" customFormat="1">
       <c r="A6" s="316"/>
-      <c r="B6" s="362"/>
-      <c r="C6" s="365"/>
+      <c r="B6" s="365"/>
+      <c r="C6" s="368"/>
       <c r="D6" s="324">
         <v>3</v>
       </c>
@@ -7234,7 +7231,7 @@
       <c r="L6" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="356"/>
+      <c r="M6" s="359"/>
       <c r="N6" s="321"/>
       <c r="O6" s="322"/>
       <c r="P6" s="322"/>
@@ -7263,8 +7260,8 @@
     </row>
     <row r="7" spans="1:38" s="323" customFormat="1">
       <c r="A7" s="316"/>
-      <c r="B7" s="362"/>
-      <c r="C7" s="365"/>
+      <c r="B7" s="365"/>
+      <c r="C7" s="368"/>
       <c r="D7" s="317">
         <v>4</v>
       </c>
@@ -7280,7 +7277,7 @@
       </c>
       <c r="K7" s="320"/>
       <c r="L7" s="320"/>
-      <c r="M7" s="356"/>
+      <c r="M7" s="359"/>
       <c r="N7" s="321"/>
       <c r="O7" s="322"/>
       <c r="P7" s="322"/>
@@ -7309,8 +7306,8 @@
     </row>
     <row r="8" spans="1:38" s="323" customFormat="1">
       <c r="A8" s="316"/>
-      <c r="B8" s="362"/>
-      <c r="C8" s="365"/>
+      <c r="B8" s="365"/>
+      <c r="C8" s="368"/>
       <c r="D8" s="317">
         <v>5</v>
       </c>
@@ -7326,7 +7323,7 @@
       </c>
       <c r="K8" s="320"/>
       <c r="L8" s="320"/>
-      <c r="M8" s="356"/>
+      <c r="M8" s="359"/>
       <c r="N8" s="321"/>
       <c r="O8" s="322"/>
       <c r="P8" s="322"/>
@@ -7355,8 +7352,8 @@
     </row>
     <row r="9" spans="1:38" s="323" customFormat="1">
       <c r="A9" s="316"/>
-      <c r="B9" s="362"/>
-      <c r="C9" s="365"/>
+      <c r="B9" s="365"/>
+      <c r="C9" s="368"/>
       <c r="D9" s="324">
         <v>6</v>
       </c>
@@ -7384,7 +7381,7 @@
       <c r="L9" s="328" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="356"/>
+      <c r="M9" s="359"/>
       <c r="N9" s="321"/>
       <c r="O9" s="322"/>
       <c r="P9" s="322"/>
@@ -7413,8 +7410,8 @@
     </row>
     <row r="10" spans="1:38" s="323" customFormat="1">
       <c r="A10" s="316"/>
-      <c r="B10" s="362"/>
-      <c r="C10" s="365"/>
+      <c r="B10" s="365"/>
+      <c r="C10" s="368"/>
       <c r="D10" s="324">
         <v>7</v>
       </c>
@@ -7442,7 +7439,7 @@
       <c r="L10" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="356"/>
+      <c r="M10" s="359"/>
       <c r="N10" s="321"/>
       <c r="O10" s="322"/>
       <c r="P10" s="322"/>
@@ -7471,8 +7468,8 @@
     </row>
     <row r="11" spans="1:38" s="323" customFormat="1">
       <c r="A11" s="316"/>
-      <c r="B11" s="362"/>
-      <c r="C11" s="365"/>
+      <c r="B11" s="365"/>
+      <c r="C11" s="368"/>
       <c r="D11" s="324">
         <v>8</v>
       </c>
@@ -7498,7 +7495,7 @@
       <c r="L11" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="356"/>
+      <c r="M11" s="359"/>
       <c r="N11" s="321"/>
       <c r="O11" s="322"/>
       <c r="P11" s="322"/>
@@ -7527,8 +7524,8 @@
     </row>
     <row r="12" spans="1:38" s="323" customFormat="1">
       <c r="A12" s="316"/>
-      <c r="B12" s="362"/>
-      <c r="C12" s="365"/>
+      <c r="B12" s="365"/>
+      <c r="C12" s="368"/>
       <c r="D12" s="324">
         <v>9</v>
       </c>
@@ -7556,7 +7553,7 @@
       <c r="L12" s="328" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="356"/>
+      <c r="M12" s="359"/>
       <c r="N12" s="321"/>
       <c r="O12" s="322"/>
       <c r="P12" s="322"/>
@@ -7585,8 +7582,8 @@
     </row>
     <row r="13" spans="1:38" s="323" customFormat="1">
       <c r="A13" s="316"/>
-      <c r="B13" s="362"/>
-      <c r="C13" s="365"/>
+      <c r="B13" s="365"/>
+      <c r="C13" s="368"/>
       <c r="D13" s="324">
         <v>10</v>
       </c>
@@ -7612,7 +7609,7 @@
       <c r="L13" s="328" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="356"/>
+      <c r="M13" s="359"/>
       <c r="N13" s="321"/>
       <c r="O13" s="322"/>
       <c r="P13" s="322"/>
@@ -7641,8 +7638,8 @@
     </row>
     <row r="14" spans="1:38" s="323" customFormat="1">
       <c r="A14" s="316"/>
-      <c r="B14" s="362"/>
-      <c r="C14" s="365"/>
+      <c r="B14" s="365"/>
+      <c r="C14" s="368"/>
       <c r="D14" s="324">
         <v>11</v>
       </c>
@@ -7665,10 +7662,10 @@
       <c r="K14" s="328" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="367" t="s">
+      <c r="L14" s="370" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="356"/>
+      <c r="M14" s="359"/>
       <c r="N14" s="321"/>
       <c r="O14" s="322"/>
       <c r="P14" s="322"/>
@@ -7697,8 +7694,8 @@
     </row>
     <row r="15" spans="1:38" s="323" customFormat="1">
       <c r="A15" s="316"/>
-      <c r="B15" s="362"/>
-      <c r="C15" s="365"/>
+      <c r="B15" s="365"/>
+      <c r="C15" s="368"/>
       <c r="D15" s="338">
         <v>12</v>
       </c>
@@ -7721,8 +7718,8 @@
       <c r="K15" s="343" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="368"/>
-      <c r="M15" s="356"/>
+      <c r="L15" s="371"/>
+      <c r="M15" s="359"/>
       <c r="N15" s="321"/>
       <c r="O15" s="322"/>
       <c r="P15" s="322"/>
@@ -7751,8 +7748,8 @@
     </row>
     <row r="16" spans="1:38" s="323" customFormat="1">
       <c r="A16" s="316"/>
-      <c r="B16" s="362"/>
-      <c r="C16" s="365"/>
+      <c r="B16" s="365"/>
+      <c r="C16" s="368"/>
       <c r="D16" s="317">
         <v>13</v>
       </c>
@@ -7768,7 +7765,7 @@
       </c>
       <c r="K16" s="320"/>
       <c r="L16" s="320"/>
-      <c r="M16" s="356"/>
+      <c r="M16" s="359"/>
       <c r="N16" s="321"/>
       <c r="O16" s="322"/>
       <c r="P16" s="322"/>
@@ -7797,8 +7794,8 @@
     </row>
     <row r="17" spans="1:38" s="323" customFormat="1">
       <c r="A17" s="316"/>
-      <c r="B17" s="362"/>
-      <c r="C17" s="365"/>
+      <c r="B17" s="365"/>
+      <c r="C17" s="368"/>
       <c r="D17" s="324">
         <v>14</v>
       </c>
@@ -7824,7 +7821,7 @@
       <c r="L17" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="356"/>
+      <c r="M17" s="359"/>
       <c r="N17" s="321"/>
       <c r="O17" s="322"/>
       <c r="P17" s="322"/>
@@ -7853,8 +7850,8 @@
     </row>
     <row r="18" spans="1:38" s="323" customFormat="1">
       <c r="A18" s="316"/>
-      <c r="B18" s="362"/>
-      <c r="C18" s="365"/>
+      <c r="B18" s="365"/>
+      <c r="C18" s="368"/>
       <c r="D18" s="324">
         <v>15</v>
       </c>
@@ -7877,10 +7874,10 @@
       <c r="K18" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="367" t="s">
+      <c r="L18" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="356"/>
+      <c r="M18" s="359"/>
       <c r="N18" s="321"/>
       <c r="O18" s="322"/>
       <c r="P18" s="322"/>
@@ -7909,8 +7906,8 @@
     </row>
     <row r="19" spans="1:38" s="323" customFormat="1">
       <c r="A19" s="316"/>
-      <c r="B19" s="362"/>
-      <c r="C19" s="365"/>
+      <c r="B19" s="365"/>
+      <c r="C19" s="368"/>
       <c r="D19" s="324">
         <v>16</v>
       </c>
@@ -7933,8 +7930,8 @@
       <c r="K19" s="328" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="367"/>
-      <c r="M19" s="356"/>
+      <c r="L19" s="370"/>
+      <c r="M19" s="359"/>
       <c r="N19" s="321"/>
       <c r="O19" s="322"/>
       <c r="P19" s="322"/>
@@ -7963,8 +7960,8 @@
     </row>
     <row r="20" spans="1:38" s="323" customFormat="1">
       <c r="A20" s="316"/>
-      <c r="B20" s="362"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="324">
         <v>17</v>
       </c>
@@ -7987,10 +7984,10 @@
       <c r="K20" s="328" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="367" t="s">
+      <c r="L20" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="356"/>
+      <c r="M20" s="359"/>
       <c r="N20" s="321"/>
       <c r="O20" s="322"/>
       <c r="P20" s="322"/>
@@ -8019,8 +8016,8 @@
     </row>
     <row r="21" spans="1:38" s="323" customFormat="1">
       <c r="A21" s="316"/>
-      <c r="B21" s="362"/>
-      <c r="C21" s="365"/>
+      <c r="B21" s="365"/>
+      <c r="C21" s="368"/>
       <c r="D21" s="324">
         <v>18</v>
       </c>
@@ -8043,8 +8040,8 @@
       <c r="K21" s="328" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="367"/>
-      <c r="M21" s="356"/>
+      <c r="L21" s="370"/>
+      <c r="M21" s="359"/>
       <c r="N21" s="321"/>
       <c r="O21" s="322"/>
       <c r="P21" s="322"/>
@@ -8073,8 +8070,8 @@
     </row>
     <row r="22" spans="1:38" s="323" customFormat="1">
       <c r="A22" s="316"/>
-      <c r="B22" s="362"/>
-      <c r="C22" s="365"/>
+      <c r="B22" s="365"/>
+      <c r="C22" s="368"/>
       <c r="D22" s="324">
         <v>19</v>
       </c>
@@ -8095,10 +8092,10 @@
       <c r="K22" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="367" t="s">
+      <c r="L22" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="356"/>
+      <c r="M22" s="359"/>
       <c r="N22" s="321"/>
       <c r="O22" s="322"/>
       <c r="P22" s="322"/>
@@ -8127,8 +8124,8 @@
     </row>
     <row r="23" spans="1:38" s="323" customFormat="1">
       <c r="A23" s="316"/>
-      <c r="B23" s="362"/>
-      <c r="C23" s="365"/>
+      <c r="B23" s="365"/>
+      <c r="C23" s="368"/>
       <c r="D23" s="324">
         <v>20</v>
       </c>
@@ -8149,8 +8146,8 @@
       <c r="K23" s="328" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="367"/>
-      <c r="M23" s="356"/>
+      <c r="L23" s="370"/>
+      <c r="M23" s="359"/>
       <c r="N23" s="321"/>
       <c r="O23" s="322"/>
       <c r="P23" s="322"/>
@@ -8179,8 +8176,8 @@
     </row>
     <row r="24" spans="1:38" s="323" customFormat="1">
       <c r="A24" s="316"/>
-      <c r="B24" s="362"/>
-      <c r="C24" s="365"/>
+      <c r="B24" s="365"/>
+      <c r="C24" s="368"/>
       <c r="D24" s="324">
         <v>21</v>
       </c>
@@ -8208,7 +8205,7 @@
       <c r="L24" s="328" t="s">
         <v>72</v>
       </c>
-      <c r="M24" s="356"/>
+      <c r="M24" s="359"/>
       <c r="N24" s="321"/>
       <c r="O24" s="322"/>
       <c r="P24" s="322"/>
@@ -8237,8 +8234,8 @@
     </row>
     <row r="25" spans="1:38" s="323" customFormat="1">
       <c r="A25" s="316"/>
-      <c r="B25" s="362"/>
-      <c r="C25" s="365"/>
+      <c r="B25" s="365"/>
+      <c r="C25" s="368"/>
       <c r="D25" s="317">
         <v>22</v>
       </c>
@@ -8254,7 +8251,7 @@
       </c>
       <c r="K25" s="320"/>
       <c r="L25" s="320"/>
-      <c r="M25" s="356"/>
+      <c r="M25" s="359"/>
       <c r="N25" s="321"/>
       <c r="O25" s="322"/>
       <c r="P25" s="322"/>
@@ -8283,8 +8280,8 @@
     </row>
     <row r="26" spans="1:38" s="323" customFormat="1">
       <c r="A26" s="316"/>
-      <c r="B26" s="362"/>
-      <c r="C26" s="365"/>
+      <c r="B26" s="365"/>
+      <c r="C26" s="368"/>
       <c r="D26" s="317">
         <v>23</v>
       </c>
@@ -8302,7 +8299,7 @@
         <v>46</v>
       </c>
       <c r="L26" s="320"/>
-      <c r="M26" s="356"/>
+      <c r="M26" s="359"/>
       <c r="N26" s="321"/>
       <c r="O26" s="322"/>
       <c r="P26" s="322"/>
@@ -8331,8 +8328,8 @@
     </row>
     <row r="27" spans="1:38" s="323" customFormat="1">
       <c r="A27" s="316"/>
-      <c r="B27" s="363"/>
-      <c r="C27" s="366"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="369"/>
       <c r="D27" s="347">
         <v>24</v>
       </c>
@@ -8350,7 +8347,7 @@
         <v>50</v>
       </c>
       <c r="L27" s="349"/>
-      <c r="M27" s="357"/>
+      <c r="M27" s="360"/>
       <c r="N27" s="321"/>
       <c r="O27" s="322"/>
       <c r="P27" s="322"/>
@@ -8662,32 +8659,32 @@
       <c r="AN1" s="285"/>
       <c r="AO1" s="285"/>
       <c r="AP1" s="285"/>
-      <c r="AQ1" s="434" t="s">
+      <c r="AQ1" s="437" t="s">
         <v>1137</v>
       </c>
-      <c r="AR1" s="435"/>
-      <c r="AS1" s="435"/>
-      <c r="AT1" s="435"/>
-      <c r="AU1" s="435"/>
-      <c r="AV1" s="435"/>
-      <c r="AW1" s="435"/>
-      <c r="AX1" s="435"/>
-      <c r="AY1" s="435"/>
-      <c r="AZ1" s="435"/>
-      <c r="BA1" s="435"/>
-      <c r="BB1" s="435"/>
-      <c r="BC1" s="435"/>
-      <c r="BD1" s="435"/>
-      <c r="BE1" s="435"/>
-      <c r="BF1" s="435"/>
-      <c r="BG1" s="435"/>
-      <c r="BH1" s="435"/>
-      <c r="BI1" s="435"/>
-      <c r="BJ1" s="435"/>
-      <c r="BK1" s="435"/>
-      <c r="BL1" s="435"/>
-      <c r="BM1" s="435"/>
-      <c r="BN1" s="436"/>
+      <c r="AR1" s="438"/>
+      <c r="AS1" s="438"/>
+      <c r="AT1" s="438"/>
+      <c r="AU1" s="438"/>
+      <c r="AV1" s="438"/>
+      <c r="AW1" s="438"/>
+      <c r="AX1" s="438"/>
+      <c r="AY1" s="438"/>
+      <c r="AZ1" s="438"/>
+      <c r="BA1" s="438"/>
+      <c r="BB1" s="438"/>
+      <c r="BC1" s="438"/>
+      <c r="BD1" s="438"/>
+      <c r="BE1" s="438"/>
+      <c r="BF1" s="438"/>
+      <c r="BG1" s="438"/>
+      <c r="BH1" s="438"/>
+      <c r="BI1" s="438"/>
+      <c r="BJ1" s="438"/>
+      <c r="BK1" s="438"/>
+      <c r="BL1" s="438"/>
+      <c r="BM1" s="438"/>
+      <c r="BN1" s="439"/>
       <c r="BO1" s="287"/>
       <c r="BP1" s="287"/>
       <c r="BQ1" s="287"/>
@@ -9529,8 +9526,8 @@
       <c r="S1" s="284"/>
       <c r="T1" s="285"/>
       <c r="U1" s="285"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
       <c r="X1" s="285"/>
       <c r="Y1" s="285"/>
       <c r="Z1" s="285"/>
@@ -10429,11 +10426,11 @@
       <c r="J1" s="303" t="s">
         <v>1140</v>
       </c>
-      <c r="K1" s="437" t="s">
+      <c r="K1" s="440" t="s">
         <v>1141</v>
       </c>
-      <c r="L1" s="438"/>
-      <c r="M1" s="439"/>
+      <c r="L1" s="441"/>
+      <c r="M1" s="442"/>
       <c r="N1" s="270"/>
       <c r="O1" s="270"/>
       <c r="P1" s="270"/>
@@ -10942,40 +10939,40 @@
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="431" t="s">
+      <c r="A22" s="434" t="s">
         <v>617</v>
       </c>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="431"/>
-      <c r="H22" s="431"/>
-      <c r="I22" s="431"/>
-      <c r="J22" s="431"/>
-      <c r="K22" s="431"/>
-      <c r="L22" s="431"/>
-      <c r="M22" s="431"/>
-      <c r="N22" s="431"/>
-      <c r="O22" s="431"/>
-      <c r="P22" s="431"/>
-      <c r="Q22" s="431"/>
-      <c r="R22" s="431"/>
-      <c r="S22" s="431"/>
-      <c r="T22" s="431"/>
-      <c r="U22" s="431"/>
-      <c r="V22" s="431"/>
-      <c r="W22" s="431"/>
-      <c r="X22" s="431"/>
-      <c r="Y22" s="431"/>
-      <c r="Z22" s="431"/>
-      <c r="AA22" s="431"/>
-      <c r="AB22" s="431"/>
-      <c r="AC22" s="431"/>
-      <c r="AD22" s="431"/>
-      <c r="AE22" s="431"/>
-      <c r="AF22" s="431"/>
+      <c r="B22" s="434"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="434"/>
+      <c r="E22" s="434"/>
+      <c r="F22" s="434"/>
+      <c r="G22" s="434"/>
+      <c r="H22" s="434"/>
+      <c r="I22" s="434"/>
+      <c r="J22" s="434"/>
+      <c r="K22" s="434"/>
+      <c r="L22" s="434"/>
+      <c r="M22" s="434"/>
+      <c r="N22" s="434"/>
+      <c r="O22" s="434"/>
+      <c r="P22" s="434"/>
+      <c r="Q22" s="434"/>
+      <c r="R22" s="434"/>
+      <c r="S22" s="434"/>
+      <c r="T22" s="434"/>
+      <c r="U22" s="434"/>
+      <c r="V22" s="434"/>
+      <c r="W22" s="434"/>
+      <c r="X22" s="434"/>
+      <c r="Y22" s="434"/>
+      <c r="Z22" s="434"/>
+      <c r="AA22" s="434"/>
+      <c r="AB22" s="434"/>
+      <c r="AC22" s="434"/>
+      <c r="AD22" s="434"/>
+      <c r="AE22" s="434"/>
+      <c r="AF22" s="434"/>
     </row>
     <row r="25" spans="1:32">
       <c r="K25" s="178">
@@ -14483,16 +14480,16 @@
       </c>
     </row>
     <row r="8" spans="2:25">
-      <c r="I8" s="432" t="s">
+      <c r="I8" s="435" t="s">
         <v>1173</v>
       </c>
-      <c r="J8" s="432"/>
-      <c r="K8" s="432"/>
-      <c r="L8" s="432"/>
-      <c r="Q8" s="433" t="s">
+      <c r="J8" s="435"/>
+      <c r="K8" s="435"/>
+      <c r="L8" s="435"/>
+      <c r="Q8" s="436" t="s">
         <v>1174</v>
       </c>
-      <c r="R8" s="433"/>
+      <c r="R8" s="436"/>
     </row>
     <row r="9" spans="2:25">
       <c r="I9" s="177" t="s">
@@ -16955,18 +16952,18 @@
       <c r="P1" s="270"/>
       <c r="Q1" s="270"/>
       <c r="R1" s="270"/>
-      <c r="S1" s="440"/>
-      <c r="T1" s="441"/>
-      <c r="U1" s="441"/>
-      <c r="V1" s="441"/>
-      <c r="W1" s="441"/>
-      <c r="X1" s="441"/>
-      <c r="Y1" s="441"/>
-      <c r="Z1" s="442"/>
-      <c r="AA1" s="440"/>
-      <c r="AB1" s="441"/>
-      <c r="AC1" s="441"/>
-      <c r="AD1" s="441"/>
+      <c r="S1" s="443"/>
+      <c r="T1" s="444"/>
+      <c r="U1" s="444"/>
+      <c r="V1" s="444"/>
+      <c r="W1" s="444"/>
+      <c r="X1" s="444"/>
+      <c r="Y1" s="444"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="444"/>
+      <c r="AC1" s="444"/>
+      <c r="AD1" s="444"/>
       <c r="AE1" s="270"/>
       <c r="AF1" s="270"/>
       <c r="AG1" s="270"/>
@@ -17831,29 +17828,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="30.75" customHeight="1">
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="374" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="373"/>
-      <c r="I2" s="371" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="376"/>
+      <c r="I2" s="374" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="372"/>
-      <c r="K2" s="373"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="376"/>
       <c r="L2">
         <f>COUNTIF(I4:I23, "&lt;&gt;")</f>
         <v>12</v>
       </c>
-      <c r="M2" s="371" t="s">
+      <c r="M2" s="374" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="373"/>
+      <c r="N2" s="375"/>
+      <c r="O2" s="375"/>
+      <c r="P2" s="376"/>
       <c r="Q2">
         <f>COUNTIF(P4:P43, "General")</f>
         <v>13</v>
@@ -17866,10 +17863,10 @@
       <c r="C3" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="374" t="s">
+      <c r="D3" s="377" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="375"/>
+      <c r="E3" s="378"/>
       <c r="F3" s="108" t="s">
         <v>75</v>
       </c>
@@ -18038,7 +18035,7 @@
         <v>99</v>
       </c>
       <c r="J7" s="103"/>
-      <c r="K7" s="369" t="s">
+      <c r="K7" s="372" t="s">
         <v>100</v>
       </c>
       <c r="M7" s="54" t="s">
@@ -18076,7 +18073,7 @@
         <v>103</v>
       </c>
       <c r="J8" s="111"/>
-      <c r="K8" s="370"/>
+      <c r="K8" s="373"/>
       <c r="M8" s="49" t="s">
         <v>104</v>
       </c>
@@ -18112,7 +18109,7 @@
         <v>109</v>
       </c>
       <c r="J9" s="103"/>
-      <c r="K9" s="369" t="s">
+      <c r="K9" s="372" t="s">
         <v>100</v>
       </c>
       <c r="M9" s="51" t="s">
@@ -18150,7 +18147,7 @@
         <v>113</v>
       </c>
       <c r="J10" s="111"/>
-      <c r="K10" s="370"/>
+      <c r="K10" s="373"/>
       <c r="M10" s="50" t="s">
         <v>97</v>
       </c>
@@ -18190,7 +18187,7 @@
         <v>119</v>
       </c>
       <c r="J11" s="103"/>
-      <c r="K11" s="369" t="s">
+      <c r="K11" s="372" t="s">
         <v>100</v>
       </c>
       <c r="M11" s="55" t="s">
@@ -18227,7 +18224,7 @@
         <v>123</v>
       </c>
       <c r="J12" s="111"/>
-      <c r="K12" s="370"/>
+      <c r="K12" s="373"/>
       <c r="M12" s="51" t="s">
         <v>20</v>
       </c>
@@ -18911,8 +18908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DFFCD5-44F4-43AA-9101-59CB6CA62187}">
   <dimension ref="A1:CE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18969,14 +18966,14 @@
       <c r="AN1" s="285"/>
       <c r="AO1" s="285"/>
       <c r="AP1" s="285"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="447"/>
-      <c r="AS1" s="447"/>
-      <c r="AT1" s="447"/>
-      <c r="AU1" s="447"/>
-      <c r="AV1" s="447"/>
-      <c r="AW1" s="447"/>
-      <c r="AX1" s="448"/>
+      <c r="AQ1" s="355"/>
+      <c r="AR1" s="356"/>
+      <c r="AS1" s="356"/>
+      <c r="AT1" s="356"/>
+      <c r="AU1" s="356"/>
+      <c r="AV1" s="356"/>
+      <c r="AW1" s="356"/>
+      <c r="AX1" s="357"/>
       <c r="AY1" s="286"/>
       <c r="AZ1" s="287"/>
       <c r="BA1" s="287"/>
@@ -19686,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="BX4" s="297" t="str">
-        <f t="shared" ref="BX4:CD11" si="8">RIGHT(LEFT($Q4,BX$3))</f>
+        <f t="shared" ref="BX4:CD4" si="8">RIGHT(LEFT($Q4,BX$3))</f>
         <v>0</v>
       </c>
       <c r="BY4" s="297" t="str">
@@ -19742,7 +19739,7 @@
         <v>502</v>
       </c>
       <c r="J7" s="174" t="str">
-        <f t="shared" ref="J5:J11" si="9">HEX2BIN(A7,8)</f>
+        <f t="shared" ref="J7:J11" si="9">HEX2BIN(A7,8)</f>
         <v>00100000</v>
       </c>
       <c r="X7" s="297" t="str">
@@ -19794,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="297">
-        <f t="shared" ref="AB8:AB10" si="10">BIN2DEC(_xlfn.CONCAT(X8:Z8))</f>
+        <f t="shared" ref="AB8:AB9" si="10">BIN2DEC(_xlfn.CONCAT(X8:Z8))</f>
         <v>1</v>
       </c>
       <c r="AQ8" s="299"/>
@@ -19982,16 +19979,16 @@
       <c r="AN1" s="285"/>
       <c r="AO1" s="285"/>
       <c r="AP1" s="285"/>
-      <c r="AQ1" s="434" t="s">
+      <c r="AQ1" s="437" t="s">
         <v>1217</v>
       </c>
-      <c r="AR1" s="435"/>
-      <c r="AS1" s="435"/>
-      <c r="AT1" s="435"/>
-      <c r="AU1" s="435"/>
-      <c r="AV1" s="435"/>
-      <c r="AW1" s="435"/>
-      <c r="AX1" s="436"/>
+      <c r="AR1" s="438"/>
+      <c r="AS1" s="438"/>
+      <c r="AT1" s="438"/>
+      <c r="AU1" s="438"/>
+      <c r="AV1" s="438"/>
+      <c r="AW1" s="438"/>
+      <c r="AX1" s="439"/>
       <c r="AY1" s="286"/>
       <c r="AZ1" s="287"/>
       <c r="BA1" s="287"/>
@@ -21619,56 +21616,56 @@
       <c r="D5" s="174" t="s">
         <v>391</v>
       </c>
-      <c r="AQ5" s="443" t="str">
+      <c r="AQ5" s="446" t="str">
         <f>_xlfn.CONCAT(AQ4,AR4,AS4,AT4,AU4,AV4,AW4,AX4)</f>
         <v>00101100</v>
       </c>
-      <c r="AR5" s="433"/>
-      <c r="AS5" s="433"/>
-      <c r="AT5" s="433"/>
-      <c r="AU5" s="433"/>
-      <c r="AV5" s="433"/>
-      <c r="AW5" s="433"/>
-      <c r="AX5" s="444"/>
+      <c r="AR5" s="436"/>
+      <c r="AS5" s="436"/>
+      <c r="AT5" s="436"/>
+      <c r="AU5" s="436"/>
+      <c r="AV5" s="436"/>
+      <c r="AW5" s="436"/>
+      <c r="AX5" s="447"/>
     </row>
     <row r="6" spans="1:82">
-      <c r="AQ6" s="443" t="str">
+      <c r="AQ6" s="446" t="str">
         <f>BIN2HEX(AQ5)</f>
         <v>2C</v>
       </c>
-      <c r="AR6" s="433"/>
-      <c r="AS6" s="433"/>
-      <c r="AT6" s="433"/>
-      <c r="AU6" s="433"/>
-      <c r="AV6" s="433"/>
-      <c r="AW6" s="433"/>
-      <c r="AX6" s="444"/>
+      <c r="AR6" s="436"/>
+      <c r="AS6" s="436"/>
+      <c r="AT6" s="436"/>
+      <c r="AU6" s="436"/>
+      <c r="AV6" s="436"/>
+      <c r="AW6" s="436"/>
+      <c r="AX6" s="447"/>
     </row>
     <row r="8" spans="1:82">
-      <c r="AQ8" s="443">
+      <c r="AQ8" s="446">
         <f>HEX2DEC(AQ6)</f>
         <v>44</v>
       </c>
-      <c r="AR8" s="433"/>
-      <c r="AS8" s="433"/>
-      <c r="AT8" s="433"/>
-      <c r="AU8" s="433"/>
-      <c r="AV8" s="433"/>
-      <c r="AW8" s="433"/>
-      <c r="AX8" s="444"/>
+      <c r="AR8" s="436"/>
+      <c r="AS8" s="436"/>
+      <c r="AT8" s="436"/>
+      <c r="AU8" s="436"/>
+      <c r="AV8" s="436"/>
+      <c r="AW8" s="436"/>
+      <c r="AX8" s="447"/>
     </row>
     <row r="10" spans="1:82">
-      <c r="AQ10" s="443">
+      <c r="AQ10" s="446">
         <f>AQ8/1.1</f>
         <v>40</v>
       </c>
-      <c r="AR10" s="433"/>
-      <c r="AS10" s="433"/>
-      <c r="AT10" s="433"/>
-      <c r="AU10" s="433"/>
-      <c r="AV10" s="433"/>
-      <c r="AW10" s="433"/>
-      <c r="AX10" s="444"/>
+      <c r="AR10" s="436"/>
+      <c r="AS10" s="436"/>
+      <c r="AT10" s="436"/>
+      <c r="AU10" s="436"/>
+      <c r="AV10" s="436"/>
+      <c r="AW10" s="436"/>
+      <c r="AX10" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21688,10 +21685,10 @@
   </sheetPr>
   <dimension ref="B1:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21711,14 +21708,14 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="381" t="s">
+      <c r="B2" s="389" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="383"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="391"/>
       <c r="I2" s="8" t="s">
         <v>154</v>
       </c>
@@ -21748,13 +21745,13 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="90"/>
-      <c r="C4" s="378" t="s">
+      <c r="C4" s="392" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="379"/>
-      <c r="E4" s="379"/>
-      <c r="F4" s="379"/>
-      <c r="G4" s="380"/>
+      <c r="D4" s="393"/>
+      <c r="E4" s="393"/>
+      <c r="F4" s="393"/>
+      <c r="G4" s="394"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="90">
@@ -21783,11 +21780,11 @@
         <v>154</v>
       </c>
       <c r="G6" s="91"/>
-      <c r="K6" s="386" t="s">
+      <c r="K6" s="397" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="386"/>
-      <c r="M6" s="386"/>
+      <c r="L6" s="397"/>
+      <c r="M6" s="397"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="90">
@@ -21802,11 +21799,11 @@
         <v>154</v>
       </c>
       <c r="G7" s="91"/>
-      <c r="K7" s="386" t="s">
+      <c r="K7" s="397" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="386"/>
-      <c r="M7" s="386"/>
+      <c r="L7" s="397"/>
+      <c r="M7" s="397"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="90">
@@ -21838,13 +21835,13 @@
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="2"/>
-      <c r="K9" s="393" t="s">
+      <c r="K9" s="387" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="393"/>
-      <c r="M9" s="393"/>
-      <c r="N9" s="393"/>
-      <c r="O9" s="393"/>
+      <c r="L9" s="387"/>
+      <c r="M9" s="387"/>
+      <c r="N9" s="387"/>
+      <c r="O9" s="387"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="90">
@@ -21860,11 +21857,11 @@
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="2"/>
-      <c r="K10" s="393"/>
-      <c r="L10" s="393"/>
-      <c r="M10" s="393"/>
-      <c r="N10" s="393"/>
-      <c r="O10" s="393"/>
+      <c r="K10" s="387"/>
+      <c r="L10" s="387"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="387"/>
+      <c r="O10" s="387"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="90">
@@ -21880,11 +21877,11 @@
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="2"/>
-      <c r="K11" s="393"/>
-      <c r="L11" s="393"/>
-      <c r="M11" s="393"/>
-      <c r="N11" s="393"/>
-      <c r="O11" s="393"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="387"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="387"/>
+      <c r="O11" s="387"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="90">
@@ -21900,11 +21897,11 @@
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="394"/>
-      <c r="N12" s="394"/>
-      <c r="O12" s="394"/>
+      <c r="K12" s="388"/>
+      <c r="L12" s="388"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="388"/>
+      <c r="O12" s="388"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="90">
@@ -21920,11 +21917,11 @@
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="2"/>
-      <c r="K13" s="387" t="s">
+      <c r="K13" s="381" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="388"/>
-      <c r="M13" s="388"/>
+      <c r="L13" s="382"/>
+      <c r="M13" s="382"/>
       <c r="N13" s="125" t="s">
         <v>175</v>
       </c>
@@ -21946,9 +21943,9 @@
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="2"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="390"/>
-      <c r="M14" s="390"/>
+      <c r="K14" s="383"/>
+      <c r="L14" s="384"/>
+      <c r="M14" s="384"/>
       <c r="O14" s="127" t="str">
         <f>"+ disable_splash=1"</f>
         <v>+ disable_splash=1</v>
@@ -21968,9 +21965,9 @@
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="2"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="390"/>
-      <c r="M15" s="390"/>
+      <c r="K15" s="383"/>
+      <c r="L15" s="384"/>
+      <c r="M15" s="384"/>
       <c r="O15" s="127" t="str">
         <f>"+logo.nologo"</f>
         <v>+logo.nologo</v>
@@ -21988,9 +21985,9 @@
       <c r="F16" s="42"/>
       <c r="G16" s="91"/>
       <c r="H16" s="2"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="390"/>
-      <c r="M16" s="390"/>
+      <c r="K16" s="383"/>
+      <c r="L16" s="384"/>
+      <c r="M16" s="384"/>
       <c r="O16" s="127" t="str">
         <f>"+consoleblank=0"</f>
         <v>+consoleblank=0</v>
@@ -22010,9 +22007,9 @@
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="2"/>
-      <c r="K17" s="391"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="392"/>
+      <c r="K17" s="385"/>
+      <c r="L17" s="386"/>
+      <c r="M17" s="386"/>
       <c r="N17" s="128"/>
       <c r="O17" s="129" t="str">
         <f>"+loglevel=1 quiet"</f>
@@ -22044,7 +22041,9 @@
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="42" t="s">
+        <v>154</v>
+      </c>
       <c r="G19" s="91"/>
       <c r="H19" s="2"/>
     </row>
@@ -22057,7 +22056,9 @@
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>154</v>
+      </c>
       <c r="G20" s="91"/>
       <c r="H20" s="2"/>
       <c r="K20" t="s">
@@ -22210,23 +22211,23 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="90"/>
-      <c r="C31" s="378" t="s">
+      <c r="C31" s="392" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="379"/>
-      <c r="F31" s="379"/>
-      <c r="G31" s="380"/>
+      <c r="D31" s="393"/>
+      <c r="E31" s="393"/>
+      <c r="F31" s="393"/>
+      <c r="G31" s="394"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="90">
         <v>1</v>
       </c>
-      <c r="C32" s="384" t="s">
+      <c r="C32" s="395" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="385"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="91"/>
@@ -22236,10 +22237,10 @@
       <c r="B33" s="90">
         <v>2</v>
       </c>
-      <c r="C33" s="376" t="s">
+      <c r="C33" s="379" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="377"/>
+      <c r="D33" s="380"/>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="91"/>
@@ -22249,10 +22250,10 @@
       <c r="B34" s="90">
         <v>3</v>
       </c>
-      <c r="C34" s="376" t="s">
+      <c r="C34" s="379" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="377"/>
+      <c r="D34" s="380"/>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="91"/>
@@ -22262,10 +22263,10 @@
       <c r="B35" s="90">
         <v>4</v>
       </c>
-      <c r="C35" s="376" t="s">
+      <c r="C35" s="379" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="377"/>
+      <c r="D35" s="380"/>
       <c r="E35" s="42"/>
       <c r="F35" s="42" t="s">
         <v>154</v>
@@ -22277,10 +22278,10 @@
       <c r="B36" s="90">
         <v>5</v>
       </c>
-      <c r="C36" s="376" t="s">
+      <c r="C36" s="379" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="377"/>
+      <c r="D36" s="380"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="91"/>
@@ -22290,10 +22291,10 @@
       <c r="B37" s="90">
         <v>6</v>
       </c>
-      <c r="C37" s="376" t="s">
+      <c r="C37" s="379" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="377"/>
+      <c r="D37" s="380"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="91"/>
@@ -22303,10 +22304,10 @@
       <c r="B38" s="90">
         <v>7</v>
       </c>
-      <c r="C38" s="376" t="s">
+      <c r="C38" s="379" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="377"/>
+      <c r="D38" s="380"/>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="91"/>
@@ -22316,10 +22317,10 @@
       <c r="B39" s="90">
         <v>8</v>
       </c>
-      <c r="C39" s="376" t="s">
+      <c r="C39" s="379" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="377"/>
+      <c r="D39" s="380"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
       <c r="G39" s="91"/>
@@ -22329,10 +22330,10 @@
       <c r="B40" s="90">
         <v>9</v>
       </c>
-      <c r="C40" s="376" t="s">
+      <c r="C40" s="379" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="377"/>
+      <c r="D40" s="380"/>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
       <c r="G40" s="91"/>
@@ -22342,10 +22343,10 @@
       <c r="B41" s="90">
         <v>10</v>
       </c>
-      <c r="C41" s="376" t="s">
+      <c r="C41" s="379" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="377"/>
+      <c r="D41" s="380"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="91"/>
@@ -22355,10 +22356,10 @@
       <c r="B42" s="90">
         <v>11</v>
       </c>
-      <c r="C42" s="376" t="s">
+      <c r="C42" s="379" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="377"/>
+      <c r="D42" s="380"/>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
       <c r="G42" s="91"/>
@@ -22368,10 +22369,10 @@
       <c r="B43" s="90">
         <v>12</v>
       </c>
-      <c r="C43" s="376" t="s">
+      <c r="C43" s="379" t="s">
         <v>209</v>
       </c>
-      <c r="D43" s="377"/>
+      <c r="D43" s="380"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="91"/>
@@ -22381,10 +22382,10 @@
       <c r="B44" s="90">
         <v>13</v>
       </c>
-      <c r="C44" s="376" t="s">
+      <c r="C44" s="379" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="377"/>
+      <c r="D44" s="380"/>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
       <c r="G44" s="91"/>
@@ -22394,10 +22395,10 @@
       <c r="B45" s="90">
         <v>14</v>
       </c>
-      <c r="C45" s="376" t="s">
+      <c r="C45" s="379" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="377"/>
+      <c r="D45" s="380"/>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
       <c r="G45" s="91"/>
@@ -22407,10 +22408,10 @@
       <c r="B46" s="90">
         <v>15</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="379" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="377"/>
+      <c r="D46" s="380"/>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="91"/>
@@ -22420,8 +22421,8 @@
       <c r="B47" s="90">
         <v>16</v>
       </c>
-      <c r="C47" s="376"/>
-      <c r="D47" s="377"/>
+      <c r="C47" s="379"/>
+      <c r="D47" s="380"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="91"/>
@@ -22431,8 +22432,8 @@
       <c r="B48" s="90">
         <v>17</v>
       </c>
-      <c r="C48" s="376"/>
-      <c r="D48" s="377"/>
+      <c r="C48" s="379"/>
+      <c r="D48" s="380"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="91"/>
@@ -22449,13 +22450,13 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="90"/>
-      <c r="C50" s="378" t="s">
+      <c r="C50" s="392" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="379"/>
-      <c r="E50" s="379"/>
-      <c r="F50" s="379"/>
-      <c r="G50" s="380"/>
+      <c r="D50" s="393"/>
+      <c r="E50" s="393"/>
+      <c r="F50" s="393"/>
+      <c r="G50" s="394"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8">
@@ -22520,7 +22521,9 @@
       <c r="E54" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="42" t="s">
+        <v>154</v>
+      </c>
       <c r="G54" s="91" t="s">
         <v>217</v>
       </c>
@@ -22701,9 +22704,7 @@
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="42" t="s">
-        <v>154</v>
-      </c>
+      <c r="F65" s="42"/>
       <c r="G65" s="91"/>
       <c r="H65" s="2"/>
     </row>
@@ -22842,17 +22843,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K13:M17"/>
-    <mergeCell ref="K9:O12"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C48:D48"/>
@@ -22867,6 +22857,17 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K13:M17"/>
+    <mergeCell ref="K9:O12"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:F1048576 I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -22925,35 +22926,35 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1">
-      <c r="B4" s="395" t="s">
+      <c r="B4" s="398" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="401" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="401" t="s">
+      <c r="D4" s="404" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="404" t="s">
+      <c r="E4" s="407" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="407" t="s">
+      <c r="F4" s="410" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
-      <c r="B5" s="396"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="405"/>
-      <c r="F5" s="408"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="408"/>
+      <c r="F5" s="411"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
-      <c r="B6" s="397"/>
-      <c r="C6" s="400"/>
-      <c r="D6" s="403"/>
-      <c r="E6" s="406"/>
-      <c r="F6" s="409"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="409"/>
+      <c r="F6" s="412"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="14" t="s">
@@ -23662,10 +23663,10 @@
   <dimension ref="B1:BH513"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D330" sqref="D330:K336"/>
+      <selection pane="bottomRight" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -23803,10 +23804,10 @@
       <c r="BH2" s="171"/>
     </row>
     <row r="3" spans="2:60">
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="417" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="426">
+      <c r="C3" s="423">
         <v>144</v>
       </c>
       <c r="D3" s="199" t="s">
@@ -23870,8 +23871,8 @@
       <c r="BH3" s="171"/>
     </row>
     <row r="4" spans="2:60">
-      <c r="B4" s="416"/>
-      <c r="C4" s="419"/>
+      <c r="B4" s="418"/>
+      <c r="C4" s="424"/>
       <c r="D4" s="132"/>
       <c r="E4" s="133" t="s">
         <v>294</v>
@@ -23911,8 +23912,8 @@
       <c r="BH4" s="171"/>
     </row>
     <row r="5" spans="2:60">
-      <c r="B5" s="416"/>
-      <c r="C5" s="419"/>
+      <c r="B5" s="418"/>
+      <c r="C5" s="424"/>
       <c r="D5" s="132"/>
       <c r="E5" s="133"/>
       <c r="F5" s="133" t="s">
@@ -23952,8 +23953,8 @@
       <c r="BH5" s="171"/>
     </row>
     <row r="6" spans="2:60">
-      <c r="B6" s="417"/>
-      <c r="C6" s="420"/>
+      <c r="B6" s="414"/>
+      <c r="C6" s="425"/>
       <c r="D6" s="136"/>
       <c r="E6" s="137"/>
       <c r="F6" s="137"/>
@@ -23994,10 +23995,10 @@
       <c r="BH6" s="171"/>
     </row>
     <row r="7" spans="2:60">
-      <c r="B7" s="415" t="s">
+      <c r="B7" s="413" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="418">
+      <c r="C7" s="426">
         <v>198</v>
       </c>
       <c r="D7" s="198">
@@ -24080,8 +24081,8 @@
       <c r="BH7" s="171"/>
     </row>
     <row r="8" spans="2:60">
-      <c r="B8" s="416"/>
-      <c r="C8" s="419"/>
+      <c r="B8" s="418"/>
+      <c r="C8" s="424"/>
       <c r="D8" s="132"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133" t="s">
@@ -24122,8 +24123,8 @@
       <c r="BH8" s="171"/>
     </row>
     <row r="9" spans="2:60">
-      <c r="B9" s="416"/>
-      <c r="C9" s="419"/>
+      <c r="B9" s="418"/>
+      <c r="C9" s="424"/>
       <c r="D9" s="132"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
@@ -24164,8 +24165,8 @@
       <c r="BH9" s="171"/>
     </row>
     <row r="10" spans="2:60">
-      <c r="B10" s="416"/>
-      <c r="C10" s="419">
+      <c r="B10" s="418"/>
+      <c r="C10" s="424">
         <v>0</v>
       </c>
       <c r="D10" s="212"/>
@@ -24214,8 +24215,8 @@
       <c r="BH10" s="171"/>
     </row>
     <row r="11" spans="2:60">
-      <c r="B11" s="416"/>
-      <c r="C11" s="419"/>
+      <c r="B11" s="418"/>
+      <c r="C11" s="424"/>
       <c r="D11" s="132"/>
       <c r="E11" s="133"/>
       <c r="F11" s="133"/>
@@ -24256,8 +24257,8 @@
       <c r="BH11" s="171"/>
     </row>
     <row r="12" spans="2:60">
-      <c r="B12" s="417"/>
-      <c r="C12" s="420"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="425"/>
       <c r="D12" s="143"/>
       <c r="E12" s="144"/>
       <c r="F12" s="144"/>
@@ -24298,10 +24299,10 @@
       <c r="BH12" s="171"/>
     </row>
     <row r="13" spans="2:60">
-      <c r="B13" s="415" t="s">
+      <c r="B13" s="413" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="418">
+      <c r="C13" s="426">
         <v>302</v>
       </c>
       <c r="D13" s="140" t="s">
@@ -24373,8 +24374,8 @@
       <c r="BH13" s="171"/>
     </row>
     <row r="14" spans="2:60">
-      <c r="B14" s="416"/>
-      <c r="C14" s="419"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="424"/>
       <c r="D14" s="132"/>
       <c r="E14" s="133" t="s">
         <v>298</v>
@@ -24415,8 +24416,8 @@
       <c r="BH14" s="171"/>
     </row>
     <row r="15" spans="2:60">
-      <c r="B15" s="416"/>
-      <c r="C15" s="419"/>
+      <c r="B15" s="418"/>
+      <c r="C15" s="424"/>
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
       <c r="F15" s="133"/>
@@ -24459,8 +24460,8 @@
       <c r="BH15" s="171"/>
     </row>
     <row r="16" spans="2:60">
-      <c r="B16" s="416"/>
-      <c r="C16" s="419"/>
+      <c r="B16" s="418"/>
+      <c r="C16" s="424"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
@@ -24500,8 +24501,8 @@
       <c r="BH16" s="171"/>
     </row>
     <row r="17" spans="2:60">
-      <c r="B17" s="416"/>
-      <c r="C17" s="419"/>
+      <c r="B17" s="418"/>
+      <c r="C17" s="424"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
       <c r="F17" s="133"/>
@@ -24542,8 +24543,8 @@
       <c r="BH17" s="171"/>
     </row>
     <row r="18" spans="2:60">
-      <c r="B18" s="417"/>
-      <c r="C18" s="420"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="425"/>
       <c r="D18" s="143"/>
       <c r="E18" s="144"/>
       <c r="F18" s="144"/>
@@ -24584,10 +24585,10 @@
       <c r="BH18" s="171"/>
     </row>
     <row r="19" spans="2:60">
-      <c r="B19" s="415" t="s">
+      <c r="B19" s="413" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="418">
+      <c r="C19" s="426">
         <v>378</v>
       </c>
       <c r="D19" s="198">
@@ -24663,8 +24664,8 @@
       <c r="BH19" s="171"/>
     </row>
     <row r="20" spans="2:60">
-      <c r="B20" s="416"/>
-      <c r="C20" s="419"/>
+      <c r="B20" s="418"/>
+      <c r="C20" s="424"/>
       <c r="D20" s="132"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133">
@@ -24705,8 +24706,8 @@
       <c r="BH20" s="171"/>
     </row>
     <row r="21" spans="2:60">
-      <c r="B21" s="416"/>
-      <c r="C21" s="419"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="424"/>
       <c r="D21" s="132"/>
       <c r="E21" s="133"/>
       <c r="F21" s="133"/>
@@ -24747,8 +24748,8 @@
       <c r="BH21" s="171"/>
     </row>
     <row r="22" spans="2:60">
-      <c r="B22" s="416"/>
-      <c r="C22" s="419">
+      <c r="B22" s="418"/>
+      <c r="C22" s="424">
         <v>0</v>
       </c>
       <c r="D22" s="132"/>
@@ -24791,8 +24792,8 @@
       <c r="BH22" s="171"/>
     </row>
     <row r="23" spans="2:60">
-      <c r="B23" s="416"/>
-      <c r="C23" s="419"/>
+      <c r="B23" s="418"/>
+      <c r="C23" s="424"/>
       <c r="D23" s="132"/>
       <c r="E23" s="133"/>
       <c r="F23" s="133"/>
@@ -24833,8 +24834,8 @@
       <c r="BH23" s="171"/>
     </row>
     <row r="24" spans="2:60">
-      <c r="B24" s="416"/>
-      <c r="C24" s="419"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="424"/>
       <c r="D24" s="212"/>
       <c r="E24" s="237"/>
       <c r="F24" s="237"/>
@@ -24886,10 +24887,10 @@
       <c r="BH24" s="171"/>
     </row>
     <row r="25" spans="2:60">
-      <c r="B25" s="415" t="s">
+      <c r="B25" s="413" t="s">
         <v>316</v>
       </c>
-      <c r="C25" s="418">
+      <c r="C25" s="426">
         <v>380</v>
       </c>
       <c r="D25" s="140">
@@ -24959,8 +24960,8 @@
       <c r="BH25" s="171"/>
     </row>
     <row r="26" spans="2:60">
-      <c r="B26" s="416"/>
-      <c r="C26" s="419"/>
+      <c r="B26" s="418"/>
+      <c r="C26" s="424"/>
       <c r="D26" s="132"/>
       <c r="E26" s="133">
         <v>88</v>
@@ -25001,8 +25002,8 @@
       <c r="BH26" s="171"/>
     </row>
     <row r="27" spans="2:60">
-      <c r="B27" s="416"/>
-      <c r="C27" s="419"/>
+      <c r="B27" s="418"/>
+      <c r="C27" s="424"/>
       <c r="D27" s="132"/>
       <c r="E27" s="133"/>
       <c r="F27" s="133" t="s">
@@ -25045,8 +25046,8 @@
       <c r="BH27" s="171"/>
     </row>
     <row r="28" spans="2:60">
-      <c r="B28" s="416"/>
-      <c r="C28" s="419"/>
+      <c r="B28" s="418"/>
+      <c r="C28" s="424"/>
       <c r="D28" s="132"/>
       <c r="E28" s="133"/>
       <c r="F28" s="133"/>
@@ -25087,8 +25088,8 @@
       <c r="BH28" s="171"/>
     </row>
     <row r="29" spans="2:60">
-      <c r="B29" s="416"/>
-      <c r="C29" s="419">
+      <c r="B29" s="418"/>
+      <c r="C29" s="424">
         <v>0</v>
       </c>
       <c r="D29" s="132"/>
@@ -25131,8 +25132,8 @@
       <c r="BH29" s="171"/>
     </row>
     <row r="30" spans="2:60">
-      <c r="B30" s="416"/>
-      <c r="C30" s="419"/>
+      <c r="B30" s="418"/>
+      <c r="C30" s="424"/>
       <c r="D30" s="132"/>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -25173,8 +25174,8 @@
       <c r="BH30" s="171"/>
     </row>
     <row r="31" spans="2:60">
-      <c r="B31" s="416"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="418"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="132"/>
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
@@ -25215,8 +25216,8 @@
       <c r="BH31" s="171"/>
     </row>
     <row r="32" spans="2:60">
-      <c r="B32" s="417"/>
-      <c r="C32" s="421"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="427"/>
       <c r="D32" s="143"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -25257,10 +25258,10 @@
       <c r="BH32" s="171"/>
     </row>
     <row r="33" spans="2:60">
-      <c r="B33" s="415" t="s">
+      <c r="B33" s="413" t="s">
         <v>320</v>
       </c>
-      <c r="C33" s="419">
+      <c r="C33" s="424">
         <v>382</v>
       </c>
       <c r="D33" s="140" t="s">
@@ -25330,8 +25331,8 @@
       <c r="BH33" s="171"/>
     </row>
     <row r="34" spans="2:60">
-      <c r="B34" s="416"/>
-      <c r="C34" s="419"/>
+      <c r="B34" s="418"/>
+      <c r="C34" s="424"/>
       <c r="D34" s="132"/>
       <c r="E34" s="133" t="s">
         <v>294</v>
@@ -25372,8 +25373,8 @@
       <c r="BH34" s="171"/>
     </row>
     <row r="35" spans="2:60">
-      <c r="B35" s="416"/>
-      <c r="C35" s="419"/>
+      <c r="B35" s="418"/>
+      <c r="C35" s="424"/>
       <c r="D35" s="132"/>
       <c r="E35" s="133"/>
       <c r="F35" s="133" t="s">
@@ -25414,8 +25415,8 @@
       <c r="BH35" s="171"/>
     </row>
     <row r="36" spans="2:60">
-      <c r="B36" s="416"/>
-      <c r="C36" s="419"/>
+      <c r="B36" s="418"/>
+      <c r="C36" s="424"/>
       <c r="D36" s="132"/>
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
@@ -25456,8 +25457,8 @@
       <c r="BH36" s="171"/>
     </row>
     <row r="37" spans="2:60">
-      <c r="B37" s="416"/>
-      <c r="C37" s="419">
+      <c r="B37" s="418"/>
+      <c r="C37" s="424">
         <v>0</v>
       </c>
       <c r="D37" s="132"/>
@@ -25500,8 +25501,8 @@
       <c r="BH37" s="171"/>
     </row>
     <row r="38" spans="2:60">
-      <c r="B38" s="416"/>
-      <c r="C38" s="419"/>
+      <c r="B38" s="418"/>
+      <c r="C38" s="424"/>
       <c r="D38" s="132"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
@@ -25542,8 +25543,8 @@
       <c r="BH38" s="171"/>
     </row>
     <row r="39" spans="2:60">
-      <c r="B39" s="416"/>
-      <c r="C39" s="419"/>
+      <c r="B39" s="418"/>
+      <c r="C39" s="424"/>
       <c r="D39" s="132"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
@@ -25584,8 +25585,8 @@
       <c r="BH39" s="171"/>
     </row>
     <row r="40" spans="2:60">
-      <c r="B40" s="417"/>
-      <c r="C40" s="420"/>
+      <c r="B40" s="414"/>
+      <c r="C40" s="425"/>
       <c r="D40" s="143"/>
       <c r="E40" s="144"/>
       <c r="F40" s="144"/>
@@ -25626,10 +25627,10 @@
       <c r="BH40" s="171"/>
     </row>
     <row r="41" spans="2:60">
-      <c r="B41" s="429" t="s">
+      <c r="B41" s="420" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="422">
+      <c r="C41" s="430">
         <v>390</v>
       </c>
       <c r="D41" s="185">
@@ -25704,8 +25705,8 @@
       <c r="BH41" s="171"/>
     </row>
     <row r="42" spans="2:60">
-      <c r="B42" s="430"/>
-      <c r="C42" s="423"/>
+      <c r="B42" s="421"/>
+      <c r="C42" s="431"/>
       <c r="D42" s="189"/>
       <c r="E42" s="237"/>
       <c r="F42" s="237">
@@ -25752,8 +25753,8 @@
       <c r="BH42" s="171"/>
     </row>
     <row r="43" spans="2:60">
-      <c r="B43" s="430"/>
-      <c r="C43" s="423"/>
+      <c r="B43" s="421"/>
+      <c r="C43" s="431"/>
       <c r="D43" s="189"/>
       <c r="E43" s="237"/>
       <c r="F43" s="237"/>
@@ -25800,8 +25801,8 @@
       <c r="BH43" s="171"/>
     </row>
     <row r="44" spans="2:60">
-      <c r="B44" s="430"/>
-      <c r="C44" s="423"/>
+      <c r="B44" s="421"/>
+      <c r="C44" s="431"/>
       <c r="D44" s="189"/>
       <c r="E44" s="237"/>
       <c r="F44" s="237"/>
@@ -25830,8 +25831,8 @@
       <c r="BH44" s="171"/>
     </row>
     <row r="45" spans="2:60">
-      <c r="B45" s="430"/>
-      <c r="C45" s="423"/>
+      <c r="B45" s="421"/>
+      <c r="C45" s="431"/>
       <c r="D45" s="135"/>
       <c r="E45" s="133"/>
       <c r="F45" s="133"/>
@@ -25875,10 +25876,10 @@
       <c r="BH45" s="171"/>
     </row>
     <row r="46" spans="2:60">
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="413" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="418">
+      <c r="C46" s="426">
         <v>393</v>
       </c>
       <c r="D46" s="151">
@@ -25948,8 +25949,8 @@
       <c r="BH46" s="171"/>
     </row>
     <row r="47" spans="2:60">
-      <c r="B47" s="416"/>
-      <c r="C47" s="419"/>
+      <c r="B47" s="418"/>
+      <c r="C47" s="424"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133">
         <v>23</v>
@@ -25990,8 +25991,8 @@
       <c r="BH47" s="171"/>
     </row>
     <row r="48" spans="2:60">
-      <c r="B48" s="416"/>
-      <c r="C48" s="419"/>
+      <c r="B48" s="418"/>
+      <c r="C48" s="424"/>
       <c r="D48" s="135"/>
       <c r="E48" s="133"/>
       <c r="F48" s="133">
@@ -26032,8 +26033,8 @@
       <c r="BH48" s="171"/>
     </row>
     <row r="49" spans="2:60">
-      <c r="B49" s="416"/>
-      <c r="C49" s="419"/>
+      <c r="B49" s="418"/>
+      <c r="C49" s="424"/>
       <c r="D49" s="135"/>
       <c r="E49" s="133"/>
       <c r="F49" s="133"/>
@@ -26074,8 +26075,8 @@
       <c r="BH49" s="171"/>
     </row>
     <row r="50" spans="2:60">
-      <c r="B50" s="416"/>
-      <c r="C50" s="419">
+      <c r="B50" s="418"/>
+      <c r="C50" s="424">
         <v>0</v>
       </c>
       <c r="D50" s="135"/>
@@ -26117,8 +26118,8 @@
       <c r="BH50" s="171"/>
     </row>
     <row r="51" spans="2:60">
-      <c r="B51" s="416"/>
-      <c r="C51" s="419"/>
+      <c r="B51" s="418"/>
+      <c r="C51" s="424"/>
       <c r="D51" s="135"/>
       <c r="E51" s="133"/>
       <c r="F51" s="133"/>
@@ -26158,8 +26159,8 @@
       <c r="BH51" s="171"/>
     </row>
     <row r="52" spans="2:60">
-      <c r="B52" s="416"/>
-      <c r="C52" s="419"/>
+      <c r="B52" s="418"/>
+      <c r="C52" s="424"/>
       <c r="D52" s="135"/>
       <c r="E52" s="133"/>
       <c r="F52" s="133"/>
@@ -26199,8 +26200,8 @@
       <c r="BH52" s="171"/>
     </row>
     <row r="53" spans="2:60">
-      <c r="B53" s="417"/>
-      <c r="C53" s="420"/>
+      <c r="B53" s="414"/>
+      <c r="C53" s="425"/>
       <c r="D53" s="143"/>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -26240,10 +26241,10 @@
       <c r="BH53" s="171"/>
     </row>
     <row r="54" spans="2:60">
-      <c r="B54" s="415" t="s">
+      <c r="B54" s="413" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="418">
+      <c r="C54" s="426">
         <v>394</v>
       </c>
       <c r="D54" s="151">
@@ -26312,8 +26313,8 @@
       <c r="BH54" s="171"/>
     </row>
     <row r="55" spans="2:60">
-      <c r="B55" s="416"/>
-      <c r="C55" s="419"/>
+      <c r="B55" s="418"/>
+      <c r="C55" s="424"/>
       <c r="D55" s="135"/>
       <c r="E55" s="133">
         <v>28</v>
@@ -26353,8 +26354,8 @@
       <c r="BH55" s="171"/>
     </row>
     <row r="56" spans="2:60">
-      <c r="B56" s="416"/>
-      <c r="C56" s="419"/>
+      <c r="B56" s="418"/>
+      <c r="C56" s="424"/>
       <c r="D56" s="189"/>
       <c r="E56" s="237"/>
       <c r="F56" s="237" t="s">
@@ -26400,8 +26401,8 @@
       <c r="BH56" s="171"/>
     </row>
     <row r="57" spans="2:60">
-      <c r="B57" s="416"/>
-      <c r="C57" s="419">
+      <c r="B57" s="418"/>
+      <c r="C57" s="424">
         <v>0</v>
       </c>
       <c r="D57" s="135"/>
@@ -26443,8 +26444,8 @@
       <c r="BH57" s="171"/>
     </row>
     <row r="58" spans="2:60">
-      <c r="B58" s="416"/>
-      <c r="C58" s="419"/>
+      <c r="B58" s="418"/>
+      <c r="C58" s="424"/>
       <c r="D58" s="135"/>
       <c r="E58" s="133"/>
       <c r="F58" s="133"/>
@@ -26484,8 +26485,8 @@
       <c r="BH58" s="171"/>
     </row>
     <row r="59" spans="2:60">
-      <c r="B59" s="416"/>
-      <c r="C59" s="419"/>
+      <c r="B59" s="418"/>
+      <c r="C59" s="424"/>
       <c r="D59" s="135"/>
       <c r="E59" s="133"/>
       <c r="F59" s="133"/>
@@ -26525,8 +26526,8 @@
       <c r="BH59" s="171"/>
     </row>
     <row r="60" spans="2:60">
-      <c r="B60" s="417"/>
-      <c r="C60" s="420"/>
+      <c r="B60" s="414"/>
+      <c r="C60" s="425"/>
       <c r="D60" s="152"/>
       <c r="E60" s="144"/>
       <c r="F60" s="144"/>
@@ -26619,10 +26620,10 @@
       <c r="BH61" s="171"/>
     </row>
     <row r="62" spans="2:60">
-      <c r="B62" s="415" t="s">
+      <c r="B62" s="413" t="s">
         <v>346</v>
       </c>
-      <c r="C62" s="418">
+      <c r="C62" s="426">
         <v>443</v>
       </c>
       <c r="D62" s="151">
@@ -26691,8 +26692,8 @@
       <c r="BH62" s="171"/>
     </row>
     <row r="63" spans="2:60">
-      <c r="B63" s="416"/>
-      <c r="C63" s="419"/>
+      <c r="B63" s="418"/>
+      <c r="C63" s="424"/>
       <c r="D63" s="135"/>
       <c r="E63" s="133">
         <v>62</v>
@@ -26732,8 +26733,8 @@
       <c r="BH63" s="171"/>
     </row>
     <row r="64" spans="2:60">
-      <c r="B64" s="416"/>
-      <c r="C64" s="419"/>
+      <c r="B64" s="418"/>
+      <c r="C64" s="424"/>
       <c r="D64" s="135"/>
       <c r="E64" s="133"/>
       <c r="F64" s="133" t="s">
@@ -26773,8 +26774,8 @@
       <c r="BH64" s="171"/>
     </row>
     <row r="65" spans="2:60">
-      <c r="B65" s="416"/>
-      <c r="C65" s="419"/>
+      <c r="B65" s="418"/>
+      <c r="C65" s="424"/>
       <c r="D65" s="135"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -26814,8 +26815,8 @@
       <c r="BH65" s="171"/>
     </row>
     <row r="66" spans="2:60">
-      <c r="B66" s="416"/>
-      <c r="C66" s="419">
+      <c r="B66" s="418"/>
+      <c r="C66" s="424">
         <v>0</v>
       </c>
       <c r="D66" s="135"/>
@@ -26857,8 +26858,8 @@
       <c r="BH66" s="171"/>
     </row>
     <row r="67" spans="2:60">
-      <c r="B67" s="416"/>
-      <c r="C67" s="419"/>
+      <c r="B67" s="418"/>
+      <c r="C67" s="424"/>
       <c r="D67" s="135"/>
       <c r="E67" s="133"/>
       <c r="F67" s="133"/>
@@ -26898,8 +26899,8 @@
       <c r="BH67" s="171"/>
     </row>
     <row r="68" spans="2:60">
-      <c r="B68" s="416"/>
-      <c r="C68" s="419"/>
+      <c r="B68" s="418"/>
+      <c r="C68" s="424"/>
       <c r="D68" s="135"/>
       <c r="E68" s="133"/>
       <c r="F68" s="133"/>
@@ -26939,8 +26940,8 @@
       <c r="BH68" s="171"/>
     </row>
     <row r="69" spans="2:60">
-      <c r="B69" s="417"/>
-      <c r="C69" s="420"/>
+      <c r="B69" s="414"/>
+      <c r="C69" s="425"/>
       <c r="D69" s="152"/>
       <c r="E69" s="144"/>
       <c r="F69" s="144"/>
@@ -26980,10 +26981,10 @@
       <c r="BH69" s="171"/>
     </row>
     <row r="70" spans="2:60">
-      <c r="B70" s="415" t="s">
+      <c r="B70" s="413" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="418">
+      <c r="C70" s="426">
         <v>445</v>
       </c>
       <c r="D70" s="151" t="s">
@@ -27052,8 +27053,8 @@
       <c r="BH70" s="171"/>
     </row>
     <row r="71" spans="2:60">
-      <c r="B71" s="416"/>
-      <c r="C71" s="419"/>
+      <c r="B71" s="418"/>
+      <c r="C71" s="424"/>
       <c r="D71" s="135"/>
       <c r="E71" s="133" t="s">
         <v>306</v>
@@ -27093,8 +27094,8 @@
       <c r="BH71" s="171"/>
     </row>
     <row r="72" spans="2:60">
-      <c r="B72" s="416"/>
-      <c r="C72" s="419"/>
+      <c r="B72" s="418"/>
+      <c r="C72" s="424"/>
       <c r="D72" s="135"/>
       <c r="E72" s="133"/>
       <c r="F72" s="133" t="s">
@@ -27134,8 +27135,8 @@
       <c r="BH72" s="171"/>
     </row>
     <row r="73" spans="2:60">
-      <c r="B73" s="416"/>
-      <c r="C73" s="419"/>
+      <c r="B73" s="418"/>
+      <c r="C73" s="424"/>
       <c r="D73" s="135"/>
       <c r="E73" s="133"/>
       <c r="F73" s="133"/>
@@ -27175,8 +27176,8 @@
       <c r="BH73" s="171"/>
     </row>
     <row r="74" spans="2:60">
-      <c r="B74" s="416"/>
-      <c r="C74" s="419">
+      <c r="B74" s="418"/>
+      <c r="C74" s="424">
         <v>0</v>
       </c>
       <c r="D74" s="135"/>
@@ -27218,8 +27219,8 @@
       <c r="BH74" s="171"/>
     </row>
     <row r="75" spans="2:60">
-      <c r="B75" s="416"/>
-      <c r="C75" s="419"/>
+      <c r="B75" s="418"/>
+      <c r="C75" s="424"/>
       <c r="D75" s="135"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -27259,8 +27260,8 @@
       <c r="BH75" s="171"/>
     </row>
     <row r="76" spans="2:60">
-      <c r="B76" s="416"/>
-      <c r="C76" s="419"/>
+      <c r="B76" s="418"/>
+      <c r="C76" s="424"/>
       <c r="D76" s="135"/>
       <c r="E76" s="133"/>
       <c r="F76" s="133"/>
@@ -27300,8 +27301,8 @@
       <c r="BH76" s="171"/>
     </row>
     <row r="77" spans="2:60">
-      <c r="B77" s="417"/>
-      <c r="C77" s="420"/>
+      <c r="B77" s="414"/>
+      <c r="C77" s="425"/>
       <c r="D77" s="152"/>
       <c r="E77" s="144"/>
       <c r="F77" s="144"/>
@@ -27341,10 +27342,10 @@
       <c r="BH77" s="171"/>
     </row>
     <row r="78" spans="2:60">
-      <c r="B78" s="415" t="s">
+      <c r="B78" s="413" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="418">
+      <c r="C78" s="426">
         <v>502</v>
       </c>
       <c r="D78" s="151" t="s">
@@ -27413,8 +27414,8 @@
       <c r="BH78" s="171"/>
     </row>
     <row r="79" spans="2:60">
-      <c r="B79" s="416"/>
-      <c r="C79" s="419"/>
+      <c r="B79" s="418"/>
+      <c r="C79" s="424"/>
       <c r="D79" s="189"/>
       <c r="E79" s="237">
         <v>20</v>
@@ -27458,8 +27459,8 @@
       <c r="BH79" s="171"/>
     </row>
     <row r="80" spans="2:60">
-      <c r="B80" s="416"/>
-      <c r="C80" s="419"/>
+      <c r="B80" s="418"/>
+      <c r="C80" s="424"/>
       <c r="D80" s="189"/>
       <c r="E80" s="237"/>
       <c r="F80" s="237">
@@ -27505,8 +27506,8 @@
       <c r="BH80" s="171"/>
     </row>
     <row r="81" spans="2:60">
-      <c r="B81" s="416"/>
-      <c r="C81" s="419">
+      <c r="B81" s="418"/>
+      <c r="C81" s="424">
         <v>0</v>
       </c>
       <c r="D81" s="135"/>
@@ -27548,8 +27549,8 @@
       <c r="BH81" s="171"/>
     </row>
     <row r="82" spans="2:60">
-      <c r="B82" s="416"/>
-      <c r="C82" s="419"/>
+      <c r="B82" s="418"/>
+      <c r="C82" s="424"/>
       <c r="D82" s="135"/>
       <c r="E82" s="133"/>
       <c r="F82" s="133"/>
@@ -27589,8 +27590,8 @@
       <c r="BH82" s="171"/>
     </row>
     <row r="83" spans="2:60">
-      <c r="B83" s="416"/>
-      <c r="C83" s="419"/>
+      <c r="B83" s="418"/>
+      <c r="C83" s="424"/>
       <c r="D83" s="135"/>
       <c r="E83" s="133"/>
       <c r="F83" s="133"/>
@@ -27630,8 +27631,8 @@
       <c r="BH83" s="171"/>
     </row>
     <row r="84" spans="2:60">
-      <c r="B84" s="417"/>
-      <c r="C84" s="420"/>
+      <c r="B84" s="414"/>
+      <c r="C84" s="425"/>
       <c r="D84" s="152"/>
       <c r="E84" s="144"/>
       <c r="F84" s="144"/>
@@ -27671,10 +27672,10 @@
       <c r="BH84" s="171"/>
     </row>
     <row r="85" spans="2:60">
-      <c r="B85" s="415" t="s">
+      <c r="B85" s="413" t="s">
         <v>359</v>
       </c>
-      <c r="C85" s="418">
+      <c r="C85" s="426">
         <v>524</v>
       </c>
       <c r="D85" s="151" t="s">
@@ -27743,8 +27744,8 @@
       <c r="BH85" s="171"/>
     </row>
     <row r="86" spans="2:60">
-      <c r="B86" s="416"/>
-      <c r="C86" s="419"/>
+      <c r="B86" s="418"/>
+      <c r="C86" s="424"/>
       <c r="D86" s="135"/>
       <c r="E86" s="133" t="s">
         <v>294</v>
@@ -27784,8 +27785,8 @@
       <c r="BH86" s="171"/>
     </row>
     <row r="87" spans="2:60">
-      <c r="B87" s="416"/>
-      <c r="C87" s="419"/>
+      <c r="B87" s="418"/>
+      <c r="C87" s="424"/>
       <c r="D87" s="135"/>
       <c r="E87" s="133"/>
       <c r="F87" s="133" t="s">
@@ -27825,8 +27826,8 @@
       <c r="BH87" s="171"/>
     </row>
     <row r="88" spans="2:60">
-      <c r="B88" s="416"/>
-      <c r="C88" s="419"/>
+      <c r="B88" s="418"/>
+      <c r="C88" s="424"/>
       <c r="D88" s="135"/>
       <c r="E88" s="133"/>
       <c r="F88" s="133"/>
@@ -27866,8 +27867,8 @@
       <c r="BH88" s="171"/>
     </row>
     <row r="89" spans="2:60">
-      <c r="B89" s="416"/>
-      <c r="C89" s="419">
+      <c r="B89" s="418"/>
+      <c r="C89" s="424">
         <v>0</v>
       </c>
       <c r="D89" s="135"/>
@@ -27909,8 +27910,8 @@
       <c r="BH89" s="171"/>
     </row>
     <row r="90" spans="2:60">
-      <c r="B90" s="416"/>
-      <c r="C90" s="419"/>
+      <c r="B90" s="418"/>
+      <c r="C90" s="424"/>
       <c r="D90" s="135"/>
       <c r="E90" s="133"/>
       <c r="F90" s="133"/>
@@ -27950,8 +27951,8 @@
       <c r="BH90" s="171"/>
     </row>
     <row r="91" spans="2:60">
-      <c r="B91" s="416"/>
-      <c r="C91" s="419"/>
+      <c r="B91" s="418"/>
+      <c r="C91" s="424"/>
       <c r="D91" s="135"/>
       <c r="E91" s="133"/>
       <c r="F91" s="133"/>
@@ -27991,8 +27992,8 @@
       <c r="BH91" s="171"/>
     </row>
     <row r="92" spans="2:60">
-      <c r="B92" s="424"/>
-      <c r="C92" s="421"/>
+      <c r="B92" s="419"/>
+      <c r="C92" s="427"/>
       <c r="D92" s="152"/>
       <c r="E92" s="144"/>
       <c r="F92" s="144"/>
@@ -28032,10 +28033,10 @@
       <c r="BH92" s="171"/>
     </row>
     <row r="93" spans="2:60">
-      <c r="B93" s="416" t="s">
+      <c r="B93" s="418" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="419">
+      <c r="C93" s="424">
         <v>529</v>
       </c>
       <c r="D93" s="151" t="s">
@@ -28104,8 +28105,8 @@
       <c r="BH93" s="171"/>
     </row>
     <row r="94" spans="2:60">
-      <c r="B94" s="416"/>
-      <c r="C94" s="419"/>
+      <c r="B94" s="418"/>
+      <c r="C94" s="424"/>
       <c r="D94" s="135"/>
       <c r="E94" s="133" t="s">
         <v>365</v>
@@ -28145,8 +28146,8 @@
       <c r="BH94" s="171"/>
     </row>
     <row r="95" spans="2:60">
-      <c r="B95" s="416"/>
-      <c r="C95" s="419"/>
+      <c r="B95" s="418"/>
+      <c r="C95" s="424"/>
       <c r="D95" s="135"/>
       <c r="E95" s="133"/>
       <c r="F95" s="133" t="s">
@@ -28186,8 +28187,8 @@
       <c r="BH95" s="171"/>
     </row>
     <row r="96" spans="2:60">
-      <c r="B96" s="416"/>
-      <c r="C96" s="419"/>
+      <c r="B96" s="418"/>
+      <c r="C96" s="424"/>
       <c r="D96" s="135"/>
       <c r="E96" s="133"/>
       <c r="F96" s="133"/>
@@ -28227,8 +28228,8 @@
       <c r="BH96" s="171"/>
     </row>
     <row r="97" spans="2:60">
-      <c r="B97" s="416"/>
-      <c r="C97" s="419">
+      <c r="B97" s="418"/>
+      <c r="C97" s="424">
         <v>0</v>
       </c>
       <c r="D97" s="135"/>
@@ -28270,8 +28271,8 @@
       <c r="BH97" s="171"/>
     </row>
     <row r="98" spans="2:60">
-      <c r="B98" s="416"/>
-      <c r="C98" s="419"/>
+      <c r="B98" s="418"/>
+      <c r="C98" s="424"/>
       <c r="D98" s="135"/>
       <c r="E98" s="133"/>
       <c r="F98" s="133"/>
@@ -28311,8 +28312,8 @@
       <c r="BH98" s="171"/>
     </row>
     <row r="99" spans="2:60">
-      <c r="B99" s="416"/>
-      <c r="C99" s="419"/>
+      <c r="B99" s="418"/>
+      <c r="C99" s="424"/>
       <c r="D99" s="135"/>
       <c r="E99" s="133"/>
       <c r="F99" s="133"/>
@@ -28352,8 +28353,8 @@
       <c r="BH99" s="171"/>
     </row>
     <row r="100" spans="2:60">
-      <c r="B100" s="417"/>
-      <c r="C100" s="420"/>
+      <c r="B100" s="414"/>
+      <c r="C100" s="425"/>
       <c r="D100" s="152"/>
       <c r="E100" s="144"/>
       <c r="F100" s="144"/>
@@ -28451,10 +28452,10 @@
       <c r="BH101" s="171"/>
     </row>
     <row r="102" spans="2:60">
-      <c r="B102" s="415" t="s">
+      <c r="B102" s="413" t="s">
         <v>369</v>
       </c>
-      <c r="C102" s="410">
+      <c r="C102" s="428">
         <v>535</v>
       </c>
       <c r="D102" s="151" t="s">
@@ -28520,8 +28521,8 @@
       <c r="BH102" s="171"/>
     </row>
     <row r="103" spans="2:60">
-      <c r="B103" s="416"/>
-      <c r="C103" s="411"/>
+      <c r="B103" s="418"/>
+      <c r="C103" s="429"/>
       <c r="D103" s="135"/>
       <c r="E103" s="133" t="s">
         <v>294</v>
@@ -28561,8 +28562,8 @@
       <c r="BH103" s="171"/>
     </row>
     <row r="104" spans="2:60">
-      <c r="B104" s="416"/>
-      <c r="C104" s="411"/>
+      <c r="B104" s="418"/>
+      <c r="C104" s="429"/>
       <c r="D104" s="135"/>
       <c r="E104" s="133"/>
       <c r="F104" s="133" t="s">
@@ -28602,8 +28603,8 @@
       <c r="BH104" s="171"/>
     </row>
     <row r="105" spans="2:60">
-      <c r="B105" s="416"/>
-      <c r="C105" s="411"/>
+      <c r="B105" s="418"/>
+      <c r="C105" s="429"/>
       <c r="D105" s="135"/>
       <c r="E105" s="133"/>
       <c r="F105" s="133"/>
@@ -28651,8 +28652,8 @@
       <c r="BH105" s="171"/>
     </row>
     <row r="106" spans="2:60">
-      <c r="B106" s="417"/>
-      <c r="C106" s="412"/>
+      <c r="B106" s="414"/>
+      <c r="C106" s="416"/>
       <c r="D106" s="152"/>
       <c r="E106" s="144"/>
       <c r="F106" s="144"/>
@@ -28692,10 +28693,10 @@
       <c r="BH106" s="171"/>
     </row>
     <row r="107" spans="2:60">
-      <c r="B107" s="415" t="s">
+      <c r="B107" s="413" t="s">
         <v>373</v>
       </c>
-      <c r="C107" s="418">
+      <c r="C107" s="426">
         <v>536</v>
       </c>
       <c r="D107" s="151" t="s">
@@ -28764,8 +28765,8 @@
       <c r="BH107" s="171"/>
     </row>
     <row r="108" spans="2:60">
-      <c r="B108" s="416"/>
-      <c r="C108" s="419"/>
+      <c r="B108" s="418"/>
+      <c r="C108" s="424"/>
       <c r="D108" s="135"/>
       <c r="E108" s="133" t="s">
         <v>294</v>
@@ -28805,8 +28806,8 @@
       <c r="BH108" s="171"/>
     </row>
     <row r="109" spans="2:60">
-      <c r="B109" s="416"/>
-      <c r="C109" s="419"/>
+      <c r="B109" s="418"/>
+      <c r="C109" s="424"/>
       <c r="D109" s="135"/>
       <c r="E109" s="133"/>
       <c r="F109" s="133" t="s">
@@ -28846,8 +28847,8 @@
       <c r="BH109" s="171"/>
     </row>
     <row r="110" spans="2:60">
-      <c r="B110" s="416"/>
-      <c r="C110" s="419"/>
+      <c r="B110" s="418"/>
+      <c r="C110" s="424"/>
       <c r="D110" s="135"/>
       <c r="E110" s="133"/>
       <c r="F110" s="133"/>
@@ -28887,8 +28888,8 @@
       <c r="BH110" s="171"/>
     </row>
     <row r="111" spans="2:60">
-      <c r="B111" s="416"/>
-      <c r="C111" s="419">
+      <c r="B111" s="418"/>
+      <c r="C111" s="424">
         <v>0</v>
       </c>
       <c r="D111" s="135"/>
@@ -28930,8 +28931,8 @@
       <c r="BH111" s="171"/>
     </row>
     <row r="112" spans="2:60">
-      <c r="B112" s="416"/>
-      <c r="C112" s="419"/>
+      <c r="B112" s="418"/>
+      <c r="C112" s="424"/>
       <c r="D112" s="135"/>
       <c r="E112" s="133"/>
       <c r="F112" s="133"/>
@@ -28971,8 +28972,8 @@
       <c r="BH112" s="171"/>
     </row>
     <row r="113" spans="2:60">
-      <c r="B113" s="416"/>
-      <c r="C113" s="419"/>
+      <c r="B113" s="418"/>
+      <c r="C113" s="424"/>
       <c r="D113" s="135"/>
       <c r="E113" s="133"/>
       <c r="F113" s="133"/>
@@ -29012,8 +29013,8 @@
       <c r="BH113" s="171"/>
     </row>
     <row r="114" spans="2:60">
-      <c r="B114" s="417"/>
-      <c r="C114" s="420"/>
+      <c r="B114" s="414"/>
+      <c r="C114" s="425"/>
       <c r="D114" s="152"/>
       <c r="E114" s="144"/>
       <c r="F114" s="144"/>
@@ -29053,10 +29054,10 @@
       <c r="BH114" s="171"/>
     </row>
     <row r="115" spans="2:60">
-      <c r="B115" s="415" t="s">
+      <c r="B115" s="413" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="410">
+      <c r="C115" s="428">
         <v>578</v>
       </c>
       <c r="D115" s="151" t="s">
@@ -29122,8 +29123,8 @@
       <c r="BH115" s="171"/>
     </row>
     <row r="116" spans="2:60">
-      <c r="B116" s="416"/>
-      <c r="C116" s="411"/>
+      <c r="B116" s="418"/>
+      <c r="C116" s="429"/>
       <c r="D116" s="135"/>
       <c r="E116" s="133" t="s">
         <v>294</v>
@@ -29163,8 +29164,8 @@
       <c r="BH116" s="171"/>
     </row>
     <row r="117" spans="2:60">
-      <c r="B117" s="416"/>
-      <c r="C117" s="411"/>
+      <c r="B117" s="418"/>
+      <c r="C117" s="429"/>
       <c r="D117" s="135"/>
       <c r="E117" s="133"/>
       <c r="F117" s="133" t="s">
@@ -29204,8 +29205,8 @@
       <c r="BH117" s="171"/>
     </row>
     <row r="118" spans="2:60">
-      <c r="B118" s="416"/>
-      <c r="C118" s="411"/>
+      <c r="B118" s="418"/>
+      <c r="C118" s="429"/>
       <c r="D118" s="135"/>
       <c r="E118" s="133"/>
       <c r="F118" s="133"/>
@@ -29245,8 +29246,8 @@
       <c r="BH118" s="171"/>
     </row>
     <row r="119" spans="2:60">
-      <c r="B119" s="416"/>
-      <c r="C119" s="411"/>
+      <c r="B119" s="418"/>
+      <c r="C119" s="429"/>
       <c r="D119" s="135"/>
       <c r="E119" s="133"/>
       <c r="F119" s="133"/>
@@ -29286,8 +29287,8 @@
       <c r="BH119" s="171"/>
     </row>
     <row r="120" spans="2:60">
-      <c r="B120" s="416"/>
-      <c r="C120" s="411"/>
+      <c r="B120" s="418"/>
+      <c r="C120" s="429"/>
       <c r="D120" s="135"/>
       <c r="E120" s="133"/>
       <c r="F120" s="133"/>
@@ -29327,8 +29328,8 @@
       <c r="BH120" s="171"/>
     </row>
     <row r="121" spans="2:60">
-      <c r="B121" s="417"/>
-      <c r="C121" s="412"/>
+      <c r="B121" s="414"/>
+      <c r="C121" s="416"/>
       <c r="D121" s="152"/>
       <c r="E121" s="144"/>
       <c r="F121" s="144"/>
@@ -29368,10 +29369,10 @@
       <c r="BH121" s="171"/>
     </row>
     <row r="122" spans="2:60">
-      <c r="B122" s="415" t="s">
+      <c r="B122" s="413" t="s">
         <v>376</v>
       </c>
-      <c r="C122" s="410">
+      <c r="C122" s="428">
         <v>666</v>
       </c>
       <c r="D122" s="185" t="s">
@@ -29450,8 +29451,8 @@
       <c r="BH122" s="171"/>
     </row>
     <row r="123" spans="2:60">
-      <c r="B123" s="416"/>
-      <c r="C123" s="411"/>
+      <c r="B123" s="418"/>
+      <c r="C123" s="429"/>
       <c r="D123" s="189"/>
       <c r="E123" s="237"/>
       <c r="F123" s="237" t="s">
@@ -29501,8 +29502,8 @@
       <c r="BH123" s="171"/>
     </row>
     <row r="124" spans="2:60">
-      <c r="B124" s="416"/>
-      <c r="C124" s="411"/>
+      <c r="B124" s="418"/>
+      <c r="C124" s="429"/>
       <c r="D124" s="189"/>
       <c r="E124" s="237"/>
       <c r="F124" s="237"/>
@@ -29551,8 +29552,8 @@
       <c r="BH124" s="171"/>
     </row>
     <row r="125" spans="2:60">
-      <c r="B125" s="416"/>
-      <c r="C125" s="411"/>
+      <c r="B125" s="418"/>
+      <c r="C125" s="429"/>
       <c r="D125" s="135"/>
       <c r="E125" s="133"/>
       <c r="F125" s="133"/>
@@ -29592,8 +29593,8 @@
       <c r="BH125" s="171"/>
     </row>
     <row r="126" spans="2:60">
-      <c r="B126" s="417"/>
-      <c r="C126" s="412"/>
+      <c r="B126" s="414"/>
+      <c r="C126" s="416"/>
       <c r="D126" s="152"/>
       <c r="E126" s="144"/>
       <c r="F126" s="144"/>
@@ -29633,10 +29634,10 @@
       <c r="BH126" s="171"/>
     </row>
     <row r="127" spans="2:60">
-      <c r="B127" s="415" t="s">
+      <c r="B127" s="413" t="s">
         <v>382</v>
       </c>
-      <c r="C127" s="410">
+      <c r="C127" s="428">
         <v>668</v>
       </c>
       <c r="D127" s="185" t="s">
@@ -29715,8 +29716,8 @@
       <c r="BH127" s="171"/>
     </row>
     <row r="128" spans="2:60">
-      <c r="B128" s="416"/>
-      <c r="C128" s="411"/>
+      <c r="B128" s="418"/>
+      <c r="C128" s="429"/>
       <c r="D128" s="189"/>
       <c r="E128" s="237"/>
       <c r="F128" s="237" t="s">
@@ -29766,8 +29767,8 @@
       <c r="BH128" s="171"/>
     </row>
     <row r="129" spans="2:60">
-      <c r="B129" s="416"/>
-      <c r="C129" s="411"/>
+      <c r="B129" s="418"/>
+      <c r="C129" s="429"/>
       <c r="D129" s="135"/>
       <c r="E129" s="133"/>
       <c r="F129" s="133"/>
@@ -29807,8 +29808,8 @@
       <c r="BH129" s="171"/>
     </row>
     <row r="130" spans="2:60">
-      <c r="B130" s="416"/>
-      <c r="C130" s="411"/>
+      <c r="B130" s="418"/>
+      <c r="C130" s="429"/>
       <c r="D130" s="135"/>
       <c r="E130" s="133"/>
       <c r="F130" s="133"/>
@@ -29848,8 +29849,8 @@
       <c r="BH130" s="171"/>
     </row>
     <row r="131" spans="2:60">
-      <c r="B131" s="416"/>
-      <c r="C131" s="411"/>
+      <c r="B131" s="418"/>
+      <c r="C131" s="429"/>
       <c r="D131" s="135"/>
       <c r="E131" s="133"/>
       <c r="F131" s="133"/>
@@ -29891,10 +29892,10 @@
       <c r="BH131" s="171"/>
     </row>
     <row r="132" spans="2:60">
-      <c r="B132" s="415" t="s">
+      <c r="B132" s="413" t="s">
         <v>385</v>
       </c>
-      <c r="C132" s="410">
+      <c r="C132" s="428">
         <v>695</v>
       </c>
       <c r="D132" s="151" t="s">
@@ -29954,8 +29955,8 @@
       <c r="BH132" s="171"/>
     </row>
     <row r="133" spans="2:60">
-      <c r="B133" s="416"/>
-      <c r="C133" s="411"/>
+      <c r="B133" s="418"/>
+      <c r="C133" s="429"/>
       <c r="D133" s="135"/>
       <c r="E133" s="133" t="s">
         <v>386</v>
@@ -29995,8 +29996,8 @@
       <c r="BH133" s="171"/>
     </row>
     <row r="134" spans="2:60">
-      <c r="B134" s="416"/>
-      <c r="C134" s="411"/>
+      <c r="B134" s="418"/>
+      <c r="C134" s="429"/>
       <c r="D134" s="135"/>
       <c r="E134" s="133"/>
       <c r="F134" s="133" t="s">
@@ -30036,8 +30037,8 @@
       <c r="BH134" s="171"/>
     </row>
     <row r="135" spans="2:60">
-      <c r="B135" s="416"/>
-      <c r="C135" s="411"/>
+      <c r="B135" s="418"/>
+      <c r="C135" s="429"/>
       <c r="D135" s="135"/>
       <c r="E135" s="133"/>
       <c r="F135" s="133"/>
@@ -30077,8 +30078,8 @@
       <c r="BH135" s="171"/>
     </row>
     <row r="136" spans="2:60">
-      <c r="B136" s="417"/>
-      <c r="C136" s="412"/>
+      <c r="B136" s="414"/>
+      <c r="C136" s="416"/>
       <c r="D136" s="152"/>
       <c r="E136" s="144"/>
       <c r="F136" s="144"/>
@@ -30118,10 +30119,10 @@
       <c r="BH136" s="171"/>
     </row>
     <row r="137" spans="2:60">
-      <c r="B137" s="415" t="s">
+      <c r="B137" s="413" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="410">
+      <c r="C137" s="428">
         <v>710</v>
       </c>
       <c r="D137" s="151" t="s">
@@ -30184,8 +30185,8 @@
       <c r="BH137" s="171"/>
     </row>
     <row r="138" spans="2:60">
-      <c r="B138" s="416"/>
-      <c r="C138" s="411"/>
+      <c r="B138" s="418"/>
+      <c r="C138" s="429"/>
       <c r="D138" s="135"/>
       <c r="E138" s="133" t="s">
         <v>306</v>
@@ -30225,8 +30226,8 @@
       <c r="BH138" s="171"/>
     </row>
     <row r="139" spans="2:60">
-      <c r="B139" s="416"/>
-      <c r="C139" s="411"/>
+      <c r="B139" s="418"/>
+      <c r="C139" s="429"/>
       <c r="D139" s="135"/>
       <c r="E139" s="133"/>
       <c r="F139" s="133" t="s">
@@ -30266,8 +30267,8 @@
       <c r="BH139" s="171"/>
     </row>
     <row r="140" spans="2:60">
-      <c r="B140" s="416"/>
-      <c r="C140" s="411"/>
+      <c r="B140" s="418"/>
+      <c r="C140" s="429"/>
       <c r="D140" s="135"/>
       <c r="E140" s="133"/>
       <c r="F140" s="133"/>
@@ -30307,8 +30308,8 @@
       <c r="BH140" s="171"/>
     </row>
     <row r="141" spans="2:60">
-      <c r="B141" s="416"/>
-      <c r="C141" s="411"/>
+      <c r="B141" s="418"/>
+      <c r="C141" s="429"/>
       <c r="D141" s="135"/>
       <c r="E141" s="133"/>
       <c r="F141" s="133"/>
@@ -30348,8 +30349,8 @@
       <c r="BH141" s="171"/>
     </row>
     <row r="142" spans="2:60">
-      <c r="B142" s="417"/>
-      <c r="C142" s="412"/>
+      <c r="B142" s="414"/>
+      <c r="C142" s="416"/>
       <c r="D142" s="152"/>
       <c r="E142" s="144"/>
       <c r="F142" s="144"/>
@@ -30389,10 +30390,10 @@
       <c r="BH142" s="171"/>
     </row>
     <row r="143" spans="2:60">
-      <c r="B143" s="415" t="s">
+      <c r="B143" s="413" t="s">
         <v>388</v>
       </c>
-      <c r="C143" s="410">
+      <c r="C143" s="428">
         <v>771</v>
       </c>
       <c r="D143" s="151" t="s">
@@ -30458,8 +30459,8 @@
       <c r="BH143" s="171"/>
     </row>
     <row r="144" spans="2:60">
-      <c r="B144" s="416"/>
-      <c r="C144" s="411"/>
+      <c r="B144" s="418"/>
+      <c r="C144" s="429"/>
       <c r="D144" s="135"/>
       <c r="E144" s="133" t="s">
         <v>390</v>
@@ -30499,8 +30500,8 @@
       <c r="BH144" s="171"/>
     </row>
     <row r="145" spans="2:60">
-      <c r="B145" s="416"/>
-      <c r="C145" s="411"/>
+      <c r="B145" s="418"/>
+      <c r="C145" s="429"/>
       <c r="D145" s="135"/>
       <c r="E145" s="133"/>
       <c r="F145" s="133" t="s">
@@ -30540,8 +30541,8 @@
       <c r="BH145" s="171"/>
     </row>
     <row r="146" spans="2:60">
-      <c r="B146" s="416"/>
-      <c r="C146" s="411"/>
+      <c r="B146" s="418"/>
+      <c r="C146" s="429"/>
       <c r="D146" s="135"/>
       <c r="E146" s="133"/>
       <c r="F146" s="133"/>
@@ -30581,8 +30582,8 @@
       <c r="BH146" s="171"/>
     </row>
     <row r="147" spans="2:60">
-      <c r="B147" s="416"/>
-      <c r="C147" s="411"/>
+      <c r="B147" s="418"/>
+      <c r="C147" s="429"/>
       <c r="D147" s="135"/>
       <c r="E147" s="133"/>
       <c r="F147" s="133"/>
@@ -30622,8 +30623,8 @@
       <c r="BH147" s="171"/>
     </row>
     <row r="148" spans="2:60">
-      <c r="B148" s="416"/>
-      <c r="C148" s="411"/>
+      <c r="B148" s="418"/>
+      <c r="C148" s="429"/>
       <c r="D148" s="135"/>
       <c r="E148" s="133"/>
       <c r="F148" s="133"/>
@@ -30663,8 +30664,8 @@
       <c r="BH148" s="171"/>
     </row>
     <row r="149" spans="2:60">
-      <c r="B149" s="417"/>
-      <c r="C149" s="412"/>
+      <c r="B149" s="414"/>
+      <c r="C149" s="416"/>
       <c r="D149" s="152"/>
       <c r="E149" s="144"/>
       <c r="F149" s="144"/>
@@ -30704,10 +30705,10 @@
       <c r="BH149" s="171"/>
     </row>
     <row r="150" spans="2:60">
-      <c r="B150" s="415" t="s">
+      <c r="B150" s="413" t="s">
         <v>395</v>
       </c>
-      <c r="C150" s="410">
+      <c r="C150" s="428">
         <v>848</v>
       </c>
       <c r="D150" s="151" t="s">
@@ -30776,8 +30777,8 @@
       <c r="BH150" s="171"/>
     </row>
     <row r="151" spans="2:60">
-      <c r="B151" s="416"/>
-      <c r="C151" s="411"/>
+      <c r="B151" s="418"/>
+      <c r="C151" s="429"/>
       <c r="D151" s="135"/>
       <c r="E151" s="133" t="s">
         <v>361</v>
@@ -30817,8 +30818,8 @@
       <c r="BH151" s="171"/>
     </row>
     <row r="152" spans="2:60">
-      <c r="B152" s="416"/>
-      <c r="C152" s="411"/>
+      <c r="B152" s="418"/>
+      <c r="C152" s="429"/>
       <c r="D152" s="135"/>
       <c r="E152" s="133"/>
       <c r="F152" s="133" t="s">
@@ -30858,8 +30859,8 @@
       <c r="BH152" s="171"/>
     </row>
     <row r="153" spans="2:60">
-      <c r="B153" s="416"/>
-      <c r="C153" s="411"/>
+      <c r="B153" s="418"/>
+      <c r="C153" s="429"/>
       <c r="D153" s="135"/>
       <c r="E153" s="133"/>
       <c r="F153" s="133"/>
@@ -30899,8 +30900,8 @@
       <c r="BH153" s="171"/>
     </row>
     <row r="154" spans="2:60">
-      <c r="B154" s="416"/>
-      <c r="C154" s="411"/>
+      <c r="B154" s="418"/>
+      <c r="C154" s="429"/>
       <c r="D154" s="135"/>
       <c r="E154" s="133"/>
       <c r="F154" s="133"/>
@@ -30940,8 +30941,8 @@
       <c r="BH154" s="171"/>
     </row>
     <row r="155" spans="2:60">
-      <c r="B155" s="416"/>
-      <c r="C155" s="411"/>
+      <c r="B155" s="418"/>
+      <c r="C155" s="429"/>
       <c r="D155" s="135"/>
       <c r="E155" s="133"/>
       <c r="F155" s="133"/>
@@ -30981,8 +30982,8 @@
       <c r="BH155" s="171"/>
     </row>
     <row r="156" spans="2:60">
-      <c r="B156" s="416"/>
-      <c r="C156" s="411"/>
+      <c r="B156" s="418"/>
+      <c r="C156" s="429"/>
       <c r="D156" s="135"/>
       <c r="E156" s="133"/>
       <c r="F156" s="133"/>
@@ -31022,8 +31023,8 @@
       <c r="BH156" s="171"/>
     </row>
     <row r="157" spans="2:60">
-      <c r="B157" s="417"/>
-      <c r="C157" s="412"/>
+      <c r="B157" s="414"/>
+      <c r="C157" s="416"/>
       <c r="D157" s="152"/>
       <c r="E157" s="144"/>
       <c r="F157" s="144"/>
@@ -31063,10 +31064,10 @@
       <c r="BH157" s="171"/>
     </row>
     <row r="158" spans="2:60">
-      <c r="B158" s="415" t="s">
+      <c r="B158" s="413" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="410">
+      <c r="C158" s="428">
         <v>850</v>
       </c>
       <c r="D158" s="151" t="s">
@@ -31127,8 +31128,8 @@
       <c r="BH158" s="171"/>
     </row>
     <row r="159" spans="2:60">
-      <c r="B159" s="416"/>
-      <c r="C159" s="411"/>
+      <c r="B159" s="418"/>
+      <c r="C159" s="429"/>
       <c r="D159" s="135"/>
       <c r="E159" s="133" t="s">
         <v>294</v>
@@ -31168,8 +31169,8 @@
       <c r="BH159" s="171"/>
     </row>
     <row r="160" spans="2:60">
-      <c r="B160" s="416"/>
-      <c r="C160" s="411"/>
+      <c r="B160" s="418"/>
+      <c r="C160" s="429"/>
       <c r="D160" s="189"/>
       <c r="E160" s="237"/>
       <c r="F160" s="237" t="s">
@@ -31216,10 +31217,10 @@
       <c r="BH160" s="171"/>
     </row>
     <row r="161" spans="2:60">
-      <c r="B161" s="415" t="s">
+      <c r="B161" s="413" t="s">
         <v>407</v>
       </c>
-      <c r="C161" s="410">
+      <c r="C161" s="428">
         <v>852</v>
       </c>
       <c r="D161" s="278" t="s">
@@ -31286,8 +31287,8 @@
       <c r="BH161" s="171"/>
     </row>
     <row r="162" spans="2:60">
-      <c r="B162" s="416"/>
-      <c r="C162" s="411"/>
+      <c r="B162" s="418"/>
+      <c r="C162" s="429"/>
       <c r="D162" s="135"/>
       <c r="E162" s="133"/>
       <c r="F162" s="133" t="s">
@@ -31327,8 +31328,8 @@
       <c r="BH162" s="171"/>
     </row>
     <row r="163" spans="2:60">
-      <c r="B163" s="416"/>
-      <c r="C163" s="411"/>
+      <c r="B163" s="418"/>
+      <c r="C163" s="429"/>
       <c r="D163" s="135"/>
       <c r="E163" s="133"/>
       <c r="F163" s="133"/>
@@ -31368,8 +31369,8 @@
       <c r="BH163" s="171"/>
     </row>
     <row r="164" spans="2:60">
-      <c r="B164" s="416"/>
-      <c r="C164" s="411"/>
+      <c r="B164" s="418"/>
+      <c r="C164" s="429"/>
       <c r="D164" s="135"/>
       <c r="E164" s="133"/>
       <c r="F164" s="133"/>
@@ -31409,8 +31410,8 @@
       <c r="BH164" s="171"/>
     </row>
     <row r="165" spans="2:60">
-      <c r="B165" s="417"/>
-      <c r="C165" s="412"/>
+      <c r="B165" s="414"/>
+      <c r="C165" s="416"/>
       <c r="D165" s="152"/>
       <c r="E165" s="144"/>
       <c r="F165" s="144"/>
@@ -31450,10 +31451,10 @@
       <c r="BH165" s="171"/>
     </row>
     <row r="166" spans="2:60">
-      <c r="B166" s="415" t="s">
+      <c r="B166" s="413" t="s">
         <v>408</v>
       </c>
-      <c r="C166" s="410">
+      <c r="C166" s="428">
         <v>854</v>
       </c>
       <c r="D166" s="151" t="s">
@@ -31516,8 +31517,8 @@
       <c r="BH166" s="171"/>
     </row>
     <row r="167" spans="2:60">
-      <c r="B167" s="416"/>
-      <c r="C167" s="411"/>
+      <c r="B167" s="418"/>
+      <c r="C167" s="429"/>
       <c r="D167" s="135"/>
       <c r="E167" s="133" t="s">
         <v>308</v>
@@ -31557,8 +31558,8 @@
       <c r="BH167" s="171"/>
     </row>
     <row r="168" spans="2:60">
-      <c r="B168" s="416"/>
-      <c r="C168" s="411"/>
+      <c r="B168" s="418"/>
+      <c r="C168" s="429"/>
       <c r="D168" s="135"/>
       <c r="E168" s="133"/>
       <c r="F168" s="133" t="s">
@@ -31598,8 +31599,8 @@
       <c r="BH168" s="171"/>
     </row>
     <row r="169" spans="2:60">
-      <c r="B169" s="416"/>
-      <c r="C169" s="411"/>
+      <c r="B169" s="418"/>
+      <c r="C169" s="429"/>
       <c r="D169" s="135"/>
       <c r="E169" s="133"/>
       <c r="F169" s="133"/>
@@ -31639,8 +31640,8 @@
       <c r="BH169" s="171"/>
     </row>
     <row r="170" spans="2:60">
-      <c r="B170" s="416"/>
-      <c r="C170" s="411"/>
+      <c r="B170" s="418"/>
+      <c r="C170" s="429"/>
       <c r="D170" s="135"/>
       <c r="E170" s="133"/>
       <c r="F170" s="133"/>
@@ -31680,8 +31681,8 @@
       <c r="BH170" s="171"/>
     </row>
     <row r="171" spans="2:60">
-      <c r="B171" s="417"/>
-      <c r="C171" s="412"/>
+      <c r="B171" s="414"/>
+      <c r="C171" s="416"/>
       <c r="D171" s="152"/>
       <c r="E171" s="144"/>
       <c r="F171" s="144"/>
@@ -31721,10 +31722,10 @@
       <c r="BH171" s="171"/>
     </row>
     <row r="172" spans="2:60">
-      <c r="B172" s="415" t="s">
+      <c r="B172" s="413" t="s">
         <v>410</v>
       </c>
-      <c r="C172" s="410">
+      <c r="C172" s="428">
         <v>914</v>
       </c>
       <c r="D172" s="151" t="s">
@@ -31784,8 +31785,8 @@
       <c r="BH172" s="171"/>
     </row>
     <row r="173" spans="2:60">
-      <c r="B173" s="416"/>
-      <c r="C173" s="411"/>
+      <c r="B173" s="418"/>
+      <c r="C173" s="429"/>
       <c r="D173" s="135"/>
       <c r="E173" s="133" t="s">
         <v>296</v>
@@ -31825,8 +31826,8 @@
       <c r="BH173" s="171"/>
     </row>
     <row r="174" spans="2:60">
-      <c r="B174" s="416"/>
-      <c r="C174" s="411"/>
+      <c r="B174" s="418"/>
+      <c r="C174" s="429"/>
       <c r="D174" s="135"/>
       <c r="E174" s="133"/>
       <c r="F174" s="133" t="s">
@@ -31866,8 +31867,8 @@
       <c r="BH174" s="171"/>
     </row>
     <row r="175" spans="2:60">
-      <c r="B175" s="416"/>
-      <c r="C175" s="411"/>
+      <c r="B175" s="418"/>
+      <c r="C175" s="429"/>
       <c r="D175" s="135"/>
       <c r="E175" s="133"/>
       <c r="F175" s="133"/>
@@ -31907,8 +31908,8 @@
       <c r="BH175" s="171"/>
     </row>
     <row r="176" spans="2:60">
-      <c r="B176" s="417"/>
-      <c r="C176" s="412"/>
+      <c r="B176" s="414"/>
+      <c r="C176" s="416"/>
       <c r="D176" s="152"/>
       <c r="E176" s="144"/>
       <c r="F176" s="144"/>
@@ -31948,10 +31949,10 @@
       <c r="BH176" s="171"/>
     </row>
     <row r="177" spans="2:60">
-      <c r="B177" s="415" t="s">
+      <c r="B177" s="413" t="s">
         <v>411</v>
       </c>
-      <c r="C177" s="410">
+      <c r="C177" s="428">
         <v>951</v>
       </c>
       <c r="D177" s="151" t="s">
@@ -32020,8 +32021,8 @@
       <c r="BH177" s="171"/>
     </row>
     <row r="178" spans="2:60">
-      <c r="B178" s="416"/>
-      <c r="C178" s="411"/>
+      <c r="B178" s="418"/>
+      <c r="C178" s="429"/>
       <c r="D178" s="189"/>
       <c r="E178" s="237" t="s">
         <v>414</v>
@@ -32068,8 +32069,8 @@
       <c r="BH178" s="171"/>
     </row>
     <row r="179" spans="2:60">
-      <c r="B179" s="416"/>
-      <c r="C179" s="411"/>
+      <c r="B179" s="418"/>
+      <c r="C179" s="429"/>
       <c r="D179" s="135"/>
       <c r="E179" s="133"/>
       <c r="F179" s="133" t="s">
@@ -32109,8 +32110,8 @@
       <c r="BH179" s="171"/>
     </row>
     <row r="180" spans="2:60">
-      <c r="B180" s="416"/>
-      <c r="C180" s="411"/>
+      <c r="B180" s="418"/>
+      <c r="C180" s="429"/>
       <c r="D180" s="135"/>
       <c r="E180" s="133"/>
       <c r="F180" s="133"/>
@@ -32150,8 +32151,8 @@
       <c r="BH180" s="171"/>
     </row>
     <row r="181" spans="2:60">
-      <c r="B181" s="416"/>
-      <c r="C181" s="411"/>
+      <c r="B181" s="418"/>
+      <c r="C181" s="429"/>
       <c r="D181" s="135"/>
       <c r="E181" s="133"/>
       <c r="F181" s="133"/>
@@ -32191,8 +32192,8 @@
       <c r="BH181" s="171"/>
     </row>
     <row r="182" spans="2:60">
-      <c r="B182" s="416"/>
-      <c r="C182" s="411"/>
+      <c r="B182" s="418"/>
+      <c r="C182" s="429"/>
       <c r="D182" s="135"/>
       <c r="E182" s="133"/>
       <c r="F182" s="133"/>
@@ -32232,8 +32233,8 @@
       <c r="BH182" s="171"/>
     </row>
     <row r="183" spans="2:60">
-      <c r="B183" s="416"/>
-      <c r="C183" s="411"/>
+      <c r="B183" s="418"/>
+      <c r="C183" s="429"/>
       <c r="D183" s="135"/>
       <c r="E183" s="133"/>
       <c r="F183" s="133"/>
@@ -32273,8 +32274,8 @@
       <c r="BH183" s="171"/>
     </row>
     <row r="184" spans="2:60">
-      <c r="B184" s="417"/>
-      <c r="C184" s="412"/>
+      <c r="B184" s="414"/>
+      <c r="C184" s="416"/>
       <c r="D184" s="152"/>
       <c r="E184" s="144"/>
       <c r="F184" s="144"/>
@@ -32375,10 +32376,10 @@
       <c r="BH184" s="171"/>
     </row>
     <row r="185" spans="2:60">
-      <c r="B185" s="415" t="s">
+      <c r="B185" s="413" t="s">
         <v>417</v>
       </c>
-      <c r="C185" s="410">
+      <c r="C185" s="428">
         <v>1015</v>
       </c>
       <c r="D185" s="185" t="s">
@@ -32463,8 +32464,8 @@
       <c r="BH185" s="171"/>
     </row>
     <row r="186" spans="2:60">
-      <c r="B186" s="416"/>
-      <c r="C186" s="411"/>
+      <c r="B186" s="418"/>
+      <c r="C186" s="429"/>
       <c r="D186" s="189"/>
       <c r="E186" s="237" t="s">
         <v>274</v>
@@ -32539,8 +32540,8 @@
       <c r="BH186" s="171"/>
     </row>
     <row r="187" spans="2:60">
-      <c r="B187" s="417"/>
-      <c r="C187" s="412"/>
+      <c r="B187" s="414"/>
+      <c r="C187" s="416"/>
       <c r="D187" s="152"/>
       <c r="E187" s="144"/>
       <c r="F187" s="144" t="s">
@@ -32667,10 +32668,10 @@
       <c r="BH188" s="171"/>
     </row>
     <row r="189" spans="2:60">
-      <c r="B189" s="415" t="s">
+      <c r="B189" s="413" t="s">
         <v>439</v>
       </c>
-      <c r="C189" s="410">
+      <c r="C189" s="428">
         <v>1018</v>
       </c>
       <c r="D189" s="151" t="s">
@@ -32745,8 +32746,8 @@
       <c r="BH189" s="171"/>
     </row>
     <row r="190" spans="2:60">
-      <c r="B190" s="417"/>
-      <c r="C190" s="412"/>
+      <c r="B190" s="414"/>
+      <c r="C190" s="416"/>
       <c r="D190" s="152"/>
       <c r="E190" s="144" t="s">
         <v>294</v>
@@ -32786,10 +32787,10 @@
       <c r="BH190" s="171"/>
     </row>
     <row r="191" spans="2:60">
-      <c r="B191" s="415" t="s">
+      <c r="B191" s="413" t="s">
         <v>440</v>
       </c>
-      <c r="C191" s="410">
+      <c r="C191" s="428">
         <v>1025</v>
       </c>
       <c r="D191" s="151" t="s">
@@ -32883,8 +32884,8 @@
       <c r="BH191" s="171"/>
     </row>
     <row r="192" spans="2:60">
-      <c r="B192" s="416"/>
-      <c r="C192" s="411"/>
+      <c r="B192" s="418"/>
+      <c r="C192" s="429"/>
       <c r="D192" s="135"/>
       <c r="E192" s="133" t="s">
         <v>294</v>
@@ -32924,8 +32925,8 @@
       <c r="BH192" s="171"/>
     </row>
     <row r="193" spans="2:60">
-      <c r="B193" s="416"/>
-      <c r="C193" s="411"/>
+      <c r="B193" s="418"/>
+      <c r="C193" s="429"/>
       <c r="D193" s="135"/>
       <c r="E193" s="133"/>
       <c r="F193" s="133" t="s">
@@ -32965,8 +32966,8 @@
       <c r="BH193" s="171"/>
     </row>
     <row r="194" spans="2:60">
-      <c r="B194" s="416"/>
-      <c r="C194" s="411"/>
+      <c r="B194" s="418"/>
+      <c r="C194" s="429"/>
       <c r="D194" s="135"/>
       <c r="E194" s="133"/>
       <c r="F194" s="133"/>
@@ -33006,8 +33007,8 @@
       <c r="BH194" s="171"/>
     </row>
     <row r="195" spans="2:60">
-      <c r="B195" s="416"/>
-      <c r="C195" s="411"/>
+      <c r="B195" s="418"/>
+      <c r="C195" s="429"/>
       <c r="D195" s="135"/>
       <c r="E195" s="133"/>
       <c r="F195" s="133"/>
@@ -33047,8 +33048,8 @@
       <c r="BH195" s="171"/>
     </row>
     <row r="196" spans="2:60">
-      <c r="B196" s="416"/>
-      <c r="C196" s="411"/>
+      <c r="B196" s="418"/>
+      <c r="C196" s="429"/>
       <c r="D196" s="135"/>
       <c r="E196" s="133"/>
       <c r="F196" s="133"/>
@@ -33088,8 +33089,8 @@
       <c r="BH196" s="171"/>
     </row>
     <row r="197" spans="2:60">
-      <c r="B197" s="416"/>
-      <c r="C197" s="411"/>
+      <c r="B197" s="418"/>
+      <c r="C197" s="429"/>
       <c r="D197" s="135"/>
       <c r="E197" s="133"/>
       <c r="F197" s="133"/>
@@ -33129,8 +33130,8 @@
       <c r="BH197" s="171"/>
     </row>
     <row r="198" spans="2:60">
-      <c r="B198" s="417"/>
-      <c r="C198" s="412"/>
+      <c r="B198" s="414"/>
+      <c r="C198" s="416"/>
       <c r="D198" s="152"/>
       <c r="E198" s="144"/>
       <c r="F198" s="144"/>
@@ -33170,10 +33171,10 @@
       <c r="BH198" s="171"/>
     </row>
     <row r="199" spans="2:60">
-      <c r="B199" s="415" t="s">
+      <c r="B199" s="413" t="s">
         <v>447</v>
       </c>
-      <c r="C199" s="410">
+      <c r="C199" s="428">
         <v>1029</v>
       </c>
       <c r="D199" s="151" t="s">
@@ -33242,8 +33243,8 @@
       <c r="BH199" s="171"/>
     </row>
     <row r="200" spans="2:60">
-      <c r="B200" s="416"/>
-      <c r="C200" s="411"/>
+      <c r="B200" s="418"/>
+      <c r="C200" s="429"/>
       <c r="D200" s="135"/>
       <c r="E200" s="133" t="s">
         <v>294</v>
@@ -33283,8 +33284,8 @@
       <c r="BH200" s="171"/>
     </row>
     <row r="201" spans="2:60">
-      <c r="B201" s="416"/>
-      <c r="C201" s="411"/>
+      <c r="B201" s="418"/>
+      <c r="C201" s="429"/>
       <c r="D201" s="135"/>
       <c r="E201" s="133"/>
       <c r="F201" s="133" t="s">
@@ -33324,8 +33325,8 @@
       <c r="BH201" s="171"/>
     </row>
     <row r="202" spans="2:60">
-      <c r="B202" s="416"/>
-      <c r="C202" s="411"/>
+      <c r="B202" s="418"/>
+      <c r="C202" s="429"/>
       <c r="D202" s="135"/>
       <c r="E202" s="133"/>
       <c r="F202" s="133"/>
@@ -33365,8 +33366,8 @@
       <c r="BH202" s="171"/>
     </row>
     <row r="203" spans="2:60">
-      <c r="B203" s="416"/>
-      <c r="C203" s="411"/>
+      <c r="B203" s="418"/>
+      <c r="C203" s="429"/>
       <c r="D203" s="135"/>
       <c r="E203" s="133"/>
       <c r="F203" s="133"/>
@@ -33406,8 +33407,8 @@
       <c r="BH203" s="171"/>
     </row>
     <row r="204" spans="2:60">
-      <c r="B204" s="416"/>
-      <c r="C204" s="411"/>
+      <c r="B204" s="418"/>
+      <c r="C204" s="429"/>
       <c r="D204" s="135"/>
       <c r="E204" s="133"/>
       <c r="F204" s="133"/>
@@ -33447,8 +33448,8 @@
       <c r="BH204" s="171"/>
     </row>
     <row r="205" spans="2:60">
-      <c r="B205" s="416"/>
-      <c r="C205" s="411"/>
+      <c r="B205" s="418"/>
+      <c r="C205" s="429"/>
       <c r="D205" s="135"/>
       <c r="E205" s="133"/>
       <c r="F205" s="133"/>
@@ -33488,8 +33489,8 @@
       <c r="BH205" s="171"/>
     </row>
     <row r="206" spans="2:60">
-      <c r="B206" s="417"/>
-      <c r="C206" s="412"/>
+      <c r="B206" s="414"/>
+      <c r="C206" s="416"/>
       <c r="D206" s="152"/>
       <c r="E206" s="144"/>
       <c r="F206" s="144"/>
@@ -33529,10 +33530,10 @@
       <c r="BH206" s="171"/>
     </row>
     <row r="207" spans="2:60">
-      <c r="B207" s="415" t="s">
+      <c r="B207" s="413" t="s">
         <v>449</v>
       </c>
-      <c r="C207" s="410">
+      <c r="C207" s="428">
         <v>1075</v>
       </c>
       <c r="D207" s="151" t="s">
@@ -33598,8 +33599,8 @@
       <c r="BH207" s="171"/>
     </row>
     <row r="208" spans="2:60">
-      <c r="B208" s="416"/>
-      <c r="C208" s="411"/>
+      <c r="B208" s="418"/>
+      <c r="C208" s="429"/>
       <c r="D208" s="135"/>
       <c r="E208" s="133" t="s">
         <v>294</v>
@@ -33639,8 +33640,8 @@
       <c r="BH208" s="171"/>
     </row>
     <row r="209" spans="2:60">
-      <c r="B209" s="416"/>
-      <c r="C209" s="411"/>
+      <c r="B209" s="418"/>
+      <c r="C209" s="429"/>
       <c r="D209" s="135"/>
       <c r="E209" s="133"/>
       <c r="F209" s="133" t="s">
@@ -33680,8 +33681,8 @@
       <c r="BH209" s="171"/>
     </row>
     <row r="210" spans="2:60">
-      <c r="B210" s="416"/>
-      <c r="C210" s="411"/>
+      <c r="B210" s="418"/>
+      <c r="C210" s="429"/>
       <c r="D210" s="135"/>
       <c r="E210" s="133"/>
       <c r="F210" s="133"/>
@@ -33721,8 +33722,8 @@
       <c r="BH210" s="171"/>
     </row>
     <row r="211" spans="2:60">
-      <c r="B211" s="416"/>
-      <c r="C211" s="411"/>
+      <c r="B211" s="418"/>
+      <c r="C211" s="429"/>
       <c r="D211" s="135"/>
       <c r="E211" s="133"/>
       <c r="F211" s="133"/>
@@ -33762,8 +33763,8 @@
       <c r="BH211" s="171"/>
     </row>
     <row r="212" spans="2:60">
-      <c r="B212" s="416"/>
-      <c r="C212" s="411"/>
+      <c r="B212" s="418"/>
+      <c r="C212" s="429"/>
       <c r="D212" s="135"/>
       <c r="E212" s="133"/>
       <c r="F212" s="133"/>
@@ -33803,8 +33804,8 @@
       <c r="BH212" s="171"/>
     </row>
     <row r="213" spans="2:60">
-      <c r="B213" s="417"/>
-      <c r="C213" s="412"/>
+      <c r="B213" s="414"/>
+      <c r="C213" s="416"/>
       <c r="D213" s="152"/>
       <c r="E213" s="144"/>
       <c r="F213" s="144"/>
@@ -33844,10 +33845,10 @@
       <c r="BH213" s="171"/>
     </row>
     <row r="214" spans="2:60">
-      <c r="B214" s="415" t="s">
+      <c r="B214" s="413" t="s">
         <v>453</v>
       </c>
-      <c r="C214" s="410">
+      <c r="C214" s="428">
         <v>1116</v>
       </c>
       <c r="D214" s="151" t="s">
@@ -33904,8 +33905,8 @@
       <c r="BH214" s="171"/>
     </row>
     <row r="215" spans="2:60">
-      <c r="B215" s="416"/>
-      <c r="C215" s="411"/>
+      <c r="B215" s="418"/>
+      <c r="C215" s="429"/>
       <c r="D215" s="135"/>
       <c r="E215" s="133" t="s">
         <v>294</v>
@@ -33945,8 +33946,8 @@
       <c r="BH215" s="171"/>
     </row>
     <row r="216" spans="2:60">
-      <c r="B216" s="416"/>
-      <c r="C216" s="411"/>
+      <c r="B216" s="418"/>
+      <c r="C216" s="429"/>
       <c r="D216" s="135"/>
       <c r="E216" s="133"/>
       <c r="F216" s="133" t="s">
@@ -33986,8 +33987,8 @@
       <c r="BH216" s="171"/>
     </row>
     <row r="217" spans="2:60">
-      <c r="B217" s="417"/>
-      <c r="C217" s="412"/>
+      <c r="B217" s="414"/>
+      <c r="C217" s="416"/>
       <c r="D217" s="152"/>
       <c r="E217" s="144"/>
       <c r="F217" s="144"/>
@@ -34027,10 +34028,10 @@
       <c r="BH217" s="171"/>
     </row>
     <row r="218" spans="2:60">
-      <c r="B218" s="415" t="s">
+      <c r="B218" s="413" t="s">
         <v>454</v>
       </c>
-      <c r="C218" s="410">
+      <c r="C218" s="428">
         <v>1188</v>
       </c>
       <c r="D218" s="151" t="s">
@@ -34096,8 +34097,8 @@
       <c r="BH218" s="171"/>
     </row>
     <row r="219" spans="2:60">
-      <c r="B219" s="416"/>
-      <c r="C219" s="411"/>
+      <c r="B219" s="418"/>
+      <c r="C219" s="429"/>
       <c r="D219" s="135"/>
       <c r="E219" s="133" t="s">
         <v>455</v>
@@ -34137,8 +34138,8 @@
       <c r="BH219" s="171"/>
     </row>
     <row r="220" spans="2:60">
-      <c r="B220" s="416"/>
-      <c r="C220" s="411"/>
+      <c r="B220" s="418"/>
+      <c r="C220" s="429"/>
       <c r="D220" s="135"/>
       <c r="E220" s="133"/>
       <c r="F220" s="133" t="s">
@@ -34178,8 +34179,8 @@
       <c r="BH220" s="171"/>
     </row>
     <row r="221" spans="2:60">
-      <c r="B221" s="416"/>
-      <c r="C221" s="411"/>
+      <c r="B221" s="418"/>
+      <c r="C221" s="429"/>
       <c r="D221" s="135"/>
       <c r="E221" s="133"/>
       <c r="F221" s="133"/>
@@ -34219,8 +34220,8 @@
       <c r="BH221" s="171"/>
     </row>
     <row r="222" spans="2:60">
-      <c r="B222" s="416"/>
-      <c r="C222" s="411"/>
+      <c r="B222" s="418"/>
+      <c r="C222" s="429"/>
       <c r="D222" s="135"/>
       <c r="E222" s="133"/>
       <c r="F222" s="133"/>
@@ -34260,8 +34261,8 @@
       <c r="BH222" s="171"/>
     </row>
     <row r="223" spans="2:60">
-      <c r="B223" s="416"/>
-      <c r="C223" s="411"/>
+      <c r="B223" s="418"/>
+      <c r="C223" s="429"/>
       <c r="D223" s="135"/>
       <c r="E223" s="133"/>
       <c r="F223" s="133"/>
@@ -34301,8 +34302,8 @@
       <c r="BH223" s="171"/>
     </row>
     <row r="224" spans="2:60">
-      <c r="B224" s="417"/>
-      <c r="C224" s="412"/>
+      <c r="B224" s="414"/>
+      <c r="C224" s="416"/>
       <c r="D224" s="152"/>
       <c r="E224" s="144"/>
       <c r="F224" s="144"/>
@@ -34399,10 +34400,10 @@
       <c r="BH225" s="171"/>
     </row>
     <row r="226" spans="2:60">
-      <c r="B226" s="415" t="s">
+      <c r="B226" s="413" t="s">
         <v>457</v>
       </c>
-      <c r="C226" s="410">
+      <c r="C226" s="428">
         <v>1272</v>
       </c>
       <c r="D226" s="185" t="s">
@@ -34481,8 +34482,8 @@
       <c r="BH226" s="171"/>
     </row>
     <row r="227" spans="2:60">
-      <c r="B227" s="416"/>
-      <c r="C227" s="411"/>
+      <c r="B227" s="418"/>
+      <c r="C227" s="429"/>
       <c r="D227" s="135"/>
       <c r="E227" s="133" t="s">
         <v>399</v>
@@ -34522,8 +34523,8 @@
       <c r="BH227" s="171"/>
     </row>
     <row r="228" spans="2:60">
-      <c r="B228" s="416"/>
-      <c r="C228" s="411"/>
+      <c r="B228" s="418"/>
+      <c r="C228" s="429"/>
       <c r="D228" s="135"/>
       <c r="E228" s="133"/>
       <c r="F228" s="133" t="s">
@@ -34563,8 +34564,8 @@
       <c r="BH228" s="171"/>
     </row>
     <row r="229" spans="2:60">
-      <c r="B229" s="416"/>
-      <c r="C229" s="411"/>
+      <c r="B229" s="418"/>
+      <c r="C229" s="429"/>
       <c r="D229" s="217"/>
       <c r="E229" s="240"/>
       <c r="F229" s="240"/>
@@ -34608,8 +34609,8 @@
       <c r="BH229" s="171"/>
     </row>
     <row r="230" spans="2:60">
-      <c r="B230" s="416"/>
-      <c r="C230" s="411"/>
+      <c r="B230" s="418"/>
+      <c r="C230" s="429"/>
       <c r="D230" s="135"/>
       <c r="E230" s="133"/>
       <c r="F230" s="133"/>
@@ -34649,8 +34650,8 @@
       <c r="BH230" s="171"/>
     </row>
     <row r="231" spans="2:60">
-      <c r="B231" s="416"/>
-      <c r="C231" s="411"/>
+      <c r="B231" s="418"/>
+      <c r="C231" s="429"/>
       <c r="D231" s="135"/>
       <c r="E231" s="133"/>
       <c r="F231" s="133"/>
@@ -34690,8 +34691,8 @@
       <c r="BH231" s="171"/>
     </row>
     <row r="232" spans="2:60">
-      <c r="B232" s="424"/>
-      <c r="C232" s="414"/>
+      <c r="B232" s="419"/>
+      <c r="C232" s="432"/>
       <c r="D232" s="152"/>
       <c r="E232" s="144"/>
       <c r="F232" s="144"/>
@@ -34731,10 +34732,10 @@
       <c r="BH232" s="171"/>
     </row>
     <row r="233" spans="2:60">
-      <c r="B233" s="416" t="s">
+      <c r="B233" s="418" t="s">
         <v>460</v>
       </c>
-      <c r="C233" s="411">
+      <c r="C233" s="429">
         <v>1274</v>
       </c>
       <c r="D233" s="151" t="s">
@@ -34785,8 +34786,8 @@
       <c r="BH233" s="171"/>
     </row>
     <row r="234" spans="2:60">
-      <c r="B234" s="417"/>
-      <c r="C234" s="412"/>
+      <c r="B234" s="414"/>
+      <c r="C234" s="416"/>
       <c r="D234" s="152"/>
       <c r="E234" s="144" t="s">
         <v>294</v>
@@ -34974,10 +34975,10 @@
       <c r="BH236" s="171"/>
     </row>
     <row r="237" spans="2:60">
-      <c r="B237" s="415" t="s">
+      <c r="B237" s="413" t="s">
         <v>470</v>
       </c>
-      <c r="C237" s="410">
+      <c r="C237" s="428">
         <v>1362</v>
       </c>
       <c r="D237" s="151" t="s">
@@ -35028,8 +35029,8 @@
       <c r="BH237" s="171"/>
     </row>
     <row r="238" spans="2:60">
-      <c r="B238" s="417"/>
-      <c r="C238" s="412"/>
+      <c r="B238" s="414"/>
+      <c r="C238" s="416"/>
       <c r="D238" s="152"/>
       <c r="E238" s="144" t="s">
         <v>339</v>
@@ -35069,10 +35070,10 @@
       <c r="BH238" s="171"/>
     </row>
     <row r="239" spans="2:60">
-      <c r="B239" s="415" t="s">
+      <c r="B239" s="413" t="s">
         <v>471</v>
       </c>
-      <c r="C239" s="410">
+      <c r="C239" s="428">
         <v>1373</v>
       </c>
       <c r="D239" s="151" t="s">
@@ -35141,8 +35142,8 @@
       <c r="BH239" s="171"/>
     </row>
     <row r="240" spans="2:60">
-      <c r="B240" s="416"/>
-      <c r="C240" s="411"/>
+      <c r="B240" s="418"/>
+      <c r="C240" s="429"/>
       <c r="D240" s="135"/>
       <c r="E240" s="133" t="s">
         <v>472</v>
@@ -35182,8 +35183,8 @@
       <c r="BH240" s="171"/>
     </row>
     <row r="241" spans="2:60">
-      <c r="B241" s="416"/>
-      <c r="C241" s="411"/>
+      <c r="B241" s="418"/>
+      <c r="C241" s="429"/>
       <c r="D241" s="135"/>
       <c r="E241" s="133"/>
       <c r="F241" s="133" t="s">
@@ -35223,8 +35224,8 @@
       <c r="BH241" s="171"/>
     </row>
     <row r="242" spans="2:60">
-      <c r="B242" s="416"/>
-      <c r="C242" s="411"/>
+      <c r="B242" s="418"/>
+      <c r="C242" s="429"/>
       <c r="D242" s="135"/>
       <c r="E242" s="133"/>
       <c r="F242" s="133"/>
@@ -35264,8 +35265,8 @@
       <c r="BH242" s="171"/>
     </row>
     <row r="243" spans="2:60">
-      <c r="B243" s="416"/>
-      <c r="C243" s="411"/>
+      <c r="B243" s="418"/>
+      <c r="C243" s="429"/>
       <c r="D243" s="135"/>
       <c r="E243" s="133"/>
       <c r="F243" s="133"/>
@@ -35305,8 +35306,8 @@
       <c r="BH243" s="171"/>
     </row>
     <row r="244" spans="2:60">
-      <c r="B244" s="416"/>
-      <c r="C244" s="411"/>
+      <c r="B244" s="418"/>
+      <c r="C244" s="429"/>
       <c r="D244" s="135"/>
       <c r="E244" s="133"/>
       <c r="F244" s="133"/>
@@ -35346,8 +35347,8 @@
       <c r="BH244" s="171"/>
     </row>
     <row r="245" spans="2:60">
-      <c r="B245" s="416"/>
-      <c r="C245" s="411"/>
+      <c r="B245" s="418"/>
+      <c r="C245" s="429"/>
       <c r="D245" s="135"/>
       <c r="E245" s="133"/>
       <c r="F245" s="133"/>
@@ -35387,8 +35388,8 @@
       <c r="BH245" s="171"/>
     </row>
     <row r="246" spans="2:60">
-      <c r="B246" s="417"/>
-      <c r="C246" s="412"/>
+      <c r="B246" s="414"/>
+      <c r="C246" s="416"/>
       <c r="D246" s="192"/>
       <c r="E246" s="193"/>
       <c r="F246" s="193"/>
@@ -35432,10 +35433,10 @@
       <c r="BH246" s="171"/>
     </row>
     <row r="247" spans="2:60">
-      <c r="B247" s="415" t="s">
+      <c r="B247" s="413" t="s">
         <v>476</v>
       </c>
-      <c r="C247" s="410">
+      <c r="C247" s="428">
         <v>1379</v>
       </c>
       <c r="D247" s="151" t="s">
@@ -35486,8 +35487,8 @@
       <c r="BH247" s="171"/>
     </row>
     <row r="248" spans="2:60">
-      <c r="B248" s="417"/>
-      <c r="C248" s="412"/>
+      <c r="B248" s="414"/>
+      <c r="C248" s="416"/>
       <c r="D248" s="152"/>
       <c r="E248" s="144" t="s">
         <v>430</v>
@@ -35527,10 +35528,10 @@
       <c r="BH248" s="171"/>
     </row>
     <row r="249" spans="2:60">
-      <c r="B249" s="415" t="s">
+      <c r="B249" s="413" t="s">
         <v>477</v>
       </c>
-      <c r="C249" s="410">
+      <c r="C249" s="428">
         <v>1380</v>
       </c>
       <c r="D249" s="151" t="s">
@@ -35581,8 +35582,8 @@
       <c r="BH249" s="171"/>
     </row>
     <row r="250" spans="2:60">
-      <c r="B250" s="417"/>
-      <c r="C250" s="412"/>
+      <c r="B250" s="414"/>
+      <c r="C250" s="416"/>
       <c r="D250" s="152"/>
       <c r="E250" s="144" t="s">
         <v>428</v>
@@ -35622,10 +35623,10 @@
       <c r="BH250" s="171"/>
     </row>
     <row r="251" spans="2:60">
-      <c r="B251" s="415" t="s">
+      <c r="B251" s="413" t="s">
         <v>478</v>
       </c>
-      <c r="C251" s="410">
+      <c r="C251" s="428">
         <v>1397</v>
       </c>
       <c r="D251" s="151" t="s">
@@ -35676,8 +35677,8 @@
       <c r="BH251" s="171"/>
     </row>
     <row r="252" spans="2:60">
-      <c r="B252" s="417"/>
-      <c r="C252" s="412"/>
+      <c r="B252" s="414"/>
+      <c r="C252" s="416"/>
       <c r="D252" s="152"/>
       <c r="E252" s="144" t="s">
         <v>399</v>
@@ -35717,10 +35718,10 @@
       <c r="BH252" s="171"/>
     </row>
     <row r="253" spans="2:60">
-      <c r="B253" s="415" t="s">
+      <c r="B253" s="413" t="s">
         <v>480</v>
       </c>
-      <c r="C253" s="410">
+      <c r="C253" s="428">
         <v>1401</v>
       </c>
       <c r="D253" s="151" t="s">
@@ -35789,8 +35790,8 @@
       <c r="BH253" s="171"/>
     </row>
     <row r="254" spans="2:60">
-      <c r="B254" s="416"/>
-      <c r="C254" s="411"/>
+      <c r="B254" s="418"/>
+      <c r="C254" s="429"/>
       <c r="D254" s="135"/>
       <c r="E254" s="133" t="s">
         <v>481</v>
@@ -35830,8 +35831,8 @@
       <c r="BH254" s="171"/>
     </row>
     <row r="255" spans="2:60">
-      <c r="B255" s="416"/>
-      <c r="C255" s="411"/>
+      <c r="B255" s="418"/>
+      <c r="C255" s="429"/>
       <c r="D255" s="135"/>
       <c r="E255" s="133"/>
       <c r="F255" s="133" t="s">
@@ -35871,8 +35872,8 @@
       <c r="BH255" s="171"/>
     </row>
     <row r="256" spans="2:60">
-      <c r="B256" s="416"/>
-      <c r="C256" s="411"/>
+      <c r="B256" s="418"/>
+      <c r="C256" s="429"/>
       <c r="D256" s="135"/>
       <c r="E256" s="133"/>
       <c r="F256" s="133"/>
@@ -35912,8 +35913,8 @@
       <c r="BH256" s="171"/>
     </row>
     <row r="257" spans="2:60">
-      <c r="B257" s="416"/>
-      <c r="C257" s="411"/>
+      <c r="B257" s="418"/>
+      <c r="C257" s="429"/>
       <c r="D257" s="135"/>
       <c r="E257" s="133"/>
       <c r="F257" s="133"/>
@@ -35953,8 +35954,8 @@
       <c r="BH257" s="171"/>
     </row>
     <row r="258" spans="2:60">
-      <c r="B258" s="416"/>
-      <c r="C258" s="411"/>
+      <c r="B258" s="418"/>
+      <c r="C258" s="429"/>
       <c r="D258" s="135"/>
       <c r="E258" s="133"/>
       <c r="F258" s="133"/>
@@ -35994,8 +35995,8 @@
       <c r="BH258" s="171"/>
     </row>
     <row r="259" spans="2:60">
-      <c r="B259" s="416"/>
-      <c r="C259" s="411"/>
+      <c r="B259" s="418"/>
+      <c r="C259" s="429"/>
       <c r="D259" s="135"/>
       <c r="E259" s="133"/>
       <c r="F259" s="133"/>
@@ -36035,8 +36036,8 @@
       <c r="BH259" s="171"/>
     </row>
     <row r="260" spans="2:60">
-      <c r="B260" s="417"/>
-      <c r="C260" s="412"/>
+      <c r="B260" s="414"/>
+      <c r="C260" s="416"/>
       <c r="D260" s="152"/>
       <c r="E260" s="144"/>
       <c r="F260" s="144"/>
@@ -36076,10 +36077,10 @@
       <c r="BH260" s="171"/>
     </row>
     <row r="261" spans="2:60">
-      <c r="B261" s="415" t="s">
+      <c r="B261" s="413" t="s">
         <v>483</v>
       </c>
-      <c r="C261" s="410">
+      <c r="C261" s="428">
         <v>1430</v>
       </c>
       <c r="D261" s="151" t="s">
@@ -36148,8 +36149,8 @@
       <c r="BH261" s="171"/>
     </row>
     <row r="262" spans="2:60">
-      <c r="B262" s="416"/>
-      <c r="C262" s="411"/>
+      <c r="B262" s="418"/>
+      <c r="C262" s="429"/>
       <c r="D262" s="135"/>
       <c r="E262" s="133" t="s">
         <v>481</v>
@@ -36189,8 +36190,8 @@
       <c r="BH262" s="171"/>
     </row>
     <row r="263" spans="2:60">
-      <c r="B263" s="416"/>
-      <c r="C263" s="411"/>
+      <c r="B263" s="418"/>
+      <c r="C263" s="429"/>
       <c r="D263" s="135"/>
       <c r="E263" s="133"/>
       <c r="F263" s="133" t="s">
@@ -36230,8 +36231,8 @@
       <c r="BH263" s="171"/>
     </row>
     <row r="264" spans="2:60">
-      <c r="B264" s="416"/>
-      <c r="C264" s="411"/>
+      <c r="B264" s="418"/>
+      <c r="C264" s="429"/>
       <c r="D264" s="135"/>
       <c r="E264" s="133"/>
       <c r="F264" s="133"/>
@@ -36271,8 +36272,8 @@
       <c r="BH264" s="171"/>
     </row>
     <row r="265" spans="2:60">
-      <c r="B265" s="416"/>
-      <c r="C265" s="411"/>
+      <c r="B265" s="418"/>
+      <c r="C265" s="429"/>
       <c r="D265" s="135"/>
       <c r="E265" s="133"/>
       <c r="F265" s="133"/>
@@ -36312,8 +36313,8 @@
       <c r="BH265" s="171"/>
     </row>
     <row r="266" spans="2:60">
-      <c r="B266" s="416"/>
-      <c r="C266" s="411"/>
+      <c r="B266" s="418"/>
+      <c r="C266" s="429"/>
       <c r="D266" s="135"/>
       <c r="E266" s="133"/>
       <c r="F266" s="133"/>
@@ -36353,8 +36354,8 @@
       <c r="BH266" s="171"/>
     </row>
     <row r="267" spans="2:60">
-      <c r="B267" s="416"/>
-      <c r="C267" s="411"/>
+      <c r="B267" s="418"/>
+      <c r="C267" s="429"/>
       <c r="D267" s="135"/>
       <c r="E267" s="133"/>
       <c r="F267" s="133"/>
@@ -36394,8 +36395,8 @@
       <c r="BH267" s="171"/>
     </row>
     <row r="268" spans="2:60">
-      <c r="B268" s="417"/>
-      <c r="C268" s="412"/>
+      <c r="B268" s="414"/>
+      <c r="C268" s="416"/>
       <c r="D268" s="152"/>
       <c r="E268" s="144"/>
       <c r="F268" s="144"/>
@@ -36435,10 +36436,10 @@
       <c r="BH268" s="171"/>
     </row>
     <row r="269" spans="2:60">
-      <c r="B269" s="415" t="s">
+      <c r="B269" s="413" t="s">
         <v>486</v>
       </c>
-      <c r="C269" s="410">
+      <c r="C269" s="428">
         <v>1486</v>
       </c>
       <c r="D269" s="151" t="s">
@@ -36492,8 +36493,8 @@
       <c r="BH269" s="171"/>
     </row>
     <row r="270" spans="2:60">
-      <c r="B270" s="416"/>
-      <c r="C270" s="411"/>
+      <c r="B270" s="418"/>
+      <c r="C270" s="429"/>
       <c r="D270" s="135"/>
       <c r="E270" s="133" t="s">
         <v>308</v>
@@ -36533,8 +36534,8 @@
       <c r="BH270" s="171"/>
     </row>
     <row r="271" spans="2:60">
-      <c r="B271" s="417"/>
-      <c r="C271" s="412"/>
+      <c r="B271" s="414"/>
+      <c r="C271" s="416"/>
       <c r="D271" s="152"/>
       <c r="E271" s="144"/>
       <c r="F271" s="144" t="s">
@@ -36574,10 +36575,10 @@
       <c r="BH271" s="171"/>
     </row>
     <row r="272" spans="2:60">
-      <c r="B272" s="415" t="s">
+      <c r="B272" s="413" t="s">
         <v>488</v>
       </c>
-      <c r="C272" s="410">
+      <c r="C272" s="428">
         <v>1495</v>
       </c>
       <c r="D272" s="185" t="s">
@@ -36650,8 +36651,8 @@
       <c r="BH272" s="171"/>
     </row>
     <row r="273" spans="2:60">
-      <c r="B273" s="416"/>
-      <c r="C273" s="411"/>
+      <c r="B273" s="418"/>
+      <c r="C273" s="429"/>
       <c r="D273" s="189"/>
       <c r="E273" s="237"/>
       <c r="F273" s="237" t="s">
@@ -36715,8 +36716,8 @@
       <c r="BH273" s="171"/>
     </row>
     <row r="274" spans="2:60">
-      <c r="B274" s="417"/>
-      <c r="C274" s="412"/>
+      <c r="B274" s="414"/>
+      <c r="C274" s="416"/>
       <c r="D274" s="152"/>
       <c r="E274" s="144"/>
       <c r="F274" s="144"/>
@@ -36756,10 +36757,10 @@
       <c r="BH274" s="171"/>
     </row>
     <row r="275" spans="2:60">
-      <c r="B275" s="415" t="s">
+      <c r="B275" s="413" t="s">
         <v>495</v>
       </c>
-      <c r="C275" s="410">
+      <c r="C275" s="428">
         <v>1498</v>
       </c>
       <c r="D275" s="185" t="s">
@@ -36839,8 +36840,8 @@
       <c r="BH275" s="171"/>
     </row>
     <row r="276" spans="2:60">
-      <c r="B276" s="416"/>
-      <c r="C276" s="411"/>
+      <c r="B276" s="418"/>
+      <c r="C276" s="429"/>
       <c r="D276" s="135"/>
       <c r="E276" s="133" t="s">
         <v>498</v>
@@ -36880,8 +36881,8 @@
       <c r="BH276" s="171"/>
     </row>
     <row r="277" spans="2:60">
-      <c r="B277" s="416"/>
-      <c r="C277" s="411"/>
+      <c r="B277" s="418"/>
+      <c r="C277" s="429"/>
       <c r="D277" s="135"/>
       <c r="E277" s="133"/>
       <c r="F277" s="133" t="s">
@@ -36921,8 +36922,8 @@
       <c r="BH277" s="171"/>
     </row>
     <row r="278" spans="2:60">
-      <c r="B278" s="416"/>
-      <c r="C278" s="411"/>
+      <c r="B278" s="418"/>
+      <c r="C278" s="429"/>
       <c r="D278" s="135"/>
       <c r="E278" s="133"/>
       <c r="F278" s="133"/>
@@ -36962,8 +36963,8 @@
       <c r="BH278" s="171"/>
     </row>
     <row r="279" spans="2:60">
-      <c r="B279" s="416"/>
-      <c r="C279" s="411"/>
+      <c r="B279" s="418"/>
+      <c r="C279" s="429"/>
       <c r="D279" s="135"/>
       <c r="E279" s="133"/>
       <c r="F279" s="133"/>
@@ -37003,8 +37004,8 @@
       <c r="BH279" s="171"/>
     </row>
     <row r="280" spans="2:60">
-      <c r="B280" s="416"/>
-      <c r="C280" s="411"/>
+      <c r="B280" s="418"/>
+      <c r="C280" s="429"/>
       <c r="D280" s="135"/>
       <c r="E280" s="133"/>
       <c r="F280" s="133"/>
@@ -37044,8 +37045,8 @@
       <c r="BH280" s="171"/>
     </row>
     <row r="281" spans="2:60">
-      <c r="B281" s="416"/>
-      <c r="C281" s="411"/>
+      <c r="B281" s="418"/>
+      <c r="C281" s="429"/>
       <c r="D281" s="135"/>
       <c r="E281" s="133"/>
       <c r="F281" s="133"/>
@@ -37085,8 +37086,8 @@
       <c r="BH281" s="171"/>
     </row>
     <row r="282" spans="2:60">
-      <c r="B282" s="417"/>
-      <c r="C282" s="414"/>
+      <c r="B282" s="414"/>
+      <c r="C282" s="432"/>
       <c r="D282" s="152"/>
       <c r="E282" s="144"/>
       <c r="F282" s="144"/>
@@ -37126,10 +37127,10 @@
       <c r="BH282" s="171"/>
     </row>
     <row r="283" spans="2:60">
-      <c r="B283" s="415" t="s">
+      <c r="B283" s="413" t="s">
         <v>242</v>
       </c>
-      <c r="C283" s="411">
+      <c r="C283" s="429">
         <v>1502</v>
       </c>
       <c r="D283" s="185" t="s">
@@ -37252,8 +37253,8 @@
       <c r="BH283" s="171"/>
     </row>
     <row r="284" spans="2:60">
-      <c r="B284" s="416"/>
-      <c r="C284" s="411"/>
+      <c r="B284" s="418"/>
+      <c r="C284" s="429"/>
       <c r="D284" s="189"/>
       <c r="E284" s="237" t="s">
         <v>294</v>
@@ -37315,8 +37316,8 @@
       <c r="BH284" s="171"/>
     </row>
     <row r="285" spans="2:60">
-      <c r="B285" s="416"/>
-      <c r="C285" s="411"/>
+      <c r="B285" s="418"/>
+      <c r="C285" s="429"/>
       <c r="D285" s="189"/>
       <c r="E285" s="237"/>
       <c r="F285" s="237" t="s">
@@ -37360,8 +37361,8 @@
       <c r="BH285" s="171"/>
     </row>
     <row r="286" spans="2:60">
-      <c r="B286" s="416"/>
-      <c r="C286" s="411"/>
+      <c r="B286" s="418"/>
+      <c r="C286" s="429"/>
       <c r="D286" s="135"/>
       <c r="E286" s="133"/>
       <c r="F286" s="133"/>
@@ -37401,8 +37402,8 @@
       <c r="BH286" s="171"/>
     </row>
     <row r="287" spans="2:60">
-      <c r="B287" s="416"/>
-      <c r="C287" s="411"/>
+      <c r="B287" s="418"/>
+      <c r="C287" s="429"/>
       <c r="D287" s="135"/>
       <c r="E287" s="133"/>
       <c r="F287" s="133"/>
@@ -37442,8 +37443,8 @@
       <c r="BH287" s="171"/>
     </row>
     <row r="288" spans="2:60">
-      <c r="B288" s="416"/>
-      <c r="C288" s="411"/>
+      <c r="B288" s="418"/>
+      <c r="C288" s="429"/>
       <c r="D288" s="135"/>
       <c r="E288" s="133"/>
       <c r="F288" s="133"/>
@@ -37483,8 +37484,8 @@
       <c r="BH288" s="171"/>
     </row>
     <row r="289" spans="2:60">
-      <c r="B289" s="416"/>
-      <c r="C289" s="411"/>
+      <c r="B289" s="418"/>
+      <c r="C289" s="429"/>
       <c r="D289" s="135"/>
       <c r="E289" s="133"/>
       <c r="F289" s="133"/>
@@ -37524,8 +37525,8 @@
       <c r="BH289" s="171"/>
     </row>
     <row r="290" spans="2:60">
-      <c r="B290" s="417"/>
-      <c r="C290" s="412"/>
+      <c r="B290" s="414"/>
+      <c r="C290" s="416"/>
       <c r="D290" s="192"/>
       <c r="E290" s="193"/>
       <c r="F290" s="193"/>
@@ -37569,10 +37570,10 @@
       <c r="BH290" s="171"/>
     </row>
     <row r="291" spans="2:60">
-      <c r="B291" s="415" t="s">
+      <c r="B291" s="413" t="s">
         <v>529</v>
       </c>
-      <c r="C291" s="410">
+      <c r="C291" s="428">
         <v>1503</v>
       </c>
       <c r="D291" s="151" t="s">
@@ -37623,8 +37624,8 @@
       <c r="BH291" s="171"/>
     </row>
     <row r="292" spans="2:60">
-      <c r="B292" s="417"/>
-      <c r="C292" s="412"/>
+      <c r="B292" s="414"/>
+      <c r="C292" s="416"/>
       <c r="D292" s="192"/>
       <c r="E292" s="193" t="s">
         <v>530</v>
@@ -37726,10 +37727,10 @@
       <c r="BH293" s="171"/>
     </row>
     <row r="294" spans="2:60">
-      <c r="B294" s="415" t="s">
+      <c r="B294" s="413" t="s">
         <v>534</v>
       </c>
-      <c r="C294" s="410">
+      <c r="C294" s="428">
         <v>1588</v>
       </c>
       <c r="D294" s="151" t="s">
@@ -37783,8 +37784,8 @@
       <c r="BH294" s="171"/>
     </row>
     <row r="295" spans="2:60">
-      <c r="B295" s="416"/>
-      <c r="C295" s="411"/>
+      <c r="B295" s="418"/>
+      <c r="C295" s="429"/>
       <c r="D295" s="135"/>
       <c r="E295" s="133" t="s">
         <v>294</v>
@@ -37824,8 +37825,8 @@
       <c r="BH295" s="171"/>
     </row>
     <row r="296" spans="2:60">
-      <c r="B296" s="417"/>
-      <c r="C296" s="412"/>
+      <c r="B296" s="414"/>
+      <c r="C296" s="416"/>
       <c r="D296" s="152"/>
       <c r="E296" s="144"/>
       <c r="F296" s="144" t="s">
@@ -37865,10 +37866,10 @@
       <c r="BH296" s="171"/>
     </row>
     <row r="297" spans="2:60">
-      <c r="B297" s="415" t="s">
+      <c r="B297" s="413" t="s">
         <v>535</v>
       </c>
-      <c r="C297" s="410">
+      <c r="C297" s="428">
         <v>1606</v>
       </c>
       <c r="D297" s="151" t="s">
@@ -37937,8 +37938,8 @@
       <c r="BH297" s="171"/>
     </row>
     <row r="298" spans="2:60">
-      <c r="B298" s="416"/>
-      <c r="C298" s="411"/>
+      <c r="B298" s="418"/>
+      <c r="C298" s="429"/>
       <c r="D298" s="135"/>
       <c r="E298" s="133" t="s">
         <v>334</v>
@@ -37978,8 +37979,8 @@
       <c r="BH298" s="171"/>
     </row>
     <row r="299" spans="2:60">
-      <c r="B299" s="416"/>
-      <c r="C299" s="411"/>
+      <c r="B299" s="418"/>
+      <c r="C299" s="429"/>
       <c r="D299" s="135"/>
       <c r="E299" s="133"/>
       <c r="F299" s="133" t="s">
@@ -38019,8 +38020,8 @@
       <c r="BH299" s="171"/>
     </row>
     <row r="300" spans="2:60">
-      <c r="B300" s="416"/>
-      <c r="C300" s="411"/>
+      <c r="B300" s="418"/>
+      <c r="C300" s="429"/>
       <c r="D300" s="135"/>
       <c r="E300" s="133"/>
       <c r="F300" s="133"/>
@@ -38060,8 +38061,8 @@
       <c r="BH300" s="171"/>
     </row>
     <row r="301" spans="2:60">
-      <c r="B301" s="416"/>
-      <c r="C301" s="411"/>
+      <c r="B301" s="418"/>
+      <c r="C301" s="429"/>
       <c r="D301" s="135"/>
       <c r="E301" s="133"/>
       <c r="F301" s="133"/>
@@ -38101,8 +38102,8 @@
       <c r="BH301" s="171"/>
     </row>
     <row r="302" spans="2:60">
-      <c r="B302" s="416"/>
-      <c r="C302" s="411"/>
+      <c r="B302" s="418"/>
+      <c r="C302" s="429"/>
       <c r="D302" s="135"/>
       <c r="E302" s="133"/>
       <c r="F302" s="133"/>
@@ -38142,8 +38143,8 @@
       <c r="BH302" s="171"/>
     </row>
     <row r="303" spans="2:60">
-      <c r="B303" s="416"/>
-      <c r="C303" s="411"/>
+      <c r="B303" s="418"/>
+      <c r="C303" s="429"/>
       <c r="D303" s="135"/>
       <c r="E303" s="133"/>
       <c r="F303" s="133"/>
@@ -38183,8 +38184,8 @@
       <c r="BH303" s="171"/>
     </row>
     <row r="304" spans="2:60">
-      <c r="B304" s="417"/>
-      <c r="C304" s="412"/>
+      <c r="B304" s="414"/>
+      <c r="C304" s="416"/>
       <c r="D304" s="152"/>
       <c r="E304" s="144"/>
       <c r="F304" s="144"/>
@@ -38224,10 +38225,10 @@
       <c r="BH304" s="171"/>
     </row>
     <row r="305" spans="2:60">
-      <c r="B305" s="415" t="s">
+      <c r="B305" s="413" t="s">
         <v>540</v>
       </c>
-      <c r="C305" s="410">
+      <c r="C305" s="428">
         <v>1608</v>
       </c>
       <c r="D305" s="151" t="s">
@@ -38296,8 +38297,8 @@
       <c r="BH305" s="171"/>
     </row>
     <row r="306" spans="2:60">
-      <c r="B306" s="416"/>
-      <c r="C306" s="411"/>
+      <c r="B306" s="418"/>
+      <c r="C306" s="429"/>
       <c r="D306" s="135"/>
       <c r="E306" s="133" t="s">
         <v>308</v>
@@ -38337,8 +38338,8 @@
       <c r="BH306" s="171"/>
     </row>
     <row r="307" spans="2:60">
-      <c r="B307" s="416"/>
-      <c r="C307" s="411"/>
+      <c r="B307" s="418"/>
+      <c r="C307" s="429"/>
       <c r="D307" s="135"/>
       <c r="E307" s="133"/>
       <c r="F307" s="133" t="s">
@@ -38378,8 +38379,8 @@
       <c r="BH307" s="171"/>
     </row>
     <row r="308" spans="2:60">
-      <c r="B308" s="416"/>
-      <c r="C308" s="411"/>
+      <c r="B308" s="418"/>
+      <c r="C308" s="429"/>
       <c r="D308" s="135"/>
       <c r="E308" s="133"/>
       <c r="F308" s="133"/>
@@ -38419,8 +38420,8 @@
       <c r="BH308" s="171"/>
     </row>
     <row r="309" spans="2:60">
-      <c r="B309" s="416"/>
-      <c r="C309" s="411"/>
+      <c r="B309" s="418"/>
+      <c r="C309" s="429"/>
       <c r="D309" s="135"/>
       <c r="E309" s="133"/>
       <c r="F309" s="133"/>
@@ -38460,8 +38461,8 @@
       <c r="BH309" s="171"/>
     </row>
     <row r="310" spans="2:60">
-      <c r="B310" s="416"/>
-      <c r="C310" s="411"/>
+      <c r="B310" s="418"/>
+      <c r="C310" s="429"/>
       <c r="D310" s="135"/>
       <c r="E310" s="133"/>
       <c r="F310" s="133"/>
@@ -38501,8 +38502,8 @@
       <c r="BH310" s="171"/>
     </row>
     <row r="311" spans="2:60">
-      <c r="B311" s="416"/>
-      <c r="C311" s="411"/>
+      <c r="B311" s="418"/>
+      <c r="C311" s="429"/>
       <c r="D311" s="135"/>
       <c r="E311" s="133"/>
       <c r="F311" s="133"/>
@@ -38542,8 +38543,8 @@
       <c r="BH311" s="171"/>
     </row>
     <row r="312" spans="2:60">
-      <c r="B312" s="417"/>
-      <c r="C312" s="412"/>
+      <c r="B312" s="414"/>
+      <c r="C312" s="416"/>
       <c r="D312" s="152"/>
       <c r="E312" s="144"/>
       <c r="F312" s="144"/>
@@ -38583,10 +38584,10 @@
       <c r="BH312" s="171"/>
     </row>
     <row r="313" spans="2:60">
-      <c r="B313" s="415" t="s">
+      <c r="B313" s="413" t="s">
         <v>541</v>
       </c>
-      <c r="C313" s="410">
+      <c r="C313" s="428">
         <v>1619</v>
       </c>
       <c r="D313" s="151" t="s">
@@ -38643,8 +38644,8 @@
       <c r="BH313" s="171"/>
     </row>
     <row r="314" spans="2:60">
-      <c r="B314" s="416"/>
-      <c r="C314" s="411"/>
+      <c r="B314" s="418"/>
+      <c r="C314" s="429"/>
       <c r="D314" s="135"/>
       <c r="E314" s="133" t="s">
         <v>354</v>
@@ -38688,8 +38689,8 @@
       <c r="BH314" s="171"/>
     </row>
     <row r="315" spans="2:60">
-      <c r="B315" s="417"/>
-      <c r="C315" s="412"/>
+      <c r="B315" s="414"/>
+      <c r="C315" s="416"/>
       <c r="D315" s="152"/>
       <c r="E315" s="144"/>
       <c r="F315" s="144"/>
@@ -38729,10 +38730,10 @@
       <c r="BH315" s="171"/>
     </row>
     <row r="316" spans="2:60">
-      <c r="B316" s="415" t="s">
+      <c r="B316" s="413" t="s">
         <v>544</v>
       </c>
-      <c r="C316" s="410">
+      <c r="C316" s="428">
         <v>1623</v>
       </c>
       <c r="D316" s="135" t="s">
@@ -38783,8 +38784,8 @@
       <c r="BH316" s="171"/>
     </row>
     <row r="317" spans="2:60">
-      <c r="B317" s="417"/>
-      <c r="C317" s="412"/>
+      <c r="B317" s="414"/>
+      <c r="C317" s="416"/>
       <c r="D317" s="152"/>
       <c r="E317" s="144" t="s">
         <v>294</v>
@@ -38824,10 +38825,10 @@
       <c r="BH317" s="171"/>
     </row>
     <row r="318" spans="2:60">
-      <c r="B318" s="416" t="s">
+      <c r="B318" s="418" t="s">
         <v>545</v>
       </c>
-      <c r="C318" s="411">
+      <c r="C318" s="429">
         <v>1628</v>
       </c>
       <c r="D318" s="135" t="s">
@@ -38881,8 +38882,8 @@
       <c r="BH318" s="171"/>
     </row>
     <row r="319" spans="2:60">
-      <c r="B319" s="416"/>
-      <c r="C319" s="411"/>
+      <c r="B319" s="418"/>
+      <c r="C319" s="429"/>
       <c r="D319" s="135"/>
       <c r="E319" s="133" t="s">
         <v>366</v>
@@ -38922,8 +38923,8 @@
       <c r="BH319" s="171"/>
     </row>
     <row r="320" spans="2:60">
-      <c r="B320" s="417"/>
-      <c r="C320" s="412"/>
+      <c r="B320" s="414"/>
+      <c r="C320" s="416"/>
       <c r="D320" s="152"/>
       <c r="E320" s="144"/>
       <c r="F320" s="144" t="s">
@@ -38963,10 +38964,10 @@
       <c r="BH320" s="171"/>
     </row>
     <row r="321" spans="2:60">
-      <c r="B321" s="415" t="s">
+      <c r="B321" s="413" t="s">
         <v>547</v>
       </c>
-      <c r="C321" s="410">
+      <c r="C321" s="428">
         <v>1637</v>
       </c>
       <c r="D321" s="151" t="s">
@@ -39032,8 +39033,8 @@
       <c r="BH321" s="171"/>
     </row>
     <row r="322" spans="2:60">
-      <c r="B322" s="416"/>
-      <c r="C322" s="411"/>
+      <c r="B322" s="418"/>
+      <c r="C322" s="429"/>
       <c r="D322" s="135"/>
       <c r="E322" s="133" t="s">
         <v>300</v>
@@ -39073,8 +39074,8 @@
       <c r="BH322" s="171"/>
     </row>
     <row r="323" spans="2:60">
-      <c r="B323" s="416"/>
-      <c r="C323" s="411"/>
+      <c r="B323" s="418"/>
+      <c r="C323" s="429"/>
       <c r="D323" s="135"/>
       <c r="E323" s="133"/>
       <c r="F323" s="133" t="s">
@@ -39114,8 +39115,8 @@
       <c r="BH323" s="171"/>
     </row>
     <row r="324" spans="2:60">
-      <c r="B324" s="416"/>
-      <c r="C324" s="411"/>
+      <c r="B324" s="418"/>
+      <c r="C324" s="429"/>
       <c r="D324" s="135"/>
       <c r="E324" s="133"/>
       <c r="F324" s="133"/>
@@ -39155,8 +39156,8 @@
       <c r="BH324" s="171"/>
     </row>
     <row r="325" spans="2:60">
-      <c r="B325" s="416"/>
-      <c r="C325" s="411"/>
+      <c r="B325" s="418"/>
+      <c r="C325" s="429"/>
       <c r="D325" s="135"/>
       <c r="E325" s="133"/>
       <c r="F325" s="133"/>
@@ -39196,8 +39197,8 @@
       <c r="BH325" s="171"/>
     </row>
     <row r="326" spans="2:60">
-      <c r="B326" s="416"/>
-      <c r="C326" s="411"/>
+      <c r="B326" s="418"/>
+      <c r="C326" s="429"/>
       <c r="D326" s="135"/>
       <c r="E326" s="133"/>
       <c r="F326" s="133"/>
@@ -39237,8 +39238,8 @@
       <c r="BH326" s="171"/>
     </row>
     <row r="327" spans="2:60">
-      <c r="B327" s="417"/>
-      <c r="C327" s="412"/>
+      <c r="B327" s="414"/>
+      <c r="C327" s="416"/>
       <c r="D327" s="152"/>
       <c r="E327" s="144"/>
       <c r="F327" s="144"/>
@@ -39402,10 +39403,10 @@
       <c r="BH329" s="171"/>
     </row>
     <row r="330" spans="2:60">
-      <c r="B330" s="415" t="s">
+      <c r="B330" s="413" t="s">
         <v>554</v>
       </c>
-      <c r="C330" s="410">
+      <c r="C330" s="428">
         <v>1642</v>
       </c>
       <c r="D330" s="185" t="s">
@@ -39478,8 +39479,8 @@
       <c r="BH330" s="171"/>
     </row>
     <row r="331" spans="2:60">
-      <c r="B331" s="416"/>
-      <c r="C331" s="411"/>
+      <c r="B331" s="418"/>
+      <c r="C331" s="429"/>
       <c r="D331" s="189"/>
       <c r="E331" s="237" t="s">
         <v>306</v>
@@ -39523,8 +39524,8 @@
       <c r="BH331" s="171"/>
     </row>
     <row r="332" spans="2:60">
-      <c r="B332" s="416"/>
-      <c r="C332" s="411"/>
+      <c r="B332" s="418"/>
+      <c r="C332" s="429"/>
       <c r="D332" s="135"/>
       <c r="E332" s="133"/>
       <c r="F332" s="133" t="s">
@@ -39564,8 +39565,8 @@
       <c r="BH332" s="171"/>
     </row>
     <row r="333" spans="2:60">
-      <c r="B333" s="416"/>
-      <c r="C333" s="411"/>
+      <c r="B333" s="418"/>
+      <c r="C333" s="429"/>
       <c r="D333" s="135"/>
       <c r="E333" s="133"/>
       <c r="F333" s="133"/>
@@ -39609,8 +39610,8 @@
       <c r="BH333" s="171"/>
     </row>
     <row r="334" spans="2:60">
-      <c r="B334" s="416"/>
-      <c r="C334" s="411"/>
+      <c r="B334" s="418"/>
+      <c r="C334" s="429"/>
       <c r="D334" s="135"/>
       <c r="E334" s="133"/>
       <c r="F334" s="133"/>
@@ -39650,8 +39651,8 @@
       <c r="BH334" s="171"/>
     </row>
     <row r="335" spans="2:60">
-      <c r="B335" s="416"/>
-      <c r="C335" s="411"/>
+      <c r="B335" s="418"/>
+      <c r="C335" s="429"/>
       <c r="D335" s="135"/>
       <c r="E335" s="133"/>
       <c r="F335" s="133"/>
@@ -39691,8 +39692,8 @@
       <c r="BH335" s="171"/>
     </row>
     <row r="336" spans="2:60">
-      <c r="B336" s="417"/>
-      <c r="C336" s="412"/>
+      <c r="B336" s="414"/>
+      <c r="C336" s="416"/>
       <c r="D336" s="192"/>
       <c r="E336" s="193"/>
       <c r="F336" s="193"/>
@@ -39736,10 +39737,10 @@
       <c r="BH336" s="171"/>
     </row>
     <row r="337" spans="2:60">
-      <c r="B337" s="415" t="s">
+      <c r="B337" s="413" t="s">
         <v>563</v>
       </c>
-      <c r="C337" s="410">
+      <c r="C337" s="428">
         <v>1649</v>
       </c>
       <c r="D337" s="151" t="s">
@@ -39790,8 +39791,8 @@
       <c r="BH337" s="171"/>
     </row>
     <row r="338" spans="2:60">
-      <c r="B338" s="417"/>
-      <c r="C338" s="412"/>
+      <c r="B338" s="414"/>
+      <c r="C338" s="416"/>
       <c r="D338" s="152"/>
       <c r="E338" s="144" t="s">
         <v>294</v>
@@ -39831,10 +39832,10 @@
       <c r="BH338" s="171"/>
     </row>
     <row r="339" spans="2:60">
-      <c r="B339" s="415" t="s">
+      <c r="B339" s="413" t="s">
         <v>564</v>
       </c>
-      <c r="C339" s="410">
+      <c r="C339" s="428">
         <v>1651</v>
       </c>
       <c r="D339" s="151" t="s">
@@ -39900,8 +39901,8 @@
       <c r="BH339" s="171"/>
     </row>
     <row r="340" spans="2:60">
-      <c r="B340" s="416"/>
-      <c r="C340" s="411"/>
+      <c r="B340" s="418"/>
+      <c r="C340" s="429"/>
       <c r="D340" s="135"/>
       <c r="E340" s="133" t="s">
         <v>294</v>
@@ -39941,8 +39942,8 @@
       <c r="BH340" s="171"/>
     </row>
     <row r="341" spans="2:60">
-      <c r="B341" s="416"/>
-      <c r="C341" s="411"/>
+      <c r="B341" s="418"/>
+      <c r="C341" s="429"/>
       <c r="D341" s="135"/>
       <c r="E341" s="133"/>
       <c r="F341" s="133" t="s">
@@ -39982,8 +39983,8 @@
       <c r="BH341" s="171"/>
     </row>
     <row r="342" spans="2:60">
-      <c r="B342" s="416"/>
-      <c r="C342" s="411"/>
+      <c r="B342" s="418"/>
+      <c r="C342" s="429"/>
       <c r="D342" s="135"/>
       <c r="E342" s="133"/>
       <c r="F342" s="133"/>
@@ -40023,8 +40024,8 @@
       <c r="BH342" s="171"/>
     </row>
     <row r="343" spans="2:60">
-      <c r="B343" s="416"/>
-      <c r="C343" s="411"/>
+      <c r="B343" s="418"/>
+      <c r="C343" s="429"/>
       <c r="D343" s="135"/>
       <c r="E343" s="133"/>
       <c r="F343" s="133"/>
@@ -40064,8 +40065,8 @@
       <c r="BH343" s="171"/>
     </row>
     <row r="344" spans="2:60">
-      <c r="B344" s="416"/>
-      <c r="C344" s="411"/>
+      <c r="B344" s="418"/>
+      <c r="C344" s="429"/>
       <c r="D344" s="135"/>
       <c r="E344" s="133"/>
       <c r="F344" s="133"/>
@@ -40105,8 +40106,8 @@
       <c r="BH344" s="171"/>
     </row>
     <row r="345" spans="2:60">
-      <c r="B345" s="417"/>
-      <c r="C345" s="412"/>
+      <c r="B345" s="414"/>
+      <c r="C345" s="416"/>
       <c r="D345" s="152"/>
       <c r="E345" s="144"/>
       <c r="F345" s="144"/>
@@ -40146,10 +40147,10 @@
       <c r="BH345" s="171"/>
     </row>
     <row r="346" spans="2:60">
-      <c r="B346" s="415" t="s">
+      <c r="B346" s="413" t="s">
         <v>566</v>
       </c>
-      <c r="C346" s="410">
+      <c r="C346" s="428">
         <v>1675</v>
       </c>
       <c r="D346" s="151" t="s">
@@ -40203,8 +40204,8 @@
       <c r="BH346" s="171"/>
     </row>
     <row r="347" spans="2:60">
-      <c r="B347" s="416"/>
-      <c r="C347" s="411"/>
+      <c r="B347" s="418"/>
+      <c r="C347" s="429"/>
       <c r="D347" s="135"/>
       <c r="E347" s="133" t="s">
         <v>349</v>
@@ -40244,8 +40245,8 @@
       <c r="BH347" s="171"/>
     </row>
     <row r="348" spans="2:60">
-      <c r="B348" s="417"/>
-      <c r="C348" s="412"/>
+      <c r="B348" s="414"/>
+      <c r="C348" s="416"/>
       <c r="D348" s="152"/>
       <c r="E348" s="144"/>
       <c r="F348" s="144" t="s">
@@ -40285,10 +40286,10 @@
       <c r="BH348" s="171"/>
     </row>
     <row r="349" spans="2:60">
-      <c r="B349" s="415" t="s">
+      <c r="B349" s="413" t="s">
         <v>568</v>
       </c>
-      <c r="C349" s="410">
+      <c r="C349" s="428">
         <v>1689</v>
       </c>
       <c r="D349" s="185" t="s">
@@ -40374,8 +40375,8 @@
       <c r="BH349" s="171"/>
     </row>
     <row r="350" spans="2:60">
-      <c r="B350" s="416"/>
-      <c r="C350" s="411"/>
+      <c r="B350" s="418"/>
+      <c r="C350" s="429"/>
       <c r="D350" s="189"/>
       <c r="E350" s="237" t="s">
         <v>412</v>
@@ -40482,8 +40483,8 @@
       <c r="BH350" s="171"/>
     </row>
     <row r="351" spans="2:60">
-      <c r="B351" s="416"/>
-      <c r="C351" s="411"/>
+      <c r="B351" s="418"/>
+      <c r="C351" s="429"/>
       <c r="D351" s="135"/>
       <c r="E351" s="133"/>
       <c r="F351" s="133" t="s">
@@ -40523,8 +40524,8 @@
       <c r="BH351" s="171"/>
     </row>
     <row r="352" spans="2:60">
-      <c r="B352" s="416"/>
-      <c r="C352" s="411"/>
+      <c r="B352" s="418"/>
+      <c r="C352" s="429"/>
       <c r="D352" s="189"/>
       <c r="E352" s="237"/>
       <c r="F352" s="237"/>
@@ -40618,8 +40619,8 @@
       <c r="BH352" s="171"/>
     </row>
     <row r="353" spans="2:60">
-      <c r="B353" s="416"/>
-      <c r="C353" s="411"/>
+      <c r="B353" s="418"/>
+      <c r="C353" s="429"/>
       <c r="D353" s="135"/>
       <c r="E353" s="133"/>
       <c r="F353" s="133"/>
@@ -40659,8 +40660,8 @@
       <c r="BH353" s="171"/>
     </row>
     <row r="354" spans="2:60">
-      <c r="B354" s="416"/>
-      <c r="C354" s="411"/>
+      <c r="B354" s="418"/>
+      <c r="C354" s="429"/>
       <c r="D354" s="135"/>
       <c r="E354" s="133"/>
       <c r="F354" s="133"/>
@@ -40700,8 +40701,8 @@
       <c r="BH354" s="171"/>
     </row>
     <row r="355" spans="2:60">
-      <c r="B355" s="416"/>
-      <c r="C355" s="411"/>
+      <c r="B355" s="418"/>
+      <c r="C355" s="429"/>
       <c r="D355" s="135"/>
       <c r="E355" s="133"/>
       <c r="F355" s="133"/>
@@ -40741,8 +40742,8 @@
       <c r="BH355" s="171"/>
     </row>
     <row r="356" spans="2:60">
-      <c r="B356" s="417"/>
-      <c r="C356" s="412"/>
+      <c r="B356" s="414"/>
+      <c r="C356" s="416"/>
       <c r="D356" s="135"/>
       <c r="E356" s="133"/>
       <c r="F356" s="133"/>
@@ -40782,10 +40783,10 @@
       <c r="BH356" s="171"/>
     </row>
     <row r="357" spans="2:60">
-      <c r="B357" s="415" t="s">
+      <c r="B357" s="413" t="s">
         <v>602</v>
       </c>
-      <c r="C357" s="427">
+      <c r="C357" s="415">
         <v>1695</v>
       </c>
       <c r="D357" s="226" t="s">
@@ -40838,8 +40839,8 @@
       <c r="BH357" s="171"/>
     </row>
     <row r="358" spans="2:60">
-      <c r="B358" s="417"/>
-      <c r="C358" s="412"/>
+      <c r="B358" s="414"/>
+      <c r="C358" s="416"/>
       <c r="D358" s="135"/>
       <c r="E358" s="133"/>
       <c r="F358" s="133"/>
@@ -40867,10 +40868,10 @@
       <c r="BH358" s="171"/>
     </row>
     <row r="359" spans="2:60">
-      <c r="B359" s="415" t="s">
+      <c r="B359" s="413" t="s">
         <v>608</v>
       </c>
-      <c r="C359" s="410">
+      <c r="C359" s="428">
         <v>1787</v>
       </c>
       <c r="D359" s="151" t="s">
@@ -40939,8 +40940,8 @@
       <c r="BH359" s="171"/>
     </row>
     <row r="360" spans="2:60">
-      <c r="B360" s="416"/>
-      <c r="C360" s="411"/>
+      <c r="B360" s="418"/>
+      <c r="C360" s="429"/>
       <c r="D360" s="135"/>
       <c r="E360" s="133" t="s">
         <v>347</v>
@@ -40980,8 +40981,8 @@
       <c r="BH360" s="171"/>
     </row>
     <row r="361" spans="2:60">
-      <c r="B361" s="416"/>
-      <c r="C361" s="411"/>
+      <c r="B361" s="418"/>
+      <c r="C361" s="429"/>
       <c r="D361" s="135"/>
       <c r="E361" s="133"/>
       <c r="F361" s="133" t="s">
@@ -41021,8 +41022,8 @@
       <c r="BH361" s="171"/>
     </row>
     <row r="362" spans="2:60">
-      <c r="B362" s="416"/>
-      <c r="C362" s="411"/>
+      <c r="B362" s="418"/>
+      <c r="C362" s="429"/>
       <c r="D362" s="189"/>
       <c r="E362" s="237"/>
       <c r="F362" s="237"/>
@@ -41071,8 +41072,8 @@
       <c r="BH362" s="171"/>
     </row>
     <row r="363" spans="2:60">
-      <c r="B363" s="416"/>
-      <c r="C363" s="411"/>
+      <c r="B363" s="418"/>
+      <c r="C363" s="429"/>
       <c r="D363" s="135"/>
       <c r="E363" s="133"/>
       <c r="F363" s="133"/>
@@ -41112,8 +41113,8 @@
       <c r="BH363" s="171"/>
     </row>
     <row r="364" spans="2:60">
-      <c r="B364" s="416"/>
-      <c r="C364" s="411"/>
+      <c r="B364" s="418"/>
+      <c r="C364" s="429"/>
       <c r="D364" s="135"/>
       <c r="E364" s="133"/>
       <c r="F364" s="133"/>
@@ -41153,8 +41154,8 @@
       <c r="BH364" s="171"/>
     </row>
     <row r="365" spans="2:60">
-      <c r="B365" s="416"/>
-      <c r="C365" s="411"/>
+      <c r="B365" s="418"/>
+      <c r="C365" s="429"/>
       <c r="D365" s="135"/>
       <c r="E365" s="133"/>
       <c r="F365" s="133"/>
@@ -41194,8 +41195,8 @@
       <c r="BH365" s="171"/>
     </row>
     <row r="366" spans="2:60">
-      <c r="B366" s="425"/>
-      <c r="C366" s="413"/>
+      <c r="B366" s="422"/>
+      <c r="C366" s="433"/>
       <c r="D366" s="245"/>
       <c r="E366" s="246"/>
       <c r="F366" s="246"/>
@@ -44470,6 +44471,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="C349:C356"/>
+    <mergeCell ref="C359:C366"/>
+    <mergeCell ref="C330:C336"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C339:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C297:C304"/>
+    <mergeCell ref="C305:C312"/>
+    <mergeCell ref="C313:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="C321:C327"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="C275:C282"/>
+    <mergeCell ref="C283:C290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="C239:C246"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C253:C260"/>
+    <mergeCell ref="C261:C268"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C198"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="B283:B290"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C78:C84"/>
+    <mergeCell ref="C85:C92"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C150:C157"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C161:C165"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="C177:C184"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C137:C142"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B253:B260"/>
+    <mergeCell ref="B261:B268"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B198"/>
+    <mergeCell ref="B359:B366"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="B321:B327"/>
+    <mergeCell ref="B330:B336"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="B339:B345"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B297:B304"/>
+    <mergeCell ref="B305:B312"/>
+    <mergeCell ref="B313:B315"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="B346:B348"/>
+    <mergeCell ref="B349:B356"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="B177:B184"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B143:B149"/>
     <mergeCell ref="B357:B358"/>
     <mergeCell ref="C357:C358"/>
     <mergeCell ref="B3:B6"/>
@@ -44494,111 +44597,9 @@
     <mergeCell ref="B150:B157"/>
     <mergeCell ref="B158:B160"/>
     <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="B177:B184"/>
-    <mergeCell ref="B115:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B198"/>
-    <mergeCell ref="B359:B366"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="B321:B327"/>
-    <mergeCell ref="B330:B336"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="B339:B345"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B297:B304"/>
-    <mergeCell ref="B305:B312"/>
-    <mergeCell ref="B313:B315"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="B346:B348"/>
-    <mergeCell ref="B349:B356"/>
-    <mergeCell ref="B239:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B253:B260"/>
-    <mergeCell ref="B261:B268"/>
-    <mergeCell ref="B218:B224"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B283:B290"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C78:C84"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C107:C114"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C150:C157"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="C161:C165"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="C177:C184"/>
-    <mergeCell ref="C115:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C137:C142"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="C218:C224"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C191:C198"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="C275:C282"/>
-    <mergeCell ref="C283:C290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C239:C246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C253:C260"/>
-    <mergeCell ref="C261:C268"/>
-    <mergeCell ref="C349:C356"/>
-    <mergeCell ref="C359:C366"/>
-    <mergeCell ref="C330:C336"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="C339:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C297:C304"/>
-    <mergeCell ref="C305:C312"/>
-    <mergeCell ref="C313:C315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="C321:C327"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X45 L132:L513 L3:L95 L97:L130" xr:uid="{487816DF-7456-4A62-B2B3-1B9A44635D92}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45762,20 +45763,20 @@
         <f>B31/8</f>
         <v>3</v>
       </c>
-      <c r="AH31" s="431" t="s">
+      <c r="AH31" s="434" t="s">
         <v>617</v>
       </c>
-      <c r="AI31" s="431"/>
-      <c r="AJ31" s="431"/>
-      <c r="AK31" s="431"/>
-      <c r="AL31" s="431"/>
-      <c r="AM31" s="431"/>
-      <c r="AN31" s="431"/>
-      <c r="AO31" s="431"/>
-      <c r="AP31" s="431"/>
-      <c r="AQ31" s="431"/>
-      <c r="AR31" s="431"/>
-      <c r="AS31" s="431"/>
+      <c r="AI31" s="434"/>
+      <c r="AJ31" s="434"/>
+      <c r="AK31" s="434"/>
+      <c r="AL31" s="434"/>
+      <c r="AM31" s="434"/>
+      <c r="AN31" s="434"/>
+      <c r="AO31" s="434"/>
+      <c r="AP31" s="434"/>
+      <c r="AQ31" s="434"/>
+      <c r="AR31" s="434"/>
+      <c r="AS31" s="434"/>
     </row>
     <row r="32" spans="1:67">
       <c r="A32" s="181">
@@ -47009,7 +47010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="144.75">
+    <row r="53" spans="1:30" ht="143.25">
       <c r="K53" s="210" t="s">
         <v>623</v>
       </c>
@@ -47018,27 +47019,27 @@
       <c r="A54" s="174">
         <v>653</v>
       </c>
-      <c r="G54" s="432" t="s">
+      <c r="G54" s="435" t="s">
         <v>624</v>
       </c>
-      <c r="H54" s="432"/>
-      <c r="I54" s="432" t="s">
+      <c r="H54" s="435"/>
+      <c r="I54" s="435" t="s">
         <v>625</v>
       </c>
-      <c r="J54" s="432"/>
+      <c r="J54" s="435"/>
       <c r="K54" s="208"/>
-      <c r="M54" s="432" t="s">
+      <c r="M54" s="435" t="s">
         <v>626</v>
       </c>
-      <c r="N54" s="432"/>
-      <c r="O54" s="432" t="s">
+      <c r="N54" s="435"/>
+      <c r="O54" s="435" t="s">
         <v>627</v>
       </c>
-      <c r="P54" s="432"/>
-      <c r="Q54" s="433" t="s">
+      <c r="P54" s="435"/>
+      <c r="Q54" s="436" t="s">
         <v>628</v>
       </c>
-      <c r="R54" s="433"/>
+      <c r="R54" s="436"/>
     </row>
     <row r="55" spans="1:30">
       <c r="B55" s="133" t="s">
